--- a/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
+++ b/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HO102"/>
+  <dimension ref="A1:HP102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1025,6 +1025,9 @@
       <c r="HO1" t="n">
         <v>10320</v>
       </c>
+      <c r="HP1" t="n">
+        <v>10328</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1698,6 +1701,9 @@
       <c r="HO2" t="n">
         <v>2020</v>
       </c>
+      <c r="HP2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2371,6 +2377,9 @@
       <c r="HO3" t="n">
         <v>25</v>
       </c>
+      <c r="HP3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3044,6 +3053,9 @@
       <c r="HO4" t="n">
         <v>1</v>
       </c>
+      <c r="HP4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3717,6 +3729,9 @@
       <c r="HO5" t="n">
         <v>0</v>
       </c>
+      <c r="HP5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4390,6 +4405,9 @@
       <c r="HO6" t="n">
         <v>64</v>
       </c>
+      <c r="HP6" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5063,6 +5081,9 @@
       <c r="HO7" t="n">
         <v>67</v>
       </c>
+      <c r="HP7" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5736,6 +5757,9 @@
       <c r="HO8" t="n">
         <v>-3</v>
       </c>
+      <c r="HP8" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6409,6 +6433,9 @@
       <c r="HO9" t="n">
         <v>0</v>
       </c>
+      <c r="HP9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7082,6 +7109,9 @@
       <c r="HO10" t="n">
         <v>15</v>
       </c>
+      <c r="HP10" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7755,6 +7785,9 @@
       <c r="HO11" t="n">
         <v>175</v>
       </c>
+      <c r="HP11" t="n">
+        <v>259</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8428,6 +8461,9 @@
       <c r="HO12" t="n">
         <v>122</v>
       </c>
+      <c r="HP12" t="n">
+        <v>206</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9101,6 +9137,9 @@
       <c r="HO13" t="n">
         <v>297</v>
       </c>
+      <c r="HP13" t="n">
+        <v>465</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9774,6 +9813,9 @@
       <c r="HO14" t="n">
         <v>1.43</v>
       </c>
+      <c r="HP14" t="n">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10447,6 +10489,9 @@
       <c r="HO15" t="n">
         <v>75</v>
       </c>
+      <c r="HP15" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11120,6 +11165,9 @@
       <c r="HO16" t="n">
         <v>41</v>
       </c>
+      <c r="HP16" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11793,6 +11841,9 @@
       <c r="HO17" t="n">
         <v>9</v>
       </c>
+      <c r="HP17" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12466,6 +12517,9 @@
       <c r="HO18" t="n">
         <v>15</v>
       </c>
+      <c r="HP18" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13139,6 +13193,9 @@
       <c r="HO19" t="n">
         <v>8</v>
       </c>
+      <c r="HP19" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13812,6 +13869,9 @@
       <c r="HO20" t="n">
         <v>9</v>
       </c>
+      <c r="HP20" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14485,6 +14545,9 @@
       <c r="HO21" t="n">
         <v>4</v>
       </c>
+      <c r="HP21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15158,6 +15221,9 @@
       <c r="HO22" t="n">
         <v>10</v>
       </c>
+      <c r="HP22" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15831,6 +15897,9 @@
       <c r="HO23" t="n">
         <v>0</v>
       </c>
+      <c r="HP23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16504,6 +16573,9 @@
       <c r="HO24" t="n">
         <v>19</v>
       </c>
+      <c r="HP24" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17177,6 +17249,9 @@
       <c r="HO25" t="n">
         <v>47.4</v>
       </c>
+      <c r="HP25" t="n">
+        <v>52.6</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17850,6 +17925,9 @@
       <c r="HO26" t="n">
         <v>33</v>
       </c>
+      <c r="HP26" t="n">
+        <v>46.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18523,6 +18601,9 @@
       <c r="HO27" t="n">
         <v>15.63</v>
       </c>
+      <c r="HP27" t="n">
+        <v>24.47</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19196,6 +19277,9 @@
       <c r="HO28" t="n">
         <v>26</v>
       </c>
+      <c r="HP28" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19869,6 +19953,9 @@
       <c r="HO29" t="n">
         <v>27</v>
       </c>
+      <c r="HP29" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20542,6 +20629,9 @@
       <c r="HO30" t="n">
         <v>24</v>
       </c>
+      <c r="HP30" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21215,6 +21305,9 @@
       <c r="HO31" t="n">
         <v>50</v>
       </c>
+      <c r="HP31" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21888,6 +21981,9 @@
       <c r="HO32" t="n">
         <v>2.63</v>
       </c>
+      <c r="HP32" t="n">
+        <v>3.11</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22561,6 +22657,9 @@
       <c r="HO33" t="n">
         <v>5.56</v>
       </c>
+      <c r="HP33" t="n">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23234,6 +23333,9 @@
       <c r="HO34" t="n">
         <v>38</v>
       </c>
+      <c r="HP34" t="n">
+        <v>27.1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -23907,6 +24009,9 @@
       <c r="HO35" t="n">
         <v>18</v>
       </c>
+      <c r="HP35" t="n">
+        <v>16.9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24580,6 +24685,9 @@
       <c r="HO36" t="n">
         <v>187.9</v>
       </c>
+      <c r="HP36" t="n">
+        <v>187.7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25253,6 +25361,9 @@
       <c r="HO37" t="n">
         <v>85.59999999999999</v>
       </c>
+      <c r="HP37" t="n">
+        <v>86.09999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -25926,6 +26037,9 @@
       <c r="HO38" t="n">
         <v>25.24</v>
       </c>
+      <c r="HP38" t="n">
+        <v>25.58</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26599,6 +26713,9 @@
       <c r="HO39" t="n">
         <v>95.59999999999999</v>
       </c>
+      <c r="HP39" t="n">
+        <v>88.8</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27272,6 +27389,9 @@
       <c r="HO40" t="n">
         <v>6</v>
       </c>
+      <c r="HP40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -27945,6 +28065,9 @@
       <c r="HO41" t="n">
         <v>5</v>
       </c>
+      <c r="HP41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -28618,6 +28741,9 @@
       <c r="HO42" t="n">
         <v>8</v>
       </c>
+      <c r="HP42" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -29291,6 +29417,9 @@
       <c r="HO43" t="n">
         <v>3</v>
       </c>
+      <c r="HP43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -29964,6 +30093,9 @@
       <c r="HO44" t="n">
         <v>110</v>
       </c>
+      <c r="HP44" t="n">
+        <v>156</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -30637,6 +30769,9 @@
       <c r="HO45" t="n">
         <v>179</v>
       </c>
+      <c r="HP45" t="n">
+        <v>304</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -31310,6 +31445,9 @@
       <c r="HO46" t="n">
         <v>223</v>
       </c>
+      <c r="HP46" t="n">
+        <v>363</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -31983,6 +32121,9 @@
       <c r="HO47" t="n">
         <v>75.09999999999999</v>
       </c>
+      <c r="HP47" t="n">
+        <v>78.09999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -32656,6 +32797,9 @@
       <c r="HO48" t="n">
         <v>27</v>
       </c>
+      <c r="HP48" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -33329,6 +33473,9 @@
       <c r="HO49" t="n">
         <v>13</v>
       </c>
+      <c r="HP49" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -34002,6 +34149,9 @@
       <c r="HO50" t="n">
         <v>9</v>
       </c>
+      <c r="HP50" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -34675,6 +34825,9 @@
       <c r="HO51" t="n">
         <v>26</v>
       </c>
+      <c r="HP51" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -35348,6 +35501,9 @@
       <c r="HO52" t="n">
         <v>24</v>
       </c>
+      <c r="HP52" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -36021,6 +36177,9 @@
       <c r="HO53" t="n">
         <v>49</v>
       </c>
+      <c r="HP53" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -36694,6 +36853,9 @@
       <c r="HO54" t="n">
         <v>3</v>
       </c>
+      <c r="HP54" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -37367,6 +37529,9 @@
       <c r="HO55" t="n">
         <v>4</v>
       </c>
+      <c r="HP55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -38040,6 +38205,9 @@
       <c r="HO56" t="n">
         <v>44.4</v>
       </c>
+      <c r="HP56" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -38713,6 +38881,9 @@
       <c r="HO57" t="n">
         <v>184</v>
       </c>
+      <c r="HP57" t="n">
+        <v>197</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -39386,6 +39557,9 @@
       <c r="HO58" t="n">
         <v>101</v>
       </c>
+      <c r="HP58" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -40059,6 +40233,9 @@
       <c r="HO59" t="n">
         <v>285</v>
       </c>
+      <c r="HP59" t="n">
+        <v>316</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -40732,6 +40909,9 @@
       <c r="HO60" t="n">
         <v>1.82</v>
       </c>
+      <c r="HP60" t="n">
+        <v>1.66</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -41405,6 +41585,9 @@
       <c r="HO61" t="n">
         <v>88</v>
       </c>
+      <c r="HP61" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -42078,6 +42261,9 @@
       <c r="HO62" t="n">
         <v>32</v>
       </c>
+      <c r="HP62" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -42751,6 +42937,9 @@
       <c r="HO63" t="n">
         <v>31</v>
       </c>
+      <c r="HP63" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -43424,6 +43613,9 @@
       <c r="HO64" t="n">
         <v>8</v>
       </c>
+      <c r="HP64" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -44097,6 +44289,9 @@
       <c r="HO65" t="n">
         <v>15</v>
       </c>
+      <c r="HP65" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -44770,6 +44965,9 @@
       <c r="HO66" t="n">
         <v>10</v>
       </c>
+      <c r="HP66" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -45443,6 +45641,9 @@
       <c r="HO67" t="n">
         <v>7</v>
       </c>
+      <c r="HP67" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -46116,6 +46317,9 @@
       <c r="HO68" t="n">
         <v>7</v>
       </c>
+      <c r="HP68" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -46789,6 +46993,9 @@
       <c r="HO69" t="n">
         <v>0</v>
       </c>
+      <c r="HP69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -47462,6 +47669,9 @@
       <c r="HO70" t="n">
         <v>17</v>
       </c>
+      <c r="HP70" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -48135,6 +48345,9 @@
       <c r="HO71" t="n">
         <v>58.8</v>
       </c>
+      <c r="HP71" t="n">
+        <v>38.9</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -48808,6 +49021,9 @@
       <c r="HO72" t="n">
         <v>28.5</v>
       </c>
+      <c r="HP72" t="n">
+        <v>45.14</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -49481,6 +49697,9 @@
       <c r="HO73" t="n">
         <v>16.76</v>
       </c>
+      <c r="HP73" t="n">
+        <v>17.56</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -50154,6 +50373,9 @@
       <c r="HO74" t="n">
         <v>24</v>
       </c>
+      <c r="HP74" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -50827,6 +51049,9 @@
       <c r="HO75" t="n">
         <v>46</v>
       </c>
+      <c r="HP75" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -51500,6 +51725,9 @@
       <c r="HO76" t="n">
         <v>40</v>
       </c>
+      <c r="HP76" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -52173,6 +52401,9 @@
       <c r="HO77" t="n">
         <v>35</v>
       </c>
+      <c r="HP77" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -52846,6 +53077,9 @@
       <c r="HO78" t="n">
         <v>2.06</v>
       </c>
+      <c r="HP78" t="n">
+        <v>2.22</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -53519,6 +53753,9 @@
       <c r="HO79" t="n">
         <v>3.5</v>
       </c>
+      <c r="HP79" t="n">
+        <v>5.71</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -54192,6 +54429,9 @@
       <c r="HO80" t="n">
         <v>48.6</v>
       </c>
+      <c r="HP80" t="n">
+        <v>42.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -54865,6 +55105,9 @@
       <c r="HO81" t="n">
         <v>28.6</v>
       </c>
+      <c r="HP81" t="n">
+        <v>17.5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -55538,6 +55781,9 @@
       <c r="HO82" t="n">
         <v>187.7</v>
       </c>
+      <c r="HP82" t="n">
+        <v>189.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -56211,6 +56457,9 @@
       <c r="HO83" t="n">
         <v>85.5</v>
       </c>
+      <c r="HP83" t="n">
+        <v>87.8</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -56884,6 +57133,9 @@
       <c r="HO84" t="n">
         <v>25.58</v>
       </c>
+      <c r="HP84" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -57557,6 +57809,9 @@
       <c r="HO85" t="n">
         <v>101.1</v>
       </c>
+      <c r="HP85" t="n">
+        <v>94.5</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -58230,6 +58485,9 @@
       <c r="HO86" t="n">
         <v>6</v>
       </c>
+      <c r="HP86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -58903,6 +59161,9 @@
       <c r="HO87" t="n">
         <v>7</v>
       </c>
+      <c r="HP87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -59576,6 +59837,9 @@
       <c r="HO88" t="n">
         <v>5</v>
       </c>
+      <c r="HP88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -60249,6 +60513,9 @@
       <c r="HO89" t="n">
         <v>4</v>
       </c>
+      <c r="HP89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -60922,6 +61189,9 @@
       <c r="HO90" t="n">
         <v>112</v>
       </c>
+      <c r="HP90" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -61595,6 +61865,9 @@
       <c r="HO91" t="n">
         <v>177</v>
       </c>
+      <c r="HP91" t="n">
+        <v>180</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -62268,6 +62541,9 @@
       <c r="HO92" t="n">
         <v>215</v>
       </c>
+      <c r="HP92" t="n">
+        <v>225</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -62941,6 +63217,9 @@
       <c r="HO93" t="n">
         <v>75.40000000000001</v>
       </c>
+      <c r="HP93" t="n">
+        <v>71.2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -63614,6 +63893,9 @@
       <c r="HO94" t="n">
         <v>46</v>
       </c>
+      <c r="HP94" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -64287,6 +64569,9 @@
       <c r="HO95" t="n">
         <v>21</v>
       </c>
+      <c r="HP95" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -64960,6 +65245,9 @@
       <c r="HO96" t="n">
         <v>12</v>
       </c>
+      <c r="HP96" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -65633,6 +65921,9 @@
       <c r="HO97" t="n">
         <v>24</v>
       </c>
+      <c r="HP97" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -66306,6 +66597,9 @@
       <c r="HO98" t="n">
         <v>40</v>
       </c>
+      <c r="HP98" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -66979,6 +67273,9 @@
       <c r="HO99" t="n">
         <v>43</v>
       </c>
+      <c r="HP99" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -67652,6 +67949,9 @@
       <c r="HO100" t="n">
         <v>6</v>
       </c>
+      <c r="HP100" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -68325,6 +68625,9 @@
       <c r="HO101" t="n">
         <v>7</v>
       </c>
+      <c r="HP101" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -68998,6 +69301,9 @@
       <c r="HO102" t="n">
         <v>70</v>
       </c>
+      <c r="HP102" t="n">
+        <v>85.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
+++ b/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HP102"/>
+  <dimension ref="A1:HQ102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1028,6 +1028,9 @@
       <c r="HP1" t="n">
         <v>10328</v>
       </c>
+      <c r="HQ1" t="n">
+        <v>10343</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1704,6 +1707,9 @@
       <c r="HP2" t="n">
         <v>2021</v>
       </c>
+      <c r="HQ2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2380,6 +2386,9 @@
       <c r="HP3" t="n">
         <v>1</v>
       </c>
+      <c r="HQ3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3056,6 +3065,9 @@
       <c r="HP4" t="n">
         <v>1</v>
       </c>
+      <c r="HQ4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3732,6 +3744,9 @@
       <c r="HP5" t="n">
         <v>1</v>
       </c>
+      <c r="HQ5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4408,6 +4423,9 @@
       <c r="HP6" t="n">
         <v>69</v>
       </c>
+      <c r="HQ6" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5084,6 +5102,9 @@
       <c r="HP7" t="n">
         <v>53</v>
       </c>
+      <c r="HQ7" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5760,6 +5781,9 @@
       <c r="HP8" t="n">
         <v>16</v>
       </c>
+      <c r="HQ8" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6436,6 +6460,9 @@
       <c r="HP9" t="n">
         <v>1</v>
       </c>
+      <c r="HQ9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7112,6 +7139,9 @@
       <c r="HP10" t="n">
         <v>4</v>
       </c>
+      <c r="HQ10" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7788,6 +7818,9 @@
       <c r="HP11" t="n">
         <v>259</v>
       </c>
+      <c r="HQ11" t="n">
+        <v>214</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8464,6 +8497,9 @@
       <c r="HP12" t="n">
         <v>206</v>
       </c>
+      <c r="HQ12" t="n">
+        <v>192</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9140,6 +9176,9 @@
       <c r="HP13" t="n">
         <v>465</v>
       </c>
+      <c r="HQ13" t="n">
+        <v>406</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9816,6 +9855,9 @@
       <c r="HP14" t="n">
         <v>1.26</v>
       </c>
+      <c r="HQ14" t="n">
+        <v>1.11</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10492,6 +10534,9 @@
       <c r="HP15" t="n">
         <v>124</v>
       </c>
+      <c r="HQ15" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11168,6 +11213,9 @@
       <c r="HP16" t="n">
         <v>57</v>
       </c>
+      <c r="HQ16" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11844,6 +11892,9 @@
       <c r="HP17" t="n">
         <v>19</v>
       </c>
+      <c r="HQ17" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12520,6 +12571,9 @@
       <c r="HP18" t="n">
         <v>24</v>
       </c>
+      <c r="HQ18" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13196,6 +13250,9 @@
       <c r="HP19" t="n">
         <v>20</v>
       </c>
+      <c r="HQ19" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13872,6 +13929,9 @@
       <c r="HP20" t="n">
         <v>10</v>
       </c>
+      <c r="HQ20" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14548,6 +14608,9 @@
       <c r="HP21" t="n">
         <v>7</v>
       </c>
+      <c r="HQ21" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15224,6 +15287,9 @@
       <c r="HP22" t="n">
         <v>6</v>
       </c>
+      <c r="HQ22" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15900,6 +15966,9 @@
       <c r="HP23" t="n">
         <v>3</v>
       </c>
+      <c r="HQ23" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16576,6 +16645,9 @@
       <c r="HP24" t="n">
         <v>19</v>
       </c>
+      <c r="HQ24" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17252,6 +17324,9 @@
       <c r="HP25" t="n">
         <v>52.6</v>
       </c>
+      <c r="HQ25" t="n">
+        <v>46.7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17928,6 +18003,9 @@
       <c r="HP26" t="n">
         <v>46.5</v>
       </c>
+      <c r="HQ26" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18604,6 +18682,9 @@
       <c r="HP27" t="n">
         <v>24.47</v>
       </c>
+      <c r="HQ27" t="n">
+        <v>13.53</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19280,6 +19361,9 @@
       <c r="HP28" t="n">
         <v>38</v>
       </c>
+      <c r="HQ28" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19956,6 +20040,9 @@
       <c r="HP29" t="n">
         <v>61</v>
       </c>
+      <c r="HQ29" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20632,6 +20719,9 @@
       <c r="HP30" t="n">
         <v>34</v>
       </c>
+      <c r="HQ30" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21308,6 +21398,9 @@
       <c r="HP31" t="n">
         <v>59</v>
       </c>
+      <c r="HQ31" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21984,6 +22077,9 @@
       <c r="HP32" t="n">
         <v>3.11</v>
       </c>
+      <c r="HQ32" t="n">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22660,6 +22756,9 @@
       <c r="HP33" t="n">
         <v>5.9</v>
       </c>
+      <c r="HQ33" t="n">
+        <v>3.64</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23336,6 +23435,9 @@
       <c r="HP34" t="n">
         <v>27.1</v>
       </c>
+      <c r="HQ34" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24012,6 +24114,9 @@
       <c r="HP35" t="n">
         <v>16.9</v>
       </c>
+      <c r="HQ35" t="n">
+        <v>27.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24688,6 +24793,9 @@
       <c r="HP36" t="n">
         <v>187.7</v>
       </c>
+      <c r="HQ36" t="n">
+        <v>187.7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25364,6 +25472,9 @@
       <c r="HP37" t="n">
         <v>86.09999999999999</v>
       </c>
+      <c r="HQ37" t="n">
+        <v>86.09999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26040,6 +26151,9 @@
       <c r="HP38" t="n">
         <v>25.58</v>
       </c>
+      <c r="HQ38" t="n">
+        <v>25.58</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26716,6 +26830,9 @@
       <c r="HP39" t="n">
         <v>88.8</v>
       </c>
+      <c r="HQ39" t="n">
+        <v>89.8</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27392,6 +27509,9 @@
       <c r="HP40" t="n">
         <v>8</v>
       </c>
+      <c r="HQ40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28068,6 +28188,9 @@
       <c r="HP41" t="n">
         <v>4</v>
       </c>
+      <c r="HQ41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -28744,6 +28867,9 @@
       <c r="HP42" t="n">
         <v>6</v>
       </c>
+      <c r="HQ42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -29420,6 +29546,9 @@
       <c r="HP43" t="n">
         <v>4</v>
       </c>
+      <c r="HQ43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -30096,6 +30225,9 @@
       <c r="HP44" t="n">
         <v>156</v>
       </c>
+      <c r="HQ44" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -30772,6 +30904,9 @@
       <c r="HP45" t="n">
         <v>304</v>
       </c>
+      <c r="HQ45" t="n">
+        <v>275</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -31448,6 +31583,9 @@
       <c r="HP46" t="n">
         <v>363</v>
       </c>
+      <c r="HQ46" t="n">
+        <v>329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -32124,6 +32262,9 @@
       <c r="HP47" t="n">
         <v>78.09999999999999</v>
       </c>
+      <c r="HQ47" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -32800,6 +32941,9 @@
       <c r="HP48" t="n">
         <v>61</v>
       </c>
+      <c r="HQ48" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -33476,6 +33620,9 @@
       <c r="HP49" t="n">
         <v>15</v>
       </c>
+      <c r="HQ49" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -34152,6 +34299,9 @@
       <c r="HP50" t="n">
         <v>11</v>
       </c>
+      <c r="HQ50" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -34828,6 +34978,9 @@
       <c r="HP51" t="n">
         <v>38</v>
       </c>
+      <c r="HQ51" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -35504,6 +35657,9 @@
       <c r="HP52" t="n">
         <v>34</v>
       </c>
+      <c r="HQ52" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -36180,6 +36336,9 @@
       <c r="HP53" t="n">
         <v>55</v>
       </c>
+      <c r="HQ53" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -36856,6 +37015,9 @@
       <c r="HP54" t="n">
         <v>4</v>
       </c>
+      <c r="HQ54" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -37532,6 +37694,9 @@
       <c r="HP55" t="n">
         <v>7</v>
       </c>
+      <c r="HQ55" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -38208,6 +38373,9 @@
       <c r="HP56" t="n">
         <v>70</v>
       </c>
+      <c r="HQ56" t="n">
+        <v>85.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -38884,6 +39052,9 @@
       <c r="HP57" t="n">
         <v>197</v>
       </c>
+      <c r="HQ57" t="n">
+        <v>219</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -39560,6 +39731,9 @@
       <c r="HP58" t="n">
         <v>119</v>
       </c>
+      <c r="HQ58" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -40236,6 +40410,9 @@
       <c r="HP59" t="n">
         <v>316</v>
       </c>
+      <c r="HQ59" t="n">
+        <v>312</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -40912,6 +41089,9 @@
       <c r="HP60" t="n">
         <v>1.66</v>
       </c>
+      <c r="HQ60" t="n">
+        <v>2.35</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -41588,6 +41768,9 @@
       <c r="HP61" t="n">
         <v>91</v>
       </c>
+      <c r="HQ61" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -42264,6 +42447,9 @@
       <c r="HP62" t="n">
         <v>52</v>
       </c>
+      <c r="HQ62" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -42940,6 +43126,9 @@
       <c r="HP63" t="n">
         <v>46</v>
       </c>
+      <c r="HQ63" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -43616,6 +43805,9 @@
       <c r="HP64" t="n">
         <v>20</v>
       </c>
+      <c r="HQ64" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -44292,6 +44484,9 @@
       <c r="HP65" t="n">
         <v>24</v>
       </c>
+      <c r="HQ65" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -44968,6 +45163,9 @@
       <c r="HP66" t="n">
         <v>7</v>
       </c>
+      <c r="HQ66" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -45644,6 +45842,9 @@
       <c r="HP67" t="n">
         <v>6</v>
       </c>
+      <c r="HQ67" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -46320,6 +46521,9 @@
       <c r="HP68" t="n">
         <v>10</v>
       </c>
+      <c r="HQ68" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -46996,6 +47200,9 @@
       <c r="HP69" t="n">
         <v>1</v>
       </c>
+      <c r="HQ69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -47672,6 +47879,9 @@
       <c r="HP70" t="n">
         <v>18</v>
       </c>
+      <c r="HQ70" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -48348,6 +48558,9 @@
       <c r="HP71" t="n">
         <v>38.9</v>
       </c>
+      <c r="HQ71" t="n">
+        <v>60.9</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -49024,6 +49237,9 @@
       <c r="HP72" t="n">
         <v>45.14</v>
       </c>
+      <c r="HQ72" t="n">
+        <v>22.29</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -49700,6 +49916,9 @@
       <c r="HP73" t="n">
         <v>17.56</v>
       </c>
+      <c r="HQ73" t="n">
+        <v>13.57</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -50376,6 +50595,9 @@
       <c r="HP74" t="n">
         <v>32</v>
       </c>
+      <c r="HQ74" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -51052,6 +51274,9 @@
       <c r="HP75" t="n">
         <v>63</v>
       </c>
+      <c r="HQ75" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -51728,6 +51953,9 @@
       <c r="HP76" t="n">
         <v>49</v>
       </c>
+      <c r="HQ76" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -52404,6 +52632,9 @@
       <c r="HP77" t="n">
         <v>40</v>
       </c>
+      <c r="HQ77" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -53080,6 +53311,9 @@
       <c r="HP78" t="n">
         <v>2.22</v>
       </c>
+      <c r="HQ78" t="n">
+        <v>2.04</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -53756,6 +53990,9 @@
       <c r="HP79" t="n">
         <v>5.71</v>
       </c>
+      <c r="HQ79" t="n">
+        <v>3.36</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -54432,6 +54669,9 @@
       <c r="HP80" t="n">
         <v>42.5</v>
       </c>
+      <c r="HQ80" t="n">
+        <v>46.8</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -55108,6 +55348,9 @@
       <c r="HP81" t="n">
         <v>17.5</v>
       </c>
+      <c r="HQ81" t="n">
+        <v>29.8</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -55784,6 +56027,9 @@
       <c r="HP82" t="n">
         <v>189.3</v>
       </c>
+      <c r="HQ82" t="n">
+        <v>188.2</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -56460,6 +56706,9 @@
       <c r="HP83" t="n">
         <v>87.8</v>
       </c>
+      <c r="HQ83" t="n">
+        <v>88.09999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -57136,6 +57385,9 @@
       <c r="HP84" t="n">
         <v>26</v>
       </c>
+      <c r="HQ84" t="n">
+        <v>26.91</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -57812,6 +58064,9 @@
       <c r="HP85" t="n">
         <v>94.5</v>
       </c>
+      <c r="HQ85" t="n">
+        <v>120.5</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -58488,6 +58743,9 @@
       <c r="HP86" t="n">
         <v>8</v>
       </c>
+      <c r="HQ86" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -59164,6 +59422,9 @@
       <c r="HP87" t="n">
         <v>4</v>
       </c>
+      <c r="HQ87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -59840,6 +60101,9 @@
       <c r="HP88" t="n">
         <v>4</v>
       </c>
+      <c r="HQ88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -60516,6 +60780,9 @@
       <c r="HP89" t="n">
         <v>6</v>
       </c>
+      <c r="HQ89" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -61192,6 +61459,9 @@
       <c r="HP90" t="n">
         <v>131</v>
       </c>
+      <c r="HQ90" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -61868,6 +62138,9 @@
       <c r="HP91" t="n">
         <v>180</v>
       </c>
+      <c r="HQ91" t="n">
+        <v>179</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -62544,6 +62817,9 @@
       <c r="HP92" t="n">
         <v>225</v>
       </c>
+      <c r="HQ92" t="n">
+        <v>223</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -63220,6 +63496,9 @@
       <c r="HP93" t="n">
         <v>71.2</v>
       </c>
+      <c r="HQ93" t="n">
+        <v>71.5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -63896,6 +64175,9 @@
       <c r="HP94" t="n">
         <v>63</v>
       </c>
+      <c r="HQ94" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -64572,6 +64854,9 @@
       <c r="HP95" t="n">
         <v>17</v>
       </c>
+      <c r="HQ95" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -65248,6 +65533,9 @@
       <c r="HP96" t="n">
         <v>5</v>
       </c>
+      <c r="HQ96" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -65924,6 +66212,9 @@
       <c r="HP97" t="n">
         <v>32</v>
       </c>
+      <c r="HQ97" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -66600,6 +66891,9 @@
       <c r="HP98" t="n">
         <v>49</v>
       </c>
+      <c r="HQ98" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -67276,6 +67570,9 @@
       <c r="HP99" t="n">
         <v>43</v>
       </c>
+      <c r="HQ99" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -67952,6 +68249,9 @@
       <c r="HP100" t="n">
         <v>5</v>
       </c>
+      <c r="HQ100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -68628,6 +68928,9 @@
       <c r="HP101" t="n">
         <v>6</v>
       </c>
+      <c r="HQ101" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -69304,6 +69607,9 @@
       <c r="HP102" t="n">
         <v>85.7</v>
       </c>
+      <c r="HQ102" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
+++ b/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HQ102"/>
+  <dimension ref="A1:HR102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,6 +1031,9 @@
       <c r="HQ1" t="n">
         <v>10343</v>
       </c>
+      <c r="HR1" t="n">
+        <v>10346</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1710,6 +1713,9 @@
       <c r="HQ2" t="n">
         <v>2021</v>
       </c>
+      <c r="HR2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2389,6 +2395,9 @@
       <c r="HQ3" t="n">
         <v>2</v>
       </c>
+      <c r="HR3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3068,6 +3077,9 @@
       <c r="HQ4" t="n">
         <v>0</v>
       </c>
+      <c r="HR4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3747,6 +3759,9 @@
       <c r="HQ5" t="n">
         <v>0</v>
       </c>
+      <c r="HR5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4426,6 +4441,9 @@
       <c r="HQ6" t="n">
         <v>100</v>
       </c>
+      <c r="HR6" t="n">
+        <v>167</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5105,6 +5123,9 @@
       <c r="HQ7" t="n">
         <v>93</v>
       </c>
+      <c r="HR7" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5784,6 +5805,9 @@
       <c r="HQ8" t="n">
         <v>7</v>
       </c>
+      <c r="HR8" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6463,6 +6487,9 @@
       <c r="HQ9" t="n">
         <v>1</v>
       </c>
+      <c r="HR9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7142,6 +7169,9 @@
       <c r="HQ10" t="n">
         <v>17</v>
       </c>
+      <c r="HR10" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7821,6 +7851,9 @@
       <c r="HQ11" t="n">
         <v>214</v>
       </c>
+      <c r="HR11" t="n">
+        <v>234</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8500,6 +8533,9 @@
       <c r="HQ12" t="n">
         <v>192</v>
       </c>
+      <c r="HR12" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9179,6 +9215,9 @@
       <c r="HQ13" t="n">
         <v>406</v>
       </c>
+      <c r="HR13" t="n">
+        <v>434</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9858,6 +9897,9 @@
       <c r="HQ14" t="n">
         <v>1.11</v>
       </c>
+      <c r="HR14" t="n">
+        <v>1.17</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10537,6 +10579,9 @@
       <c r="HQ15" t="n">
         <v>95</v>
       </c>
+      <c r="HR15" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11216,6 +11261,9 @@
       <c r="HQ16" t="n">
         <v>43</v>
       </c>
+      <c r="HR16" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11895,6 +11943,9 @@
       <c r="HQ17" t="n">
         <v>21</v>
       </c>
+      <c r="HR17" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12574,6 +12625,9 @@
       <c r="HQ18" t="n">
         <v>14</v>
       </c>
+      <c r="HR18" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13253,6 +13307,9 @@
       <c r="HQ19" t="n">
         <v>19</v>
       </c>
+      <c r="HR19" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13932,6 +13989,9 @@
       <c r="HQ20" t="n">
         <v>14</v>
       </c>
+      <c r="HR20" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14611,6 +14671,9 @@
       <c r="HQ21" t="n">
         <v>12</v>
       </c>
+      <c r="HR21" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15290,6 +15353,9 @@
       <c r="HQ22" t="n">
         <v>12</v>
       </c>
+      <c r="HR22" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15969,6 +16035,9 @@
       <c r="HQ23" t="n">
         <v>4</v>
       </c>
+      <c r="HR23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16648,6 +16717,9 @@
       <c r="HQ24" t="n">
         <v>30</v>
       </c>
+      <c r="HR24" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17327,6 +17399,9 @@
       <c r="HQ25" t="n">
         <v>46.7</v>
       </c>
+      <c r="HR25" t="n">
+        <v>59.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18006,6 +18081,9 @@
       <c r="HQ26" t="n">
         <v>29</v>
       </c>
+      <c r="HR26" t="n">
+        <v>17.36</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18685,6 +18763,9 @@
       <c r="HQ27" t="n">
         <v>13.53</v>
       </c>
+      <c r="HR27" t="n">
+        <v>10.33</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19364,6 +19445,9 @@
       <c r="HQ28" t="n">
         <v>41</v>
       </c>
+      <c r="HR28" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20043,6 +20127,9 @@
       <c r="HQ29" t="n">
         <v>51</v>
       </c>
+      <c r="HR29" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20722,6 +20809,9 @@
       <c r="HQ30" t="n">
         <v>31</v>
       </c>
+      <c r="HR30" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21401,6 +21491,9 @@
       <c r="HQ31" t="n">
         <v>51</v>
       </c>
+      <c r="HR31" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22080,6 +22173,9 @@
       <c r="HQ32" t="n">
         <v>1.7</v>
       </c>
+      <c r="HR32" t="n">
+        <v>1.52</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22759,6 +22855,9 @@
       <c r="HQ33" t="n">
         <v>3.64</v>
       </c>
+      <c r="HR33" t="n">
+        <v>2.56</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23438,6 +23537,9 @@
       <c r="HQ34" t="n">
         <v>51</v>
       </c>
+      <c r="HR34" t="n">
+        <v>60.9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24117,6 +24219,9 @@
       <c r="HQ35" t="n">
         <v>27.5</v>
       </c>
+      <c r="HR35" t="n">
+        <v>39.1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24796,6 +24901,9 @@
       <c r="HQ36" t="n">
         <v>187.7</v>
       </c>
+      <c r="HR36" t="n">
+        <v>187.4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25475,6 +25583,9 @@
       <c r="HQ37" t="n">
         <v>86.09999999999999</v>
       </c>
+      <c r="HR37" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26154,6 +26265,9 @@
       <c r="HQ38" t="n">
         <v>25.58</v>
       </c>
+      <c r="HR38" t="n">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26833,6 +26947,9 @@
       <c r="HQ39" t="n">
         <v>89.8</v>
       </c>
+      <c r="HR39" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27512,6 +27629,9 @@
       <c r="HQ40" t="n">
         <v>7</v>
       </c>
+      <c r="HR40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28191,6 +28311,9 @@
       <c r="HQ41" t="n">
         <v>5</v>
       </c>
+      <c r="HR41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -28870,6 +28993,9 @@
       <c r="HQ42" t="n">
         <v>5</v>
       </c>
+      <c r="HR42" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -29549,6 +29675,9 @@
       <c r="HQ43" t="n">
         <v>5</v>
       </c>
+      <c r="HR43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -30228,6 +30357,9 @@
       <c r="HQ44" t="n">
         <v>139</v>
       </c>
+      <c r="HR44" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -30907,6 +31039,9 @@
       <c r="HQ45" t="n">
         <v>275</v>
       </c>
+      <c r="HR45" t="n">
+        <v>277</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -31586,6 +31721,9 @@
       <c r="HQ46" t="n">
         <v>329</v>
       </c>
+      <c r="HR46" t="n">
+        <v>331</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -32265,6 +32403,9 @@
       <c r="HQ47" t="n">
         <v>81</v>
       </c>
+      <c r="HR47" t="n">
+        <v>76.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -32944,6 +33085,9 @@
       <c r="HQ48" t="n">
         <v>51</v>
       </c>
+      <c r="HR48" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -33623,6 +33767,9 @@
       <c r="HQ49" t="n">
         <v>15</v>
       </c>
+      <c r="HR49" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -34302,6 +34449,9 @@
       <c r="HQ50" t="n">
         <v>17</v>
       </c>
+      <c r="HR50" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -34981,6 +35131,9 @@
       <c r="HQ51" t="n">
         <v>41</v>
       </c>
+      <c r="HR51" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -35660,6 +35813,9 @@
       <c r="HQ52" t="n">
         <v>31</v>
       </c>
+      <c r="HR52" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -36339,6 +36495,9 @@
       <c r="HQ53" t="n">
         <v>51</v>
       </c>
+      <c r="HR53" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -37018,6 +37177,9 @@
       <c r="HQ54" t="n">
         <v>7</v>
       </c>
+      <c r="HR54" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -37697,6 +37859,9 @@
       <c r="HQ55" t="n">
         <v>12</v>
       </c>
+      <c r="HR55" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -38376,6 +38541,9 @@
       <c r="HQ56" t="n">
         <v>85.7</v>
       </c>
+      <c r="HR56" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -39055,6 +39223,9 @@
       <c r="HQ57" t="n">
         <v>219</v>
       </c>
+      <c r="HR57" t="n">
+        <v>213</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -39734,6 +39905,9 @@
       <c r="HQ58" t="n">
         <v>93</v>
       </c>
+      <c r="HR58" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -40413,6 +40587,9 @@
       <c r="HQ59" t="n">
         <v>312</v>
       </c>
+      <c r="HR59" t="n">
+        <v>336</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -41092,6 +41269,9 @@
       <c r="HQ60" t="n">
         <v>2.35</v>
       </c>
+      <c r="HR60" t="n">
+        <v>1.73</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -41771,6 +41951,9 @@
       <c r="HQ61" t="n">
         <v>102</v>
       </c>
+      <c r="HR61" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -42450,6 +42633,9 @@
       <c r="HQ62" t="n">
         <v>46</v>
       </c>
+      <c r="HR62" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -43129,6 +43315,9 @@
       <c r="HQ63" t="n">
         <v>52</v>
       </c>
+      <c r="HR63" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -43808,6 +43997,9 @@
       <c r="HQ64" t="n">
         <v>19</v>
       </c>
+      <c r="HR64" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -44487,6 +44679,9 @@
       <c r="HQ65" t="n">
         <v>14</v>
       </c>
+      <c r="HR65" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -45166,6 +45361,9 @@
       <c r="HQ66" t="n">
         <v>14</v>
       </c>
+      <c r="HR66" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -45845,6 +46043,9 @@
       <c r="HQ67" t="n">
         <v>10</v>
       </c>
+      <c r="HR67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -46524,6 +46725,9 @@
       <c r="HQ68" t="n">
         <v>8</v>
       </c>
+      <c r="HR68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -47203,6 +47407,9 @@
       <c r="HQ69" t="n">
         <v>1</v>
       </c>
+      <c r="HR69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -47882,6 +48089,9 @@
       <c r="HQ70" t="n">
         <v>23</v>
       </c>
+      <c r="HR70" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -48561,6 +48771,9 @@
       <c r="HQ71" t="n">
         <v>60.9</v>
       </c>
+      <c r="HR71" t="n">
+        <v>35.7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -49240,6 +49453,9 @@
       <c r="HQ72" t="n">
         <v>22.29</v>
       </c>
+      <c r="HR72" t="n">
+        <v>67.2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -49919,6 +50135,9 @@
       <c r="HQ73" t="n">
         <v>13.57</v>
       </c>
+      <c r="HR73" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -50598,6 +50817,9 @@
       <c r="HQ74" t="n">
         <v>36</v>
       </c>
+      <c r="HR74" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -51277,6 +51499,9 @@
       <c r="HQ75" t="n">
         <v>47</v>
       </c>
+      <c r="HR75" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -51956,6 +52181,9 @@
       <c r="HQ76" t="n">
         <v>37</v>
       </c>
+      <c r="HR76" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -52635,6 +52863,9 @@
       <c r="HQ77" t="n">
         <v>47</v>
       </c>
+      <c r="HR77" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -53314,6 +53545,9 @@
       <c r="HQ78" t="n">
         <v>2.04</v>
       </c>
+      <c r="HR78" t="n">
+        <v>2.36</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -53993,6 +54227,9 @@
       <c r="HQ79" t="n">
         <v>3.36</v>
       </c>
+      <c r="HR79" t="n">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -54672,6 +54909,9 @@
       <c r="HQ80" t="n">
         <v>46.8</v>
       </c>
+      <c r="HR80" t="n">
+        <v>36.4</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -55351,6 +55591,9 @@
       <c r="HQ81" t="n">
         <v>29.8</v>
       </c>
+      <c r="HR81" t="n">
+        <v>15.2</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -56030,6 +56273,9 @@
       <c r="HQ82" t="n">
         <v>188.2</v>
       </c>
+      <c r="HR82" t="n">
+        <v>187.2</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -56709,6 +56955,9 @@
       <c r="HQ83" t="n">
         <v>88.09999999999999</v>
       </c>
+      <c r="HR83" t="n">
+        <v>83.40000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -57388,6 +57637,9 @@
       <c r="HQ84" t="n">
         <v>26.91</v>
       </c>
+      <c r="HR84" t="n">
+        <v>24.33</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -58067,6 +58319,9 @@
       <c r="HQ85" t="n">
         <v>120.5</v>
       </c>
+      <c r="HR85" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -58746,6 +59001,9 @@
       <c r="HQ86" t="n">
         <v>5</v>
       </c>
+      <c r="HR86" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -59425,6 +59683,9 @@
       <c r="HQ87" t="n">
         <v>6</v>
       </c>
+      <c r="HR87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -60104,6 +60365,9 @@
       <c r="HQ88" t="n">
         <v>3</v>
       </c>
+      <c r="HR88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -60783,6 +61047,9 @@
       <c r="HQ89" t="n">
         <v>8</v>
       </c>
+      <c r="HR89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -61462,6 +61729,9 @@
       <c r="HQ90" t="n">
         <v>128</v>
       </c>
+      <c r="HR90" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -62141,6 +62411,9 @@
       <c r="HQ91" t="n">
         <v>179</v>
       </c>
+      <c r="HR91" t="n">
+        <v>234</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -62820,6 +63093,9 @@
       <c r="HQ92" t="n">
         <v>223</v>
       </c>
+      <c r="HR92" t="n">
+        <v>260</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -63499,6 +63775,9 @@
       <c r="HQ93" t="n">
         <v>71.5</v>
       </c>
+      <c r="HR93" t="n">
+        <v>77.40000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -64178,6 +64457,9 @@
       <c r="HQ94" t="n">
         <v>47</v>
       </c>
+      <c r="HR94" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -64857,6 +65139,9 @@
       <c r="HQ95" t="n">
         <v>16</v>
       </c>
+      <c r="HR95" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -65536,6 +65821,9 @@
       <c r="HQ96" t="n">
         <v>13</v>
       </c>
+      <c r="HR96" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -66215,6 +66503,9 @@
       <c r="HQ97" t="n">
         <v>36</v>
       </c>
+      <c r="HR97" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -66894,6 +67185,9 @@
       <c r="HQ98" t="n">
         <v>37</v>
       </c>
+      <c r="HR98" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -67573,6 +67867,9 @@
       <c r="HQ99" t="n">
         <v>57</v>
       </c>
+      <c r="HR99" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -68252,6 +68549,9 @@
       <c r="HQ100" t="n">
         <v>3</v>
       </c>
+      <c r="HR100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -68931,6 +69231,9 @@
       <c r="HQ101" t="n">
         <v>10</v>
       </c>
+      <c r="HR101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -69610,6 +69913,9 @@
       <c r="HQ102" t="n">
         <v>71.40000000000001</v>
       </c>
+      <c r="HR102" t="n">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
+++ b/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HR102"/>
+  <dimension ref="A1:HS102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1034,6 +1034,9 @@
       <c r="HR1" t="n">
         <v>10346</v>
       </c>
+      <c r="HS1" t="n">
+        <v>10356</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1716,6 +1719,9 @@
       <c r="HR2" t="n">
         <v>2021</v>
       </c>
+      <c r="HS2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2398,6 +2404,9 @@
       <c r="HR3" t="n">
         <v>3</v>
       </c>
+      <c r="HS3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3080,6 +3089,9 @@
       <c r="HR4" t="n">
         <v>1</v>
       </c>
+      <c r="HS4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3762,6 +3774,9 @@
       <c r="HR5" t="n">
         <v>1</v>
       </c>
+      <c r="HS5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4444,6 +4459,9 @@
       <c r="HR6" t="n">
         <v>167</v>
       </c>
+      <c r="HS6" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5126,6 +5144,9 @@
       <c r="HR7" t="n">
         <v>39</v>
       </c>
+      <c r="HS7" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5808,6 +5829,9 @@
       <c r="HR8" t="n">
         <v>128</v>
       </c>
+      <c r="HS8" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6490,6 +6514,9 @@
       <c r="HR9" t="n">
         <v>1</v>
       </c>
+      <c r="HS9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7172,6 +7199,9 @@
       <c r="HR10" t="n">
         <v>12</v>
       </c>
+      <c r="HS10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7854,6 +7884,9 @@
       <c r="HR11" t="n">
         <v>234</v>
       </c>
+      <c r="HS11" t="n">
+        <v>193</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8536,6 +8569,9 @@
       <c r="HR12" t="n">
         <v>200</v>
       </c>
+      <c r="HS12" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9218,6 +9254,9 @@
       <c r="HR13" t="n">
         <v>434</v>
       </c>
+      <c r="HS13" t="n">
+        <v>347</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9900,6 +9939,9 @@
       <c r="HR14" t="n">
         <v>1.17</v>
       </c>
+      <c r="HS14" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10582,6 +10624,9 @@
       <c r="HR15" t="n">
         <v>102</v>
       </c>
+      <c r="HS15" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11264,6 +11309,9 @@
       <c r="HR16" t="n">
         <v>48</v>
       </c>
+      <c r="HS16" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11946,6 +11994,9 @@
       <c r="HR17" t="n">
         <v>17</v>
       </c>
+      <c r="HS17" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12628,6 +12679,9 @@
       <c r="HR18" t="n">
         <v>20</v>
       </c>
+      <c r="HS18" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13310,6 +13364,9 @@
       <c r="HR19" t="n">
         <v>12</v>
       </c>
+      <c r="HS19" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13992,6 +14049,9 @@
       <c r="HR20" t="n">
         <v>25</v>
       </c>
+      <c r="HS20" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14674,6 +14734,9 @@
       <c r="HR21" t="n">
         <v>17</v>
       </c>
+      <c r="HS21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15356,6 +15419,9 @@
       <c r="HR22" t="n">
         <v>14</v>
       </c>
+      <c r="HS22" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16038,6 +16104,9 @@
       <c r="HR23" t="n">
         <v>3</v>
       </c>
+      <c r="HS23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16720,6 +16789,9 @@
       <c r="HR24" t="n">
         <v>42</v>
       </c>
+      <c r="HS24" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17402,6 +17474,9 @@
       <c r="HR25" t="n">
         <v>59.5</v>
       </c>
+      <c r="HS25" t="n">
+        <v>43.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18084,6 +18159,9 @@
       <c r="HR26" t="n">
         <v>17.36</v>
       </c>
+      <c r="HS26" t="n">
+        <v>34.7</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18766,6 +18844,9 @@
       <c r="HR27" t="n">
         <v>10.33</v>
       </c>
+      <c r="HS27" t="n">
+        <v>15.09</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19448,6 +19529,9 @@
       <c r="HR28" t="n">
         <v>37</v>
       </c>
+      <c r="HS28" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20130,6 +20214,9 @@
       <c r="HR29" t="n">
         <v>47</v>
       </c>
+      <c r="HS29" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20812,6 +20899,9 @@
       <c r="HR30" t="n">
         <v>25</v>
       </c>
+      <c r="HS30" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21494,6 +21584,9 @@
       <c r="HR31" t="n">
         <v>64</v>
       </c>
+      <c r="HS31" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22176,6 +22269,9 @@
       <c r="HR32" t="n">
         <v>1.52</v>
       </c>
+      <c r="HS32" t="n">
+        <v>2.65</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22858,6 +22954,9 @@
       <c r="HR33" t="n">
         <v>2.56</v>
       </c>
+      <c r="HS33" t="n">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23540,6 +23639,9 @@
       <c r="HR34" t="n">
         <v>60.9</v>
       </c>
+      <c r="HS34" t="n">
+        <v>37.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24222,6 +24324,9 @@
       <c r="HR35" t="n">
         <v>39.1</v>
       </c>
+      <c r="HS35" t="n">
+        <v>16.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24904,6 +25009,9 @@
       <c r="HR36" t="n">
         <v>187.4</v>
       </c>
+      <c r="HS36" t="n">
+        <v>187.4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25586,6 +25694,9 @@
       <c r="HR37" t="n">
         <v>86</v>
       </c>
+      <c r="HS37" t="n">
+        <v>86.2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26268,6 +26379,9 @@
       <c r="HR38" t="n">
         <v>25.8</v>
       </c>
+      <c r="HS38" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26950,6 +27064,9 @@
       <c r="HR39" t="n">
         <v>94</v>
       </c>
+      <c r="HS39" t="n">
+        <v>97.09999999999999</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27632,6 +27749,9 @@
       <c r="HR40" t="n">
         <v>6</v>
       </c>
+      <c r="HS40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28314,6 +28434,9 @@
       <c r="HR41" t="n">
         <v>6</v>
       </c>
+      <c r="HS41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -28996,6 +29119,9 @@
       <c r="HR42" t="n">
         <v>6</v>
       </c>
+      <c r="HS42" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -29678,6 +29804,9 @@
       <c r="HR43" t="n">
         <v>5</v>
       </c>
+      <c r="HS43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -30360,6 +30489,9 @@
       <c r="HR44" t="n">
         <v>149</v>
       </c>
+      <c r="HS44" t="n">
+        <v>156</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -31042,6 +31174,9 @@
       <c r="HR45" t="n">
         <v>277</v>
       </c>
+      <c r="HS45" t="n">
+        <v>192</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -31724,6 +31859,9 @@
       <c r="HR46" t="n">
         <v>331</v>
       </c>
+      <c r="HS46" t="n">
+        <v>249</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -32406,6 +32544,9 @@
       <c r="HR47" t="n">
         <v>76.3</v>
       </c>
+      <c r="HS47" t="n">
+        <v>71.8</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -33088,6 +33229,9 @@
       <c r="HR48" t="n">
         <v>47</v>
       </c>
+      <c r="HS48" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -33770,6 +33914,9 @@
       <c r="HR49" t="n">
         <v>14</v>
       </c>
+      <c r="HS49" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -34452,6 +34599,9 @@
       <c r="HR50" t="n">
         <v>24</v>
       </c>
+      <c r="HS50" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -35134,6 +35284,9 @@
       <c r="HR51" t="n">
         <v>37</v>
       </c>
+      <c r="HS51" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -35816,6 +35969,9 @@
       <c r="HR52" t="n">
         <v>25</v>
       </c>
+      <c r="HS52" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -36498,6 +36654,9 @@
       <c r="HR53" t="n">
         <v>44</v>
       </c>
+      <c r="HS53" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -37180,6 +37339,9 @@
       <c r="HR54" t="n">
         <v>15</v>
       </c>
+      <c r="HS54" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -37862,6 +38024,9 @@
       <c r="HR55" t="n">
         <v>17</v>
       </c>
+      <c r="HS55" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -38544,6 +38709,9 @@
       <c r="HR56" t="n">
         <v>68</v>
       </c>
+      <c r="HS56" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -39226,6 +39394,9 @@
       <c r="HR57" t="n">
         <v>213</v>
       </c>
+      <c r="HS57" t="n">
+        <v>232</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -39908,6 +40079,9 @@
       <c r="HR58" t="n">
         <v>123</v>
       </c>
+      <c r="HS58" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -40590,6 +40764,9 @@
       <c r="HR59" t="n">
         <v>336</v>
       </c>
+      <c r="HS59" t="n">
+        <v>361</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -41272,6 +41449,9 @@
       <c r="HR60" t="n">
         <v>1.73</v>
       </c>
+      <c r="HS60" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -41954,6 +42134,9 @@
       <c r="HR61" t="n">
         <v>123</v>
       </c>
+      <c r="HS61" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -42636,6 +42819,9 @@
       <c r="HR62" t="n">
         <v>53</v>
       </c>
+      <c r="HS62" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -43318,6 +43504,9 @@
       <c r="HR63" t="n">
         <v>34</v>
       </c>
+      <c r="HS63" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -44000,6 +44189,9 @@
       <c r="HR64" t="n">
         <v>12</v>
       </c>
+      <c r="HS64" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -44682,6 +44874,9 @@
       <c r="HR65" t="n">
         <v>20</v>
       </c>
+      <c r="HS65" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -45364,6 +45559,9 @@
       <c r="HR66" t="n">
         <v>5</v>
       </c>
+      <c r="HS66" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -46046,6 +46244,9 @@
       <c r="HR67" t="n">
         <v>4</v>
       </c>
+      <c r="HS67" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -46728,6 +46929,9 @@
       <c r="HR68" t="n">
         <v>7</v>
       </c>
+      <c r="HS68" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -47410,6 +47614,9 @@
       <c r="HR69" t="n">
         <v>2</v>
       </c>
+      <c r="HS69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -48092,6 +48299,9 @@
       <c r="HR70" t="n">
         <v>14</v>
       </c>
+      <c r="HS70" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -48774,6 +48984,9 @@
       <c r="HR71" t="n">
         <v>35.7</v>
       </c>
+      <c r="HS71" t="n">
+        <v>57.1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -49456,6 +49669,9 @@
       <c r="HR72" t="n">
         <v>67.2</v>
       </c>
+      <c r="HS72" t="n">
+        <v>45.12</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -50138,6 +50354,9 @@
       <c r="HR73" t="n">
         <v>24</v>
       </c>
+      <c r="HS73" t="n">
+        <v>25.79</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -50820,6 +51039,9 @@
       <c r="HR74" t="n">
         <v>24</v>
       </c>
+      <c r="HS74" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -51502,6 +51724,9 @@
       <c r="HR75" t="n">
         <v>54</v>
       </c>
+      <c r="HS75" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -52184,6 +52409,9 @@
       <c r="HR76" t="n">
         <v>38</v>
       </c>
+      <c r="HS76" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -52866,6 +53094,9 @@
       <c r="HR77" t="n">
         <v>33</v>
       </c>
+      <c r="HS77" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -53548,6 +53779,9 @@
       <c r="HR78" t="n">
         <v>2.36</v>
       </c>
+      <c r="HS78" t="n">
+        <v>3.14</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -54230,6 +54464,9 @@
       <c r="HR79" t="n">
         <v>6.6</v>
       </c>
+      <c r="HS79" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -54912,6 +55149,9 @@
       <c r="HR80" t="n">
         <v>36.4</v>
       </c>
+      <c r="HS80" t="n">
+        <v>29.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -55594,6 +55834,9 @@
       <c r="HR81" t="n">
         <v>15.2</v>
       </c>
+      <c r="HS81" t="n">
+        <v>18.2</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -56276,6 +56519,9 @@
       <c r="HR82" t="n">
         <v>187.2</v>
       </c>
+      <c r="HS82" t="n">
+        <v>188.9</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -56958,6 +57204,9 @@
       <c r="HR83" t="n">
         <v>83.40000000000001</v>
       </c>
+      <c r="HS83" t="n">
+        <v>87.7</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -57640,6 +57889,9 @@
       <c r="HR84" t="n">
         <v>24.33</v>
       </c>
+      <c r="HS84" t="n">
+        <v>26.16</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -58322,6 +58574,9 @@
       <c r="HR85" t="n">
         <v>78</v>
       </c>
+      <c r="HS85" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -59004,6 +59259,9 @@
       <c r="HR86" t="n">
         <v>12</v>
       </c>
+      <c r="HS86" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -59686,6 +59944,9 @@
       <c r="HR87" t="n">
         <v>4</v>
       </c>
+      <c r="HS87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -60368,6 +60629,9 @@
       <c r="HR88" t="n">
         <v>3</v>
       </c>
+      <c r="HS88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -61050,6 +61314,9 @@
       <c r="HR89" t="n">
         <v>4</v>
       </c>
+      <c r="HS89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -61732,6 +61999,9 @@
       <c r="HR90" t="n">
         <v>102</v>
       </c>
+      <c r="HS90" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -62414,6 +62684,9 @@
       <c r="HR91" t="n">
         <v>234</v>
       </c>
+      <c r="HS91" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -63096,6 +63369,9 @@
       <c r="HR92" t="n">
         <v>260</v>
       </c>
+      <c r="HS92" t="n">
+        <v>257</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -63778,6 +64054,9 @@
       <c r="HR93" t="n">
         <v>77.40000000000001</v>
       </c>
+      <c r="HS93" t="n">
+        <v>71.2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -64460,6 +64739,9 @@
       <c r="HR94" t="n">
         <v>54</v>
       </c>
+      <c r="HS94" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -65142,6 +65424,9 @@
       <c r="HR95" t="n">
         <v>7</v>
       </c>
+      <c r="HS95" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -65824,6 +66109,9 @@
       <c r="HR96" t="n">
         <v>9</v>
       </c>
+      <c r="HS96" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -66506,6 +66794,9 @@
       <c r="HR97" t="n">
         <v>24</v>
       </c>
+      <c r="HS97" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -67188,6 +67479,9 @@
       <c r="HR98" t="n">
         <v>38</v>
       </c>
+      <c r="HS98" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -67870,6 +68164,9 @@
       <c r="HR99" t="n">
         <v>29</v>
       </c>
+      <c r="HS99" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -68552,6 +68849,9 @@
       <c r="HR100" t="n">
         <v>3</v>
       </c>
+      <c r="HS100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -69234,6 +69534,9 @@
       <c r="HR101" t="n">
         <v>4</v>
       </c>
+      <c r="HS101" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -69916,6 +70219,9 @@
       <c r="HR102" t="n">
         <v>80</v>
       </c>
+      <c r="HS102" t="n">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
+++ b/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HS102"/>
+  <dimension ref="A1:HT102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1037,6 +1037,9 @@
       <c r="HS1" t="n">
         <v>10356</v>
       </c>
+      <c r="HT1" t="n">
+        <v>10365</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1722,6 +1725,9 @@
       <c r="HS2" t="n">
         <v>2021</v>
       </c>
+      <c r="HT2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2407,6 +2413,9 @@
       <c r="HS3" t="n">
         <v>4</v>
       </c>
+      <c r="HT3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3092,6 +3101,9 @@
       <c r="HS4" t="n">
         <v>0</v>
       </c>
+      <c r="HT4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3777,6 +3789,9 @@
       <c r="HS5" t="n">
         <v>0</v>
       </c>
+      <c r="HT5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4462,6 +4477,9 @@
       <c r="HS6" t="n">
         <v>73</v>
       </c>
+      <c r="HT6" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5147,6 +5165,9 @@
       <c r="HS7" t="n">
         <v>54</v>
       </c>
+      <c r="HT7" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5832,6 +5853,9 @@
       <c r="HS8" t="n">
         <v>19</v>
       </c>
+      <c r="HT8" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6517,6 +6541,9 @@
       <c r="HS9" t="n">
         <v>1</v>
       </c>
+      <c r="HT9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7202,6 +7229,9 @@
       <c r="HS10" t="n">
         <v>2</v>
       </c>
+      <c r="HT10" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7887,6 +7917,9 @@
       <c r="HS11" t="n">
         <v>193</v>
       </c>
+      <c r="HT11" t="n">
+        <v>234</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8572,6 +8605,9 @@
       <c r="HS12" t="n">
         <v>154</v>
       </c>
+      <c r="HT12" t="n">
+        <v>181</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9257,6 +9293,9 @@
       <c r="HS13" t="n">
         <v>347</v>
       </c>
+      <c r="HT13" t="n">
+        <v>415</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9942,6 +9981,9 @@
       <c r="HS14" t="n">
         <v>1.25</v>
       </c>
+      <c r="HT14" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10627,6 +10669,9 @@
       <c r="HS15" t="n">
         <v>63</v>
       </c>
+      <c r="HT15" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11312,6 +11357,9 @@
       <c r="HS16" t="n">
         <v>81</v>
       </c>
+      <c r="HT16" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11997,6 +12045,9 @@
       <c r="HS17" t="n">
         <v>40</v>
       </c>
+      <c r="HT17" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12682,6 +12733,9 @@
       <c r="HS18" t="n">
         <v>30</v>
       </c>
+      <c r="HT18" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13367,6 +13421,9 @@
       <c r="HS19" t="n">
         <v>16</v>
       </c>
+      <c r="HT19" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14052,6 +14109,9 @@
       <c r="HS20" t="n">
         <v>10</v>
       </c>
+      <c r="HT20" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14737,6 +14797,9 @@
       <c r="HS21" t="n">
         <v>6</v>
       </c>
+      <c r="HT21" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15422,6 +15485,9 @@
       <c r="HS22" t="n">
         <v>13</v>
       </c>
+      <c r="HT22" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16107,6 +16173,9 @@
       <c r="HS23" t="n">
         <v>0</v>
       </c>
+      <c r="HT23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16792,6 +16861,9 @@
       <c r="HS24" t="n">
         <v>23</v>
       </c>
+      <c r="HT24" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17477,6 +17549,9 @@
       <c r="HS25" t="n">
         <v>43.5</v>
       </c>
+      <c r="HT25" t="n">
+        <v>51.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18162,6 +18237,9 @@
       <c r="HS26" t="n">
         <v>34.7</v>
       </c>
+      <c r="HT26" t="n">
+        <v>24.41</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18847,6 +18925,9 @@
       <c r="HS27" t="n">
         <v>15.09</v>
       </c>
+      <c r="HT27" t="n">
+        <v>12.58</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19532,6 +19613,9 @@
       <c r="HS28" t="n">
         <v>40</v>
       </c>
+      <c r="HT28" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20217,6 +20301,9 @@
       <c r="HS29" t="n">
         <v>46</v>
       </c>
+      <c r="HT29" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20902,6 +20989,9 @@
       <c r="HS30" t="n">
         <v>33</v>
       </c>
+      <c r="HT30" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21587,6 +21677,9 @@
       <c r="HS31" t="n">
         <v>61</v>
       </c>
+      <c r="HT31" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22272,6 +22365,9 @@
       <c r="HS32" t="n">
         <v>2.65</v>
       </c>
+      <c r="HT32" t="n">
+        <v>1.94</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22957,6 +23053,9 @@
       <c r="HS33" t="n">
         <v>6.1</v>
       </c>
+      <c r="HT33" t="n">
+        <v>3.76</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23642,6 +23741,9 @@
       <c r="HS34" t="n">
         <v>37.7</v>
       </c>
+      <c r="HT34" t="n">
+        <v>46.9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24327,6 +24429,9 @@
       <c r="HS35" t="n">
         <v>16.4</v>
       </c>
+      <c r="HT35" t="n">
+        <v>26.6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25012,6 +25117,9 @@
       <c r="HS36" t="n">
         <v>187.4</v>
       </c>
+      <c r="HT36" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25697,6 +25805,9 @@
       <c r="HS37" t="n">
         <v>86.2</v>
       </c>
+      <c r="HT37" t="n">
+        <v>86.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26382,6 +26493,9 @@
       <c r="HS38" t="n">
         <v>26</v>
       </c>
+      <c r="HT38" t="n">
+        <v>25.58</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -27067,6 +27181,9 @@
       <c r="HS39" t="n">
         <v>97.09999999999999</v>
       </c>
+      <c r="HT39" t="n">
+        <v>87.40000000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27752,6 +27869,9 @@
       <c r="HS40" t="n">
         <v>5</v>
       </c>
+      <c r="HT40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28437,6 +28557,9 @@
       <c r="HS41" t="n">
         <v>6</v>
       </c>
+      <c r="HT41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -29122,6 +29245,9 @@
       <c r="HS42" t="n">
         <v>6</v>
       </c>
+      <c r="HT42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -29807,6 +29933,9 @@
       <c r="HS43" t="n">
         <v>5</v>
       </c>
+      <c r="HT43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -30492,6 +30621,9 @@
       <c r="HS44" t="n">
         <v>156</v>
       </c>
+      <c r="HT44" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -31177,6 +31309,9 @@
       <c r="HS45" t="n">
         <v>192</v>
       </c>
+      <c r="HT45" t="n">
+        <v>267</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -31862,6 +31997,9 @@
       <c r="HS46" t="n">
         <v>249</v>
       </c>
+      <c r="HT46" t="n">
+        <v>313</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -32547,6 +32685,9 @@
       <c r="HS47" t="n">
         <v>71.8</v>
       </c>
+      <c r="HT47" t="n">
+        <v>75.40000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -33232,6 +33373,9 @@
       <c r="HS48" t="n">
         <v>46</v>
       </c>
+      <c r="HT48" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -33917,6 +34061,9 @@
       <c r="HS49" t="n">
         <v>15</v>
       </c>
+      <c r="HT49" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -34602,6 +34749,9 @@
       <c r="HS50" t="n">
         <v>11</v>
       </c>
+      <c r="HT50" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -35287,6 +35437,9 @@
       <c r="HS51" t="n">
         <v>40</v>
       </c>
+      <c r="HT51" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -35972,6 +36125,9 @@
       <c r="HS52" t="n">
         <v>33</v>
       </c>
+      <c r="HT52" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -36657,6 +36813,9 @@
       <c r="HS53" t="n">
         <v>37</v>
       </c>
+      <c r="HT53" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -37342,6 +37501,9 @@
       <c r="HS54" t="n">
         <v>6</v>
       </c>
+      <c r="HT54" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -38027,6 +38189,9 @@
       <c r="HS55" t="n">
         <v>6</v>
       </c>
+      <c r="HT55" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -38712,6 +38877,9 @@
       <c r="HS56" t="n">
         <v>60</v>
       </c>
+      <c r="HT56" t="n">
+        <v>76.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -39397,6 +39565,9 @@
       <c r="HS57" t="n">
         <v>232</v>
       </c>
+      <c r="HT57" t="n">
+        <v>237</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -40082,6 +40253,9 @@
       <c r="HS58" t="n">
         <v>129</v>
       </c>
+      <c r="HT58" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -40767,6 +40941,9 @@
       <c r="HS59" t="n">
         <v>361</v>
       </c>
+      <c r="HT59" t="n">
+        <v>354</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -41452,6 +41629,9 @@
       <c r="HS60" t="n">
         <v>1.8</v>
       </c>
+      <c r="HT60" t="n">
+        <v>2.03</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -42137,6 +42317,9 @@
       <c r="HS61" t="n">
         <v>111</v>
       </c>
+      <c r="HT61" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -42822,6 +43005,9 @@
       <c r="HS62" t="n">
         <v>50</v>
       </c>
+      <c r="HT62" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -43507,6 +43693,9 @@
       <c r="HS63" t="n">
         <v>35</v>
       </c>
+      <c r="HT63" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -44192,6 +44381,9 @@
       <c r="HS64" t="n">
         <v>16</v>
       </c>
+      <c r="HT64" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -44877,6 +45069,9 @@
       <c r="HS65" t="n">
         <v>30</v>
       </c>
+      <c r="HT65" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -45562,6 +45757,9 @@
       <c r="HS66" t="n">
         <v>8</v>
       </c>
+      <c r="HT66" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -46247,6 +46445,9 @@
       <c r="HS67" t="n">
         <v>6</v>
       </c>
+      <c r="HT67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -46932,6 +47133,9 @@
       <c r="HS68" t="n">
         <v>5</v>
       </c>
+      <c r="HT68" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -47617,6 +47821,9 @@
       <c r="HS69" t="n">
         <v>1</v>
       </c>
+      <c r="HT69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -48302,6 +48509,9 @@
       <c r="HS70" t="n">
         <v>14</v>
       </c>
+      <c r="HT70" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -48987,6 +49197,9 @@
       <c r="HS71" t="n">
         <v>57.1</v>
       </c>
+      <c r="HT71" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -49672,6 +49885,9 @@
       <c r="HS72" t="n">
         <v>45.12</v>
       </c>
+      <c r="HT72" t="n">
+        <v>44.25</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -50357,6 +50573,9 @@
       <c r="HS73" t="n">
         <v>25.79</v>
       </c>
+      <c r="HT73" t="n">
+        <v>22.12</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -51042,6 +51261,9 @@
       <c r="HS74" t="n">
         <v>44</v>
       </c>
+      <c r="HT74" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -51727,6 +51949,9 @@
       <c r="HS75" t="n">
         <v>80</v>
       </c>
+      <c r="HT75" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -52412,6 +52637,9 @@
       <c r="HS76" t="n">
         <v>51</v>
       </c>
+      <c r="HT76" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -53097,6 +53325,9 @@
       <c r="HS77" t="n">
         <v>44</v>
       </c>
+      <c r="HT77" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -53782,6 +54013,9 @@
       <c r="HS78" t="n">
         <v>3.14</v>
       </c>
+      <c r="HT78" t="n">
+        <v>2.44</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -54467,6 +54701,9 @@
       <c r="HS79" t="n">
         <v>5.5</v>
       </c>
+      <c r="HT79" t="n">
+        <v>4.88</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -55152,6 +55389,9 @@
       <c r="HS80" t="n">
         <v>29.5</v>
       </c>
+      <c r="HT80" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -55837,6 +56077,9 @@
       <c r="HS81" t="n">
         <v>18.2</v>
       </c>
+      <c r="HT81" t="n">
+        <v>20.5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -56522,6 +56765,9 @@
       <c r="HS82" t="n">
         <v>188.9</v>
       </c>
+      <c r="HT82" t="n">
+        <v>186.6</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -57207,6 +57453,9 @@
       <c r="HS83" t="n">
         <v>87.7</v>
       </c>
+      <c r="HT83" t="n">
+        <v>83.59999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -57892,6 +58141,9 @@
       <c r="HS84" t="n">
         <v>26.16</v>
       </c>
+      <c r="HT84" t="n">
+        <v>24.41</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -58577,6 +58829,9 @@
       <c r="HS85" t="n">
         <v>108</v>
       </c>
+      <c r="HT85" t="n">
+        <v>71.7</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -59262,6 +59517,9 @@
       <c r="HS86" t="n">
         <v>5</v>
       </c>
+      <c r="HT86" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -59947,6 +60205,9 @@
       <c r="HS87" t="n">
         <v>6</v>
       </c>
+      <c r="HT87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -60632,6 +60893,9 @@
       <c r="HS88" t="n">
         <v>6</v>
       </c>
+      <c r="HT88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -61317,6 +61581,9 @@
       <c r="HS89" t="n">
         <v>5</v>
       </c>
+      <c r="HT89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -62002,6 +62269,9 @@
       <c r="HS90" t="n">
         <v>151</v>
       </c>
+      <c r="HT90" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -62687,6 +62957,9 @@
       <c r="HS91" t="n">
         <v>215</v>
       </c>
+      <c r="HT91" t="n">
+        <v>245</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -63372,6 +63645,9 @@
       <c r="HS92" t="n">
         <v>257</v>
       </c>
+      <c r="HT92" t="n">
+        <v>260</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -64057,6 +64333,9 @@
       <c r="HS93" t="n">
         <v>71.2</v>
       </c>
+      <c r="HT93" t="n">
+        <v>73.40000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -64742,6 +65021,9 @@
       <c r="HS94" t="n">
         <v>80</v>
       </c>
+      <c r="HT94" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -65427,6 +65709,9 @@
       <c r="HS95" t="n">
         <v>20</v>
       </c>
+      <c r="HT95" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -66112,6 +66397,9 @@
       <c r="HS96" t="n">
         <v>9</v>
       </c>
+      <c r="HT96" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -66797,6 +67085,9 @@
       <c r="HS97" t="n">
         <v>44</v>
       </c>
+      <c r="HT97" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -67482,6 +67773,9 @@
       <c r="HS98" t="n">
         <v>51</v>
       </c>
+      <c r="HT98" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -68167,6 +68461,9 @@
       <c r="HS99" t="n">
         <v>54</v>
       </c>
+      <c r="HT99" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -68852,6 +69149,9 @@
       <c r="HS100" t="n">
         <v>1</v>
       </c>
+      <c r="HT100" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -69537,6 +69837,9 @@
       <c r="HS101" t="n">
         <v>6</v>
       </c>
+      <c r="HT101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -70222,6 +70525,9 @@
       <c r="HS102" t="n">
         <v>75</v>
       </c>
+      <c r="HT102" t="n">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
+++ b/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
@@ -53,6 +53,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -345,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HT102"/>
+  <dimension ref="A1:HU102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1040,6 +1108,9 @@
       <c r="HT1" t="n">
         <v>10365</v>
       </c>
+      <c r="HU1" t="n">
+        <v>10372</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1728,6 +1799,9 @@
       <c r="HT2" t="n">
         <v>2021</v>
       </c>
+      <c r="HU2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2416,6 +2490,9 @@
       <c r="HT3" t="n">
         <v>5</v>
       </c>
+      <c r="HU3" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3104,6 +3181,9 @@
       <c r="HT4" t="n">
         <v>0</v>
       </c>
+      <c r="HU4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3792,6 +3872,9 @@
       <c r="HT5" t="n">
         <v>0</v>
       </c>
+      <c r="HU5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4480,6 +4563,9 @@
       <c r="HT6" t="n">
         <v>118</v>
       </c>
+      <c r="HU6" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5168,6 +5254,9 @@
       <c r="HT7" t="n">
         <v>56</v>
       </c>
+      <c r="HU7" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5856,6 +5945,9 @@
       <c r="HT8" t="n">
         <v>62</v>
       </c>
+      <c r="HU8" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6544,6 +6636,9 @@
       <c r="HT9" t="n">
         <v>1</v>
       </c>
+      <c r="HU9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7232,6 +7327,9 @@
       <c r="HT10" t="n">
         <v>8</v>
       </c>
+      <c r="HU10" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7920,6 +8018,9 @@
       <c r="HT11" t="n">
         <v>234</v>
       </c>
+      <c r="HU11" t="n">
+        <v>221</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8608,6 +8709,9 @@
       <c r="HT12" t="n">
         <v>181</v>
       </c>
+      <c r="HU12" t="n">
+        <v>175</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9296,6 +9400,9 @@
       <c r="HT13" t="n">
         <v>415</v>
       </c>
+      <c r="HU13" t="n">
+        <v>396</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9984,6 +10091,9 @@
       <c r="HT14" t="n">
         <v>1.29</v>
       </c>
+      <c r="HU14" t="n">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10672,6 +10782,9 @@
       <c r="HT15" t="n">
         <v>105</v>
       </c>
+      <c r="HU15" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11360,6 +11473,9 @@
       <c r="HT16" t="n">
         <v>54</v>
       </c>
+      <c r="HU16" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12048,6 +12164,9 @@
       <c r="HT17" t="n">
         <v>45</v>
       </c>
+      <c r="HU17" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12736,6 +12855,9 @@
       <c r="HT18" t="n">
         <v>13</v>
       </c>
+      <c r="HU18" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13424,6 +13546,9 @@
       <c r="HT19" t="n">
         <v>12</v>
       </c>
+      <c r="HU19" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14112,6 +14237,9 @@
       <c r="HT20" t="n">
         <v>17</v>
       </c>
+      <c r="HU20" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14800,6 +14928,9 @@
       <c r="HT21" t="n">
         <v>13</v>
       </c>
+      <c r="HU21" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15488,6 +15619,9 @@
       <c r="HT22" t="n">
         <v>13</v>
       </c>
+      <c r="HU22" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16176,6 +16310,9 @@
       <c r="HT23" t="n">
         <v>3</v>
       </c>
+      <c r="HU23" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16864,6 +17001,9 @@
       <c r="HT24" t="n">
         <v>33</v>
       </c>
+      <c r="HU24" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17552,6 +17692,9 @@
       <c r="HT25" t="n">
         <v>51.5</v>
       </c>
+      <c r="HU25" t="n">
+        <v>51.7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18240,6 +18383,9 @@
       <c r="HT26" t="n">
         <v>24.41</v>
       </c>
+      <c r="HU26" t="n">
+        <v>26.4</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18928,6 +19074,9 @@
       <c r="HT27" t="n">
         <v>12.58</v>
       </c>
+      <c r="HU27" t="n">
+        <v>13.66</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19616,6 +19765,9 @@
       <c r="HT28" t="n">
         <v>41</v>
       </c>
+      <c r="HU28" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20304,6 +20456,9 @@
       <c r="HT29" t="n">
         <v>44</v>
       </c>
+      <c r="HU29" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20992,6 +21147,9 @@
       <c r="HT30" t="n">
         <v>31</v>
       </c>
+      <c r="HU30" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21680,6 +21838,9 @@
       <c r="HT31" t="n">
         <v>64</v>
       </c>
+      <c r="HU31" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22368,6 +22529,9 @@
       <c r="HT32" t="n">
         <v>1.94</v>
       </c>
+      <c r="HU32" t="n">
+        <v>1.69</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23056,6 +23220,9 @@
       <c r="HT33" t="n">
         <v>3.76</v>
       </c>
+      <c r="HU33" t="n">
+        <v>3.27</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23744,6 +23911,9 @@
       <c r="HT34" t="n">
         <v>46.9</v>
       </c>
+      <c r="HU34" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24432,6 +24602,9 @@
       <c r="HT35" t="n">
         <v>26.6</v>
       </c>
+      <c r="HU35" t="n">
+        <v>30.6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25120,6 +25293,9 @@
       <c r="HT36" t="n">
         <v>188</v>
       </c>
+      <c r="HU36" t="n">
+        <v>187.2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25808,6 +25984,9 @@
       <c r="HT37" t="n">
         <v>86.3</v>
       </c>
+      <c r="HU37" t="n">
+        <v>85.7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26496,6 +26675,9 @@
       <c r="HT38" t="n">
         <v>25.58</v>
       </c>
+      <c r="HU38" t="n">
+        <v>26.33</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -27184,6 +27366,9 @@
       <c r="HT39" t="n">
         <v>87.40000000000001</v>
       </c>
+      <c r="HU39" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27872,6 +28057,9 @@
       <c r="HT40" t="n">
         <v>7</v>
       </c>
+      <c r="HU40" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28560,6 +28748,9 @@
       <c r="HT41" t="n">
         <v>6</v>
       </c>
+      <c r="HU41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -29248,6 +29439,9 @@
       <c r="HT42" t="n">
         <v>5</v>
       </c>
+      <c r="HU42" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -29936,6 +30130,9 @@
       <c r="HT43" t="n">
         <v>5</v>
       </c>
+      <c r="HU43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -30624,6 +30821,9 @@
       <c r="HT44" t="n">
         <v>146</v>
       </c>
+      <c r="HU44" t="n">
+        <v>168</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -31312,6 +31512,9 @@
       <c r="HT45" t="n">
         <v>267</v>
       </c>
+      <c r="HU45" t="n">
+        <v>231</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -32000,6 +32203,9 @@
       <c r="HT46" t="n">
         <v>313</v>
       </c>
+      <c r="HU46" t="n">
+        <v>292</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -32688,6 +32894,9 @@
       <c r="HT47" t="n">
         <v>75.40000000000001</v>
       </c>
+      <c r="HU47" t="n">
+        <v>73.7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -33376,6 +33585,9 @@
       <c r="HT48" t="n">
         <v>44</v>
       </c>
+      <c r="HU48" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -34064,6 +34276,9 @@
       <c r="HT49" t="n">
         <v>8</v>
       </c>
+      <c r="HU49" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -34752,6 +34967,9 @@
       <c r="HT50" t="n">
         <v>16</v>
       </c>
+      <c r="HU50" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -35440,6 +35658,9 @@
       <c r="HT51" t="n">
         <v>41</v>
       </c>
+      <c r="HU51" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -36128,6 +36349,9 @@
       <c r="HT52" t="n">
         <v>31</v>
       </c>
+      <c r="HU52" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -36816,6 +37040,9 @@
       <c r="HT53" t="n">
         <v>44</v>
       </c>
+      <c r="HU53" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -37504,6 +37731,9 @@
       <c r="HT54" t="n">
         <v>14</v>
       </c>
+      <c r="HU54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -38192,6 +38422,9 @@
       <c r="HT55" t="n">
         <v>13</v>
       </c>
+      <c r="HU55" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -38880,6 +39113,9 @@
       <c r="HT56" t="n">
         <v>76.5</v>
       </c>
+      <c r="HU56" t="n">
+        <v>86.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -39568,6 +39804,9 @@
       <c r="HT57" t="n">
         <v>237</v>
       </c>
+      <c r="HU57" t="n">
+        <v>214</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -40256,6 +40495,9 @@
       <c r="HT58" t="n">
         <v>117</v>
       </c>
+      <c r="HU58" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -40944,6 +41186,9 @@
       <c r="HT59" t="n">
         <v>354</v>
       </c>
+      <c r="HU59" t="n">
+        <v>328</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -41632,6 +41877,9 @@
       <c r="HT60" t="n">
         <v>2.03</v>
       </c>
+      <c r="HU60" t="n">
+        <v>1.88</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -42320,6 +42568,9 @@
       <c r="HT61" t="n">
         <v>145</v>
       </c>
+      <c r="HU61" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -43008,6 +43259,9 @@
       <c r="HT62" t="n">
         <v>54</v>
       </c>
+      <c r="HU62" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -43696,6 +43950,9 @@
       <c r="HT63" t="n">
         <v>19</v>
       </c>
+      <c r="HU63" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -44384,6 +44641,9 @@
       <c r="HT64" t="n">
         <v>12</v>
       </c>
+      <c r="HU64" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -45072,6 +45332,9 @@
       <c r="HT65" t="n">
         <v>13</v>
       </c>
+      <c r="HU65" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -45760,6 +46023,9 @@
       <c r="HT66" t="n">
         <v>8</v>
       </c>
+      <c r="HU66" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -46448,6 +46714,9 @@
       <c r="HT67" t="n">
         <v>4</v>
       </c>
+      <c r="HU67" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -47136,6 +47405,9 @@
       <c r="HT68" t="n">
         <v>8</v>
       </c>
+      <c r="HU68" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -47824,6 +48096,9 @@
       <c r="HT69" t="n">
         <v>0</v>
       </c>
+      <c r="HU69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -48512,6 +48787,9 @@
       <c r="HT70" t="n">
         <v>16</v>
       </c>
+      <c r="HU70" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -49200,6 +49478,9 @@
       <c r="HT71" t="n">
         <v>50</v>
       </c>
+      <c r="HU71" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -49888,6 +50169,9 @@
       <c r="HT72" t="n">
         <v>44.25</v>
       </c>
+      <c r="HU72" t="n">
+        <v>36.44</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -50576,6 +50860,9 @@
       <c r="HT73" t="n">
         <v>22.12</v>
       </c>
+      <c r="HU73" t="n">
+        <v>16.4</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -51264,6 +51551,9 @@
       <c r="HT74" t="n">
         <v>23</v>
       </c>
+      <c r="HU74" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -51952,6 +52242,9 @@
       <c r="HT75" t="n">
         <v>47</v>
       </c>
+      <c r="HU75" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -52640,6 +52933,9 @@
       <c r="HT76" t="n">
         <v>46</v>
       </c>
+      <c r="HU76" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -53328,6 +53624,9 @@
       <c r="HT77" t="n">
         <v>39</v>
       </c>
+      <c r="HU77" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -54016,6 +54315,9 @@
       <c r="HT78" t="n">
         <v>2.44</v>
       </c>
+      <c r="HU78" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -54704,6 +55006,9 @@
       <c r="HT79" t="n">
         <v>4.88</v>
       </c>
+      <c r="HU79" t="n">
+        <v>4.67</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -55392,6 +55697,9 @@
       <c r="HT80" t="n">
         <v>41</v>
       </c>
+      <c r="HU80" t="n">
+        <v>40.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -56080,6 +56388,9 @@
       <c r="HT81" t="n">
         <v>20.5</v>
       </c>
+      <c r="HU81" t="n">
+        <v>21.4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -56768,6 +57079,9 @@
       <c r="HT82" t="n">
         <v>186.6</v>
       </c>
+      <c r="HU82" t="n">
+        <v>188.4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -57456,6 +57770,9 @@
       <c r="HT83" t="n">
         <v>83.59999999999999</v>
       </c>
+      <c r="HU83" t="n">
+        <v>85.8</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -58144,6 +58461,9 @@
       <c r="HT84" t="n">
         <v>24.41</v>
       </c>
+      <c r="HU84" t="n">
+        <v>23.49</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -58832,6 +59152,9 @@
       <c r="HT85" t="n">
         <v>71.7</v>
       </c>
+      <c r="HU85" t="n">
+        <v>57.7</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -59520,6 +59843,9 @@
       <c r="HT86" t="n">
         <v>11</v>
       </c>
+      <c r="HU86" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -60208,6 +60534,9 @@
       <c r="HT87" t="n">
         <v>5</v>
       </c>
+      <c r="HU87" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -60896,6 +61225,9 @@
       <c r="HT88" t="n">
         <v>3</v>
       </c>
+      <c r="HU88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -61584,6 +61916,9 @@
       <c r="HT89" t="n">
         <v>3</v>
       </c>
+      <c r="HU89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -62272,6 +62607,9 @@
       <c r="HT90" t="n">
         <v>115</v>
       </c>
+      <c r="HU90" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -62960,6 +63298,9 @@
       <c r="HT91" t="n">
         <v>245</v>
       </c>
+      <c r="HU91" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -63648,6 +63989,9 @@
       <c r="HT92" t="n">
         <v>260</v>
       </c>
+      <c r="HU92" t="n">
+        <v>240</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -64336,6 +64680,9 @@
       <c r="HT93" t="n">
         <v>73.40000000000001</v>
       </c>
+      <c r="HU93" t="n">
+        <v>73.2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -65024,6 +65371,9 @@
       <c r="HT94" t="n">
         <v>47</v>
       </c>
+      <c r="HU94" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -65712,6 +66062,9 @@
       <c r="HT95" t="n">
         <v>11</v>
       </c>
+      <c r="HU95" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -66400,6 +66753,9 @@
       <c r="HT96" t="n">
         <v>8</v>
       </c>
+      <c r="HU96" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -67088,6 +67444,9 @@
       <c r="HT97" t="n">
         <v>23</v>
       </c>
+      <c r="HU97" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -67776,6 +68135,9 @@
       <c r="HT98" t="n">
         <v>46</v>
       </c>
+      <c r="HU98" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -68464,6 +68826,9 @@
       <c r="HT99" t="n">
         <v>50</v>
       </c>
+      <c r="HU99" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -69152,6 +69517,9 @@
       <c r="HT100" t="n">
         <v>6</v>
       </c>
+      <c r="HU100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -69840,6 +70208,9 @@
       <c r="HT101" t="n">
         <v>4</v>
       </c>
+      <c r="HU101" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -70528,6 +70899,9 @@
       <c r="HT102" t="n">
         <v>50</v>
       </c>
+      <c r="HU102" t="n">
+        <v>77.8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
+++ b/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
@@ -53,74 +53,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -413,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HU102"/>
+  <dimension ref="A1:HV102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1111,6 +1043,9 @@
       <c r="HU1" t="n">
         <v>10372</v>
       </c>
+      <c r="HV1" t="n">
+        <v>10385</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1802,6 +1737,9 @@
       <c r="HU2" t="n">
         <v>2021</v>
       </c>
+      <c r="HV2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2493,6 +2431,9 @@
       <c r="HU3" t="n">
         <v>6</v>
       </c>
+      <c r="HV3" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3184,6 +3125,9 @@
       <c r="HU4" t="n">
         <v>1</v>
       </c>
+      <c r="HV4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3875,6 +3819,9 @@
       <c r="HU5" t="n">
         <v>1</v>
       </c>
+      <c r="HV5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4566,6 +4513,9 @@
       <c r="HU6" t="n">
         <v>104</v>
       </c>
+      <c r="HV6" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5257,6 +5207,9 @@
       <c r="HU7" t="n">
         <v>65</v>
       </c>
+      <c r="HV7" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5948,6 +5901,9 @@
       <c r="HU8" t="n">
         <v>39</v>
       </c>
+      <c r="HV8" t="n">
+        <v>-22</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6639,6 +6595,9 @@
       <c r="HU9" t="n">
         <v>1</v>
       </c>
+      <c r="HV9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7330,6 +7289,9 @@
       <c r="HU10" t="n">
         <v>9</v>
       </c>
+      <c r="HV10" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8021,6 +7983,9 @@
       <c r="HU11" t="n">
         <v>221</v>
       </c>
+      <c r="HV11" t="n">
+        <v>206</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8712,6 +8677,9 @@
       <c r="HU12" t="n">
         <v>175</v>
       </c>
+      <c r="HV12" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9403,6 +9371,9 @@
       <c r="HU13" t="n">
         <v>396</v>
       </c>
+      <c r="HV13" t="n">
+        <v>366</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10094,6 +10065,9 @@
       <c r="HU14" t="n">
         <v>1.26</v>
       </c>
+      <c r="HV14" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10785,6 +10759,9 @@
       <c r="HU15" t="n">
         <v>89</v>
       </c>
+      <c r="HV15" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11476,6 +11453,9 @@
       <c r="HU16" t="n">
         <v>53</v>
       </c>
+      <c r="HV16" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12167,6 +12147,9 @@
       <c r="HU17" t="n">
         <v>45</v>
       </c>
+      <c r="HV17" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12858,6 +12841,9 @@
       <c r="HU18" t="n">
         <v>16</v>
       </c>
+      <c r="HV18" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13549,6 +13535,9 @@
       <c r="HU19" t="n">
         <v>15</v>
       </c>
+      <c r="HV19" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14240,6 +14229,9 @@
       <c r="HU20" t="n">
         <v>15</v>
       </c>
+      <c r="HV20" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14931,6 +14923,9 @@
       <c r="HU21" t="n">
         <v>13</v>
       </c>
+      <c r="HV21" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15622,6 +15617,9 @@
       <c r="HU22" t="n">
         <v>10</v>
       </c>
+      <c r="HV22" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16313,6 +16311,9 @@
       <c r="HU23" t="n">
         <v>4</v>
       </c>
+      <c r="HV23" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17004,6 +17005,9 @@
       <c r="HU24" t="n">
         <v>29</v>
       </c>
+      <c r="HV24" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17695,6 +17699,9 @@
       <c r="HU25" t="n">
         <v>51.7</v>
       </c>
+      <c r="HV25" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18386,6 +18393,9 @@
       <c r="HU26" t="n">
         <v>26.4</v>
       </c>
+      <c r="HV26" t="n">
+        <v>52.29</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19077,6 +19087,9 @@
       <c r="HU27" t="n">
         <v>13.66</v>
       </c>
+      <c r="HV27" t="n">
+        <v>18.3</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19768,6 +19781,9 @@
       <c r="HU28" t="n">
         <v>46</v>
       </c>
+      <c r="HV28" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20459,6 +20475,9 @@
       <c r="HU29" t="n">
         <v>43</v>
       </c>
+      <c r="HV29" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21150,6 +21169,9 @@
       <c r="HU30" t="n">
         <v>33</v>
       </c>
+      <c r="HV30" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21841,6 +21863,9 @@
       <c r="HU31" t="n">
         <v>49</v>
       </c>
+      <c r="HV31" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22532,6 +22557,9 @@
       <c r="HU32" t="n">
         <v>1.69</v>
       </c>
+      <c r="HV32" t="n">
+        <v>2.15</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23223,6 +23251,9 @@
       <c r="HU33" t="n">
         <v>3.27</v>
       </c>
+      <c r="HV33" t="n">
+        <v>6.14</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23914,6 +23945,9 @@
       <c r="HU34" t="n">
         <v>51</v>
       </c>
+      <c r="HV34" t="n">
+        <v>37.2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24605,6 +24639,9 @@
       <c r="HU35" t="n">
         <v>30.6</v>
       </c>
+      <c r="HV35" t="n">
+        <v>16.3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25296,6 +25333,9 @@
       <c r="HU36" t="n">
         <v>187.2</v>
       </c>
+      <c r="HV36" t="n">
+        <v>187.1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25987,6 +26027,9 @@
       <c r="HU37" t="n">
         <v>85.7</v>
       </c>
+      <c r="HV37" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26678,6 +26721,9 @@
       <c r="HU38" t="n">
         <v>26.33</v>
       </c>
+      <c r="HV38" t="n">
+        <v>26.49</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -27369,6 +27415,9 @@
       <c r="HU39" t="n">
         <v>103</v>
       </c>
+      <c r="HV39" t="n">
+        <v>105.9</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28060,6 +28109,9 @@
       <c r="HU40" t="n">
         <v>4</v>
       </c>
+      <c r="HV40" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28751,6 +28803,9 @@
       <c r="HU41" t="n">
         <v>7</v>
       </c>
+      <c r="HV41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -29442,6 +29497,9 @@
       <c r="HU42" t="n">
         <v>6</v>
       </c>
+      <c r="HV42" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -30133,6 +30191,9 @@
       <c r="HU43" t="n">
         <v>6</v>
       </c>
+      <c r="HV43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -30824,6 +30885,9 @@
       <c r="HU44" t="n">
         <v>168</v>
       </c>
+      <c r="HV44" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -31515,6 +31579,9 @@
       <c r="HU45" t="n">
         <v>231</v>
       </c>
+      <c r="HV45" t="n">
+        <v>235</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -32206,6 +32273,9 @@
       <c r="HU46" t="n">
         <v>292</v>
       </c>
+      <c r="HV46" t="n">
+        <v>284</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -32897,6 +32967,9 @@
       <c r="HU47" t="n">
         <v>73.7</v>
       </c>
+      <c r="HV47" t="n">
+        <v>77.59999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -33588,6 +33661,9 @@
       <c r="HU48" t="n">
         <v>43</v>
       </c>
+      <c r="HV48" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -34279,6 +34355,9 @@
       <c r="HU49" t="n">
         <v>17</v>
       </c>
+      <c r="HV49" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -34970,6 +35049,9 @@
       <c r="HU50" t="n">
         <v>18</v>
       </c>
+      <c r="HV50" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -35661,6 +35743,9 @@
       <c r="HU51" t="n">
         <v>46</v>
       </c>
+      <c r="HV51" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -36352,6 +36437,9 @@
       <c r="HU52" t="n">
         <v>33</v>
       </c>
+      <c r="HV52" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -37043,6 +37131,9 @@
       <c r="HU53" t="n">
         <v>48</v>
       </c>
+      <c r="HV53" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -37734,6 +37825,9 @@
       <c r="HU54" t="n">
         <v>2</v>
       </c>
+      <c r="HV54" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -38425,6 +38519,9 @@
       <c r="HU55" t="n">
         <v>13</v>
       </c>
+      <c r="HV55" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -39116,6 +39213,9 @@
       <c r="HU56" t="n">
         <v>86.7</v>
       </c>
+      <c r="HV56" t="n">
+        <v>57.1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -39807,6 +39907,9 @@
       <c r="HU57" t="n">
         <v>214</v>
       </c>
+      <c r="HV57" t="n">
+        <v>236</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -40498,6 +40601,9 @@
       <c r="HU58" t="n">
         <v>114</v>
       </c>
+      <c r="HV58" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -41189,6 +41295,9 @@
       <c r="HU59" t="n">
         <v>328</v>
       </c>
+      <c r="HV59" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -41880,6 +41989,9 @@
       <c r="HU60" t="n">
         <v>1.88</v>
       </c>
+      <c r="HV60" t="n">
+        <v>1.87</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -42571,6 +42683,9 @@
       <c r="HU61" t="n">
         <v>99</v>
       </c>
+      <c r="HV61" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -43262,6 +43377,9 @@
       <c r="HU62" t="n">
         <v>52</v>
       </c>
+      <c r="HV62" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -43953,6 +44071,9 @@
       <c r="HU63" t="n">
         <v>26</v>
       </c>
+      <c r="HV63" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -44644,6 +44765,9 @@
       <c r="HU64" t="n">
         <v>15</v>
       </c>
+      <c r="HV64" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -45335,6 +45459,9 @@
       <c r="HU65" t="n">
         <v>16</v>
       </c>
+      <c r="HV65" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -46026,6 +46153,9 @@
       <c r="HU66" t="n">
         <v>9</v>
       </c>
+      <c r="HV66" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -46717,6 +46847,9 @@
       <c r="HU67" t="n">
         <v>7</v>
       </c>
+      <c r="HV67" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -47408,6 +47541,9 @@
       <c r="HU68" t="n">
         <v>8</v>
       </c>
+      <c r="HV68" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -48099,6 +48235,9 @@
       <c r="HU69" t="n">
         <v>3</v>
       </c>
+      <c r="HV69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -48790,6 +48929,9 @@
       <c r="HU70" t="n">
         <v>20</v>
       </c>
+      <c r="HV70" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -49481,6 +49623,9 @@
       <c r="HU71" t="n">
         <v>45</v>
       </c>
+      <c r="HV71" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -50172,6 +50317,9 @@
       <c r="HU72" t="n">
         <v>36.44</v>
       </c>
+      <c r="HV72" t="n">
+        <v>32.91</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -50863,6 +51011,9 @@
       <c r="HU73" t="n">
         <v>16.4</v>
       </c>
+      <c r="HV73" t="n">
+        <v>16.45</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -51554,6 +51705,9 @@
       <c r="HU74" t="n">
         <v>32</v>
       </c>
+      <c r="HV74" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -52245,6 +52399,9 @@
       <c r="HU75" t="n">
         <v>40</v>
       </c>
+      <c r="HV75" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -52936,6 +53093,9 @@
       <c r="HU76" t="n">
         <v>34</v>
       </c>
+      <c r="HV76" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -53627,6 +53787,9 @@
       <c r="HU77" t="n">
         <v>42</v>
       </c>
+      <c r="HV77" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -54318,6 +54481,9 @@
       <c r="HU78" t="n">
         <v>2.1</v>
       </c>
+      <c r="HV78" t="n">
+        <v>2.59</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -55009,6 +55175,9 @@
       <c r="HU79" t="n">
         <v>4.67</v>
       </c>
+      <c r="HV79" t="n">
+        <v>5.18</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -55700,6 +55869,9 @@
       <c r="HU80" t="n">
         <v>40.5</v>
       </c>
+      <c r="HV80" t="n">
+        <v>36.8</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -56391,6 +56563,9 @@
       <c r="HU81" t="n">
         <v>21.4</v>
       </c>
+      <c r="HV81" t="n">
+        <v>19.3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -57082,6 +57257,9 @@
       <c r="HU82" t="n">
         <v>188.4</v>
       </c>
+      <c r="HV82" t="n">
+        <v>185.6</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -57773,6 +57951,9 @@
       <c r="HU83" t="n">
         <v>85.8</v>
       </c>
+      <c r="HV83" t="n">
+        <v>84.8</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -58464,6 +58645,9 @@
       <c r="HU84" t="n">
         <v>23.49</v>
       </c>
+      <c r="HV84" t="n">
+        <v>26.24</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -59155,6 +59339,9 @@
       <c r="HU85" t="n">
         <v>57.7</v>
       </c>
+      <c r="HV85" t="n">
+        <v>104.7</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -59846,6 +60033,9 @@
       <c r="HU86" t="n">
         <v>12</v>
       </c>
+      <c r="HV86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -60537,6 +60727,9 @@
       <c r="HU87" t="n">
         <v>7</v>
       </c>
+      <c r="HV87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -61228,6 +61421,9 @@
       <c r="HU88" t="n">
         <v>1</v>
       </c>
+      <c r="HV88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -61919,6 +62115,9 @@
       <c r="HU89" t="n">
         <v>3</v>
       </c>
+      <c r="HV89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -62610,6 +62809,9 @@
       <c r="HU90" t="n">
         <v>124</v>
       </c>
+      <c r="HV90" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -63301,6 +63503,9 @@
       <c r="HU91" t="n">
         <v>191</v>
       </c>
+      <c r="HV91" t="n">
+        <v>219</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -63992,6 +64197,9 @@
       <c r="HU92" t="n">
         <v>240</v>
       </c>
+      <c r="HV92" t="n">
+        <v>269</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -64683,6 +64891,9 @@
       <c r="HU93" t="n">
         <v>73.2</v>
       </c>
+      <c r="HV93" t="n">
+        <v>74.3</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -65374,6 +65585,9 @@
       <c r="HU94" t="n">
         <v>40</v>
       </c>
+      <c r="HV94" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -66065,6 +66279,9 @@
       <c r="HU95" t="n">
         <v>12</v>
       </c>
+      <c r="HV95" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -66756,6 +66973,9 @@
       <c r="HU96" t="n">
         <v>7</v>
       </c>
+      <c r="HV96" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -67447,6 +67667,9 @@
       <c r="HU97" t="n">
         <v>32</v>
       </c>
+      <c r="HV97" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -68138,6 +68361,9 @@
       <c r="HU98" t="n">
         <v>34</v>
       </c>
+      <c r="HV98" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -68829,6 +69055,9 @@
       <c r="HU99" t="n">
         <v>48</v>
       </c>
+      <c r="HV99" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -69520,6 +69749,9 @@
       <c r="HU100" t="n">
         <v>2</v>
       </c>
+      <c r="HV100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -70211,6 +70443,9 @@
       <c r="HU101" t="n">
         <v>7</v>
       </c>
+      <c r="HV101" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -70902,6 +71137,9 @@
       <c r="HU102" t="n">
         <v>77.8</v>
       </c>
+      <c r="HV102" t="n">
+        <v>81.8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
+++ b/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HV102"/>
+  <dimension ref="A1:HW102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1046,6 +1046,9 @@
       <c r="HV1" t="n">
         <v>10385</v>
       </c>
+      <c r="HW1" t="n">
+        <v>10396</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1740,6 +1743,9 @@
       <c r="HV2" t="n">
         <v>2021</v>
       </c>
+      <c r="HW2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2434,6 +2440,9 @@
       <c r="HV3" t="n">
         <v>7</v>
       </c>
+      <c r="HW3" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3128,6 +3137,9 @@
       <c r="HV4" t="n">
         <v>1</v>
       </c>
+      <c r="HW4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3822,6 +3834,9 @@
       <c r="HV5" t="n">
         <v>0</v>
       </c>
+      <c r="HW5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4516,6 +4531,9 @@
       <c r="HV6" t="n">
         <v>55</v>
       </c>
+      <c r="HW6" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5210,6 +5228,9 @@
       <c r="HV7" t="n">
         <v>77</v>
       </c>
+      <c r="HW7" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5904,6 +5925,9 @@
       <c r="HV8" t="n">
         <v>-22</v>
       </c>
+      <c r="HW8" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6598,6 +6622,9 @@
       <c r="HV9" t="n">
         <v>0</v>
       </c>
+      <c r="HW9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7292,6 +7319,9 @@
       <c r="HV10" t="n">
         <v>14</v>
       </c>
+      <c r="HW10" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7986,6 +8016,9 @@
       <c r="HV11" t="n">
         <v>206</v>
       </c>
+      <c r="HW11" t="n">
+        <v>221</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8680,6 +8713,9 @@
       <c r="HV12" t="n">
         <v>160</v>
       </c>
+      <c r="HW12" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9374,6 +9410,9 @@
       <c r="HV13" t="n">
         <v>366</v>
       </c>
+      <c r="HW13" t="n">
+        <v>359</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10068,6 +10107,9 @@
       <c r="HV14" t="n">
         <v>1.29</v>
       </c>
+      <c r="HW14" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10762,6 +10804,9 @@
       <c r="HV15" t="n">
         <v>98</v>
       </c>
+      <c r="HW15" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11456,6 +11501,9 @@
       <c r="HV16" t="n">
         <v>52</v>
       </c>
+      <c r="HW16" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12150,6 +12198,9 @@
       <c r="HV17" t="n">
         <v>30</v>
       </c>
+      <c r="HW17" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12844,6 +12895,9 @@
       <c r="HV18" t="n">
         <v>17</v>
       </c>
+      <c r="HW18" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13538,6 +13592,9 @@
       <c r="HV19" t="n">
         <v>21</v>
       </c>
+      <c r="HW19" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14232,6 +14289,9 @@
       <c r="HV20" t="n">
         <v>7</v>
       </c>
+      <c r="HW20" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14926,6 +14986,9 @@
       <c r="HV21" t="n">
         <v>4</v>
       </c>
+      <c r="HW21" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15620,6 +15683,9 @@
       <c r="HV22" t="n">
         <v>9</v>
       </c>
+      <c r="HW22" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16314,6 +16380,9 @@
       <c r="HV23" t="n">
         <v>4</v>
       </c>
+      <c r="HW23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17008,6 +17077,9 @@
       <c r="HV24" t="n">
         <v>20</v>
       </c>
+      <c r="HW24" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17702,6 +17774,9 @@
       <c r="HV25" t="n">
         <v>35</v>
       </c>
+      <c r="HW25" t="n">
+        <v>59.3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18396,6 +18471,9 @@
       <c r="HV26" t="n">
         <v>52.29</v>
       </c>
+      <c r="HW26" t="n">
+        <v>22.44</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19090,6 +19168,9 @@
       <c r="HV27" t="n">
         <v>18.3</v>
       </c>
+      <c r="HW27" t="n">
+        <v>13.3</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19784,6 +19865,9 @@
       <c r="HV28" t="n">
         <v>36</v>
       </c>
+      <c r="HW28" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20478,6 +20562,9 @@
       <c r="HV29" t="n">
         <v>59</v>
       </c>
+      <c r="HW29" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21172,6 +21259,9 @@
       <c r="HV30" t="n">
         <v>45</v>
       </c>
+      <c r="HW30" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21866,6 +21956,9 @@
       <c r="HV31" t="n">
         <v>43</v>
       </c>
+      <c r="HW31" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22560,6 +22653,9 @@
       <c r="HV32" t="n">
         <v>2.15</v>
       </c>
+      <c r="HW32" t="n">
+        <v>2.22</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23254,6 +23350,9 @@
       <c r="HV33" t="n">
         <v>6.14</v>
       </c>
+      <c r="HW33" t="n">
+        <v>3.75</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23948,6 +24047,9 @@
       <c r="HV34" t="n">
         <v>37.2</v>
       </c>
+      <c r="HW34" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24642,6 +24744,9 @@
       <c r="HV35" t="n">
         <v>16.3</v>
       </c>
+      <c r="HW35" t="n">
+        <v>26.7</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25336,6 +25441,9 @@
       <c r="HV36" t="n">
         <v>187.1</v>
       </c>
+      <c r="HW36" t="n">
+        <v>186.9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26030,6 +26138,9 @@
       <c r="HV37" t="n">
         <v>86</v>
       </c>
+      <c r="HW37" t="n">
+        <v>85.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26724,6 +26835,9 @@
       <c r="HV38" t="n">
         <v>26.49</v>
       </c>
+      <c r="HW38" t="n">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -27418,6 +27532,9 @@
       <c r="HV39" t="n">
         <v>105.9</v>
       </c>
+      <c r="HW39" t="n">
+        <v>95.3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28112,6 +28229,9 @@
       <c r="HV40" t="n">
         <v>3</v>
       </c>
+      <c r="HW40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28806,6 +28926,9 @@
       <c r="HV41" t="n">
         <v>7</v>
       </c>
+      <c r="HW41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -29500,6 +29623,9 @@
       <c r="HV42" t="n">
         <v>6</v>
       </c>
+      <c r="HW42" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -30194,6 +30320,9 @@
       <c r="HV43" t="n">
         <v>6</v>
       </c>
+      <c r="HW43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -30888,6 +31017,9 @@
       <c r="HV44" t="n">
         <v>127</v>
       </c>
+      <c r="HW44" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -31582,6 +31714,9 @@
       <c r="HV45" t="n">
         <v>235</v>
       </c>
+      <c r="HW45" t="n">
+        <v>222</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -32276,6 +32411,9 @@
       <c r="HV46" t="n">
         <v>284</v>
       </c>
+      <c r="HW46" t="n">
+        <v>277</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -32970,6 +33108,9 @@
       <c r="HV47" t="n">
         <v>77.59999999999999</v>
       </c>
+      <c r="HW47" t="n">
+        <v>77.2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -33664,6 +33805,9 @@
       <c r="HV48" t="n">
         <v>59</v>
       </c>
+      <c r="HW48" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -34358,6 +34502,9 @@
       <c r="HV49" t="n">
         <v>11</v>
       </c>
+      <c r="HW49" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -35052,6 +35199,9 @@
       <c r="HV50" t="n">
         <v>10</v>
       </c>
+      <c r="HW50" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -35746,6 +35896,9 @@
       <c r="HV51" t="n">
         <v>36</v>
       </c>
+      <c r="HW51" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -36440,6 +36593,9 @@
       <c r="HV52" t="n">
         <v>45</v>
       </c>
+      <c r="HW52" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -37134,6 +37290,9 @@
       <c r="HV53" t="n">
         <v>49</v>
       </c>
+      <c r="HW53" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -37828,6 +37987,9 @@
       <c r="HV54" t="n">
         <v>10</v>
       </c>
+      <c r="HW54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -38522,6 +38684,9 @@
       <c r="HV55" t="n">
         <v>4</v>
       </c>
+      <c r="HW55" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -39216,6 +39381,9 @@
       <c r="HV56" t="n">
         <v>57.1</v>
       </c>
+      <c r="HW56" t="n">
+        <v>68.8</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -39910,6 +40078,9 @@
       <c r="HV57" t="n">
         <v>236</v>
       </c>
+      <c r="HW57" t="n">
+        <v>199</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -40604,6 +40775,9 @@
       <c r="HV58" t="n">
         <v>126</v>
       </c>
+      <c r="HW58" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -41298,6 +41472,9 @@
       <c r="HV59" t="n">
         <v>362</v>
       </c>
+      <c r="HW59" t="n">
+        <v>320</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -41992,6 +42169,9 @@
       <c r="HV60" t="n">
         <v>1.87</v>
       </c>
+      <c r="HW60" t="n">
+        <v>1.64</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -42686,6 +42866,9 @@
       <c r="HV61" t="n">
         <v>130</v>
       </c>
+      <c r="HW61" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -43380,6 +43563,9 @@
       <c r="HV62" t="n">
         <v>51</v>
       </c>
+      <c r="HW62" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -44074,6 +44260,9 @@
       <c r="HV63" t="n">
         <v>23</v>
       </c>
+      <c r="HW63" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -44768,6 +44957,9 @@
       <c r="HV64" t="n">
         <v>21</v>
       </c>
+      <c r="HW64" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -45462,6 +45654,9 @@
       <c r="HV65" t="n">
         <v>17</v>
       </c>
+      <c r="HW65" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -46156,6 +46351,9 @@
       <c r="HV66" t="n">
         <v>11</v>
       </c>
+      <c r="HW66" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -46850,6 +47048,9 @@
       <c r="HV67" t="n">
         <v>9</v>
       </c>
+      <c r="HW67" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -47544,6 +47745,9 @@
       <c r="HV68" t="n">
         <v>10</v>
       </c>
+      <c r="HW68" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -48238,6 +48442,9 @@
       <c r="HV69" t="n">
         <v>1</v>
       </c>
+      <c r="HW69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -48932,6 +49139,9 @@
       <c r="HV70" t="n">
         <v>22</v>
       </c>
+      <c r="HW70" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -49626,6 +49836,9 @@
       <c r="HV71" t="n">
         <v>50</v>
       </c>
+      <c r="HW71" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -50320,6 +50533,9 @@
       <c r="HV72" t="n">
         <v>32.91</v>
       </c>
+      <c r="HW72" t="n">
+        <v>24.62</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -51014,6 +51230,9 @@
       <c r="HV73" t="n">
         <v>16.45</v>
       </c>
+      <c r="HW73" t="n">
+        <v>12.31</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -51708,6 +51927,9 @@
       <c r="HV74" t="n">
         <v>31</v>
       </c>
+      <c r="HW74" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -52402,6 +52624,9 @@
       <c r="HV75" t="n">
         <v>44</v>
       </c>
+      <c r="HW75" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -53096,6 +53321,9 @@
       <c r="HV76" t="n">
         <v>34</v>
       </c>
+      <c r="HW76" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -53790,6 +54018,9 @@
       <c r="HV77" t="n">
         <v>57</v>
       </c>
+      <c r="HW77" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -54484,6 +54715,9 @@
       <c r="HV78" t="n">
         <v>2.59</v>
       </c>
+      <c r="HW78" t="n">
+        <v>1.69</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -55178,6 +55412,9 @@
       <c r="HV79" t="n">
         <v>5.18</v>
       </c>
+      <c r="HW79" t="n">
+        <v>3.38</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -55872,6 +56109,9 @@
       <c r="HV80" t="n">
         <v>36.8</v>
       </c>
+      <c r="HW80" t="n">
+        <v>56.8</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -56566,6 +56806,9 @@
       <c r="HV81" t="n">
         <v>19.3</v>
       </c>
+      <c r="HW81" t="n">
+        <v>29.5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -57260,6 +57503,9 @@
       <c r="HV82" t="n">
         <v>185.6</v>
       </c>
+      <c r="HW82" t="n">
+        <v>187.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -57954,6 +58200,9 @@
       <c r="HV83" t="n">
         <v>84.8</v>
       </c>
+      <c r="HW83" t="n">
+        <v>86.40000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -58648,6 +58897,9 @@
       <c r="HV84" t="n">
         <v>26.24</v>
       </c>
+      <c r="HW84" t="n">
+        <v>25.49</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -59342,6 +59594,9 @@
       <c r="HV85" t="n">
         <v>104.7</v>
       </c>
+      <c r="HW85" t="n">
+        <v>92.59999999999999</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -60036,6 +60291,9 @@
       <c r="HV86" t="n">
         <v>8</v>
       </c>
+      <c r="HW86" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -60730,6 +60988,9 @@
       <c r="HV87" t="n">
         <v>5</v>
       </c>
+      <c r="HW87" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -61424,6 +61685,9 @@
       <c r="HV88" t="n">
         <v>4</v>
       </c>
+      <c r="HW88" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -62118,6 +62382,9 @@
       <c r="HV89" t="n">
         <v>6</v>
       </c>
+      <c r="HW89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -62812,6 +63079,9 @@
       <c r="HV90" t="n">
         <v>135</v>
       </c>
+      <c r="HW90" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -63506,6 +63776,9 @@
       <c r="HV91" t="n">
         <v>219</v>
       </c>
+      <c r="HW91" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -64200,6 +64473,9 @@
       <c r="HV92" t="n">
         <v>269</v>
       </c>
+      <c r="HW92" t="n">
+        <v>224</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -64894,6 +65170,9 @@
       <c r="HV93" t="n">
         <v>74.3</v>
       </c>
+      <c r="HW93" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -65588,6 +65867,9 @@
       <c r="HV94" t="n">
         <v>44</v>
       </c>
+      <c r="HW94" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -66282,6 +66564,9 @@
       <c r="HV95" t="n">
         <v>16</v>
       </c>
+      <c r="HW95" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -66976,6 +67261,9 @@
       <c r="HV96" t="n">
         <v>16</v>
       </c>
+      <c r="HW96" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -67670,6 +67958,9 @@
       <c r="HV97" t="n">
         <v>31</v>
       </c>
+      <c r="HW97" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -68364,6 +68655,9 @@
       <c r="HV98" t="n">
         <v>34</v>
       </c>
+      <c r="HW98" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -69058,6 +69352,9 @@
       <c r="HV99" t="n">
         <v>44</v>
       </c>
+      <c r="HW99" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -69752,6 +70049,9 @@
       <c r="HV100" t="n">
         <v>4</v>
       </c>
+      <c r="HW100" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -70446,6 +70746,9 @@
       <c r="HV101" t="n">
         <v>9</v>
       </c>
+      <c r="HW101" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -71140,6 +71443,9 @@
       <c r="HV102" t="n">
         <v>81.8</v>
       </c>
+      <c r="HW102" t="n">
+        <v>84.59999999999999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
+++ b/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HW102"/>
+  <dimension ref="A1:HX102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1049,6 +1049,9 @@
       <c r="HW1" t="n">
         <v>10396</v>
       </c>
+      <c r="HX1" t="n">
+        <v>10406</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1746,6 +1749,9 @@
       <c r="HW2" t="n">
         <v>2021</v>
       </c>
+      <c r="HX2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2443,6 +2449,9 @@
       <c r="HW3" t="n">
         <v>8</v>
       </c>
+      <c r="HX3" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3140,6 +3149,9 @@
       <c r="HW4" t="n">
         <v>0</v>
       </c>
+      <c r="HX4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3837,6 +3849,9 @@
       <c r="HW5" t="n">
         <v>0</v>
       </c>
+      <c r="HX5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4534,6 +4549,9 @@
       <c r="HW6" t="n">
         <v>107</v>
       </c>
+      <c r="HX6" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5231,6 +5249,9 @@
       <c r="HW7" t="n">
         <v>91</v>
       </c>
+      <c r="HX7" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5928,6 +5949,9 @@
       <c r="HW8" t="n">
         <v>16</v>
       </c>
+      <c r="HX8" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6625,6 +6649,9 @@
       <c r="HW9" t="n">
         <v>1</v>
       </c>
+      <c r="HX9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7322,6 +7349,9 @@
       <c r="HW10" t="n">
         <v>3</v>
       </c>
+      <c r="HX10" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8019,6 +8049,9 @@
       <c r="HW11" t="n">
         <v>221</v>
       </c>
+      <c r="HX11" t="n">
+        <v>213</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8716,6 +8749,9 @@
       <c r="HW12" t="n">
         <v>138</v>
       </c>
+      <c r="HX12" t="n">
+        <v>168</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9413,6 +9449,9 @@
       <c r="HW13" t="n">
         <v>359</v>
       </c>
+      <c r="HX13" t="n">
+        <v>381</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10110,6 +10149,9 @@
       <c r="HW14" t="n">
         <v>1.6</v>
       </c>
+      <c r="HX14" t="n">
+        <v>1.27</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10807,6 +10849,9 @@
       <c r="HW15" t="n">
         <v>98</v>
       </c>
+      <c r="HX15" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11504,6 +11549,9 @@
       <c r="HW16" t="n">
         <v>58</v>
       </c>
+      <c r="HX16" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12201,6 +12249,9 @@
       <c r="HW17" t="n">
         <v>23</v>
       </c>
+      <c r="HX17" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12898,6 +12949,9 @@
       <c r="HW18" t="n">
         <v>22</v>
       </c>
+      <c r="HX18" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13595,6 +13649,9 @@
       <c r="HW19" t="n">
         <v>19</v>
       </c>
+      <c r="HX19" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14292,6 +14349,9 @@
       <c r="HW20" t="n">
         <v>16</v>
       </c>
+      <c r="HX20" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14989,6 +15049,9 @@
       <c r="HW21" t="n">
         <v>11</v>
       </c>
+      <c r="HX21" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15686,6 +15749,9 @@
       <c r="HW22" t="n">
         <v>8</v>
       </c>
+      <c r="HX22" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16383,6 +16449,9 @@
       <c r="HW23" t="n">
         <v>3</v>
       </c>
+      <c r="HX23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17080,6 +17149,9 @@
       <c r="HW24" t="n">
         <v>27</v>
       </c>
+      <c r="HX24" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17777,6 +17849,9 @@
       <c r="HW25" t="n">
         <v>59.3</v>
       </c>
+      <c r="HX25" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18474,6 +18549,9 @@
       <c r="HW26" t="n">
         <v>22.44</v>
       </c>
+      <c r="HX26" t="n">
+        <v>25.4</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19171,6 +19249,9 @@
       <c r="HW27" t="n">
         <v>13.3</v>
       </c>
+      <c r="HX27" t="n">
+        <v>18.14</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19868,6 +19949,9 @@
       <c r="HW28" t="n">
         <v>43</v>
       </c>
+      <c r="HX28" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20565,6 +20649,9 @@
       <c r="HW29" t="n">
         <v>63</v>
       </c>
+      <c r="HX29" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21262,6 +21349,9 @@
       <c r="HW30" t="n">
         <v>31</v>
       </c>
+      <c r="HX30" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21959,6 +22049,9 @@
       <c r="HW31" t="n">
         <v>60</v>
       </c>
+      <c r="HX31" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22656,6 +22749,9 @@
       <c r="HW32" t="n">
         <v>2.22</v>
       </c>
+      <c r="HX32" t="n">
+        <v>2.62</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23353,6 +23449,9 @@
       <c r="HW33" t="n">
         <v>3.75</v>
       </c>
+      <c r="HX33" t="n">
+        <v>3.67</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24050,6 +24149,9 @@
       <c r="HW34" t="n">
         <v>40</v>
       </c>
+      <c r="HX34" t="n">
+        <v>34.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24747,6 +24849,9 @@
       <c r="HW35" t="n">
         <v>26.7</v>
       </c>
+      <c r="HX35" t="n">
+        <v>27.3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25444,6 +25549,9 @@
       <c r="HW36" t="n">
         <v>186.9</v>
       </c>
+      <c r="HX36" t="n">
+        <v>186.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26141,6 +26249,9 @@
       <c r="HW37" t="n">
         <v>85.5</v>
       </c>
+      <c r="HX37" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26838,6 +26949,9 @@
       <c r="HW38" t="n">
         <v>25.8</v>
       </c>
+      <c r="HX38" t="n">
+        <v>25.66</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -27535,6 +27649,9 @@
       <c r="HW39" t="n">
         <v>95.3</v>
       </c>
+      <c r="HX39" t="n">
+        <v>89.7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28232,6 +28349,9 @@
       <c r="HW40" t="n">
         <v>5</v>
       </c>
+      <c r="HX40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28929,6 +29049,9 @@
       <c r="HW41" t="n">
         <v>6</v>
       </c>
+      <c r="HX41" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -29626,6 +29749,9 @@
       <c r="HW42" t="n">
         <v>6</v>
       </c>
+      <c r="HX42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -30323,6 +30449,9 @@
       <c r="HW43" t="n">
         <v>5</v>
       </c>
+      <c r="HX43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31020,6 +31149,9 @@
       <c r="HW44" t="n">
         <v>131</v>
       </c>
+      <c r="HX44" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -31717,6 +31849,9 @@
       <c r="HW45" t="n">
         <v>222</v>
       </c>
+      <c r="HX45" t="n">
+        <v>232</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -32414,6 +32549,9 @@
       <c r="HW46" t="n">
         <v>277</v>
       </c>
+      <c r="HX46" t="n">
+        <v>292</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -33111,6 +33249,9 @@
       <c r="HW47" t="n">
         <v>77.2</v>
       </c>
+      <c r="HX47" t="n">
+        <v>76.59999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -33808,6 +33949,9 @@
       <c r="HW48" t="n">
         <v>63</v>
       </c>
+      <c r="HX48" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -34505,6 +34649,9 @@
       <c r="HW49" t="n">
         <v>15</v>
       </c>
+      <c r="HX49" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -35202,6 +35349,9 @@
       <c r="HW50" t="n">
         <v>19</v>
       </c>
+      <c r="HX50" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -35899,6 +36049,9 @@
       <c r="HW51" t="n">
         <v>43</v>
       </c>
+      <c r="HX51" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -36596,6 +36749,9 @@
       <c r="HW52" t="n">
         <v>31</v>
       </c>
+      <c r="HX52" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -37293,6 +37449,9 @@
       <c r="HW53" t="n">
         <v>52</v>
       </c>
+      <c r="HX53" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -37990,6 +38149,9 @@
       <c r="HW54" t="n">
         <v>2</v>
       </c>
+      <c r="HX54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -38687,6 +38849,9 @@
       <c r="HW55" t="n">
         <v>11</v>
       </c>
+      <c r="HX55" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -39384,6 +39549,9 @@
       <c r="HW56" t="n">
         <v>68.8</v>
       </c>
+      <c r="HX56" t="n">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -40081,6 +40249,9 @@
       <c r="HW57" t="n">
         <v>199</v>
       </c>
+      <c r="HX57" t="n">
+        <v>199</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -40778,6 +40949,9 @@
       <c r="HW58" t="n">
         <v>121</v>
       </c>
+      <c r="HX58" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -41475,6 +41649,9 @@
       <c r="HW59" t="n">
         <v>320</v>
       </c>
+      <c r="HX59" t="n">
+        <v>337</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -42172,6 +42349,9 @@
       <c r="HW60" t="n">
         <v>1.64</v>
       </c>
+      <c r="HX60" t="n">
+        <v>1.44</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -42869,6 +43049,9 @@
       <c r="HW61" t="n">
         <v>83</v>
       </c>
+      <c r="HX61" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -43566,6 +43749,9 @@
       <c r="HW62" t="n">
         <v>45</v>
       </c>
+      <c r="HX62" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -44263,6 +44449,9 @@
       <c r="HW63" t="n">
         <v>42</v>
       </c>
+      <c r="HX63" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -44960,6 +45149,9 @@
       <c r="HW64" t="n">
         <v>19</v>
       </c>
+      <c r="HX64" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -45657,6 +45849,9 @@
       <c r="HW65" t="n">
         <v>22</v>
       </c>
+      <c r="HX65" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -46354,6 +46549,9 @@
       <c r="HW66" t="n">
         <v>13</v>
       </c>
+      <c r="HX66" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -47051,6 +47249,9 @@
       <c r="HW67" t="n">
         <v>11</v>
       </c>
+      <c r="HX67" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -47748,6 +47949,9 @@
       <c r="HW68" t="n">
         <v>12</v>
       </c>
+      <c r="HX68" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -48445,6 +48649,9 @@
       <c r="HW69" t="n">
         <v>1</v>
       </c>
+      <c r="HX69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -49142,6 +49349,9 @@
       <c r="HW70" t="n">
         <v>26</v>
       </c>
+      <c r="HX70" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -49839,6 +50049,9 @@
       <c r="HW71" t="n">
         <v>50</v>
       </c>
+      <c r="HX71" t="n">
+        <v>70.59999999999999</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -50536,6 +50749,9 @@
       <c r="HW72" t="n">
         <v>24.62</v>
       </c>
+      <c r="HX72" t="n">
+        <v>28.08</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -51233,6 +51449,9 @@
       <c r="HW73" t="n">
         <v>12.31</v>
       </c>
+      <c r="HX73" t="n">
+        <v>19.82</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -51930,6 +52149,9 @@
       <c r="HW74" t="n">
         <v>27</v>
       </c>
+      <c r="HX74" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -52627,6 +52849,9 @@
       <c r="HW75" t="n">
         <v>64</v>
       </c>
+      <c r="HX75" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -53324,6 +53549,9 @@
       <c r="HW76" t="n">
         <v>44</v>
       </c>
+      <c r="HX76" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -54021,6 +54249,9 @@
       <c r="HW77" t="n">
         <v>44</v>
       </c>
+      <c r="HX77" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -54718,6 +54949,9 @@
       <c r="HW78" t="n">
         <v>1.69</v>
       </c>
+      <c r="HX78" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -55415,6 +55649,9 @@
       <c r="HW79" t="n">
         <v>3.38</v>
       </c>
+      <c r="HX79" t="n">
+        <v>4.25</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -56112,6 +56349,9 @@
       <c r="HW80" t="n">
         <v>56.8</v>
       </c>
+      <c r="HX80" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -56809,6 +57049,9 @@
       <c r="HW81" t="n">
         <v>29.5</v>
       </c>
+      <c r="HX81" t="n">
+        <v>23.5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -57506,6 +57749,9 @@
       <c r="HW82" t="n">
         <v>187.5</v>
       </c>
+      <c r="HX82" t="n">
+        <v>187.6</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -58203,6 +58449,9 @@
       <c r="HW83" t="n">
         <v>86.40000000000001</v>
       </c>
+      <c r="HX83" t="n">
+        <v>83.5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -58900,6 +59149,9 @@
       <c r="HW84" t="n">
         <v>25.49</v>
       </c>
+      <c r="HX84" t="n">
+        <v>25.66</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -59597,6 +59849,9 @@
       <c r="HW85" t="n">
         <v>92.59999999999999</v>
       </c>
+      <c r="HX85" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -60294,6 +60549,9 @@
       <c r="HW86" t="n">
         <v>9</v>
       </c>
+      <c r="HX86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -60991,6 +61249,9 @@
       <c r="HW87" t="n">
         <v>3</v>
       </c>
+      <c r="HX87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -61688,6 +61949,9 @@
       <c r="HW88" t="n">
         <v>7</v>
       </c>
+      <c r="HX88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -62385,6 +62649,9 @@
       <c r="HW89" t="n">
         <v>4</v>
       </c>
+      <c r="HX89" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -63082,6 +63349,9 @@
       <c r="HW90" t="n">
         <v>131</v>
       </c>
+      <c r="HX90" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -63779,6 +64049,9 @@
       <c r="HW91" t="n">
         <v>188</v>
       </c>
+      <c r="HX91" t="n">
+        <v>185</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -64476,6 +64749,9 @@
       <c r="HW92" t="n">
         <v>224</v>
       </c>
+      <c r="HX92" t="n">
+        <v>251</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -65173,6 +65449,9 @@
       <c r="HW93" t="n">
         <v>70</v>
       </c>
+      <c r="HX93" t="n">
+        <v>74.5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -65870,6 +66149,9 @@
       <c r="HW94" t="n">
         <v>64</v>
       </c>
+      <c r="HX94" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -66567,6 +66849,9 @@
       <c r="HW95" t="n">
         <v>14</v>
       </c>
+      <c r="HX95" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -67264,6 +67549,9 @@
       <c r="HW96" t="n">
         <v>11</v>
       </c>
+      <c r="HX96" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -67961,6 +68249,9 @@
       <c r="HW97" t="n">
         <v>27</v>
       </c>
+      <c r="HX97" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -68658,6 +68949,9 @@
       <c r="HW98" t="n">
         <v>44</v>
       </c>
+      <c r="HX98" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -69355,6 +69649,9 @@
       <c r="HW99" t="n">
         <v>40</v>
       </c>
+      <c r="HX99" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -70052,6 +70349,9 @@
       <c r="HW100" t="n">
         <v>8</v>
       </c>
+      <c r="HX100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -70749,6 +71049,9 @@
       <c r="HW101" t="n">
         <v>11</v>
       </c>
+      <c r="HX101" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -71446,6 +71749,9 @@
       <c r="HW102" t="n">
         <v>84.59999999999999</v>
       </c>
+      <c r="HX102" t="n">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
+++ b/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HX102"/>
+  <dimension ref="A1:HY102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1052,6 +1052,9 @@
       <c r="HX1" t="n">
         <v>10406</v>
       </c>
+      <c r="HY1" t="n">
+        <v>10414</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1752,6 +1755,9 @@
       <c r="HX2" t="n">
         <v>2021</v>
       </c>
+      <c r="HY2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2452,6 +2458,9 @@
       <c r="HX3" t="n">
         <v>9</v>
       </c>
+      <c r="HY3" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3152,6 +3161,9 @@
       <c r="HX4" t="n">
         <v>1</v>
       </c>
+      <c r="HY4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3852,6 +3864,9 @@
       <c r="HX5" t="n">
         <v>1</v>
       </c>
+      <c r="HY5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4552,6 +4567,9 @@
       <c r="HX6" t="n">
         <v>96</v>
       </c>
+      <c r="HY6" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5252,6 +5270,9 @@
       <c r="HX7" t="n">
         <v>77</v>
       </c>
+      <c r="HY7" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5952,6 +5973,9 @@
       <c r="HX8" t="n">
         <v>19</v>
       </c>
+      <c r="HY8" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6652,6 +6676,9 @@
       <c r="HX9" t="n">
         <v>1</v>
       </c>
+      <c r="HY9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7352,6 +7379,9 @@
       <c r="HX10" t="n">
         <v>13</v>
       </c>
+      <c r="HY10" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8052,6 +8082,9 @@
       <c r="HX11" t="n">
         <v>213</v>
       </c>
+      <c r="HY11" t="n">
+        <v>220</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8752,6 +8785,9 @@
       <c r="HX12" t="n">
         <v>168</v>
       </c>
+      <c r="HY12" t="n">
+        <v>179</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9452,6 +9488,9 @@
       <c r="HX13" t="n">
         <v>381</v>
       </c>
+      <c r="HY13" t="n">
+        <v>399</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10152,6 +10191,9 @@
       <c r="HX14" t="n">
         <v>1.27</v>
       </c>
+      <c r="HY14" t="n">
+        <v>1.23</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10852,6 +10894,9 @@
       <c r="HX15" t="n">
         <v>78</v>
       </c>
+      <c r="HY15" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11552,6 +11597,9 @@
       <c r="HX16" t="n">
         <v>66</v>
       </c>
+      <c r="HY16" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12252,6 +12300,9 @@
       <c r="HX17" t="n">
         <v>23</v>
       </c>
+      <c r="HY17" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12952,6 +13003,9 @@
       <c r="HX18" t="n">
         <v>23</v>
       </c>
+      <c r="HY18" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13652,6 +13706,9 @@
       <c r="HX19" t="n">
         <v>25</v>
       </c>
+      <c r="HY19" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14352,6 +14409,9 @@
       <c r="HX20" t="n">
         <v>15</v>
       </c>
+      <c r="HY20" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15052,6 +15112,9 @@
       <c r="HX21" t="n">
         <v>10</v>
       </c>
+      <c r="HY21" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15752,6 +15815,9 @@
       <c r="HX22" t="n">
         <v>4</v>
       </c>
+      <c r="HY22" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16452,6 +16518,9 @@
       <c r="HX23" t="n">
         <v>2</v>
       </c>
+      <c r="HY23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17152,6 +17221,9 @@
       <c r="HX24" t="n">
         <v>21</v>
       </c>
+      <c r="HY24" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17852,6 +17924,9 @@
       <c r="HX25" t="n">
         <v>71.40000000000001</v>
       </c>
+      <c r="HY25" t="n">
+        <v>53.8</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18552,6 +18627,9 @@
       <c r="HX26" t="n">
         <v>25.4</v>
       </c>
+      <c r="HY26" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19252,6 +19330,9 @@
       <c r="HX27" t="n">
         <v>18.14</v>
       </c>
+      <c r="HY27" t="n">
+        <v>10.23</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19952,6 +20033,9 @@
       <c r="HX28" t="n">
         <v>44</v>
       </c>
+      <c r="HY28" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20652,6 +20736,9 @@
       <c r="HX29" t="n">
         <v>57</v>
       </c>
+      <c r="HY29" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21352,6 +21439,9 @@
       <c r="HX30" t="n">
         <v>37</v>
       </c>
+      <c r="HY30" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22052,6 +22142,9 @@
       <c r="HX31" t="n">
         <v>55</v>
       </c>
+      <c r="HY31" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22752,6 +22845,9 @@
       <c r="HX32" t="n">
         <v>2.62</v>
       </c>
+      <c r="HY32" t="n">
+        <v>1.77</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23452,6 +23548,9 @@
       <c r="HX33" t="n">
         <v>3.67</v>
       </c>
+      <c r="HY33" t="n">
+        <v>3.29</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24152,6 +24251,9 @@
       <c r="HX34" t="n">
         <v>34.5</v>
       </c>
+      <c r="HY34" t="n">
+        <v>53.6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24852,6 +24954,9 @@
       <c r="HX35" t="n">
         <v>27.3</v>
       </c>
+      <c r="HY35" t="n">
+        <v>30.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25552,6 +25657,9 @@
       <c r="HX36" t="n">
         <v>186.3</v>
       </c>
+      <c r="HY36" t="n">
+        <v>186.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26252,6 +26360,9 @@
       <c r="HX37" t="n">
         <v>85</v>
       </c>
+      <c r="HY37" t="n">
+        <v>85.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26952,6 +27063,9 @@
       <c r="HX38" t="n">
         <v>25.66</v>
       </c>
+      <c r="HY38" t="n">
+        <v>25.41</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -27652,6 +27766,9 @@
       <c r="HX39" t="n">
         <v>89.7</v>
       </c>
+      <c r="HY39" t="n">
+        <v>87.7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28352,6 +28469,9 @@
       <c r="HX40" t="n">
         <v>5</v>
       </c>
+      <c r="HY40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29052,6 +29172,9 @@
       <c r="HX41" t="n">
         <v>8</v>
       </c>
+      <c r="HY41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -29752,6 +29875,9 @@
       <c r="HX42" t="n">
         <v>4</v>
       </c>
+      <c r="HY42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -30452,6 +30578,9 @@
       <c r="HX43" t="n">
         <v>6</v>
       </c>
+      <c r="HY43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31152,6 +31281,9 @@
       <c r="HX44" t="n">
         <v>147</v>
       </c>
+      <c r="HY44" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -31852,6 +31984,9 @@
       <c r="HX45" t="n">
         <v>232</v>
       </c>
+      <c r="HY45" t="n">
+        <v>267</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -32552,6 +32687,9 @@
       <c r="HX46" t="n">
         <v>292</v>
       </c>
+      <c r="HY46" t="n">
+        <v>315</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -33252,6 +33390,9 @@
       <c r="HX47" t="n">
         <v>76.59999999999999</v>
       </c>
+      <c r="HY47" t="n">
+        <v>78.90000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -33952,6 +34093,9 @@
       <c r="HX48" t="n">
         <v>57</v>
       </c>
+      <c r="HY48" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -34652,6 +34796,9 @@
       <c r="HX49" t="n">
         <v>14</v>
       </c>
+      <c r="HY49" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -35352,6 +35499,9 @@
       <c r="HX50" t="n">
         <v>10</v>
       </c>
+      <c r="HY50" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -36052,6 +36202,9 @@
       <c r="HX51" t="n">
         <v>44</v>
       </c>
+      <c r="HY51" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -36752,6 +36905,9 @@
       <c r="HX52" t="n">
         <v>37</v>
       </c>
+      <c r="HY52" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -37452,6 +37608,9 @@
       <c r="HX53" t="n">
         <v>46</v>
       </c>
+      <c r="HY53" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -38152,6 +38311,9 @@
       <c r="HX54" t="n">
         <v>0</v>
       </c>
+      <c r="HY54" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -38852,6 +39014,9 @@
       <c r="HX55" t="n">
         <v>10</v>
       </c>
+      <c r="HY55" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -39552,6 +39717,9 @@
       <c r="HX56" t="n">
         <v>66.7</v>
       </c>
+      <c r="HY56" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -40252,6 +40420,9 @@
       <c r="HX57" t="n">
         <v>199</v>
       </c>
+      <c r="HY57" t="n">
+        <v>199</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -40952,6 +41123,9 @@
       <c r="HX58" t="n">
         <v>138</v>
       </c>
+      <c r="HY58" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -41652,6 +41826,9 @@
       <c r="HX59" t="n">
         <v>337</v>
       </c>
+      <c r="HY59" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -42352,6 +42529,9 @@
       <c r="HX60" t="n">
         <v>1.44</v>
       </c>
+      <c r="HY60" t="n">
+        <v>1.33</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -43052,6 +43232,9 @@
       <c r="HX61" t="n">
         <v>64</v>
       </c>
+      <c r="HY61" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -43752,6 +43935,9 @@
       <c r="HX62" t="n">
         <v>69</v>
       </c>
+      <c r="HY62" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -44452,6 +44638,9 @@
       <c r="HX63" t="n">
         <v>52</v>
       </c>
+      <c r="HY63" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -45152,6 +45341,9 @@
       <c r="HX64" t="n">
         <v>25</v>
       </c>
+      <c r="HY64" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -45852,6 +46044,9 @@
       <c r="HX65" t="n">
         <v>23</v>
       </c>
+      <c r="HY65" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -46552,6 +46747,9 @@
       <c r="HX66" t="n">
         <v>12</v>
       </c>
+      <c r="HY66" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -47252,6 +47450,9 @@
       <c r="HX67" t="n">
         <v>9</v>
       </c>
+      <c r="HY67" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -47952,6 +48153,9 @@
       <c r="HX68" t="n">
         <v>5</v>
       </c>
+      <c r="HY68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -48652,6 +48856,9 @@
       <c r="HX69" t="n">
         <v>0</v>
       </c>
+      <c r="HY69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -49352,6 +49559,9 @@
       <c r="HX70" t="n">
         <v>17</v>
       </c>
+      <c r="HY70" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -50052,6 +50262,9 @@
       <c r="HX71" t="n">
         <v>70.59999999999999</v>
       </c>
+      <c r="HY71" t="n">
+        <v>62.5</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -50752,6 +50965,9 @@
       <c r="HX72" t="n">
         <v>28.08</v>
       </c>
+      <c r="HY72" t="n">
+        <v>69.8</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -51452,6 +51668,9 @@
       <c r="HX73" t="n">
         <v>19.82</v>
       </c>
+      <c r="HY73" t="n">
+        <v>43.62</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -52152,6 +52371,9 @@
       <c r="HX74" t="n">
         <v>38</v>
       </c>
+      <c r="HY74" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -52852,6 +53074,9 @@
       <c r="HX75" t="n">
         <v>58</v>
       </c>
+      <c r="HY75" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -53552,6 +53777,9 @@
       <c r="HX76" t="n">
         <v>38</v>
       </c>
+      <c r="HY76" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -54252,6 +54480,9 @@
       <c r="HX77" t="n">
         <v>51</v>
       </c>
+      <c r="HY77" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -54952,6 +55183,9 @@
       <c r="HX78" t="n">
         <v>3</v>
       </c>
+      <c r="HY78" t="n">
+        <v>5.25</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -55652,6 +55886,9 @@
       <c r="HX79" t="n">
         <v>4.25</v>
       </c>
+      <c r="HY79" t="n">
+        <v>8.4</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -56352,6 +56589,9 @@
       <c r="HX80" t="n">
         <v>33.3</v>
       </c>
+      <c r="HY80" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -57052,6 +57292,9 @@
       <c r="HX81" t="n">
         <v>23.5</v>
       </c>
+      <c r="HY81" t="n">
+        <v>11.9</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -57752,6 +57995,9 @@
       <c r="HX82" t="n">
         <v>187.6</v>
       </c>
+      <c r="HY82" t="n">
+        <v>187.6</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -58452,6 +58698,9 @@
       <c r="HX83" t="n">
         <v>83.5</v>
       </c>
+      <c r="HY83" t="n">
+        <v>85.2</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -59152,6 +59401,9 @@
       <c r="HX84" t="n">
         <v>25.66</v>
       </c>
+      <c r="HY84" t="n">
+        <v>26.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -59852,6 +60104,9 @@
       <c r="HX85" t="n">
         <v>99</v>
       </c>
+      <c r="HY85" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -60552,6 +60807,9 @@
       <c r="HX86" t="n">
         <v>8</v>
       </c>
+      <c r="HY86" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -61252,6 +61510,9 @@
       <c r="HX87" t="n">
         <v>6</v>
       </c>
+      <c r="HY87" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -61952,6 +62213,9 @@
       <c r="HX88" t="n">
         <v>2</v>
       </c>
+      <c r="HY88" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -62652,6 +62916,9 @@
       <c r="HX89" t="n">
         <v>7</v>
       </c>
+      <c r="HY89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -63352,6 +63619,9 @@
       <c r="HX90" t="n">
         <v>136</v>
       </c>
+      <c r="HY90" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -64052,6 +64322,9 @@
       <c r="HX91" t="n">
         <v>185</v>
       </c>
+      <c r="HY91" t="n">
+        <v>209</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -64752,6 +65025,9 @@
       <c r="HX92" t="n">
         <v>251</v>
       </c>
+      <c r="HY92" t="n">
+        <v>247</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -65452,6 +65728,9 @@
       <c r="HX93" t="n">
         <v>74.5</v>
       </c>
+      <c r="HY93" t="n">
+        <v>70.8</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -66152,6 +66431,9 @@
       <c r="HX94" t="n">
         <v>58</v>
       </c>
+      <c r="HY94" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -66852,6 +67134,9 @@
       <c r="HX95" t="n">
         <v>10</v>
       </c>
+      <c r="HY95" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -67552,6 +67837,9 @@
       <c r="HX96" t="n">
         <v>11</v>
       </c>
+      <c r="HY96" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -68252,6 +68540,9 @@
       <c r="HX97" t="n">
         <v>38</v>
       </c>
+      <c r="HY97" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -68952,6 +69243,9 @@
       <c r="HX98" t="n">
         <v>38</v>
       </c>
+      <c r="HY98" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -69652,6 +69946,9 @@
       <c r="HX99" t="n">
         <v>60</v>
       </c>
+      <c r="HY99" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -70352,6 +70649,9 @@
       <c r="HX100" t="n">
         <v>0</v>
       </c>
+      <c r="HY100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -71052,6 +71352,9 @@
       <c r="HX101" t="n">
         <v>9</v>
       </c>
+      <c r="HY101" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -71752,6 +72055,9 @@
       <c r="HX102" t="n">
         <v>75</v>
       </c>
+      <c r="HY102" t="n">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
+++ b/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HY102"/>
+  <dimension ref="A1:HZ102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1055,6 +1055,9 @@
       <c r="HY1" t="n">
         <v>10414</v>
       </c>
+      <c r="HZ1" t="n">
+        <v>10422</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1758,6 +1761,9 @@
       <c r="HY2" t="n">
         <v>2021</v>
       </c>
+      <c r="HZ2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2461,6 +2467,9 @@
       <c r="HY3" t="n">
         <v>10</v>
       </c>
+      <c r="HZ3" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3164,6 +3173,9 @@
       <c r="HY4" t="n">
         <v>0</v>
       </c>
+      <c r="HZ4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3867,6 +3879,9 @@
       <c r="HY5" t="n">
         <v>0</v>
       </c>
+      <c r="HZ5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4570,6 +4585,9 @@
       <c r="HY6" t="n">
         <v>144</v>
       </c>
+      <c r="HZ6" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5273,6 +5291,9 @@
       <c r="HY7" t="n">
         <v>33</v>
       </c>
+      <c r="HZ7" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5976,6 +5997,9 @@
       <c r="HY8" t="n">
         <v>111</v>
       </c>
+      <c r="HZ8" t="n">
+        <v>-28</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6679,6 +6703,9 @@
       <c r="HY9" t="n">
         <v>1</v>
       </c>
+      <c r="HZ9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7382,6 +7409,9 @@
       <c r="HY10" t="n">
         <v>15</v>
       </c>
+      <c r="HZ10" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8085,6 +8115,9 @@
       <c r="HY11" t="n">
         <v>220</v>
       </c>
+      <c r="HZ11" t="n">
+        <v>235</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8788,6 +8821,9 @@
       <c r="HY12" t="n">
         <v>179</v>
       </c>
+      <c r="HZ12" t="n">
+        <v>158</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9491,6 +9527,9 @@
       <c r="HY13" t="n">
         <v>399</v>
       </c>
+      <c r="HZ13" t="n">
+        <v>393</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10194,6 +10233,9 @@
       <c r="HY14" t="n">
         <v>1.23</v>
       </c>
+      <c r="HZ14" t="n">
+        <v>1.49</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10897,6 +10939,9 @@
       <c r="HY15" t="n">
         <v>94</v>
       </c>
+      <c r="HZ15" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11600,6 +11645,9 @@
       <c r="HY16" t="n">
         <v>74</v>
       </c>
+      <c r="HZ16" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12303,6 +12351,9 @@
       <c r="HY17" t="n">
         <v>21</v>
       </c>
+      <c r="HZ17" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13006,6 +13057,9 @@
       <c r="HY18" t="n">
         <v>23</v>
       </c>
+      <c r="HZ18" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13709,6 +13763,9 @@
       <c r="HY19" t="n">
         <v>13</v>
       </c>
+      <c r="HZ19" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14412,6 +14469,9 @@
       <c r="HY20" t="n">
         <v>21</v>
       </c>
+      <c r="HZ20" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15115,6 +15175,9 @@
       <c r="HY21" t="n">
         <v>15</v>
       </c>
+      <c r="HZ21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15818,6 +15881,9 @@
       <c r="HY22" t="n">
         <v>16</v>
       </c>
+      <c r="HZ22" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16521,6 +16587,9 @@
       <c r="HY23" t="n">
         <v>2</v>
       </c>
+      <c r="HZ23" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17224,6 +17293,9 @@
       <c r="HY24" t="n">
         <v>39</v>
       </c>
+      <c r="HZ24" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17927,6 +17999,9 @@
       <c r="HY25" t="n">
         <v>53.8</v>
       </c>
+      <c r="HZ25" t="n">
+        <v>42.1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18630,6 +18705,9 @@
       <c r="HY26" t="n">
         <v>19</v>
       </c>
+      <c r="HZ26" t="n">
+        <v>49.12</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19333,6 +19411,9 @@
       <c r="HY27" t="n">
         <v>10.23</v>
       </c>
+      <c r="HZ27" t="n">
+        <v>20.68</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20036,6 +20117,9 @@
       <c r="HY28" t="n">
         <v>44</v>
       </c>
+      <c r="HZ28" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20739,6 +20823,9 @@
       <c r="HY29" t="n">
         <v>34</v>
       </c>
+      <c r="HZ29" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21442,6 +21529,9 @@
       <c r="HY30" t="n">
         <v>35</v>
       </c>
+      <c r="HZ30" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22145,6 +22235,9 @@
       <c r="HY31" t="n">
         <v>69</v>
       </c>
+      <c r="HZ31" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22848,6 +22941,9 @@
       <c r="HY32" t="n">
         <v>1.77</v>
       </c>
+      <c r="HZ32" t="n">
+        <v>2.74</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23551,6 +23647,9 @@
       <c r="HY33" t="n">
         <v>3.29</v>
       </c>
+      <c r="HZ33" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24254,6 +24353,9 @@
       <c r="HY34" t="n">
         <v>53.6</v>
       </c>
+      <c r="HZ34" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24957,6 +25059,9 @@
       <c r="HY35" t="n">
         <v>30.4</v>
       </c>
+      <c r="HZ35" t="n">
+        <v>15.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25660,6 +25765,9 @@
       <c r="HY36" t="n">
         <v>186.5</v>
       </c>
+      <c r="HZ36" t="n">
+        <v>186.7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26363,6 +26471,9 @@
       <c r="HY37" t="n">
         <v>85.3</v>
       </c>
+      <c r="HZ37" t="n">
+        <v>84.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27066,6 +27177,9 @@
       <c r="HY38" t="n">
         <v>25.41</v>
       </c>
+      <c r="HZ38" t="n">
+        <v>24.66</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -27769,6 +27883,9 @@
       <c r="HY39" t="n">
         <v>87.7</v>
       </c>
+      <c r="HZ39" t="n">
+        <v>81.8</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28472,6 +28589,9 @@
       <c r="HY40" t="n">
         <v>6</v>
       </c>
+      <c r="HZ40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29175,6 +29295,9 @@
       <c r="HY41" t="n">
         <v>7</v>
       </c>
+      <c r="HZ41" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -29878,6 +30001,9 @@
       <c r="HY42" t="n">
         <v>5</v>
       </c>
+      <c r="HZ42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -30581,6 +30707,9 @@
       <c r="HY43" t="n">
         <v>5</v>
       </c>
+      <c r="HZ43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31284,6 +31413,9 @@
       <c r="HY44" t="n">
         <v>139</v>
       </c>
+      <c r="HZ44" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -31987,6 +32119,9 @@
       <c r="HY45" t="n">
         <v>267</v>
       </c>
+      <c r="HZ45" t="n">
+        <v>267</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -32690,6 +32825,9 @@
       <c r="HY46" t="n">
         <v>315</v>
       </c>
+      <c r="HZ46" t="n">
+        <v>301</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -33393,6 +33531,9 @@
       <c r="HY47" t="n">
         <v>78.90000000000001</v>
       </c>
+      <c r="HZ47" t="n">
+        <v>76.59999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34096,6 +34237,9 @@
       <c r="HY48" t="n">
         <v>34</v>
       </c>
+      <c r="HZ48" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -34799,6 +34943,9 @@
       <c r="HY49" t="n">
         <v>12</v>
       </c>
+      <c r="HZ49" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -35502,6 +35649,9 @@
       <c r="HY50" t="n">
         <v>17</v>
       </c>
+      <c r="HZ50" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -36205,6 +36355,9 @@
       <c r="HY51" t="n">
         <v>44</v>
       </c>
+      <c r="HZ51" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -36908,6 +37061,9 @@
       <c r="HY52" t="n">
         <v>35</v>
       </c>
+      <c r="HZ52" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -37611,6 +37767,9 @@
       <c r="HY53" t="n">
         <v>57</v>
       </c>
+      <c r="HZ53" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -38314,6 +38473,9 @@
       <c r="HY54" t="n">
         <v>9</v>
       </c>
+      <c r="HZ54" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -39017,6 +39179,9 @@
       <c r="HY55" t="n">
         <v>15</v>
       </c>
+      <c r="HZ55" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -39720,6 +39885,9 @@
       <c r="HY56" t="n">
         <v>71.40000000000001</v>
       </c>
+      <c r="HZ56" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -40423,6 +40591,9 @@
       <c r="HY57" t="n">
         <v>199</v>
       </c>
+      <c r="HZ57" t="n">
+        <v>211</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -41126,6 +41297,9 @@
       <c r="HY58" t="n">
         <v>150</v>
       </c>
+      <c r="HZ58" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -41829,6 +42003,9 @@
       <c r="HY59" t="n">
         <v>349</v>
       </c>
+      <c r="HZ59" t="n">
+        <v>339</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -42532,6 +42709,9 @@
       <c r="HY60" t="n">
         <v>1.33</v>
       </c>
+      <c r="HZ60" t="n">
+        <v>1.65</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -43235,6 +43415,9 @@
       <c r="HY61" t="n">
         <v>86</v>
       </c>
+      <c r="HZ61" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -43938,6 +44121,9 @@
       <c r="HY62" t="n">
         <v>48</v>
       </c>
+      <c r="HZ62" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -44641,6 +44827,9 @@
       <c r="HY63" t="n">
         <v>53</v>
       </c>
+      <c r="HZ63" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -45344,6 +45533,9 @@
       <c r="HY64" t="n">
         <v>13</v>
       </c>
+      <c r="HZ64" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -46047,6 +46239,9 @@
       <c r="HY65" t="n">
         <v>23</v>
       </c>
+      <c r="HZ65" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -46750,6 +46945,9 @@
       <c r="HY66" t="n">
         <v>5</v>
       </c>
+      <c r="HZ66" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -47453,6 +47651,9 @@
       <c r="HY67" t="n">
         <v>3</v>
       </c>
+      <c r="HZ67" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -48156,6 +48357,9 @@
       <c r="HY68" t="n">
         <v>3</v>
       </c>
+      <c r="HZ68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -48859,6 +49063,9 @@
       <c r="HY69" t="n">
         <v>0</v>
       </c>
+      <c r="HZ69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -49562,6 +49769,9 @@
       <c r="HY70" t="n">
         <v>8</v>
       </c>
+      <c r="HZ70" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -50265,6 +50475,9 @@
       <c r="HY71" t="n">
         <v>62.5</v>
       </c>
+      <c r="HZ71" t="n">
+        <v>59.1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -50968,6 +51181,9 @@
       <c r="HY72" t="n">
         <v>69.8</v>
       </c>
+      <c r="HZ72" t="n">
+        <v>26.08</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -51671,6 +51887,9 @@
       <c r="HY73" t="n">
         <v>43.62</v>
       </c>
+      <c r="HZ73" t="n">
+        <v>15.41</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -52374,6 +52593,9 @@
       <c r="HY74" t="n">
         <v>31</v>
       </c>
+      <c r="HZ74" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -53077,6 +53299,9 @@
       <c r="HY75" t="n">
         <v>65</v>
       </c>
+      <c r="HZ75" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -53780,6 +54005,9 @@
       <c r="HY76" t="n">
         <v>46</v>
       </c>
+      <c r="HZ76" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -54483,6 +54711,9 @@
       <c r="HY77" t="n">
         <v>42</v>
       </c>
+      <c r="HZ77" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -55186,6 +55417,9 @@
       <c r="HY78" t="n">
         <v>5.25</v>
       </c>
+      <c r="HZ78" t="n">
+        <v>2.09</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -55889,6 +56123,9 @@
       <c r="HY79" t="n">
         <v>8.4</v>
       </c>
+      <c r="HZ79" t="n">
+        <v>3.54</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -56592,6 +56829,9 @@
       <c r="HY80" t="n">
         <v>19</v>
       </c>
+      <c r="HZ80" t="n">
+        <v>43.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -57295,6 +57535,9 @@
       <c r="HY81" t="n">
         <v>11.9</v>
       </c>
+      <c r="HZ81" t="n">
+        <v>28.3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -57998,6 +58241,9 @@
       <c r="HY82" t="n">
         <v>187.6</v>
       </c>
+      <c r="HZ82" t="n">
+        <v>187.8</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -58701,6 +58947,9 @@
       <c r="HY83" t="n">
         <v>85.2</v>
       </c>
+      <c r="HZ83" t="n">
+        <v>86.09999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -59404,6 +59653,9 @@
       <c r="HY84" t="n">
         <v>26.8</v>
       </c>
+      <c r="HZ84" t="n">
+        <v>24.74</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -60107,6 +60359,9 @@
       <c r="HY85" t="n">
         <v>104</v>
       </c>
+      <c r="HZ85" t="n">
+        <v>88.3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -60810,6 +61065,9 @@
       <c r="HY86" t="n">
         <v>3</v>
       </c>
+      <c r="HZ86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -61513,6 +61771,9 @@
       <c r="HY87" t="n">
         <v>8</v>
       </c>
+      <c r="HZ87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -62216,6 +62477,9 @@
       <c r="HY88" t="n">
         <v>7</v>
       </c>
+      <c r="HZ88" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -62919,6 +63183,9 @@
       <c r="HY89" t="n">
         <v>4</v>
       </c>
+      <c r="HZ89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -63622,6 +63889,9 @@
       <c r="HY90" t="n">
         <v>127</v>
       </c>
+      <c r="HZ90" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -64325,6 +64595,9 @@
       <c r="HY91" t="n">
         <v>209</v>
       </c>
+      <c r="HZ91" t="n">
+        <v>194</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -65028,6 +65301,9 @@
       <c r="HY92" t="n">
         <v>247</v>
       </c>
+      <c r="HZ92" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -65731,6 +66007,9 @@
       <c r="HY93" t="n">
         <v>70.8</v>
       </c>
+      <c r="HZ93" t="n">
+        <v>73.7</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -66434,6 +66713,9 @@
       <c r="HY94" t="n">
         <v>65</v>
       </c>
+      <c r="HZ94" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -67137,6 +67419,9 @@
       <c r="HY95" t="n">
         <v>8</v>
       </c>
+      <c r="HZ95" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -67840,6 +68125,9 @@
       <c r="HY96" t="n">
         <v>7</v>
       </c>
+      <c r="HZ96" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -68543,6 +68831,9 @@
       <c r="HY97" t="n">
         <v>31</v>
       </c>
+      <c r="HZ97" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -69246,6 +69537,9 @@
       <c r="HY98" t="n">
         <v>46</v>
       </c>
+      <c r="HZ98" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -69949,6 +70243,9 @@
       <c r="HY99" t="n">
         <v>60</v>
       </c>
+      <c r="HZ99" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -70652,6 +70949,9 @@
       <c r="HY100" t="n">
         <v>4</v>
       </c>
+      <c r="HZ100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -71355,6 +71655,9 @@
       <c r="HY101" t="n">
         <v>3</v>
       </c>
+      <c r="HZ101" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -72058,6 +72361,9 @@
       <c r="HY102" t="n">
         <v>60</v>
       </c>
+      <c r="HZ102" t="n">
+        <v>76.90000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
+++ b/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HZ102"/>
+  <dimension ref="A1:IA102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1058,6 +1058,9 @@
       <c r="HZ1" t="n">
         <v>10422</v>
       </c>
+      <c r="IA1" t="n">
+        <v>10431</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1764,6 +1767,9 @@
       <c r="HZ2" t="n">
         <v>2021</v>
       </c>
+      <c r="IA2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2470,6 +2476,9 @@
       <c r="HZ3" t="n">
         <v>11</v>
       </c>
+      <c r="IA3" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3176,6 +3185,9 @@
       <c r="HZ4" t="n">
         <v>0</v>
       </c>
+      <c r="IA4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3882,6 +3894,9 @@
       <c r="HZ5" t="n">
         <v>1</v>
       </c>
+      <c r="IA5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4588,6 +4603,9 @@
       <c r="HZ6" t="n">
         <v>59</v>
       </c>
+      <c r="IA6" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5294,6 +5312,9 @@
       <c r="HZ7" t="n">
         <v>87</v>
       </c>
+      <c r="IA7" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6000,6 +6021,9 @@
       <c r="HZ8" t="n">
         <v>-28</v>
       </c>
+      <c r="IA8" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6706,6 +6730,9 @@
       <c r="HZ9" t="n">
         <v>0</v>
       </c>
+      <c r="IA9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7412,6 +7439,9 @@
       <c r="HZ10" t="n">
         <v>11</v>
       </c>
+      <c r="IA10" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8118,6 +8148,9 @@
       <c r="HZ11" t="n">
         <v>235</v>
       </c>
+      <c r="IA11" t="n">
+        <v>202</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8824,6 +8857,9 @@
       <c r="HZ12" t="n">
         <v>158</v>
       </c>
+      <c r="IA12" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9530,6 +9566,9 @@
       <c r="HZ13" t="n">
         <v>393</v>
       </c>
+      <c r="IA13" t="n">
+        <v>341</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10236,6 +10275,9 @@
       <c r="HZ14" t="n">
         <v>1.49</v>
       </c>
+      <c r="IA14" t="n">
+        <v>1.45</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10942,6 +10984,9 @@
       <c r="HZ15" t="n">
         <v>105</v>
       </c>
+      <c r="IA15" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11648,6 +11693,9 @@
       <c r="HZ16" t="n">
         <v>57</v>
       </c>
+      <c r="IA16" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12354,6 +12402,9 @@
       <c r="HZ17" t="n">
         <v>26</v>
       </c>
+      <c r="IA17" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13060,6 +13111,9 @@
       <c r="HZ18" t="n">
         <v>16</v>
       </c>
+      <c r="IA18" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13766,6 +13820,9 @@
       <c r="HZ19" t="n">
         <v>15</v>
       </c>
+      <c r="IA19" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14472,6 +14529,9 @@
       <c r="HZ20" t="n">
         <v>8</v>
       </c>
+      <c r="IA20" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15178,6 +15238,9 @@
       <c r="HZ21" t="n">
         <v>6</v>
       </c>
+      <c r="IA21" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15884,6 +15947,9 @@
       <c r="HZ22" t="n">
         <v>5</v>
       </c>
+      <c r="IA22" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16590,6 +16656,9 @@
       <c r="HZ23" t="n">
         <v>6</v>
       </c>
+      <c r="IA23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17296,6 +17365,9 @@
       <c r="HZ24" t="n">
         <v>19</v>
       </c>
+      <c r="IA24" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18002,6 +18074,9 @@
       <c r="HZ25" t="n">
         <v>42.1</v>
       </c>
+      <c r="IA25" t="n">
+        <v>46.4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18708,6 +18783,9 @@
       <c r="HZ26" t="n">
         <v>49.12</v>
       </c>
+      <c r="IA26" t="n">
+        <v>26.23</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19414,6 +19492,9 @@
       <c r="HZ27" t="n">
         <v>20.68</v>
       </c>
+      <c r="IA27" t="n">
+        <v>12.18</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20120,6 +20201,9 @@
       <c r="HZ28" t="n">
         <v>36</v>
       </c>
+      <c r="IA28" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20826,6 +20910,9 @@
       <c r="HZ29" t="n">
         <v>46</v>
       </c>
+      <c r="IA29" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21532,6 +21619,9 @@
       <c r="HZ30" t="n">
         <v>31</v>
       </c>
+      <c r="IA30" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22238,6 +22328,9 @@
       <c r="HZ31" t="n">
         <v>52</v>
       </c>
+      <c r="IA31" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22944,6 +23037,9 @@
       <c r="HZ32" t="n">
         <v>2.74</v>
       </c>
+      <c r="IA32" t="n">
+        <v>1.86</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23650,6 +23746,9 @@
       <c r="HZ33" t="n">
         <v>6.5</v>
       </c>
+      <c r="IA33" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24356,6 +24455,9 @@
       <c r="HZ34" t="n">
         <v>25</v>
       </c>
+      <c r="IA34" t="n">
+        <v>51.9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25062,6 +25164,9 @@
       <c r="HZ35" t="n">
         <v>15.4</v>
       </c>
+      <c r="IA35" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25768,6 +25873,9 @@
       <c r="HZ36" t="n">
         <v>186.7</v>
       </c>
+      <c r="IA36" t="n">
+        <v>187.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26474,6 +26582,9 @@
       <c r="HZ37" t="n">
         <v>84.3</v>
       </c>
+      <c r="IA37" t="n">
+        <v>85.40000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27180,6 +27291,9 @@
       <c r="HZ38" t="n">
         <v>24.66</v>
       </c>
+      <c r="IA38" t="n">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -27886,6 +28000,9 @@
       <c r="HZ39" t="n">
         <v>81.8</v>
       </c>
+      <c r="IA39" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28592,6 +28709,9 @@
       <c r="HZ40" t="n">
         <v>6</v>
       </c>
+      <c r="IA40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29298,6 +29418,9 @@
       <c r="HZ41" t="n">
         <v>8</v>
       </c>
+      <c r="IA41" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30004,6 +30127,9 @@
       <c r="HZ42" t="n">
         <v>5</v>
       </c>
+      <c r="IA42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -30710,6 +30836,9 @@
       <c r="HZ43" t="n">
         <v>4</v>
       </c>
+      <c r="IA43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31416,6 +31545,9 @@
       <c r="HZ44" t="n">
         <v>118</v>
       </c>
+      <c r="IA44" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32122,6 +32254,9 @@
       <c r="HZ45" t="n">
         <v>267</v>
       </c>
+      <c r="IA45" t="n">
+        <v>208</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -32828,6 +32963,9 @@
       <c r="HZ46" t="n">
         <v>301</v>
       </c>
+      <c r="IA46" t="n">
+        <v>245</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -33534,6 +33672,9 @@
       <c r="HZ47" t="n">
         <v>76.59999999999999</v>
       </c>
+      <c r="IA47" t="n">
+        <v>71.8</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34240,6 +34381,9 @@
       <c r="HZ48" t="n">
         <v>46</v>
       </c>
+      <c r="IA48" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -34946,6 +35090,9 @@
       <c r="HZ49" t="n">
         <v>7</v>
       </c>
+      <c r="IA49" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -35652,6 +35799,9 @@
       <c r="HZ50" t="n">
         <v>11</v>
       </c>
+      <c r="IA50" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -36358,6 +36508,9 @@
       <c r="HZ51" t="n">
         <v>36</v>
       </c>
+      <c r="IA51" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -37064,6 +37217,9 @@
       <c r="HZ52" t="n">
         <v>31</v>
       </c>
+      <c r="IA52" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -37770,6 +37926,9 @@
       <c r="HZ53" t="n">
         <v>58</v>
       </c>
+      <c r="IA53" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -38476,6 +38635,9 @@
       <c r="HZ54" t="n">
         <v>12</v>
       </c>
+      <c r="IA54" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -39182,6 +39344,9 @@
       <c r="HZ55" t="n">
         <v>6</v>
       </c>
+      <c r="IA55" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -39888,6 +40053,9 @@
       <c r="HZ56" t="n">
         <v>75</v>
       </c>
+      <c r="IA56" t="n">
+        <v>76.90000000000001</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -40594,6 +40762,9 @@
       <c r="HZ57" t="n">
         <v>211</v>
       </c>
+      <c r="IA57" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -41300,6 +41471,9 @@
       <c r="HZ58" t="n">
         <v>128</v>
       </c>
+      <c r="IA58" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -42006,6 +42180,9 @@
       <c r="HZ59" t="n">
         <v>339</v>
       </c>
+      <c r="IA59" t="n">
+        <v>353</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -42712,6 +42889,9 @@
       <c r="HZ60" t="n">
         <v>1.65</v>
       </c>
+      <c r="IA60" t="n">
+        <v>1.56</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -43418,6 +43598,9 @@
       <c r="HZ61" t="n">
         <v>96</v>
       </c>
+      <c r="IA61" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -44124,6 +44307,9 @@
       <c r="HZ62" t="n">
         <v>46</v>
       </c>
+      <c r="IA62" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -44830,6 +45016,9 @@
       <c r="HZ63" t="n">
         <v>38</v>
       </c>
+      <c r="IA63" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -45536,6 +45725,9 @@
       <c r="HZ64" t="n">
         <v>15</v>
       </c>
+      <c r="IA64" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -46242,6 +46434,9 @@
       <c r="HZ65" t="n">
         <v>16</v>
       </c>
+      <c r="IA65" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -46948,6 +47143,9 @@
       <c r="HZ66" t="n">
         <v>13</v>
       </c>
+      <c r="IA66" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -47654,6 +47852,9 @@
       <c r="HZ67" t="n">
         <v>10</v>
       </c>
+      <c r="IA67" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -48360,6 +48561,9 @@
       <c r="HZ68" t="n">
         <v>7</v>
       </c>
+      <c r="IA68" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -49066,6 +49270,9 @@
       <c r="HZ69" t="n">
         <v>2</v>
       </c>
+      <c r="IA69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -49772,6 +49979,9 @@
       <c r="HZ70" t="n">
         <v>22</v>
       </c>
+      <c r="IA70" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -50478,6 +50688,9 @@
       <c r="HZ71" t="n">
         <v>59.1</v>
       </c>
+      <c r="IA71" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -51184,6 +51397,9 @@
       <c r="HZ72" t="n">
         <v>26.08</v>
       </c>
+      <c r="IA72" t="n">
+        <v>39.22</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -51890,6 +52106,9 @@
       <c r="HZ73" t="n">
         <v>15.41</v>
       </c>
+      <c r="IA73" t="n">
+        <v>17.65</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -52596,6 +52815,9 @@
       <c r="HZ74" t="n">
         <v>27</v>
       </c>
+      <c r="IA74" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -53302,6 +53524,9 @@
       <c r="HZ75" t="n">
         <v>57</v>
       </c>
+      <c r="IA75" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -54008,6 +54233,9 @@
       <c r="HZ76" t="n">
         <v>44</v>
       </c>
+      <c r="IA76" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -54714,6 +54942,9 @@
       <c r="HZ77" t="n">
         <v>46</v>
       </c>
+      <c r="IA77" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -55420,6 +55651,9 @@
       <c r="HZ78" t="n">
         <v>2.09</v>
       </c>
+      <c r="IA78" t="n">
+        <v>2.25</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -56126,6 +56360,9 @@
       <c r="HZ79" t="n">
         <v>3.54</v>
       </c>
+      <c r="IA79" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -56832,6 +57069,9 @@
       <c r="HZ80" t="n">
         <v>43.5</v>
       </c>
+      <c r="IA80" t="n">
+        <v>42.2</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -57538,6 +57778,9 @@
       <c r="HZ81" t="n">
         <v>28.3</v>
       </c>
+      <c r="IA81" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -58244,6 +58487,9 @@
       <c r="HZ82" t="n">
         <v>187.8</v>
       </c>
+      <c r="IA82" t="n">
+        <v>187.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -58950,6 +59196,9 @@
       <c r="HZ83" t="n">
         <v>86.09999999999999</v>
       </c>
+      <c r="IA83" t="n">
+        <v>87.8</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -59656,6 +59905,9 @@
       <c r="HZ84" t="n">
         <v>24.74</v>
       </c>
+      <c r="IA84" t="n">
+        <v>24.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -60362,6 +60614,9 @@
       <c r="HZ85" t="n">
         <v>88.3</v>
       </c>
+      <c r="IA85" t="n">
+        <v>85.7</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -61068,6 +61323,9 @@
       <c r="HZ86" t="n">
         <v>8</v>
       </c>
+      <c r="IA86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -61774,6 +62032,9 @@
       <c r="HZ87" t="n">
         <v>4</v>
       </c>
+      <c r="IA87" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -62480,6 +62741,9 @@
       <c r="HZ88" t="n">
         <v>7</v>
       </c>
+      <c r="IA88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -63186,6 +63450,9 @@
       <c r="HZ89" t="n">
         <v>4</v>
       </c>
+      <c r="IA89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -63892,6 +64159,9 @@
       <c r="HZ90" t="n">
         <v>136</v>
       </c>
+      <c r="IA90" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -64598,6 +64868,9 @@
       <c r="HZ91" t="n">
         <v>194</v>
       </c>
+      <c r="IA91" t="n">
+        <v>211</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -65304,6 +65577,9 @@
       <c r="HZ92" t="n">
         <v>250</v>
       </c>
+      <c r="IA92" t="n">
+        <v>260</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -66010,6 +66286,9 @@
       <c r="HZ93" t="n">
         <v>73.7</v>
       </c>
+      <c r="IA93" t="n">
+        <v>73.7</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -66716,6 +66995,9 @@
       <c r="HZ94" t="n">
         <v>57</v>
       </c>
+      <c r="IA94" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -67422,6 +67704,9 @@
       <c r="HZ95" t="n">
         <v>16</v>
       </c>
+      <c r="IA95" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -68128,6 +68413,9 @@
       <c r="HZ96" t="n">
         <v>16</v>
       </c>
+      <c r="IA96" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -68834,6 +69122,9 @@
       <c r="HZ97" t="n">
         <v>27</v>
       </c>
+      <c r="IA97" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -69540,6 +69831,9 @@
       <c r="HZ98" t="n">
         <v>44</v>
       </c>
+      <c r="IA98" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -70246,6 +70540,9 @@
       <c r="HZ99" t="n">
         <v>45</v>
       </c>
+      <c r="IA99" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -70952,6 +71249,9 @@
       <c r="HZ100" t="n">
         <v>4</v>
       </c>
+      <c r="IA100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -71658,6 +71958,9 @@
       <c r="HZ101" t="n">
         <v>10</v>
       </c>
+      <c r="IA101" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -72364,6 +72667,9 @@
       <c r="HZ102" t="n">
         <v>76.90000000000001</v>
       </c>
+      <c r="IA102" t="n">
+        <v>66.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
+++ b/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IB102"/>
+  <dimension ref="A1:IC102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1064,6 +1064,9 @@
       <c r="IB1" t="n">
         <v>10438</v>
       </c>
+      <c r="IC1" t="n">
+        <v>10452</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1776,6 +1779,9 @@
       <c r="IB2" t="n">
         <v>2021</v>
       </c>
+      <c r="IC2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2488,6 +2494,9 @@
       <c r="IB3" t="n">
         <v>14</v>
       </c>
+      <c r="IC3" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3200,6 +3209,9 @@
       <c r="IB4" t="n">
         <v>1</v>
       </c>
+      <c r="IC4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3912,6 +3924,9 @@
       <c r="IB5" t="n">
         <v>0</v>
       </c>
+      <c r="IC5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4624,6 +4639,9 @@
       <c r="IB6" t="n">
         <v>78</v>
       </c>
+      <c r="IC6" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5336,6 +5354,9 @@
       <c r="IB7" t="n">
         <v>83</v>
       </c>
+      <c r="IC7" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6048,6 +6069,9 @@
       <c r="IB8" t="n">
         <v>-5</v>
       </c>
+      <c r="IC8" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6760,6 +6784,9 @@
       <c r="IB9" t="n">
         <v>0</v>
       </c>
+      <c r="IC9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7472,6 +7499,9 @@
       <c r="IB10" t="n">
         <v>7</v>
       </c>
+      <c r="IC10" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8184,6 +8214,9 @@
       <c r="IB11" t="n">
         <v>200</v>
       </c>
+      <c r="IC11" t="n">
+        <v>221</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8896,6 +8929,9 @@
       <c r="IB12" t="n">
         <v>162</v>
       </c>
+      <c r="IC12" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9608,6 +9644,9 @@
       <c r="IB13" t="n">
         <v>362</v>
       </c>
+      <c r="IC13" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10320,6 +10359,9 @@
       <c r="IB14" t="n">
         <v>1.23</v>
       </c>
+      <c r="IC14" t="n">
+        <v>1.57</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11032,6 +11074,9 @@
       <c r="IB15" t="n">
         <v>68</v>
       </c>
+      <c r="IC15" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11744,6 +11789,9 @@
       <c r="IB16" t="n">
         <v>64</v>
       </c>
+      <c r="IC16" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12456,6 +12504,9 @@
       <c r="IB17" t="n">
         <v>35</v>
       </c>
+      <c r="IC17" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13168,6 +13219,9 @@
       <c r="IB18" t="n">
         <v>21</v>
       </c>
+      <c r="IC18" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13880,6 +13934,9 @@
       <c r="IB19" t="n">
         <v>13</v>
       </c>
+      <c r="IC19" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14592,6 +14649,9 @@
       <c r="IB20" t="n">
         <v>11</v>
       </c>
+      <c r="IC20" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15304,6 +15364,9 @@
       <c r="IB21" t="n">
         <v>8</v>
       </c>
+      <c r="IC21" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16016,6 +16079,9 @@
       <c r="IB22" t="n">
         <v>9</v>
       </c>
+      <c r="IC22" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16728,6 +16794,9 @@
       <c r="IB23" t="n">
         <v>3</v>
       </c>
+      <c r="IC23" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17440,6 +17509,9 @@
       <c r="IB24" t="n">
         <v>23</v>
       </c>
+      <c r="IC24" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18152,6 +18224,9 @@
       <c r="IB25" t="n">
         <v>47.8</v>
       </c>
+      <c r="IC25" t="n">
+        <v>39.4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18864,6 +18939,9 @@
       <c r="IB26" t="n">
         <v>32.91</v>
       </c>
+      <c r="IC26" t="n">
+        <v>27.85</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19576,6 +19654,9 @@
       <c r="IB27" t="n">
         <v>15.74</v>
       </c>
+      <c r="IC27" t="n">
+        <v>10.97</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20288,6 +20369,9 @@
       <c r="IB28" t="n">
         <v>42</v>
       </c>
+      <c r="IC28" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21000,6 +21084,9 @@
       <c r="IB29" t="n">
         <v>55</v>
       </c>
+      <c r="IC29" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21712,6 +21799,9 @@
       <c r="IB30" t="n">
         <v>40</v>
       </c>
+      <c r="IC30" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22424,6 +22514,9 @@
       <c r="IB31" t="n">
         <v>49</v>
       </c>
+      <c r="IC31" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23136,6 +23229,9 @@
       <c r="IB32" t="n">
         <v>2.13</v>
       </c>
+      <c r="IC32" t="n">
+        <v>1.82</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23848,6 +23944,9 @@
       <c r="IB33" t="n">
         <v>4.45</v>
       </c>
+      <c r="IC33" t="n">
+        <v>4.62</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24560,6 +24659,9 @@
       <c r="IB34" t="n">
         <v>40.8</v>
       </c>
+      <c r="IC34" t="n">
+        <v>46.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25272,6 +25374,9 @@
       <c r="IB35" t="n">
         <v>22.4</v>
       </c>
+      <c r="IC35" t="n">
+        <v>21.7</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25984,6 +26089,9 @@
       <c r="IB36" t="n">
         <v>186.7</v>
       </c>
+      <c r="IC36" t="n">
+        <v>186.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26696,6 +26804,9 @@
       <c r="IB37" t="n">
         <v>84.40000000000001</v>
       </c>
+      <c r="IC37" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27408,6 +27519,9 @@
       <c r="IB38" t="n">
         <v>25.8</v>
       </c>
+      <c r="IC38" t="n">
+        <v>25.41</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28120,6 +28234,9 @@
       <c r="IB39" t="n">
         <v>94.7</v>
       </c>
+      <c r="IC39" t="n">
+        <v>91.3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28832,6 +28949,9 @@
       <c r="IB40" t="n">
         <v>4</v>
       </c>
+      <c r="IC40" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29544,6 +29664,9 @@
       <c r="IB41" t="n">
         <v>9</v>
       </c>
+      <c r="IC41" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30256,6 +30379,9 @@
       <c r="IB42" t="n">
         <v>4</v>
       </c>
+      <c r="IC42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -30968,6 +31094,9 @@
       <c r="IB43" t="n">
         <v>6</v>
       </c>
+      <c r="IC43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31680,6 +31809,9 @@
       <c r="IB44" t="n">
         <v>147</v>
       </c>
+      <c r="IC44" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32392,6 +32524,9 @@
       <c r="IB45" t="n">
         <v>216</v>
       </c>
+      <c r="IC45" t="n">
+        <v>220</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33104,6 +33239,9 @@
       <c r="IB46" t="n">
         <v>267</v>
       </c>
+      <c r="IC46" t="n">
+        <v>262</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -33816,6 +33954,9 @@
       <c r="IB47" t="n">
         <v>73.8</v>
       </c>
+      <c r="IC47" t="n">
+        <v>72.40000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34528,6 +34669,9 @@
       <c r="IB48" t="n">
         <v>55</v>
       </c>
+      <c r="IC48" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35240,6 +35384,9 @@
       <c r="IB49" t="n">
         <v>10</v>
       </c>
+      <c r="IC49" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -35952,6 +36099,9 @@
       <c r="IB50" t="n">
         <v>11</v>
       </c>
+      <c r="IC50" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -36664,6 +36814,9 @@
       <c r="IB51" t="n">
         <v>42</v>
       </c>
+      <c r="IC51" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -37376,6 +37529,9 @@
       <c r="IB52" t="n">
         <v>40</v>
       </c>
+      <c r="IC52" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -38088,6 +38244,9 @@
       <c r="IB53" t="n">
         <v>78</v>
       </c>
+      <c r="IC53" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -38800,6 +38959,9 @@
       <c r="IB54" t="n">
         <v>5</v>
       </c>
+      <c r="IC54" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -39512,6 +39674,9 @@
       <c r="IB55" t="n">
         <v>8</v>
       </c>
+      <c r="IC55" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -40224,6 +40389,9 @@
       <c r="IB56" t="n">
         <v>72.7</v>
       </c>
+      <c r="IC56" t="n">
+        <v>84.59999999999999</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -40936,6 +41104,9 @@
       <c r="IB57" t="n">
         <v>231</v>
       </c>
+      <c r="IC57" t="n">
+        <v>238</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -41648,6 +41819,9 @@
       <c r="IB58" t="n">
         <v>183</v>
       </c>
+      <c r="IC58" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -42360,6 +42534,9 @@
       <c r="IB59" t="n">
         <v>414</v>
       </c>
+      <c r="IC59" t="n">
+        <v>345</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -43072,6 +43249,9 @@
       <c r="IB60" t="n">
         <v>1.26</v>
       </c>
+      <c r="IC60" t="n">
+        <v>2.22</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -43784,6 +43964,9 @@
       <c r="IB61" t="n">
         <v>81</v>
       </c>
+      <c r="IC61" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -44496,6 +44679,9 @@
       <c r="IB62" t="n">
         <v>67</v>
       </c>
+      <c r="IC62" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -45208,6 +45394,9 @@
       <c r="IB63" t="n">
         <v>48</v>
       </c>
+      <c r="IC63" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -45920,6 +46109,9 @@
       <c r="IB64" t="n">
         <v>13</v>
       </c>
+      <c r="IC64" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -46632,6 +46824,9 @@
       <c r="IB65" t="n">
         <v>21</v>
       </c>
+      <c r="IC65" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -47344,6 +47539,9 @@
       <c r="IB66" t="n">
         <v>12</v>
       </c>
+      <c r="IC66" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -48056,6 +48254,9 @@
       <c r="IB67" t="n">
         <v>10</v>
       </c>
+      <c r="IC67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -48768,6 +48969,9 @@
       <c r="IB68" t="n">
         <v>8</v>
       </c>
+      <c r="IC68" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -49480,6 +49684,9 @@
       <c r="IB69" t="n">
         <v>3</v>
       </c>
+      <c r="IC69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -50192,6 +50399,9 @@
       <c r="IB70" t="n">
         <v>23</v>
       </c>
+      <c r="IC70" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -50904,6 +51114,9 @@
       <c r="IB71" t="n">
         <v>52.2</v>
       </c>
+      <c r="IC71" t="n">
+        <v>46.2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -51616,6 +51829,9 @@
       <c r="IB72" t="n">
         <v>34.5</v>
       </c>
+      <c r="IC72" t="n">
+        <v>57.5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -52328,6 +52544,9 @@
       <c r="IB73" t="n">
         <v>18</v>
       </c>
+      <c r="IC73" t="n">
+        <v>26.54</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -53040,6 +53259,9 @@
       <c r="IB74" t="n">
         <v>38</v>
       </c>
+      <c r="IC74" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -53752,6 +53974,9 @@
       <c r="IB75" t="n">
         <v>58</v>
       </c>
+      <c r="IC75" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -54464,6 +54689,9 @@
       <c r="IB76" t="n">
         <v>38</v>
       </c>
+      <c r="IC76" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -55176,6 +55404,9 @@
       <c r="IB77" t="n">
         <v>53</v>
       </c>
+      <c r="IC77" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -55888,6 +56119,9 @@
       <c r="IB78" t="n">
         <v>2.3</v>
       </c>
+      <c r="IC78" t="n">
+        <v>2.92</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -56600,6 +56834,9 @@
       <c r="IB79" t="n">
         <v>4.42</v>
       </c>
+      <c r="IC79" t="n">
+        <v>6.33</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -57312,6 +57549,9 @@
       <c r="IB80" t="n">
         <v>37.7</v>
       </c>
+      <c r="IC80" t="n">
+        <v>31.6</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -58024,6 +58264,9 @@
       <c r="IB81" t="n">
         <v>22.6</v>
       </c>
+      <c r="IC81" t="n">
+        <v>15.8</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -58736,6 +58979,9 @@
       <c r="IB82" t="n">
         <v>188</v>
       </c>
+      <c r="IC82" t="n">
+        <v>188.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -59448,6 +59694,9 @@
       <c r="IB83" t="n">
         <v>88.5</v>
       </c>
+      <c r="IC83" t="n">
+        <v>88.5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -60160,6 +60409,9 @@
       <c r="IB84" t="n">
         <v>28.16</v>
       </c>
+      <c r="IC84" t="n">
+        <v>27.16</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -60872,6 +61124,9 @@
       <c r="IB85" t="n">
         <v>152.9</v>
       </c>
+      <c r="IC85" t="n">
+        <v>141.5</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -61584,6 +61839,9 @@
       <c r="IB86" t="n">
         <v>4</v>
       </c>
+      <c r="IC86" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -62296,6 +62554,9 @@
       <c r="IB87" t="n">
         <v>5</v>
       </c>
+      <c r="IC87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -63008,6 +63269,9 @@
       <c r="IB88" t="n">
         <v>2</v>
       </c>
+      <c r="IC88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -63720,6 +63984,9 @@
       <c r="IB89" t="n">
         <v>12</v>
       </c>
+      <c r="IC89" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -64432,6 +64699,9 @@
       <c r="IB90" t="n">
         <v>163</v>
       </c>
+      <c r="IC90" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -65144,6 +65414,9 @@
       <c r="IB91" t="n">
         <v>251</v>
       </c>
+      <c r="IC91" t="n">
+        <v>218</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -65856,6 +66129,9 @@
       <c r="IB92" t="n">
         <v>311</v>
       </c>
+      <c r="IC92" t="n">
+        <v>252</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -66568,6 +66844,9 @@
       <c r="IB93" t="n">
         <v>75.09999999999999</v>
       </c>
+      <c r="IC93" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -67280,6 +67559,9 @@
       <c r="IB94" t="n">
         <v>58</v>
       </c>
+      <c r="IC94" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -67992,6 +68274,9 @@
       <c r="IB95" t="n">
         <v>19</v>
       </c>
+      <c r="IC95" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -68704,6 +68989,9 @@
       <c r="IB96" t="n">
         <v>11</v>
       </c>
+      <c r="IC96" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -69416,6 +69704,9 @@
       <c r="IB97" t="n">
         <v>38</v>
       </c>
+      <c r="IC97" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -70128,6 +70419,9 @@
       <c r="IB98" t="n">
         <v>38</v>
       </c>
+      <c r="IC98" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -70840,6 +71134,9 @@
       <c r="IB99" t="n">
         <v>57</v>
       </c>
+      <c r="IC99" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -71552,6 +71849,9 @@
       <c r="IB100" t="n">
         <v>2</v>
       </c>
+      <c r="IC100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -72264,6 +72564,9 @@
       <c r="IB101" t="n">
         <v>10</v>
       </c>
+      <c r="IC101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -72976,8 +73279,11 @@
       <c r="IB102" t="n">
         <v>83.3</v>
       </c>
+      <c r="IC102" t="n">
+        <v>66.7</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
+++ b/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IC102"/>
+  <dimension ref="A1:ID102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1067,6 +1067,9 @@
       <c r="IC1" t="n">
         <v>10452</v>
       </c>
+      <c r="ID1" t="n">
+        <v>10459</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1782,6 +1785,9 @@
       <c r="IC2" t="n">
         <v>2021</v>
       </c>
+      <c r="ID2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2497,6 +2503,9 @@
       <c r="IC3" t="n">
         <v>15</v>
       </c>
+      <c r="ID3" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3212,6 +3221,9 @@
       <c r="IC4" t="n">
         <v>1</v>
       </c>
+      <c r="ID4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3927,6 +3939,9 @@
       <c r="IC5" t="n">
         <v>1</v>
       </c>
+      <c r="ID5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4642,6 +4657,9 @@
       <c r="IC6" t="n">
         <v>98</v>
       </c>
+      <c r="ID6" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5357,6 +5375,9 @@
       <c r="IC7" t="n">
         <v>43</v>
       </c>
+      <c r="ID7" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6072,6 +6093,9 @@
       <c r="IC8" t="n">
         <v>55</v>
       </c>
+      <c r="ID8" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6787,6 +6811,9 @@
       <c r="IC9" t="n">
         <v>1</v>
       </c>
+      <c r="ID9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7502,6 +7529,9 @@
       <c r="IC10" t="n">
         <v>17</v>
       </c>
+      <c r="ID10" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8217,6 +8247,9 @@
       <c r="IC11" t="n">
         <v>221</v>
       </c>
+      <c r="ID11" t="n">
+        <v>207</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8932,6 +8965,9 @@
       <c r="IC12" t="n">
         <v>141</v>
       </c>
+      <c r="ID12" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9647,6 +9683,9 @@
       <c r="IC13" t="n">
         <v>362</v>
       </c>
+      <c r="ID13" t="n">
+        <v>341</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10362,6 +10401,9 @@
       <c r="IC14" t="n">
         <v>1.57</v>
       </c>
+      <c r="ID14" t="n">
+        <v>1.54</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11077,6 +11119,9 @@
       <c r="IC15" t="n">
         <v>86</v>
       </c>
+      <c r="ID15" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11792,6 +11837,9 @@
       <c r="IC16" t="n">
         <v>52</v>
       </c>
+      <c r="ID16" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12507,6 +12555,9 @@
       <c r="IC17" t="n">
         <v>25</v>
       </c>
+      <c r="ID17" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13222,6 +13273,9 @@
       <c r="IC18" t="n">
         <v>18</v>
       </c>
+      <c r="ID18" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13937,6 +13991,9 @@
       <c r="IC19" t="n">
         <v>11</v>
       </c>
+      <c r="ID19" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14652,6 +14709,9 @@
       <c r="IC20" t="n">
         <v>13</v>
       </c>
+      <c r="ID20" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15367,6 +15427,9 @@
       <c r="IC21" t="n">
         <v>11</v>
       </c>
+      <c r="ID21" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16082,6 +16145,9 @@
       <c r="IC22" t="n">
         <v>15</v>
       </c>
+      <c r="ID22" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16797,6 +16863,9 @@
       <c r="IC23" t="n">
         <v>5</v>
       </c>
+      <c r="ID23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17512,6 +17581,9 @@
       <c r="IC24" t="n">
         <v>33</v>
       </c>
+      <c r="ID24" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18227,6 +18299,9 @@
       <c r="IC25" t="n">
         <v>39.4</v>
       </c>
+      <c r="ID25" t="n">
+        <v>57.1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18942,6 +19017,9 @@
       <c r="IC26" t="n">
         <v>27.85</v>
       </c>
+      <c r="ID26" t="n">
+        <v>21.31</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19657,6 +19735,9 @@
       <c r="IC27" t="n">
         <v>10.97</v>
       </c>
+      <c r="ID27" t="n">
+        <v>12.18</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20372,6 +20453,9 @@
       <c r="IC28" t="n">
         <v>44</v>
       </c>
+      <c r="ID28" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21087,6 +21171,9 @@
       <c r="IC29" t="n">
         <v>42</v>
       </c>
+      <c r="ID29" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21802,6 +21889,9 @@
       <c r="IC30" t="n">
         <v>30</v>
       </c>
+      <c r="ID30" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22517,6 +22607,9 @@
       <c r="IC31" t="n">
         <v>60</v>
       </c>
+      <c r="ID31" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23232,6 +23325,9 @@
       <c r="IC32" t="n">
         <v>1.82</v>
       </c>
+      <c r="ID32" t="n">
+        <v>1.79</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23947,6 +24043,9 @@
       <c r="IC33" t="n">
         <v>4.62</v>
       </c>
+      <c r="ID33" t="n">
+        <v>3.12</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24662,6 +24761,9 @@
       <c r="IC34" t="n">
         <v>46.7</v>
       </c>
+      <c r="ID34" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25377,6 +25479,9 @@
       <c r="IC35" t="n">
         <v>21.7</v>
       </c>
+      <c r="ID35" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26092,6 +26197,9 @@
       <c r="IC36" t="n">
         <v>186.5</v>
       </c>
+      <c r="ID36" t="n">
+        <v>186.6</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26807,6 +26915,9 @@
       <c r="IC37" t="n">
         <v>84</v>
       </c>
+      <c r="ID37" t="n">
+        <v>84.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27522,6 +27633,9 @@
       <c r="IC38" t="n">
         <v>25.41</v>
       </c>
+      <c r="ID38" t="n">
+        <v>25.41</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28237,6 +28351,9 @@
       <c r="IC39" t="n">
         <v>91.3</v>
       </c>
+      <c r="ID39" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28952,6 +29069,9 @@
       <c r="IC40" t="n">
         <v>4</v>
       </c>
+      <c r="ID40" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29667,6 +29787,9 @@
       <c r="IC41" t="n">
         <v>10</v>
       </c>
+      <c r="ID41" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30382,6 +30505,9 @@
       <c r="IC42" t="n">
         <v>3</v>
       </c>
+      <c r="ID42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31097,6 +31223,9 @@
       <c r="IC43" t="n">
         <v>6</v>
       </c>
+      <c r="ID43" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31812,6 +31941,9 @@
       <c r="IC44" t="n">
         <v>151</v>
       </c>
+      <c r="ID44" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32527,6 +32659,9 @@
       <c r="IC45" t="n">
         <v>220</v>
       </c>
+      <c r="ID45" t="n">
+        <v>218</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33242,6 +33377,9 @@
       <c r="IC46" t="n">
         <v>262</v>
       </c>
+      <c r="ID46" t="n">
+        <v>262</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -33957,6 +34095,9 @@
       <c r="IC47" t="n">
         <v>72.40000000000001</v>
       </c>
+      <c r="ID47" t="n">
+        <v>76.8</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34672,6 +34813,9 @@
       <c r="IC48" t="n">
         <v>42</v>
       </c>
+      <c r="ID48" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35387,6 +35531,9 @@
       <c r="IC49" t="n">
         <v>11</v>
       </c>
+      <c r="ID49" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -36102,6 +36249,9 @@
       <c r="IC50" t="n">
         <v>16</v>
       </c>
+      <c r="ID50" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -36817,6 +36967,9 @@
       <c r="IC51" t="n">
         <v>44</v>
       </c>
+      <c r="ID51" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -37532,6 +37685,9 @@
       <c r="IC52" t="n">
         <v>30</v>
       </c>
+      <c r="ID52" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -38247,6 +38403,9 @@
       <c r="IC53" t="n">
         <v>64</v>
       </c>
+      <c r="ID53" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -38962,6 +39121,9 @@
       <c r="IC54" t="n">
         <v>12</v>
       </c>
+      <c r="ID54" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -39677,6 +39839,9 @@
       <c r="IC55" t="n">
         <v>11</v>
       </c>
+      <c r="ID55" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -40392,6 +40557,9 @@
       <c r="IC56" t="n">
         <v>84.59999999999999</v>
       </c>
+      <c r="ID56" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -41107,6 +41275,9 @@
       <c r="IC57" t="n">
         <v>238</v>
       </c>
+      <c r="ID57" t="n">
+        <v>245</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -41822,6 +41993,9 @@
       <c r="IC58" t="n">
         <v>107</v>
       </c>
+      <c r="ID58" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -42537,6 +42711,9 @@
       <c r="IC59" t="n">
         <v>345</v>
       </c>
+      <c r="ID59" t="n">
+        <v>367</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -43252,6 +43429,9 @@
       <c r="IC60" t="n">
         <v>2.22</v>
       </c>
+      <c r="ID60" t="n">
+        <v>2.01</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -43967,6 +44147,9 @@
       <c r="IC61" t="n">
         <v>127</v>
       </c>
+      <c r="ID61" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -44682,6 +44865,9 @@
       <c r="IC62" t="n">
         <v>49</v>
       </c>
+      <c r="ID62" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -45397,6 +45583,9 @@
       <c r="IC63" t="n">
         <v>45</v>
       </c>
+      <c r="ID63" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -46112,6 +46301,9 @@
       <c r="IC64" t="n">
         <v>11</v>
       </c>
+      <c r="ID64" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -46827,6 +47019,9 @@
       <c r="IC65" t="n">
         <v>18</v>
       </c>
+      <c r="ID65" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -47542,6 +47737,9 @@
       <c r="IC66" t="n">
         <v>6</v>
       </c>
+      <c r="ID66" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -48257,6 +48455,9 @@
       <c r="IC67" t="n">
         <v>4</v>
       </c>
+      <c r="ID67" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -48972,6 +49173,9 @@
       <c r="IC68" t="n">
         <v>6</v>
       </c>
+      <c r="ID68" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -49687,6 +49891,9 @@
       <c r="IC69" t="n">
         <v>1</v>
       </c>
+      <c r="ID69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -50402,6 +50609,9 @@
       <c r="IC70" t="n">
         <v>13</v>
       </c>
+      <c r="ID70" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -51117,6 +51327,9 @@
       <c r="IC71" t="n">
         <v>46.2</v>
       </c>
+      <c r="ID71" t="n">
+        <v>45.8</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -51832,6 +52045,9 @@
       <c r="IC72" t="n">
         <v>57.5</v>
       </c>
+      <c r="ID72" t="n">
+        <v>33.36</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -52547,6 +52763,9 @@
       <c r="IC73" t="n">
         <v>26.54</v>
       </c>
+      <c r="ID73" t="n">
+        <v>15.29</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -53262,6 +53481,9 @@
       <c r="IC74" t="n">
         <v>29</v>
       </c>
+      <c r="ID74" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -53977,6 +54199,9 @@
       <c r="IC75" t="n">
         <v>64</v>
       </c>
+      <c r="ID75" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -54692,6 +54917,9 @@
       <c r="IC76" t="n">
         <v>45</v>
       </c>
+      <c r="ID76" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -55407,6 +55635,9 @@
       <c r="IC77" t="n">
         <v>38</v>
       </c>
+      <c r="ID77" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -56122,6 +56353,9 @@
       <c r="IC78" t="n">
         <v>2.92</v>
       </c>
+      <c r="ID78" t="n">
+        <v>2.17</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -56837,6 +57071,9 @@
       <c r="IC79" t="n">
         <v>6.33</v>
       </c>
+      <c r="ID79" t="n">
+        <v>4.73</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -57552,6 +57789,9 @@
       <c r="IC80" t="n">
         <v>31.6</v>
       </c>
+      <c r="ID80" t="n">
+        <v>44.2</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -58267,6 +58507,9 @@
       <c r="IC81" t="n">
         <v>15.8</v>
       </c>
+      <c r="ID81" t="n">
+        <v>21.2</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -58982,6 +59225,9 @@
       <c r="IC82" t="n">
         <v>188.5</v>
       </c>
+      <c r="ID82" t="n">
+        <v>189.1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -59697,6 +59943,9 @@
       <c r="IC83" t="n">
         <v>88.5</v>
       </c>
+      <c r="ID83" t="n">
+        <v>85.59999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -60412,6 +60661,9 @@
       <c r="IC84" t="n">
         <v>27.16</v>
       </c>
+      <c r="ID84" t="n">
+        <v>25.16</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -61127,6 +61379,9 @@
       <c r="IC85" t="n">
         <v>141.5</v>
       </c>
+      <c r="ID85" t="n">
+        <v>98.3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -61842,6 +62097,9 @@
       <c r="IC86" t="n">
         <v>3</v>
       </c>
+      <c r="ID86" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -62557,6 +62815,9 @@
       <c r="IC87" t="n">
         <v>6</v>
       </c>
+      <c r="ID87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -63272,6 +63533,9 @@
       <c r="IC88" t="n">
         <v>3</v>
       </c>
+      <c r="ID88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -63987,6 +64251,9 @@
       <c r="IC89" t="n">
         <v>10</v>
       </c>
+      <c r="ID89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -64702,6 +64969,9 @@
       <c r="IC90" t="n">
         <v>121</v>
       </c>
+      <c r="ID90" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -65417,6 +65687,9 @@
       <c r="IC91" t="n">
         <v>218</v>
       </c>
+      <c r="ID91" t="n">
+        <v>245</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -66132,6 +66405,9 @@
       <c r="IC92" t="n">
         <v>252</v>
       </c>
+      <c r="ID92" t="n">
+        <v>280</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -66847,6 +67123,9 @@
       <c r="IC93" t="n">
         <v>73</v>
       </c>
+      <c r="ID93" t="n">
+        <v>76.3</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -67562,6 +67841,9 @@
       <c r="IC94" t="n">
         <v>64</v>
       </c>
+      <c r="ID94" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -68277,6 +68559,9 @@
       <c r="IC95" t="n">
         <v>18</v>
       </c>
+      <c r="ID95" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -68992,6 +69277,9 @@
       <c r="IC96" t="n">
         <v>9</v>
       </c>
+      <c r="ID96" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -69707,6 +69995,9 @@
       <c r="IC97" t="n">
         <v>29</v>
       </c>
+      <c r="ID97" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -70422,6 +70713,9 @@
       <c r="IC98" t="n">
         <v>45</v>
       </c>
+      <c r="ID98" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -71137,6 +71431,9 @@
       <c r="IC99" t="n">
         <v>53</v>
       </c>
+      <c r="ID99" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -71852,6 +72149,9 @@
       <c r="IC100" t="n">
         <v>0</v>
       </c>
+      <c r="ID100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -72567,6 +72867,9 @@
       <c r="IC101" t="n">
         <v>4</v>
       </c>
+      <c r="ID101" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -73282,8 +73585,11 @@
       <c r="IC102" t="n">
         <v>66.7</v>
       </c>
+      <c r="ID102" t="n">
+        <v>81.8</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
+++ b/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ID102"/>
+  <dimension ref="A1:IE102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1070,6 +1070,9 @@
       <c r="ID1" t="n">
         <v>10459</v>
       </c>
+      <c r="IE1" t="n">
+        <v>10468</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1788,6 +1791,9 @@
       <c r="ID2" t="n">
         <v>2021</v>
       </c>
+      <c r="IE2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2506,6 +2512,9 @@
       <c r="ID3" t="n">
         <v>16</v>
       </c>
+      <c r="IE3" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3224,6 +3233,9 @@
       <c r="ID4" t="n">
         <v>0</v>
       </c>
+      <c r="IE4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3942,6 +3954,9 @@
       <c r="ID5" t="n">
         <v>0</v>
       </c>
+      <c r="IE5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4660,6 +4675,9 @@
       <c r="ID6" t="n">
         <v>108</v>
       </c>
+      <c r="IE6" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5378,6 +5396,9 @@
       <c r="ID7" t="n">
         <v>79</v>
       </c>
+      <c r="IE7" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6096,6 +6117,9 @@
       <c r="ID8" t="n">
         <v>29</v>
       </c>
+      <c r="IE8" t="n">
+        <v>-19</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6814,6 +6838,9 @@
       <c r="ID9" t="n">
         <v>1</v>
       </c>
+      <c r="IE9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7532,6 +7559,9 @@
       <c r="ID10" t="n">
         <v>12</v>
       </c>
+      <c r="IE10" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8250,6 +8280,9 @@
       <c r="ID11" t="n">
         <v>207</v>
       </c>
+      <c r="IE11" t="n">
+        <v>193</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8968,6 +9001,9 @@
       <c r="ID12" t="n">
         <v>134</v>
       </c>
+      <c r="IE12" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9686,6 +9722,9 @@
       <c r="ID13" t="n">
         <v>341</v>
       </c>
+      <c r="IE13" t="n">
+        <v>342</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10404,6 +10443,9 @@
       <c r="ID14" t="n">
         <v>1.54</v>
       </c>
+      <c r="IE14" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11122,6 +11164,9 @@
       <c r="ID15" t="n">
         <v>99</v>
       </c>
+      <c r="IE15" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11840,6 +11885,9 @@
       <c r="ID16" t="n">
         <v>55</v>
       </c>
+      <c r="IE16" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12558,6 +12606,9 @@
       <c r="ID17" t="n">
         <v>25</v>
       </c>
+      <c r="IE17" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13276,6 +13327,9 @@
       <c r="ID18" t="n">
         <v>21</v>
       </c>
+      <c r="IE18" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13994,6 +14048,9 @@
       <c r="ID19" t="n">
         <v>14</v>
       </c>
+      <c r="IE19" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14712,6 +14769,9 @@
       <c r="ID20" t="n">
         <v>16</v>
       </c>
+      <c r="IE20" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15430,6 +15490,9 @@
       <c r="ID21" t="n">
         <v>12</v>
       </c>
+      <c r="IE21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16148,6 +16211,9 @@
       <c r="ID22" t="n">
         <v>12</v>
       </c>
+      <c r="IE22" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16866,6 +16932,9 @@
       <c r="ID23" t="n">
         <v>0</v>
       </c>
+      <c r="IE23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17584,6 +17653,9 @@
       <c r="ID24" t="n">
         <v>28</v>
       </c>
+      <c r="IE24" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18302,6 +18374,9 @@
       <c r="ID25" t="n">
         <v>57.1</v>
       </c>
+      <c r="IE25" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19020,6 +19095,9 @@
       <c r="ID26" t="n">
         <v>21.31</v>
       </c>
+      <c r="IE26" t="n">
+        <v>42.75</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19738,6 +19816,9 @@
       <c r="ID27" t="n">
         <v>12.18</v>
       </c>
+      <c r="IE27" t="n">
+        <v>17.1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20456,6 +20537,9 @@
       <c r="ID28" t="n">
         <v>29</v>
       </c>
+      <c r="IE28" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21174,6 +21258,9 @@
       <c r="ID29" t="n">
         <v>49</v>
       </c>
+      <c r="IE29" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21892,6 +21979,9 @@
       <c r="ID30" t="n">
         <v>41</v>
       </c>
+      <c r="IE30" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22610,6 +22700,9 @@
       <c r="ID31" t="n">
         <v>50</v>
       </c>
+      <c r="IE31" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23328,6 +23421,9 @@
       <c r="ID32" t="n">
         <v>1.79</v>
       </c>
+      <c r="IE32" t="n">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24046,6 +24142,9 @@
       <c r="ID33" t="n">
         <v>3.12</v>
       </c>
+      <c r="IE33" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24764,6 +24863,9 @@
       <c r="ID34" t="n">
         <v>56</v>
       </c>
+      <c r="IE34" t="n">
+        <v>34.6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25482,6 +25584,9 @@
       <c r="ID35" t="n">
         <v>32</v>
       </c>
+      <c r="IE35" t="n">
+        <v>15.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26200,6 +26305,9 @@
       <c r="ID36" t="n">
         <v>186.6</v>
       </c>
+      <c r="IE36" t="n">
+        <v>186.8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26918,6 +27026,9 @@
       <c r="ID37" t="n">
         <v>84.3</v>
       </c>
+      <c r="IE37" t="n">
+        <v>84.09999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27636,6 +27747,9 @@
       <c r="ID38" t="n">
         <v>25.41</v>
       </c>
+      <c r="IE38" t="n">
+        <v>25.24</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28354,6 +28468,9 @@
       <c r="ID39" t="n">
         <v>92</v>
       </c>
+      <c r="IE39" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29072,6 +29189,9 @@
       <c r="ID40" t="n">
         <v>4</v>
       </c>
+      <c r="IE40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29790,6 +29910,9 @@
       <c r="ID41" t="n">
         <v>10</v>
       </c>
+      <c r="IE41" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30508,6 +30631,9 @@
       <c r="ID42" t="n">
         <v>2</v>
       </c>
+      <c r="IE42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31226,6 +31352,9 @@
       <c r="ID43" t="n">
         <v>7</v>
       </c>
+      <c r="IE43" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31944,6 +32073,9 @@
       <c r="ID44" t="n">
         <v>111</v>
       </c>
+      <c r="IE44" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32662,6 +32794,9 @@
       <c r="ID45" t="n">
         <v>218</v>
       </c>
+      <c r="IE45" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33380,6 +33515,9 @@
       <c r="ID46" t="n">
         <v>262</v>
       </c>
+      <c r="IE46" t="n">
+        <v>240</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34098,6 +34236,9 @@
       <c r="ID47" t="n">
         <v>76.8</v>
       </c>
+      <c r="IE47" t="n">
+        <v>70.2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34816,6 +34957,9 @@
       <c r="ID48" t="n">
         <v>49</v>
       </c>
+      <c r="IE48" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35534,6 +35678,9 @@
       <c r="ID49" t="n">
         <v>11</v>
       </c>
+      <c r="IE49" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -36252,6 +36399,9 @@
       <c r="ID50" t="n">
         <v>19</v>
       </c>
+      <c r="IE50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -36970,6 +37120,9 @@
       <c r="ID51" t="n">
         <v>29</v>
       </c>
+      <c r="IE51" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -37688,6 +37841,9 @@
       <c r="ID52" t="n">
         <v>41</v>
       </c>
+      <c r="IE52" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -38406,6 +38562,9 @@
       <c r="ID53" t="n">
         <v>41</v>
       </c>
+      <c r="IE53" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -39124,6 +39283,9 @@
       <c r="ID54" t="n">
         <v>11</v>
       </c>
+      <c r="IE54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -39842,6 +40004,9 @@
       <c r="ID55" t="n">
         <v>12</v>
       </c>
+      <c r="IE55" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -40560,6 +40725,9 @@
       <c r="ID56" t="n">
         <v>75</v>
       </c>
+      <c r="IE56" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -41278,6 +41446,9 @@
       <c r="ID57" t="n">
         <v>245</v>
       </c>
+      <c r="IE57" t="n">
+        <v>238</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -41996,6 +42167,9 @@
       <c r="ID58" t="n">
         <v>122</v>
       </c>
+      <c r="IE58" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -42714,6 +42888,9 @@
       <c r="ID59" t="n">
         <v>367</v>
       </c>
+      <c r="IE59" t="n">
+        <v>375</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -43432,6 +43609,9 @@
       <c r="ID60" t="n">
         <v>2.01</v>
       </c>
+      <c r="IE60" t="n">
+        <v>1.74</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -44150,6 +44330,9 @@
       <c r="ID61" t="n">
         <v>138</v>
       </c>
+      <c r="IE61" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -44868,6 +45051,9 @@
       <c r="ID62" t="n">
         <v>37</v>
       </c>
+      <c r="IE62" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -45586,6 +45772,9 @@
       <c r="ID63" t="n">
         <v>43</v>
       </c>
+      <c r="IE63" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -46304,6 +46493,9 @@
       <c r="ID64" t="n">
         <v>14</v>
       </c>
+      <c r="IE64" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -47022,6 +47214,9 @@
       <c r="ID65" t="n">
         <v>21</v>
       </c>
+      <c r="IE65" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -47740,6 +47935,9 @@
       <c r="ID66" t="n">
         <v>11</v>
       </c>
+      <c r="IE66" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -48458,6 +48656,9 @@
       <c r="ID67" t="n">
         <v>9</v>
       </c>
+      <c r="IE67" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -49176,6 +49377,9 @@
       <c r="ID68" t="n">
         <v>12</v>
       </c>
+      <c r="IE68" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -49894,6 +50098,9 @@
       <c r="ID69" t="n">
         <v>1</v>
       </c>
+      <c r="IE69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -50612,6 +50819,9 @@
       <c r="ID70" t="n">
         <v>24</v>
       </c>
+      <c r="IE70" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -51330,6 +51540,9 @@
       <c r="ID71" t="n">
         <v>45.8</v>
       </c>
+      <c r="IE71" t="n">
+        <v>45.8</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -52048,6 +52261,9 @@
       <c r="ID72" t="n">
         <v>33.36</v>
       </c>
+      <c r="IE72" t="n">
+        <v>34.09</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -52766,6 +52982,9 @@
       <c r="ID73" t="n">
         <v>15.29</v>
       </c>
+      <c r="IE73" t="n">
+        <v>15.62</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -53484,6 +53703,9 @@
       <c r="ID74" t="n">
         <v>36</v>
       </c>
+      <c r="IE74" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -54202,6 +54424,9 @@
       <c r="ID75" t="n">
         <v>65</v>
       </c>
+      <c r="IE75" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -54920,6 +55145,9 @@
       <c r="ID76" t="n">
         <v>32</v>
       </c>
+      <c r="IE76" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -55638,6 +55866,9 @@
       <c r="ID77" t="n">
         <v>52</v>
       </c>
+      <c r="IE77" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -56356,6 +56587,9 @@
       <c r="ID78" t="n">
         <v>2.17</v>
       </c>
+      <c r="IE78" t="n">
+        <v>1.96</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -57074,6 +57308,9 @@
       <c r="ID79" t="n">
         <v>4.73</v>
       </c>
+      <c r="IE79" t="n">
+        <v>4.27</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -57792,6 +58029,9 @@
       <c r="ID80" t="n">
         <v>44.2</v>
       </c>
+      <c r="IE80" t="n">
+        <v>46.8</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -58510,6 +58750,9 @@
       <c r="ID81" t="n">
         <v>21.2</v>
       </c>
+      <c r="IE81" t="n">
+        <v>23.4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -59228,6 +59471,9 @@
       <c r="ID82" t="n">
         <v>189.1</v>
       </c>
+      <c r="IE82" t="n">
+        <v>187.4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -59946,6 +60192,9 @@
       <c r="ID83" t="n">
         <v>85.59999999999999</v>
       </c>
+      <c r="IE83" t="n">
+        <v>84.59999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -60664,6 +60913,9 @@
       <c r="ID84" t="n">
         <v>25.16</v>
       </c>
+      <c r="IE84" t="n">
+        <v>25.49</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -61382,6 +61634,9 @@
       <c r="ID85" t="n">
         <v>98.3</v>
       </c>
+      <c r="IE85" t="n">
+        <v>106.6</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -62100,6 +62355,9 @@
       <c r="ID86" t="n">
         <v>9</v>
       </c>
+      <c r="IE86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -62818,6 +63076,9 @@
       <c r="ID87" t="n">
         <v>4</v>
       </c>
+      <c r="IE87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -63536,6 +63797,9 @@
       <c r="ID88" t="n">
         <v>4</v>
       </c>
+      <c r="IE88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -64254,6 +64518,9 @@
       <c r="ID89" t="n">
         <v>5</v>
       </c>
+      <c r="IE89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -64972,6 +65239,9 @@
       <c r="ID90" t="n">
         <v>120</v>
       </c>
+      <c r="IE90" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -65690,6 +65960,9 @@
       <c r="ID91" t="n">
         <v>245</v>
       </c>
+      <c r="IE91" t="n">
+        <v>229</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -66408,6 +66681,9 @@
       <c r="ID92" t="n">
         <v>280</v>
       </c>
+      <c r="IE92" t="n">
+        <v>286</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -67126,6 +67402,9 @@
       <c r="ID93" t="n">
         <v>76.3</v>
       </c>
+      <c r="IE93" t="n">
+        <v>76.3</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -67844,6 +68123,9 @@
       <c r="ID94" t="n">
         <v>65</v>
       </c>
+      <c r="IE94" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -68562,6 +68844,9 @@
       <c r="ID95" t="n">
         <v>16</v>
       </c>
+      <c r="IE95" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -69280,6 +69565,9 @@
       <c r="ID96" t="n">
         <v>13</v>
       </c>
+      <c r="IE96" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -69998,6 +70286,9 @@
       <c r="ID97" t="n">
         <v>36</v>
       </c>
+      <c r="IE97" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -70716,6 +71007,9 @@
       <c r="ID98" t="n">
         <v>32</v>
       </c>
+      <c r="IE98" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -71434,6 +71728,9 @@
       <c r="ID99" t="n">
         <v>33</v>
       </c>
+      <c r="IE99" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -72152,6 +72449,9 @@
       <c r="ID100" t="n">
         <v>4</v>
       </c>
+      <c r="IE100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -72870,6 +73170,9 @@
       <c r="ID101" t="n">
         <v>9</v>
       </c>
+      <c r="IE101" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -73588,6 +73891,9 @@
       <c r="ID102" t="n">
         <v>81.8</v>
       </c>
+      <c r="IE102" t="n">
+        <v>72.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
+++ b/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IE102"/>
+  <dimension ref="A1:IF102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1073,6 +1073,9 @@
       <c r="IE1" t="n">
         <v>10468</v>
       </c>
+      <c r="IF1" t="n">
+        <v>10472</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1794,6 +1797,9 @@
       <c r="IE2" t="n">
         <v>2021</v>
       </c>
+      <c r="IF2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2515,6 +2521,9 @@
       <c r="IE3" t="n">
         <v>17</v>
       </c>
+      <c r="IF3" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3236,6 +3245,9 @@
       <c r="IE4" t="n">
         <v>0</v>
       </c>
+      <c r="IF4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3957,6 +3969,9 @@
       <c r="IE5" t="n">
         <v>1</v>
       </c>
+      <c r="IF5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4678,6 +4693,9 @@
       <c r="IE6" t="n">
         <v>60</v>
       </c>
+      <c r="IF6" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5399,6 +5417,9 @@
       <c r="IE7" t="n">
         <v>79</v>
       </c>
+      <c r="IF7" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6120,6 +6141,9 @@
       <c r="IE8" t="n">
         <v>-19</v>
       </c>
+      <c r="IF8" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6841,6 +6865,9 @@
       <c r="IE9" t="n">
         <v>0</v>
       </c>
+      <c r="IF9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7562,6 +7589,9 @@
       <c r="IE10" t="n">
         <v>16</v>
       </c>
+      <c r="IF10" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8283,6 +8313,9 @@
       <c r="IE11" t="n">
         <v>193</v>
       </c>
+      <c r="IF11" t="n">
+        <v>201</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9004,6 +9037,9 @@
       <c r="IE12" t="n">
         <v>149</v>
       </c>
+      <c r="IF12" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9725,6 +9761,9 @@
       <c r="IE13" t="n">
         <v>342</v>
       </c>
+      <c r="IF13" t="n">
+        <v>392</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10446,6 +10485,9 @@
       <c r="IE14" t="n">
         <v>1.3</v>
       </c>
+      <c r="IF14" t="n">
+        <v>1.05</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11167,6 +11209,9 @@
       <c r="IE15" t="n">
         <v>67</v>
       </c>
+      <c r="IF15" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11888,6 +11933,9 @@
       <c r="IE16" t="n">
         <v>58</v>
       </c>
+      <c r="IF16" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12609,6 +12657,9 @@
       <c r="IE17" t="n">
         <v>31</v>
       </c>
+      <c r="IF17" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13330,6 +13381,9 @@
       <c r="IE18" t="n">
         <v>29</v>
       </c>
+      <c r="IF18" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14051,6 +14105,9 @@
       <c r="IE19" t="n">
         <v>16</v>
       </c>
+      <c r="IF19" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14772,6 +14829,9 @@
       <c r="IE20" t="n">
         <v>8</v>
       </c>
+      <c r="IF20" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15493,6 +15553,9 @@
       <c r="IE21" t="n">
         <v>6</v>
       </c>
+      <c r="IF21" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16214,6 +16277,9 @@
       <c r="IE22" t="n">
         <v>10</v>
       </c>
+      <c r="IF22" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16935,6 +17001,9 @@
       <c r="IE23" t="n">
         <v>2</v>
       </c>
+      <c r="IF23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17656,6 +17725,9 @@
       <c r="IE24" t="n">
         <v>20</v>
       </c>
+      <c r="IF24" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18377,6 +18449,9 @@
       <c r="IE25" t="n">
         <v>40</v>
       </c>
+      <c r="IF25" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19098,6 +19173,9 @@
       <c r="IE26" t="n">
         <v>42.75</v>
       </c>
+      <c r="IF26" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19819,6 +19897,9 @@
       <c r="IE27" t="n">
         <v>17.1</v>
       </c>
+      <c r="IF27" t="n">
+        <v>19.6</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20540,6 +20621,9 @@
       <c r="IE28" t="n">
         <v>46</v>
       </c>
+      <c r="IF28" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21261,6 +21345,9 @@
       <c r="IE29" t="n">
         <v>53</v>
       </c>
+      <c r="IF29" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21982,6 +22069,9 @@
       <c r="IE30" t="n">
         <v>35</v>
       </c>
+      <c r="IF30" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22703,6 +22793,9 @@
       <c r="IE31" t="n">
         <v>52</v>
       </c>
+      <c r="IF31" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23424,6 +23517,9 @@
       <c r="IE32" t="n">
         <v>2.6</v>
       </c>
+      <c r="IF32" t="n">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24145,6 +24241,9 @@
       <c r="IE33" t="n">
         <v>6.5</v>
       </c>
+      <c r="IF33" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24866,6 +24965,9 @@
       <c r="IE34" t="n">
         <v>34.6</v>
       </c>
+      <c r="IF34" t="n">
+        <v>30.4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25587,6 +25689,9 @@
       <c r="IE35" t="n">
         <v>15.4</v>
       </c>
+      <c r="IF35" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26308,6 +26413,9 @@
       <c r="IE36" t="n">
         <v>186.8</v>
       </c>
+      <c r="IF36" t="n">
+        <v>186.7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27029,6 +27137,9 @@
       <c r="IE37" t="n">
         <v>84.09999999999999</v>
       </c>
+      <c r="IF37" t="n">
+        <v>83.7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27750,6 +27861,9 @@
       <c r="IE38" t="n">
         <v>25.24</v>
       </c>
+      <c r="IF38" t="n">
+        <v>24.58</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28471,6 +28585,9 @@
       <c r="IE39" t="n">
         <v>90</v>
       </c>
+      <c r="IF39" t="n">
+        <v>86.8</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29192,6 +29309,9 @@
       <c r="IE40" t="n">
         <v>5</v>
       </c>
+      <c r="IF40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29913,6 +30033,9 @@
       <c r="IE41" t="n">
         <v>8</v>
       </c>
+      <c r="IF41" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30634,6 +30757,9 @@
       <c r="IE42" t="n">
         <v>2</v>
       </c>
+      <c r="IF42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31355,6 +31481,9 @@
       <c r="IE43" t="n">
         <v>7</v>
       </c>
+      <c r="IF43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32076,6 +32205,9 @@
       <c r="IE44" t="n">
         <v>142</v>
       </c>
+      <c r="IF44" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32797,6 +32929,9 @@
       <c r="IE45" t="n">
         <v>191</v>
       </c>
+      <c r="IF45" t="n">
+        <v>242</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33518,6 +33653,9 @@
       <c r="IE46" t="n">
         <v>240</v>
       </c>
+      <c r="IF46" t="n">
+        <v>290</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34239,6 +34377,9 @@
       <c r="IE47" t="n">
         <v>70.2</v>
       </c>
+      <c r="IF47" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34960,6 +35101,9 @@
       <c r="IE48" t="n">
         <v>53</v>
       </c>
+      <c r="IF48" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35681,6 +35825,9 @@
       <c r="IE49" t="n">
         <v>8</v>
       </c>
+      <c r="IF49" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -36402,6 +36549,9 @@
       <c r="IE50" t="n">
         <v>9</v>
       </c>
+      <c r="IF50" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -37123,6 +37273,9 @@
       <c r="IE51" t="n">
         <v>46</v>
       </c>
+      <c r="IF51" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -37844,6 +37997,9 @@
       <c r="IE52" t="n">
         <v>35</v>
       </c>
+      <c r="IF52" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -38565,6 +38721,9 @@
       <c r="IE53" t="n">
         <v>49</v>
       </c>
+      <c r="IF53" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -39286,6 +39445,9 @@
       <c r="IE54" t="n">
         <v>3</v>
       </c>
+      <c r="IF54" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40007,6 +40169,9 @@
       <c r="IE55" t="n">
         <v>6</v>
       </c>
+      <c r="IF55" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -40728,6 +40893,9 @@
       <c r="IE56" t="n">
         <v>75</v>
       </c>
+      <c r="IF56" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -41449,6 +41617,9 @@
       <c r="IE57" t="n">
         <v>238</v>
       </c>
+      <c r="IF57" t="n">
+        <v>230</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -42170,6 +42341,9 @@
       <c r="IE58" t="n">
         <v>137</v>
       </c>
+      <c r="IF58" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -42891,6 +43065,9 @@
       <c r="IE59" t="n">
         <v>375</v>
       </c>
+      <c r="IF59" t="n">
+        <v>378</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -43612,6 +43789,9 @@
       <c r="IE60" t="n">
         <v>1.74</v>
       </c>
+      <c r="IF60" t="n">
+        <v>1.55</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -44333,6 +44513,9 @@
       <c r="IE61" t="n">
         <v>123</v>
       </c>
+      <c r="IF61" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -45054,6 +45237,9 @@
       <c r="IE62" t="n">
         <v>46</v>
       </c>
+      <c r="IF62" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -45775,6 +45961,9 @@
       <c r="IE63" t="n">
         <v>40</v>
       </c>
+      <c r="IF63" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -46496,6 +46685,9 @@
       <c r="IE64" t="n">
         <v>16</v>
       </c>
+      <c r="IF64" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -47217,6 +47409,9 @@
       <c r="IE65" t="n">
         <v>27</v>
       </c>
+      <c r="IF65" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -47938,6 +48133,9 @@
       <c r="IE66" t="n">
         <v>11</v>
       </c>
+      <c r="IF66" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -48659,6 +48857,9 @@
       <c r="IE67" t="n">
         <v>8</v>
       </c>
+      <c r="IF67" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -49380,6 +49581,9 @@
       <c r="IE68" t="n">
         <v>11</v>
       </c>
+      <c r="IF68" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -50101,6 +50305,9 @@
       <c r="IE69" t="n">
         <v>2</v>
       </c>
+      <c r="IF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -50822,6 +51029,9 @@
       <c r="IE70" t="n">
         <v>24</v>
       </c>
+      <c r="IF70" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -51543,6 +51753,9 @@
       <c r="IE71" t="n">
         <v>45.8</v>
       </c>
+      <c r="IF71" t="n">
+        <v>45.8</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -52264,6 +52477,9 @@
       <c r="IE72" t="n">
         <v>34.09</v>
       </c>
+      <c r="IF72" t="n">
+        <v>34.36</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -52985,6 +53201,9 @@
       <c r="IE73" t="n">
         <v>15.62</v>
       </c>
+      <c r="IF73" t="n">
+        <v>15.75</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -53706,6 +53925,9 @@
       <c r="IE74" t="n">
         <v>26</v>
       </c>
+      <c r="IF74" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -54427,6 +54649,9 @@
       <c r="IE75" t="n">
         <v>62</v>
       </c>
+      <c r="IF75" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -55148,6 +55373,9 @@
       <c r="IE76" t="n">
         <v>44</v>
       </c>
+      <c r="IF76" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -55869,6 +56097,9 @@
       <c r="IE77" t="n">
         <v>47</v>
       </c>
+      <c r="IF77" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -56590,6 +56821,9 @@
       <c r="IE78" t="n">
         <v>1.96</v>
       </c>
+      <c r="IF78" t="n">
+        <v>1.88</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -57311,6 +57545,9 @@
       <c r="IE79" t="n">
         <v>4.27</v>
       </c>
+      <c r="IF79" t="n">
+        <v>4.09</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -58032,6 +58269,9 @@
       <c r="IE80" t="n">
         <v>46.8</v>
       </c>
+      <c r="IF80" t="n">
+        <v>53.3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -58753,6 +58993,9 @@
       <c r="IE81" t="n">
         <v>23.4</v>
       </c>
+      <c r="IF81" t="n">
+        <v>24.4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -59474,6 +59717,9 @@
       <c r="IE82" t="n">
         <v>187.4</v>
       </c>
+      <c r="IF82" t="n">
+        <v>187</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -60195,6 +60441,9 @@
       <c r="IE83" t="n">
         <v>84.59999999999999</v>
       </c>
+      <c r="IF83" t="n">
+        <v>83.90000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -60916,6 +61165,9 @@
       <c r="IE84" t="n">
         <v>25.49</v>
       </c>
+      <c r="IF84" t="n">
+        <v>23.74</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -61637,6 +61889,9 @@
       <c r="IE85" t="n">
         <v>106.6</v>
       </c>
+      <c r="IF85" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -62358,6 +62613,9 @@
       <c r="IE86" t="n">
         <v>7</v>
       </c>
+      <c r="IF86" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -63079,6 +63337,9 @@
       <c r="IE87" t="n">
         <v>4</v>
       </c>
+      <c r="IF87" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -63800,6 +64061,9 @@
       <c r="IE88" t="n">
         <v>6</v>
       </c>
+      <c r="IF88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -64521,6 +64785,9 @@
       <c r="IE89" t="n">
         <v>5</v>
       </c>
+      <c r="IF89" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -65242,6 +65509,9 @@
       <c r="IE90" t="n">
         <v>136</v>
       </c>
+      <c r="IF90" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -65963,6 +66233,9 @@
       <c r="IE91" t="n">
         <v>229</v>
       </c>
+      <c r="IF91" t="n">
+        <v>240</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -66684,6 +66957,9 @@
       <c r="IE92" t="n">
         <v>286</v>
       </c>
+      <c r="IF92" t="n">
+        <v>297</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -67405,6 +67681,9 @@
       <c r="IE93" t="n">
         <v>76.3</v>
       </c>
+      <c r="IF93" t="n">
+        <v>78.59999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -68126,6 +68405,9 @@
       <c r="IE94" t="n">
         <v>62</v>
       </c>
+      <c r="IF94" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -68847,6 +69129,9 @@
       <c r="IE95" t="n">
         <v>20</v>
       </c>
+      <c r="IF95" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -69568,6 +69853,9 @@
       <c r="IE96" t="n">
         <v>12</v>
       </c>
+      <c r="IF96" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -70289,6 +70577,9 @@
       <c r="IE97" t="n">
         <v>26</v>
       </c>
+      <c r="IF97" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -71010,6 +71301,9 @@
       <c r="IE98" t="n">
         <v>44</v>
       </c>
+      <c r="IF98" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -71731,6 +72025,9 @@
       <c r="IE99" t="n">
         <v>51</v>
       </c>
+      <c r="IF99" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -72452,6 +72749,9 @@
       <c r="IE100" t="n">
         <v>4</v>
       </c>
+      <c r="IF100" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -73173,6 +73473,9 @@
       <c r="IE101" t="n">
         <v>8</v>
       </c>
+      <c r="IF101" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -73894,6 +74197,9 @@
       <c r="IE102" t="n">
         <v>72.7</v>
       </c>
+      <c r="IF102" t="n">
+        <v>63.6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
+++ b/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IF102"/>
+  <dimension ref="A1:IG102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1076,6 +1076,9 @@
       <c r="IF1" t="n">
         <v>10472</v>
       </c>
+      <c r="IG1" t="n">
+        <v>10493</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1800,6 +1803,9 @@
       <c r="IF2" t="n">
         <v>2021</v>
       </c>
+      <c r="IG2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2524,6 +2530,9 @@
       <c r="IF3" t="n">
         <v>18</v>
       </c>
+      <c r="IG3" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3248,6 +3257,9 @@
       <c r="IF4" t="n">
         <v>1</v>
       </c>
+      <c r="IG4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3972,6 +3984,9 @@
       <c r="IF5" t="n">
         <v>1</v>
       </c>
+      <c r="IG5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4696,6 +4711,9 @@
       <c r="IF6" t="n">
         <v>90</v>
       </c>
+      <c r="IG6" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5420,6 +5438,9 @@
       <c r="IF7" t="n">
         <v>79</v>
       </c>
+      <c r="IG7" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6144,6 +6165,9 @@
       <c r="IF8" t="n">
         <v>11</v>
       </c>
+      <c r="IG8" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6868,6 +6892,9 @@
       <c r="IF9" t="n">
         <v>1</v>
       </c>
+      <c r="IG9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7592,6 +7619,9 @@
       <c r="IF10" t="n">
         <v>8</v>
       </c>
+      <c r="IG10" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8316,6 +8346,9 @@
       <c r="IF11" t="n">
         <v>201</v>
       </c>
+      <c r="IG11" t="n">
+        <v>221</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9040,6 +9073,9 @@
       <c r="IF12" t="n">
         <v>191</v>
       </c>
+      <c r="IG12" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9764,6 +9800,9 @@
       <c r="IF13" t="n">
         <v>392</v>
       </c>
+      <c r="IG13" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10488,6 +10527,9 @@
       <c r="IF14" t="n">
         <v>1.05</v>
       </c>
+      <c r="IG14" t="n">
+        <v>1.53</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11212,6 +11254,9 @@
       <c r="IF15" t="n">
         <v>70</v>
       </c>
+      <c r="IG15" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11936,6 +11981,9 @@
       <c r="IF16" t="n">
         <v>41</v>
       </c>
+      <c r="IG16" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12660,6 +12708,9 @@
       <c r="IF17" t="n">
         <v>46</v>
       </c>
+      <c r="IG17" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13384,6 +13435,9 @@
       <c r="IF18" t="n">
         <v>20</v>
       </c>
+      <c r="IG18" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14108,6 +14162,9 @@
       <c r="IF19" t="n">
         <v>21</v>
       </c>
+      <c r="IG19" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14832,6 +14889,9 @@
       <c r="IF20" t="n">
         <v>14</v>
       </c>
+      <c r="IG20" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15556,6 +15616,9 @@
       <c r="IF21" t="n">
         <v>10</v>
       </c>
+      <c r="IG21" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16280,6 +16343,9 @@
       <c r="IF22" t="n">
         <v>3</v>
       </c>
+      <c r="IG22" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17004,6 +17070,9 @@
       <c r="IF23" t="n">
         <v>3</v>
       </c>
+      <c r="IG23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17728,6 +17797,9 @@
       <c r="IF24" t="n">
         <v>20</v>
       </c>
+      <c r="IG24" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18452,6 +18524,9 @@
       <c r="IF25" t="n">
         <v>70</v>
       </c>
+      <c r="IG25" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19176,6 +19251,9 @@
       <c r="IF26" t="n">
         <v>28</v>
       </c>
+      <c r="IG26" t="n">
+        <v>28.08</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19900,6 +19978,9 @@
       <c r="IF27" t="n">
         <v>19.6</v>
       </c>
+      <c r="IG27" t="n">
+        <v>18.25</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20624,6 +20705,9 @@
       <c r="IF28" t="n">
         <v>47</v>
       </c>
+      <c r="IG28" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21348,6 +21432,9 @@
       <c r="IF29" t="n">
         <v>67</v>
       </c>
+      <c r="IG29" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22072,6 +22159,9 @@
       <c r="IF30" t="n">
         <v>33</v>
       </c>
+      <c r="IG30" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22796,6 +22886,9 @@
       <c r="IF31" t="n">
         <v>56</v>
       </c>
+      <c r="IG31" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23520,6 +23613,9 @@
       <c r="IF32" t="n">
         <v>2.8</v>
       </c>
+      <c r="IG32" t="n">
+        <v>2.75</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24244,6 +24340,9 @@
       <c r="IF33" t="n">
         <v>4</v>
       </c>
+      <c r="IG33" t="n">
+        <v>4.23</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24968,6 +25067,9 @@
       <c r="IF34" t="n">
         <v>30.4</v>
       </c>
+      <c r="IG34" t="n">
+        <v>32.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25692,6 +25794,9 @@
       <c r="IF35" t="n">
         <v>25</v>
       </c>
+      <c r="IG35" t="n">
+        <v>23.6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26416,6 +26521,9 @@
       <c r="IF36" t="n">
         <v>186.7</v>
       </c>
+      <c r="IG36" t="n">
+        <v>187</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27140,6 +27248,9 @@
       <c r="IF37" t="n">
         <v>83.7</v>
       </c>
+      <c r="IG37" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27864,6 +27975,9 @@
       <c r="IF38" t="n">
         <v>24.58</v>
       </c>
+      <c r="IG38" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28588,6 +28702,9 @@
       <c r="IF39" t="n">
         <v>86.8</v>
       </c>
+      <c r="IG39" t="n">
+        <v>86.90000000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29312,6 +29429,9 @@
       <c r="IF40" t="n">
         <v>5</v>
       </c>
+      <c r="IG40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30036,6 +30156,9 @@
       <c r="IF41" t="n">
         <v>9</v>
       </c>
+      <c r="IG41" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30760,6 +30883,9 @@
       <c r="IF42" t="n">
         <v>3</v>
       </c>
+      <c r="IG42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31484,6 +31610,9 @@
       <c r="IF43" t="n">
         <v>5</v>
       </c>
+      <c r="IG43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32208,6 +32337,9 @@
       <c r="IF44" t="n">
         <v>144</v>
       </c>
+      <c r="IG44" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32932,6 +33064,9 @@
       <c r="IF45" t="n">
         <v>242</v>
       </c>
+      <c r="IG45" t="n">
+        <v>206</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33656,6 +33791,9 @@
       <c r="IF46" t="n">
         <v>290</v>
       </c>
+      <c r="IG46" t="n">
+        <v>251</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34380,6 +34518,9 @@
       <c r="IF47" t="n">
         <v>74</v>
       </c>
+      <c r="IG47" t="n">
+        <v>68.8</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35104,6 +35245,9 @@
       <c r="IF48" t="n">
         <v>67</v>
       </c>
+      <c r="IG48" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35828,6 +35972,9 @@
       <c r="IF49" t="n">
         <v>5</v>
       </c>
+      <c r="IG49" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -36552,6 +36699,9 @@
       <c r="IF50" t="n">
         <v>10</v>
       </c>
+      <c r="IG50" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -37276,6 +37426,9 @@
       <c r="IF51" t="n">
         <v>47</v>
       </c>
+      <c r="IG51" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -38000,6 +38153,9 @@
       <c r="IF52" t="n">
         <v>33</v>
       </c>
+      <c r="IG52" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -38724,6 +38880,9 @@
       <c r="IF53" t="n">
         <v>40</v>
       </c>
+      <c r="IG53" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -39448,6 +39607,9 @@
       <c r="IF54" t="n">
         <v>12</v>
       </c>
+      <c r="IG54" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40172,6 +40334,9 @@
       <c r="IF55" t="n">
         <v>10</v>
       </c>
+      <c r="IG55" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -40896,6 +41061,9 @@
       <c r="IF56" t="n">
         <v>71.40000000000001</v>
       </c>
+      <c r="IG56" t="n">
+        <v>69.2</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -41620,6 +41788,9 @@
       <c r="IF57" t="n">
         <v>230</v>
       </c>
+      <c r="IG57" t="n">
+        <v>221</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -42344,6 +42515,9 @@
       <c r="IF58" t="n">
         <v>148</v>
       </c>
+      <c r="IG58" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -43068,6 +43242,9 @@
       <c r="IF59" t="n">
         <v>378</v>
       </c>
+      <c r="IG59" t="n">
+        <v>370</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -43792,6 +43969,9 @@
       <c r="IF60" t="n">
         <v>1.55</v>
       </c>
+      <c r="IG60" t="n">
+        <v>1.48</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -44516,6 +44696,9 @@
       <c r="IF61" t="n">
         <v>99</v>
       </c>
+      <c r="IG61" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -45240,6 +45423,9 @@
       <c r="IF62" t="n">
         <v>59</v>
       </c>
+      <c r="IG62" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -45964,6 +46150,9 @@
       <c r="IF63" t="n">
         <v>33</v>
       </c>
+      <c r="IG63" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -46688,6 +46877,9 @@
       <c r="IF64" t="n">
         <v>21</v>
       </c>
+      <c r="IG64" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -47412,6 +47604,9 @@
       <c r="IF65" t="n">
         <v>20</v>
       </c>
+      <c r="IG65" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -48136,6 +48331,9 @@
       <c r="IF66" t="n">
         <v>11</v>
       </c>
+      <c r="IG66" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -48860,6 +49058,9 @@
       <c r="IF67" t="n">
         <v>7</v>
       </c>
+      <c r="IG67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -49584,6 +49785,9 @@
       <c r="IF68" t="n">
         <v>13</v>
       </c>
+      <c r="IG68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -50308,6 +50512,9 @@
       <c r="IF69" t="n">
         <v>0</v>
       </c>
+      <c r="IG69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -51032,6 +51239,9 @@
       <c r="IF70" t="n">
         <v>24</v>
       </c>
+      <c r="IG70" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -51756,6 +51966,9 @@
       <c r="IF71" t="n">
         <v>45.8</v>
       </c>
+      <c r="IG71" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -52480,6 +52693,9 @@
       <c r="IF72" t="n">
         <v>34.36</v>
       </c>
+      <c r="IG72" t="n">
+        <v>41.11</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -53204,6 +53420,9 @@
       <c r="IF73" t="n">
         <v>15.75</v>
       </c>
+      <c r="IG73" t="n">
+        <v>18.5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -53928,6 +54147,9 @@
       <c r="IF74" t="n">
         <v>37</v>
       </c>
+      <c r="IG74" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -54652,6 +54874,9 @@
       <c r="IF75" t="n">
         <v>54</v>
       </c>
+      <c r="IG75" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -55376,6 +55601,9 @@
       <c r="IF76" t="n">
         <v>41</v>
       </c>
+      <c r="IG76" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -56100,6 +56328,9 @@
       <c r="IF77" t="n">
         <v>45</v>
       </c>
+      <c r="IG77" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -56824,6 +57055,9 @@
       <c r="IF78" t="n">
         <v>1.88</v>
       </c>
+      <c r="IG78" t="n">
+        <v>2.55</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -57548,6 +57782,9 @@
       <c r="IF79" t="n">
         <v>4.09</v>
       </c>
+      <c r="IG79" t="n">
+        <v>5.67</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -58272,6 +58509,9 @@
       <c r="IF80" t="n">
         <v>53.3</v>
       </c>
+      <c r="IG80" t="n">
+        <v>35.3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -58996,6 +59236,9 @@
       <c r="IF81" t="n">
         <v>24.4</v>
       </c>
+      <c r="IG81" t="n">
+        <v>17.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -59720,6 +59963,9 @@
       <c r="IF82" t="n">
         <v>187</v>
       </c>
+      <c r="IG82" t="n">
+        <v>187.9</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -60444,6 +60690,9 @@
       <c r="IF83" t="n">
         <v>83.90000000000001</v>
       </c>
+      <c r="IG83" t="n">
+        <v>86.5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -61168,6 +61417,9 @@
       <c r="IF84" t="n">
         <v>23.74</v>
       </c>
+      <c r="IG84" t="n">
+        <v>25.16</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -61892,6 +62144,9 @@
       <c r="IF85" t="n">
         <v>69</v>
       </c>
+      <c r="IG85" t="n">
+        <v>99.90000000000001</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -62616,6 +62871,9 @@
       <c r="IF86" t="n">
         <v>9</v>
       </c>
+      <c r="IG86" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -63340,6 +63598,9 @@
       <c r="IF87" t="n">
         <v>8</v>
       </c>
+      <c r="IG87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -64064,6 +64325,9 @@
       <c r="IF88" t="n">
         <v>4</v>
       </c>
+      <c r="IG88" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -64788,6 +65052,9 @@
       <c r="IF89" t="n">
         <v>2</v>
       </c>
+      <c r="IG89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -65512,6 +65779,9 @@
       <c r="IF90" t="n">
         <v>136</v>
       </c>
+      <c r="IG90" t="n">
+        <v>177</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -66236,6 +66506,9 @@
       <c r="IF91" t="n">
         <v>240</v>
       </c>
+      <c r="IG91" t="n">
+        <v>190</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -66960,6 +67233,9 @@
       <c r="IF92" t="n">
         <v>297</v>
       </c>
+      <c r="IG92" t="n">
+        <v>222</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -67684,6 +67960,9 @@
       <c r="IF93" t="n">
         <v>78.59999999999999</v>
       </c>
+      <c r="IG93" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -68408,6 +68687,9 @@
       <c r="IF94" t="n">
         <v>54</v>
       </c>
+      <c r="IG94" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -69132,6 +69414,9 @@
       <c r="IF95" t="n">
         <v>14</v>
       </c>
+      <c r="IG95" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -69856,6 +70141,9 @@
       <c r="IF96" t="n">
         <v>10</v>
       </c>
+      <c r="IG96" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -70580,6 +70868,9 @@
       <c r="IF97" t="n">
         <v>37</v>
       </c>
+      <c r="IG97" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -71304,6 +71595,9 @@
       <c r="IF98" t="n">
         <v>41</v>
       </c>
+      <c r="IG98" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -72028,6 +72322,9 @@
       <c r="IF99" t="n">
         <v>56</v>
       </c>
+      <c r="IG99" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -72752,6 +73049,9 @@
       <c r="IF100" t="n">
         <v>5</v>
       </c>
+      <c r="IG100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -73476,6 +73776,9 @@
       <c r="IF101" t="n">
         <v>7</v>
       </c>
+      <c r="IG101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -74200,6 +74503,9 @@
       <c r="IF102" t="n">
         <v>63.6</v>
       </c>
+      <c r="IG102" t="n">
+        <v>44.4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
+++ b/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IG102"/>
+  <dimension ref="A1:IH102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1079,6 +1079,9 @@
       <c r="IG1" t="n">
         <v>10493</v>
       </c>
+      <c r="IH1" t="n">
+        <v>10532</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1806,6 +1809,9 @@
       <c r="IG2" t="n">
         <v>2021</v>
       </c>
+      <c r="IH2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2533,6 +2539,9 @@
       <c r="IG3" t="n">
         <v>19</v>
       </c>
+      <c r="IH3" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3260,6 +3269,9 @@
       <c r="IG4" t="n">
         <v>1</v>
       </c>
+      <c r="IH4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3987,6 +3999,9 @@
       <c r="IG5" t="n">
         <v>1</v>
       </c>
+      <c r="IH5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4714,6 +4729,9 @@
       <c r="IG6" t="n">
         <v>85</v>
       </c>
+      <c r="IH6" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5441,6 +5459,9 @@
       <c r="IG7" t="n">
         <v>65</v>
       </c>
+      <c r="IH7" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6168,6 +6189,9 @@
       <c r="IG8" t="n">
         <v>20</v>
       </c>
+      <c r="IH8" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6895,6 +6919,9 @@
       <c r="IG9" t="n">
         <v>1</v>
       </c>
+      <c r="IH9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7622,6 +7649,9 @@
       <c r="IG10" t="n">
         <v>11</v>
       </c>
+      <c r="IH10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8349,6 +8379,9 @@
       <c r="IG11" t="n">
         <v>221</v>
       </c>
+      <c r="IH11" t="n">
+        <v>211</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9076,6 +9109,9 @@
       <c r="IG12" t="n">
         <v>144</v>
       </c>
+      <c r="IH12" t="n">
+        <v>161</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9803,6 +9839,9 @@
       <c r="IG13" t="n">
         <v>365</v>
       </c>
+      <c r="IH13" t="n">
+        <v>372</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10530,6 +10569,9 @@
       <c r="IG14" t="n">
         <v>1.53</v>
       </c>
+      <c r="IH14" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11257,6 +11299,9 @@
       <c r="IG15" t="n">
         <v>71</v>
       </c>
+      <c r="IH15" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11984,6 +12029,9 @@
       <c r="IG16" t="n">
         <v>76</v>
       </c>
+      <c r="IH16" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12711,6 +12759,9 @@
       <c r="IG17" t="n">
         <v>18</v>
       </c>
+      <c r="IH17" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13438,6 +13489,9 @@
       <c r="IG18" t="n">
         <v>25</v>
       </c>
+      <c r="IH18" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14165,6 +14219,9 @@
       <c r="IG19" t="n">
         <v>11</v>
       </c>
+      <c r="IH19" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14892,6 +14949,9 @@
       <c r="IG20" t="n">
         <v>13</v>
       </c>
+      <c r="IH20" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15619,6 +15679,9 @@
       <c r="IG21" t="n">
         <v>9</v>
       </c>
+      <c r="IH21" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16346,6 +16409,9 @@
       <c r="IG22" t="n">
         <v>5</v>
       </c>
+      <c r="IH22" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17073,6 +17139,9 @@
       <c r="IG23" t="n">
         <v>2</v>
       </c>
+      <c r="IH23" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17800,6 +17869,9 @@
       <c r="IG24" t="n">
         <v>20</v>
       </c>
+      <c r="IH24" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18527,6 +18599,9 @@
       <c r="IG25" t="n">
         <v>65</v>
       </c>
+      <c r="IH25" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19254,6 +19329,9 @@
       <c r="IG26" t="n">
         <v>28.08</v>
       </c>
+      <c r="IH26" t="n">
+        <v>24.8</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19981,6 +20059,9 @@
       <c r="IG27" t="n">
         <v>18.25</v>
       </c>
+      <c r="IH27" t="n">
+        <v>12.4</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20708,6 +20789,9 @@
       <c r="IG28" t="n">
         <v>49</v>
       </c>
+      <c r="IH28" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21435,6 +21519,9 @@
       <c r="IG29" t="n">
         <v>62</v>
       </c>
+      <c r="IH29" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22162,6 +22249,9 @@
       <c r="IG30" t="n">
         <v>41</v>
       </c>
+      <c r="IH30" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22889,6 +22979,9 @@
       <c r="IG31" t="n">
         <v>55</v>
       </c>
+      <c r="IH31" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23616,6 +23709,9 @@
       <c r="IG32" t="n">
         <v>2.75</v>
       </c>
+      <c r="IH32" t="n">
+        <v>2.17</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24343,6 +24439,9 @@
       <c r="IG33" t="n">
         <v>4.23</v>
       </c>
+      <c r="IH33" t="n">
+        <v>4.33</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25070,6 +25169,9 @@
       <c r="IG34" t="n">
         <v>32.7</v>
       </c>
+      <c r="IH34" t="n">
+        <v>36.9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25797,6 +25899,9 @@
       <c r="IG35" t="n">
         <v>23.6</v>
       </c>
+      <c r="IH35" t="n">
+        <v>23.1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26524,6 +26629,9 @@
       <c r="IG36" t="n">
         <v>187</v>
       </c>
+      <c r="IH36" t="n">
+        <v>187.1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27251,6 +27359,9 @@
       <c r="IG37" t="n">
         <v>84</v>
       </c>
+      <c r="IH37" t="n">
+        <v>84.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27978,6 +28089,9 @@
       <c r="IG38" t="n">
         <v>25</v>
       </c>
+      <c r="IH38" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28705,6 +28819,9 @@
       <c r="IG39" t="n">
         <v>86.90000000000001</v>
       </c>
+      <c r="IH39" t="n">
+        <v>91.09999999999999</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29432,6 +29549,9 @@
       <c r="IG40" t="n">
         <v>5</v>
       </c>
+      <c r="IH40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30159,6 +30279,9 @@
       <c r="IG41" t="n">
         <v>10</v>
       </c>
+      <c r="IH41" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30886,6 +31009,9 @@
       <c r="IG42" t="n">
         <v>2</v>
       </c>
+      <c r="IH42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31613,6 +31739,9 @@
       <c r="IG43" t="n">
         <v>6</v>
       </c>
+      <c r="IH43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32340,6 +32469,9 @@
       <c r="IG44" t="n">
         <v>154</v>
       </c>
+      <c r="IH44" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33067,6 +33199,9 @@
       <c r="IG45" t="n">
         <v>206</v>
       </c>
+      <c r="IH45" t="n">
+        <v>222</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33794,6 +33929,9 @@
       <c r="IG46" t="n">
         <v>251</v>
       </c>
+      <c r="IH46" t="n">
+        <v>274</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34521,6 +34659,9 @@
       <c r="IG47" t="n">
         <v>68.8</v>
       </c>
+      <c r="IH47" t="n">
+        <v>73.7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35248,6 +35389,9 @@
       <c r="IG48" t="n">
         <v>62</v>
       </c>
+      <c r="IH48" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35975,6 +36119,9 @@
       <c r="IG49" t="n">
         <v>7</v>
       </c>
+      <c r="IH49" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -36702,6 +36849,9 @@
       <c r="IG50" t="n">
         <v>6</v>
       </c>
+      <c r="IH50" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -37429,6 +37579,9 @@
       <c r="IG51" t="n">
         <v>49</v>
       </c>
+      <c r="IH51" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -38156,6 +38309,9 @@
       <c r="IG52" t="n">
         <v>41</v>
       </c>
+      <c r="IH52" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -38883,6 +39039,9 @@
       <c r="IG53" t="n">
         <v>68</v>
       </c>
+      <c r="IH53" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -39610,6 +39769,9 @@
       <c r="IG54" t="n">
         <v>7</v>
       </c>
+      <c r="IH54" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40337,6 +40499,9 @@
       <c r="IG55" t="n">
         <v>9</v>
       </c>
+      <c r="IH55" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -41064,6 +41229,9 @@
       <c r="IG56" t="n">
         <v>69.2</v>
       </c>
+      <c r="IH56" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -41791,6 +41959,9 @@
       <c r="IG57" t="n">
         <v>221</v>
       </c>
+      <c r="IH57" t="n">
+        <v>185</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -42518,6 +42689,9 @@
       <c r="IG58" t="n">
         <v>149</v>
       </c>
+      <c r="IH58" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -43245,6 +43419,9 @@
       <c r="IG59" t="n">
         <v>370</v>
       </c>
+      <c r="IH59" t="n">
+        <v>331</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -43972,6 +44149,9 @@
       <c r="IG60" t="n">
         <v>1.48</v>
       </c>
+      <c r="IH60" t="n">
+        <v>1.27</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -44699,6 +44879,9 @@
       <c r="IG61" t="n">
         <v>60</v>
       </c>
+      <c r="IH61" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -45426,6 +45609,9 @@
       <c r="IG62" t="n">
         <v>77</v>
       </c>
+      <c r="IH62" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -46153,6 +46339,9 @@
       <c r="IG63" t="n">
         <v>67</v>
       </c>
+      <c r="IH63" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -46880,6 +47069,9 @@
       <c r="IG64" t="n">
         <v>11</v>
       </c>
+      <c r="IH64" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -47607,6 +47799,9 @@
       <c r="IG65" t="n">
         <v>25</v>
       </c>
+      <c r="IH65" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -48334,6 +48529,9 @@
       <c r="IG66" t="n">
         <v>9</v>
       </c>
+      <c r="IH66" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -49061,6 +49259,9 @@
       <c r="IG67" t="n">
         <v>4</v>
       </c>
+      <c r="IH67" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -49788,6 +49989,9 @@
       <c r="IG68" t="n">
         <v>9</v>
       </c>
+      <c r="IH68" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -50515,6 +50719,9 @@
       <c r="IG69" t="n">
         <v>2</v>
       </c>
+      <c r="IH69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -51242,6 +51449,9 @@
       <c r="IG70" t="n">
         <v>20</v>
       </c>
+      <c r="IH70" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -51969,6 +52179,9 @@
       <c r="IG71" t="n">
         <v>45</v>
       </c>
+      <c r="IH71" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -52696,6 +52909,9 @@
       <c r="IG72" t="n">
         <v>41.11</v>
       </c>
+      <c r="IH72" t="n">
+        <v>41.38</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -53423,6 +53639,9 @@
       <c r="IG73" t="n">
         <v>18.5</v>
       </c>
+      <c r="IH73" t="n">
+        <v>20.69</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -54150,6 +54369,9 @@
       <c r="IG74" t="n">
         <v>41</v>
       </c>
+      <c r="IH74" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -54877,6 +55099,9 @@
       <c r="IG75" t="n">
         <v>88</v>
       </c>
+      <c r="IH75" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -55604,6 +55829,9 @@
       <c r="IG76" t="n">
         <v>39</v>
       </c>
+      <c r="IH76" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -56331,6 +56559,9 @@
       <c r="IG77" t="n">
         <v>51</v>
       </c>
+      <c r="IH77" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -57058,6 +57289,9 @@
       <c r="IG78" t="n">
         <v>2.55</v>
       </c>
+      <c r="IH78" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -57785,6 +58019,9 @@
       <c r="IG79" t="n">
         <v>5.67</v>
       </c>
+      <c r="IH79" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -58512,6 +58749,9 @@
       <c r="IG80" t="n">
         <v>35.3</v>
       </c>
+      <c r="IH80" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -59239,6 +59479,9 @@
       <c r="IG81" t="n">
         <v>17.6</v>
       </c>
+      <c r="IH81" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -59966,6 +60209,9 @@
       <c r="IG82" t="n">
         <v>187.9</v>
       </c>
+      <c r="IH82" t="n">
+        <v>186.7</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -60693,6 +60939,9 @@
       <c r="IG83" t="n">
         <v>86.5</v>
       </c>
+      <c r="IH83" t="n">
+        <v>84.5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -61420,6 +61669,9 @@
       <c r="IG84" t="n">
         <v>25.16</v>
       </c>
+      <c r="IH84" t="n">
+        <v>24.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -62147,6 +62399,9 @@
       <c r="IG85" t="n">
         <v>99.90000000000001</v>
       </c>
+      <c r="IH85" t="n">
+        <v>84.90000000000001</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -62874,6 +63129,9 @@
       <c r="IG86" t="n">
         <v>5</v>
       </c>
+      <c r="IH86" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -63601,6 +63859,9 @@
       <c r="IG87" t="n">
         <v>4</v>
       </c>
+      <c r="IH87" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -64328,6 +64589,9 @@
       <c r="IG88" t="n">
         <v>9</v>
       </c>
+      <c r="IH88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -65055,6 +65319,9 @@
       <c r="IG89" t="n">
         <v>4</v>
       </c>
+      <c r="IH89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -65782,6 +66049,9 @@
       <c r="IG90" t="n">
         <v>177</v>
       </c>
+      <c r="IH90" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -66509,6 +66779,9 @@
       <c r="IG91" t="n">
         <v>190</v>
       </c>
+      <c r="IH91" t="n">
+        <v>182</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -67236,6 +67509,9 @@
       <c r="IG92" t="n">
         <v>222</v>
       </c>
+      <c r="IH92" t="n">
+        <v>229</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -67963,6 +68239,9 @@
       <c r="IG93" t="n">
         <v>60</v>
       </c>
+      <c r="IH93" t="n">
+        <v>69.2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -68690,6 +68969,9 @@
       <c r="IG94" t="n">
         <v>88</v>
       </c>
+      <c r="IH94" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -69417,6 +69699,9 @@
       <c r="IG95" t="n">
         <v>6</v>
       </c>
+      <c r="IH95" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -70144,6 +70429,9 @@
       <c r="IG96" t="n">
         <v>9</v>
       </c>
+      <c r="IH96" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -70871,6 +71159,9 @@
       <c r="IG97" t="n">
         <v>41</v>
       </c>
+      <c r="IH97" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -71598,6 +71889,9 @@
       <c r="IG98" t="n">
         <v>39</v>
       </c>
+      <c r="IH98" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -72325,6 +72619,9 @@
       <c r="IG99" t="n">
         <v>54</v>
       </c>
+      <c r="IH99" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -73052,6 +73349,9 @@
       <c r="IG100" t="n">
         <v>3</v>
       </c>
+      <c r="IH100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -73779,6 +74079,9 @@
       <c r="IG101" t="n">
         <v>4</v>
       </c>
+      <c r="IH101" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -74506,6 +74809,9 @@
       <c r="IG102" t="n">
         <v>44.4</v>
       </c>
+      <c r="IH102" t="n">
+        <v>62.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
+++ b/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IH102"/>
+  <dimension ref="A1:II102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1082,6 +1082,9 @@
       <c r="IH1" t="n">
         <v>10532</v>
       </c>
+      <c r="II1" t="n">
+        <v>10504</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1812,6 +1815,9 @@
       <c r="IH2" t="n">
         <v>2021</v>
       </c>
+      <c r="II2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2542,6 +2548,9 @@
       <c r="IH3" t="n">
         <v>20</v>
       </c>
+      <c r="II3" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3272,6 +3281,9 @@
       <c r="IH4" t="n">
         <v>0</v>
       </c>
+      <c r="II4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4002,6 +4014,9 @@
       <c r="IH5" t="n">
         <v>0</v>
       </c>
+      <c r="II5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4732,6 +4747,9 @@
       <c r="IH6" t="n">
         <v>105</v>
       </c>
+      <c r="II6" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5462,6 +5480,9 @@
       <c r="IH7" t="n">
         <v>56</v>
       </c>
+      <c r="II7" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6192,6 +6213,9 @@
       <c r="IH8" t="n">
         <v>49</v>
       </c>
+      <c r="II8" t="n">
+        <v>-13</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6922,6 +6946,9 @@
       <c r="IH9" t="n">
         <v>1</v>
       </c>
+      <c r="II9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7652,6 +7679,9 @@
       <c r="IH10" t="n">
         <v>1</v>
       </c>
+      <c r="II10" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8382,6 +8412,9 @@
       <c r="IH11" t="n">
         <v>211</v>
       </c>
+      <c r="II11" t="n">
+        <v>189</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9112,6 +9145,9 @@
       <c r="IH12" t="n">
         <v>161</v>
       </c>
+      <c r="II12" t="n">
+        <v>182</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9842,6 +9878,9 @@
       <c r="IH13" t="n">
         <v>372</v>
       </c>
+      <c r="II13" t="n">
+        <v>371</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10572,6 +10611,9 @@
       <c r="IH14" t="n">
         <v>1.31</v>
       </c>
+      <c r="II14" t="n">
+        <v>1.04</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11302,6 +11344,9 @@
       <c r="IH15" t="n">
         <v>85</v>
       </c>
+      <c r="II15" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12032,6 +12077,9 @@
       <c r="IH16" t="n">
         <v>69</v>
       </c>
+      <c r="II16" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12762,6 +12810,9 @@
       <c r="IH17" t="n">
         <v>36</v>
       </c>
+      <c r="II17" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13492,6 +13543,9 @@
       <c r="IH18" t="n">
         <v>20</v>
       </c>
+      <c r="II18" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14222,6 +14276,9 @@
       <c r="IH19" t="n">
         <v>20</v>
       </c>
+      <c r="II19" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14952,6 +15009,9 @@
       <c r="IH20" t="n">
         <v>15</v>
       </c>
+      <c r="II20" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15682,6 +15742,9 @@
       <c r="IH21" t="n">
         <v>9</v>
       </c>
+      <c r="II21" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16412,6 +16475,9 @@
       <c r="IH22" t="n">
         <v>9</v>
       </c>
+      <c r="II22" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17142,6 +17208,9 @@
       <c r="IH23" t="n">
         <v>6</v>
       </c>
+      <c r="II23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17872,6 +17941,9 @@
       <c r="IH24" t="n">
         <v>30</v>
       </c>
+      <c r="II24" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18602,6 +18674,9 @@
       <c r="IH25" t="n">
         <v>50</v>
       </c>
+      <c r="II25" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19332,6 +19407,9 @@
       <c r="IH26" t="n">
         <v>24.8</v>
       </c>
+      <c r="II26" t="n">
+        <v>30.92</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20062,6 +20140,9 @@
       <c r="IH27" t="n">
         <v>12.4</v>
       </c>
+      <c r="II27" t="n">
+        <v>15.46</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20792,6 +20873,9 @@
       <c r="IH28" t="n">
         <v>44</v>
       </c>
+      <c r="II28" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21522,6 +21606,9 @@
       <c r="IH29" t="n">
         <v>54</v>
       </c>
+      <c r="II29" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22252,6 +22339,9 @@
       <c r="IH30" t="n">
         <v>32</v>
       </c>
+      <c r="II30" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22982,6 +23072,9 @@
       <c r="IH31" t="n">
         <v>65</v>
       </c>
+      <c r="II31" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23712,6 +23805,9 @@
       <c r="IH32" t="n">
         <v>2.17</v>
       </c>
+      <c r="II32" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24442,6 +24538,9 @@
       <c r="IH33" t="n">
         <v>4.33</v>
       </c>
+      <c r="II33" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25172,6 +25271,9 @@
       <c r="IH34" t="n">
         <v>36.9</v>
       </c>
+      <c r="II34" t="n">
+        <v>36.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25902,6 +26004,9 @@
       <c r="IH35" t="n">
         <v>23.1</v>
       </c>
+      <c r="II35" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26632,6 +26737,9 @@
       <c r="IH36" t="n">
         <v>187.1</v>
       </c>
+      <c r="II36" t="n">
+        <v>187.1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27362,6 +27470,9 @@
       <c r="IH37" t="n">
         <v>84.3</v>
       </c>
+      <c r="II37" t="n">
+        <v>84.7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28092,6 +28203,9 @@
       <c r="IH38" t="n">
         <v>25</v>
       </c>
+      <c r="II38" t="n">
+        <v>25.41</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28822,6 +28936,9 @@
       <c r="IH39" t="n">
         <v>91.09999999999999</v>
       </c>
+      <c r="II39" t="n">
+        <v>105.4</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29552,6 +29669,9 @@
       <c r="IH40" t="n">
         <v>5</v>
       </c>
+      <c r="II40" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30282,6 +30402,9 @@
       <c r="IH41" t="n">
         <v>9</v>
       </c>
+      <c r="II41" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31012,6 +31135,9 @@
       <c r="IH42" t="n">
         <v>2</v>
       </c>
+      <c r="II42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31742,6 +31868,9 @@
       <c r="IH43" t="n">
         <v>6</v>
       </c>
+      <c r="II43" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32472,6 +32601,9 @@
       <c r="IH44" t="n">
         <v>142</v>
       </c>
+      <c r="II44" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33202,6 +33334,9 @@
       <c r="IH45" t="n">
         <v>222</v>
       </c>
+      <c r="II45" t="n">
+        <v>244</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33932,6 +34067,9 @@
       <c r="IH46" t="n">
         <v>274</v>
       </c>
+      <c r="II46" t="n">
+        <v>289</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34662,6 +34800,9 @@
       <c r="IH47" t="n">
         <v>73.7</v>
       </c>
+      <c r="II47" t="n">
+        <v>77.90000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35392,6 +35533,9 @@
       <c r="IH48" t="n">
         <v>54</v>
       </c>
+      <c r="II48" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -36122,6 +36266,9 @@
       <c r="IH49" t="n">
         <v>16</v>
       </c>
+      <c r="II49" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -36852,6 +36999,9 @@
       <c r="IH50" t="n">
         <v>17</v>
       </c>
+      <c r="II50" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -37582,6 +37732,9 @@
       <c r="IH51" t="n">
         <v>44</v>
       </c>
+      <c r="II51" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -38312,6 +38465,9 @@
       <c r="IH52" t="n">
         <v>32</v>
       </c>
+      <c r="II52" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -39042,6 +39198,9 @@
       <c r="IH53" t="n">
         <v>51</v>
       </c>
+      <c r="II53" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -39772,6 +39931,9 @@
       <c r="IH54" t="n">
         <v>7</v>
       </c>
+      <c r="II54" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40502,6 +40664,9 @@
       <c r="IH55" t="n">
         <v>9</v>
       </c>
+      <c r="II55" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -41232,6 +41397,9 @@
       <c r="IH56" t="n">
         <v>60</v>
       </c>
+      <c r="II56" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -41962,6 +42130,9 @@
       <c r="IH57" t="n">
         <v>185</v>
       </c>
+      <c r="II57" t="n">
+        <v>187</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -42692,6 +42863,9 @@
       <c r="IH58" t="n">
         <v>146</v>
       </c>
+      <c r="II58" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -43422,6 +43596,9 @@
       <c r="IH59" t="n">
         <v>331</v>
       </c>
+      <c r="II59" t="n">
+        <v>321</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -44152,6 +44329,9 @@
       <c r="IH60" t="n">
         <v>1.27</v>
       </c>
+      <c r="II60" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -44882,6 +45062,9 @@
       <c r="IH61" t="n">
         <v>68</v>
       </c>
+      <c r="II61" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -45612,6 +45795,9 @@
       <c r="IH62" t="n">
         <v>58</v>
       </c>
+      <c r="II62" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -46342,6 +46528,9 @@
       <c r="IH63" t="n">
         <v>49</v>
       </c>
+      <c r="II63" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -47072,6 +47261,9 @@
       <c r="IH64" t="n">
         <v>20</v>
       </c>
+      <c r="II64" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -47802,6 +47994,9 @@
       <c r="IH65" t="n">
         <v>20</v>
       </c>
+      <c r="II65" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -48532,6 +48727,9 @@
       <c r="IH66" t="n">
         <v>8</v>
       </c>
+      <c r="II66" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -49262,6 +49460,9 @@
       <c r="IH67" t="n">
         <v>5</v>
       </c>
+      <c r="II67" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -49992,6 +50193,9 @@
       <c r="IH68" t="n">
         <v>6</v>
       </c>
+      <c r="II68" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -50722,6 +50926,9 @@
       <c r="IH69" t="n">
         <v>2</v>
       </c>
+      <c r="II69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -51452,6 +51659,9 @@
       <c r="IH70" t="n">
         <v>16</v>
       </c>
+      <c r="II70" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -52182,6 +52392,9 @@
       <c r="IH71" t="n">
         <v>50</v>
       </c>
+      <c r="II71" t="n">
+        <v>68.2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -52912,6 +53125,9 @@
       <c r="IH72" t="n">
         <v>41.38</v>
       </c>
+      <c r="II72" t="n">
+        <v>21.4</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -53642,6 +53858,9 @@
       <c r="IH73" t="n">
         <v>20.69</v>
       </c>
+      <c r="II73" t="n">
+        <v>14.59</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -54372,6 +54591,9 @@
       <c r="IH74" t="n">
         <v>35</v>
       </c>
+      <c r="II74" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -55102,6 +55324,9 @@
       <c r="IH75" t="n">
         <v>68</v>
       </c>
+      <c r="II75" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -55832,6 +56057,9 @@
       <c r="IH76" t="n">
         <v>50</v>
       </c>
+      <c r="II76" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -56562,6 +56790,9 @@
       <c r="IH77" t="n">
         <v>40</v>
       </c>
+      <c r="II77" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -57292,6 +57523,9 @@
       <c r="IH78" t="n">
         <v>2.5</v>
       </c>
+      <c r="II78" t="n">
+        <v>1.77</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -58022,6 +58256,9 @@
       <c r="IH79" t="n">
         <v>5</v>
       </c>
+      <c r="II79" t="n">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -58752,6 +58989,9 @@
       <c r="IH80" t="n">
         <v>35</v>
       </c>
+      <c r="II80" t="n">
+        <v>51.3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -59482,6 +59722,9 @@
       <c r="IH81" t="n">
         <v>20</v>
       </c>
+      <c r="II81" t="n">
+        <v>38.5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -60212,6 +60455,9 @@
       <c r="IH82" t="n">
         <v>186.7</v>
       </c>
+      <c r="II82" t="n">
+        <v>187.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -60942,6 +61188,9 @@
       <c r="IH83" t="n">
         <v>84.5</v>
       </c>
+      <c r="II83" t="n">
+        <v>86.09999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -61672,6 +61921,9 @@
       <c r="IH84" t="n">
         <v>24.8</v>
       </c>
+      <c r="II84" t="n">
+        <v>24.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -62402,6 +62654,9 @@
       <c r="IH85" t="n">
         <v>84.90000000000001</v>
       </c>
+      <c r="II85" t="n">
+        <v>75.5</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -63132,6 +63387,9 @@
       <c r="IH86" t="n">
         <v>12</v>
       </c>
+      <c r="II86" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -63862,6 +64120,9 @@
       <c r="IH87" t="n">
         <v>3</v>
       </c>
+      <c r="II87" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -64592,6 +64853,9 @@
       <c r="IH88" t="n">
         <v>2</v>
       </c>
+      <c r="II88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -65322,6 +65586,9 @@
       <c r="IH89" t="n">
         <v>6</v>
       </c>
+      <c r="II89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -66052,6 +66319,9 @@
       <c r="IH90" t="n">
         <v>142</v>
       </c>
+      <c r="II90" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -66782,6 +67052,9 @@
       <c r="IH91" t="n">
         <v>182</v>
       </c>
+      <c r="II91" t="n">
+        <v>202</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -67512,6 +67785,9 @@
       <c r="IH92" t="n">
         <v>229</v>
       </c>
+      <c r="II92" t="n">
+        <v>257</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -68242,6 +68518,9 @@
       <c r="IH93" t="n">
         <v>69.2</v>
       </c>
+      <c r="II93" t="n">
+        <v>80.09999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -68972,6 +69251,9 @@
       <c r="IH94" t="n">
         <v>68</v>
       </c>
+      <c r="II94" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -69702,6 +69984,9 @@
       <c r="IH95" t="n">
         <v>17</v>
       </c>
+      <c r="II95" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -70432,6 +70717,9 @@
       <c r="IH96" t="n">
         <v>8</v>
       </c>
+      <c r="II96" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -71162,6 +71450,9 @@
       <c r="IH97" t="n">
         <v>35</v>
       </c>
+      <c r="II97" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -71892,6 +72183,9 @@
       <c r="IH98" t="n">
         <v>50</v>
       </c>
+      <c r="II98" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -72622,6 +72916,9 @@
       <c r="IH99" t="n">
         <v>43</v>
       </c>
+      <c r="II99" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -73352,6 +73649,9 @@
       <c r="IH100" t="n">
         <v>4</v>
       </c>
+      <c r="II100" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -74082,6 +74382,9 @@
       <c r="IH101" t="n">
         <v>5</v>
       </c>
+      <c r="II101" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -74812,6 +75115,9 @@
       <c r="IH102" t="n">
         <v>62.5</v>
       </c>
+      <c r="II102" t="n">
+        <v>73.3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
+++ b/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
@@ -53,6 +53,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -345,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:II102"/>
+  <dimension ref="A1:IJ102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1085,6 +1153,9 @@
       <c r="II1" t="n">
         <v>10504</v>
       </c>
+      <c r="IJ1" t="n">
+        <v>10511</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1818,6 +1889,9 @@
       <c r="II2" t="n">
         <v>2021</v>
       </c>
+      <c r="IJ2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2551,6 +2625,9 @@
       <c r="II3" t="n">
         <v>21</v>
       </c>
+      <c r="IJ3" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3284,6 +3361,9 @@
       <c r="II4" t="n">
         <v>0</v>
       </c>
+      <c r="IJ4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4017,6 +4097,9 @@
       <c r="II5" t="n">
         <v>1</v>
       </c>
+      <c r="IJ5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4750,6 +4833,9 @@
       <c r="II6" t="n">
         <v>84</v>
       </c>
+      <c r="IJ6" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5483,6 +5569,9 @@
       <c r="II7" t="n">
         <v>97</v>
       </c>
+      <c r="IJ7" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6216,6 +6305,9 @@
       <c r="II8" t="n">
         <v>-13</v>
       </c>
+      <c r="IJ8" t="n">
+        <v>-27</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6949,6 +7041,9 @@
       <c r="II9" t="n">
         <v>0</v>
       </c>
+      <c r="IJ9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7682,6 +7777,9 @@
       <c r="II10" t="n">
         <v>5</v>
       </c>
+      <c r="IJ10" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8415,6 +8513,9 @@
       <c r="II11" t="n">
         <v>189</v>
       </c>
+      <c r="IJ11" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9148,6 +9249,9 @@
       <c r="II12" t="n">
         <v>182</v>
       </c>
+      <c r="IJ12" t="n">
+        <v>158</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9881,6 +9985,9 @@
       <c r="II13" t="n">
         <v>371</v>
       </c>
+      <c r="IJ13" t="n">
+        <v>346</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10614,6 +10721,9 @@
       <c r="II14" t="n">
         <v>1.04</v>
       </c>
+      <c r="IJ14" t="n">
+        <v>1.19</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11347,6 +11457,9 @@
       <c r="II15" t="n">
         <v>81</v>
       </c>
+      <c r="IJ15" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12080,6 +12193,9 @@
       <c r="II16" t="n">
         <v>37</v>
       </c>
+      <c r="IJ16" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12813,6 +12929,9 @@
       <c r="II17" t="n">
         <v>27</v>
       </c>
+      <c r="IJ17" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13546,6 +13665,9 @@
       <c r="II18" t="n">
         <v>17</v>
       </c>
+      <c r="IJ18" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14279,6 +14401,9 @@
       <c r="II19" t="n">
         <v>14</v>
       </c>
+      <c r="IJ19" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15012,6 +15137,9 @@
       <c r="II20" t="n">
         <v>12</v>
       </c>
+      <c r="IJ20" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15745,6 +15873,9 @@
       <c r="II21" t="n">
         <v>9</v>
       </c>
+      <c r="IJ21" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16478,6 +16609,9 @@
       <c r="II22" t="n">
         <v>10</v>
       </c>
+      <c r="IJ22" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17211,6 +17345,9 @@
       <c r="II23" t="n">
         <v>2</v>
       </c>
+      <c r="IJ23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17944,6 +18081,9 @@
       <c r="II24" t="n">
         <v>24</v>
       </c>
+      <c r="IJ24" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18677,6 +18817,9 @@
       <c r="II25" t="n">
         <v>50</v>
       </c>
+      <c r="IJ25" t="n">
+        <v>41.7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19410,6 +19553,9 @@
       <c r="II26" t="n">
         <v>30.92</v>
       </c>
+      <c r="IJ26" t="n">
+        <v>69.2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20143,6 +20289,9 @@
       <c r="II27" t="n">
         <v>15.46</v>
       </c>
+      <c r="IJ27" t="n">
+        <v>28.83</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20876,6 +21025,9 @@
       <c r="II28" t="n">
         <v>31</v>
       </c>
+      <c r="IJ28" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21609,6 +21761,9 @@
       <c r="II29" t="n">
         <v>45</v>
       </c>
+      <c r="IJ29" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22342,6 +22497,9 @@
       <c r="II30" t="n">
         <v>22</v>
       </c>
+      <c r="IJ30" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23075,6 +23233,9 @@
       <c r="II31" t="n">
         <v>60</v>
       </c>
+      <c r="IJ31" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23808,6 +23969,9 @@
       <c r="II32" t="n">
         <v>2.5</v>
       </c>
+      <c r="IJ32" t="n">
+        <v>2.92</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24541,6 +24705,9 @@
       <c r="II33" t="n">
         <v>5</v>
       </c>
+      <c r="IJ33" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25274,6 +25441,9 @@
       <c r="II34" t="n">
         <v>36.7</v>
       </c>
+      <c r="IJ34" t="n">
+        <v>31.4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26007,6 +26177,9 @@
       <c r="II35" t="n">
         <v>20</v>
       </c>
+      <c r="IJ35" t="n">
+        <v>14.3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26740,6 +26913,9 @@
       <c r="II36" t="n">
         <v>187.1</v>
       </c>
+      <c r="IJ36" t="n">
+        <v>186.4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27473,6 +27649,9 @@
       <c r="II37" t="n">
         <v>84.7</v>
       </c>
+      <c r="IJ37" t="n">
+        <v>84.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28206,6 +28385,9 @@
       <c r="II38" t="n">
         <v>25.41</v>
       </c>
+      <c r="IJ38" t="n">
+        <v>25.49</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28939,6 +29121,9 @@
       <c r="II39" t="n">
         <v>105.4</v>
       </c>
+      <c r="IJ39" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29672,6 +29857,9 @@
       <c r="II40" t="n">
         <v>3</v>
       </c>
+      <c r="IJ40" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30405,6 +30593,9 @@
       <c r="II41" t="n">
         <v>8</v>
       </c>
+      <c r="IJ41" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31138,6 +31329,9 @@
       <c r="II42" t="n">
         <v>2</v>
       </c>
+      <c r="IJ42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31871,6 +32065,9 @@
       <c r="II43" t="n">
         <v>9</v>
       </c>
+      <c r="IJ43" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32604,6 +32801,9 @@
       <c r="II44" t="n">
         <v>126</v>
       </c>
+      <c r="IJ44" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33337,6 +33537,9 @@
       <c r="II45" t="n">
         <v>244</v>
       </c>
+      <c r="IJ45" t="n">
+        <v>217</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -34070,6 +34273,9 @@
       <c r="II46" t="n">
         <v>289</v>
       </c>
+      <c r="IJ46" t="n">
+        <v>255</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34803,6 +35009,9 @@
       <c r="II47" t="n">
         <v>77.90000000000001</v>
       </c>
+      <c r="IJ47" t="n">
+        <v>73.7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35536,6 +35745,9 @@
       <c r="II48" t="n">
         <v>45</v>
       </c>
+      <c r="IJ48" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -36269,6 +36481,9 @@
       <c r="II49" t="n">
         <v>14</v>
       </c>
+      <c r="IJ49" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -37002,6 +37217,9 @@
       <c r="II50" t="n">
         <v>20</v>
       </c>
+      <c r="IJ50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -37735,6 +37953,9 @@
       <c r="II51" t="n">
         <v>31</v>
       </c>
+      <c r="IJ51" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -38468,6 +38689,9 @@
       <c r="II52" t="n">
         <v>22</v>
       </c>
+      <c r="IJ52" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -39201,6 +39425,9 @@
       <c r="II53" t="n">
         <v>55</v>
       </c>
+      <c r="IJ53" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -39934,6 +40161,9 @@
       <c r="II54" t="n">
         <v>6</v>
       </c>
+      <c r="IJ54" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40667,6 +40897,9 @@
       <c r="II55" t="n">
         <v>9</v>
       </c>
+      <c r="IJ55" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -41400,6 +41633,9 @@
       <c r="II56" t="n">
         <v>75</v>
       </c>
+      <c r="IJ56" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -42133,6 +42369,9 @@
       <c r="II57" t="n">
         <v>187</v>
       </c>
+      <c r="IJ57" t="n">
+        <v>232</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -42866,6 +43105,9 @@
       <c r="II58" t="n">
         <v>134</v>
       </c>
+      <c r="IJ58" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -43599,6 +43841,9 @@
       <c r="II59" t="n">
         <v>321</v>
       </c>
+      <c r="IJ59" t="n">
+        <v>386</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -44332,6 +44577,9 @@
       <c r="II60" t="n">
         <v>1.4</v>
       </c>
+      <c r="IJ60" t="n">
+        <v>1.51</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -45065,6 +45313,9 @@
       <c r="II61" t="n">
         <v>81</v>
       </c>
+      <c r="IJ61" t="n">
+        <v>116</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -45798,6 +46049,9 @@
       <c r="II62" t="n">
         <v>54</v>
       </c>
+      <c r="IJ62" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -46531,6 +46785,9 @@
       <c r="II63" t="n">
         <v>48</v>
       </c>
+      <c r="IJ63" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -47264,6 +47521,9 @@
       <c r="II64" t="n">
         <v>14</v>
       </c>
+      <c r="IJ64" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -47997,6 +48257,9 @@
       <c r="II65" t="n">
         <v>17</v>
       </c>
+      <c r="IJ65" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -48730,6 +48993,9 @@
       <c r="II66" t="n">
         <v>15</v>
       </c>
+      <c r="IJ66" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -49463,6 +49729,9 @@
       <c r="II67" t="n">
         <v>11</v>
       </c>
+      <c r="IJ67" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -50196,6 +50465,9 @@
       <c r="II68" t="n">
         <v>5</v>
       </c>
+      <c r="IJ68" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -50929,6 +51201,9 @@
       <c r="II69" t="n">
         <v>2</v>
       </c>
+      <c r="IJ69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -51662,6 +51937,9 @@
       <c r="II70" t="n">
         <v>22</v>
       </c>
+      <c r="IJ70" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -52395,6 +52673,9 @@
       <c r="II71" t="n">
         <v>68.2</v>
       </c>
+      <c r="IJ71" t="n">
+        <v>47.4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -53128,6 +53409,9 @@
       <c r="II72" t="n">
         <v>21.4</v>
       </c>
+      <c r="IJ72" t="n">
+        <v>42.89</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -53861,6 +54145,9 @@
       <c r="II73" t="n">
         <v>14.59</v>
       </c>
+      <c r="IJ73" t="n">
+        <v>20.32</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -54594,6 +54881,9 @@
       <c r="II74" t="n">
         <v>47</v>
       </c>
+      <c r="IJ74" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -55327,6 +55617,9 @@
       <c r="II75" t="n">
         <v>41</v>
       </c>
+      <c r="IJ75" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -56060,6 +56353,9 @@
       <c r="II76" t="n">
         <v>46</v>
       </c>
+      <c r="IJ76" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -56793,6 +57089,9 @@
       <c r="II77" t="n">
         <v>39</v>
       </c>
+      <c r="IJ77" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -57526,6 +57825,9 @@
       <c r="II78" t="n">
         <v>1.77</v>
       </c>
+      <c r="IJ78" t="n">
+        <v>2.68</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -58259,6 +58561,9 @@
       <c r="II79" t="n">
         <v>2.6</v>
       </c>
+      <c r="IJ79" t="n">
+        <v>5.67</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -58992,6 +59297,9 @@
       <c r="II80" t="n">
         <v>51.3</v>
       </c>
+      <c r="IJ80" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -59725,6 +60033,9 @@
       <c r="II81" t="n">
         <v>38.5</v>
       </c>
+      <c r="IJ81" t="n">
+        <v>17.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -60458,6 +60769,9 @@
       <c r="II82" t="n">
         <v>187.5</v>
       </c>
+      <c r="IJ82" t="n">
+        <v>189</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -61191,6 +61505,9 @@
       <c r="II83" t="n">
         <v>86.09999999999999</v>
       </c>
+      <c r="IJ83" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -61924,6 +62241,9 @@
       <c r="II84" t="n">
         <v>24.8</v>
       </c>
+      <c r="IJ84" t="n">
+        <v>24.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -62657,6 +62977,9 @@
       <c r="II85" t="n">
         <v>75.5</v>
       </c>
+      <c r="IJ85" t="n">
+        <v>100.7</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -63390,6 +63713,9 @@
       <c r="II86" t="n">
         <v>9</v>
       </c>
+      <c r="IJ86" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -64123,6 +64449,9 @@
       <c r="II87" t="n">
         <v>7</v>
       </c>
+      <c r="IJ87" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -64856,6 +65185,9 @@
       <c r="II88" t="n">
         <v>2</v>
       </c>
+      <c r="IJ88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -65589,6 +65921,9 @@
       <c r="II89" t="n">
         <v>4</v>
       </c>
+      <c r="IJ89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -66322,6 +66657,9 @@
       <c r="II90" t="n">
         <v>109</v>
       </c>
+      <c r="IJ90" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -67055,6 +67393,9 @@
       <c r="II91" t="n">
         <v>202</v>
       </c>
+      <c r="IJ91" t="n">
+        <v>234</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -67788,6 +68129,9 @@
       <c r="II92" t="n">
         <v>257</v>
       </c>
+      <c r="IJ92" t="n">
+        <v>290</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -68521,6 +68865,9 @@
       <c r="II93" t="n">
         <v>80.09999999999999</v>
       </c>
+      <c r="IJ93" t="n">
+        <v>75.09999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -69254,6 +69601,9 @@
       <c r="II94" t="n">
         <v>41</v>
       </c>
+      <c r="IJ94" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -69987,6 +70337,9 @@
       <c r="II95" t="n">
         <v>13</v>
       </c>
+      <c r="IJ95" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -70720,6 +71073,9 @@
       <c r="II96" t="n">
         <v>13</v>
       </c>
+      <c r="IJ96" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -71453,6 +71809,9 @@
       <c r="II97" t="n">
         <v>47</v>
       </c>
+      <c r="IJ97" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -72186,6 +72545,9 @@
       <c r="II98" t="n">
         <v>46</v>
       </c>
+      <c r="IJ98" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -72919,6 +73281,9 @@
       <c r="II99" t="n">
         <v>33</v>
       </c>
+      <c r="IJ99" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -73652,6 +74017,9 @@
       <c r="II100" t="n">
         <v>5</v>
       </c>
+      <c r="IJ100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -74385,6 +74753,9 @@
       <c r="II101" t="n">
         <v>11</v>
       </c>
+      <c r="IJ101" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -75118,6 +75489,9 @@
       <c r="II102" t="n">
         <v>73.3</v>
       </c>
+      <c r="IJ102" t="n">
+        <v>66.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
+++ b/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IJ102"/>
+  <dimension ref="A1:IK102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1156,6 +1156,9 @@
       <c r="IJ1" t="n">
         <v>10511</v>
       </c>
+      <c r="IK1" t="n">
+        <v>10523</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1892,6 +1895,9 @@
       <c r="IJ2" t="n">
         <v>2021</v>
       </c>
+      <c r="IK2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2628,6 +2634,9 @@
       <c r="IJ3" t="n">
         <v>22</v>
       </c>
+      <c r="IK3" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3364,6 +3373,9 @@
       <c r="IJ4" t="n">
         <v>1</v>
       </c>
+      <c r="IK4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4100,6 +4112,9 @@
       <c r="IJ5" t="n">
         <v>0</v>
       </c>
+      <c r="IK5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4836,6 +4851,9 @@
       <c r="IJ6" t="n">
         <v>37</v>
       </c>
+      <c r="IK6" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5572,6 +5590,9 @@
       <c r="IJ7" t="n">
         <v>64</v>
       </c>
+      <c r="IK7" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6308,6 +6329,9 @@
       <c r="IJ8" t="n">
         <v>-27</v>
       </c>
+      <c r="IK8" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7044,6 +7068,9 @@
       <c r="IJ9" t="n">
         <v>0</v>
       </c>
+      <c r="IK9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7780,6 +7807,9 @@
       <c r="IJ10" t="n">
         <v>10</v>
       </c>
+      <c r="IK10" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8516,6 +8546,9 @@
       <c r="IJ11" t="n">
         <v>188</v>
       </c>
+      <c r="IK11" t="n">
+        <v>203</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9252,6 +9285,9 @@
       <c r="IJ12" t="n">
         <v>158</v>
       </c>
+      <c r="IK12" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9988,6 +10024,9 @@
       <c r="IJ13" t="n">
         <v>346</v>
       </c>
+      <c r="IK13" t="n">
+        <v>334</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10724,6 +10763,9 @@
       <c r="IJ14" t="n">
         <v>1.19</v>
       </c>
+      <c r="IK14" t="n">
+        <v>1.55</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11460,6 +11502,9 @@
       <c r="IJ15" t="n">
         <v>80</v>
       </c>
+      <c r="IK15" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12196,6 +12241,9 @@
       <c r="IJ16" t="n">
         <v>64</v>
       </c>
+      <c r="IK16" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12932,6 +12980,9 @@
       <c r="IJ17" t="n">
         <v>15</v>
       </c>
+      <c r="IK17" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13668,6 +13719,9 @@
       <c r="IJ18" t="n">
         <v>11</v>
       </c>
+      <c r="IK18" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14404,6 +14458,9 @@
       <c r="IJ19" t="n">
         <v>14</v>
       </c>
+      <c r="IK19" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15140,6 +15197,9 @@
       <c r="IJ20" t="n">
         <v>5</v>
       </c>
+      <c r="IK20" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15876,6 +15936,9 @@
       <c r="IJ21" t="n">
         <v>3</v>
       </c>
+      <c r="IK21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16612,6 +16675,9 @@
       <c r="IJ22" t="n">
         <v>6</v>
       </c>
+      <c r="IK22" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17348,6 +17414,9 @@
       <c r="IJ23" t="n">
         <v>1</v>
       </c>
+      <c r="IK23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18084,6 +18153,9 @@
       <c r="IJ24" t="n">
         <v>12</v>
       </c>
+      <c r="IK24" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18820,6 +18892,9 @@
       <c r="IJ25" t="n">
         <v>41.7</v>
       </c>
+      <c r="IK25" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19556,6 +19631,9 @@
       <c r="IJ26" t="n">
         <v>69.2</v>
       </c>
+      <c r="IK26" t="n">
+        <v>33.4</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20292,6 +20370,9 @@
       <c r="IJ27" t="n">
         <v>28.83</v>
       </c>
+      <c r="IK27" t="n">
+        <v>23.86</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21028,6 +21109,9 @@
       <c r="IJ28" t="n">
         <v>33</v>
       </c>
+      <c r="IK28" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21764,6 +21848,9 @@
       <c r="IJ29" t="n">
         <v>51</v>
       </c>
+      <c r="IK29" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22500,6 +22587,9 @@
       <c r="IJ30" t="n">
         <v>42</v>
       </c>
+      <c r="IK30" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23236,6 +23326,9 @@
       <c r="IJ31" t="n">
         <v>35</v>
       </c>
+      <c r="IK31" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23972,6 +24065,9 @@
       <c r="IJ32" t="n">
         <v>2.92</v>
       </c>
+      <c r="IK32" t="n">
+        <v>3.07</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24708,6 +24804,9 @@
       <c r="IJ33" t="n">
         <v>7</v>
       </c>
+      <c r="IK33" t="n">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25444,6 +25543,9 @@
       <c r="IJ34" t="n">
         <v>31.4</v>
       </c>
+      <c r="IK34" t="n">
+        <v>30.2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26180,6 +26282,9 @@
       <c r="IJ35" t="n">
         <v>14.3</v>
       </c>
+      <c r="IK35" t="n">
+        <v>23.3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26916,6 +27021,9 @@
       <c r="IJ36" t="n">
         <v>186.4</v>
       </c>
+      <c r="IK36" t="n">
+        <v>186.6</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27652,6 +27760,9 @@
       <c r="IJ37" t="n">
         <v>84.3</v>
       </c>
+      <c r="IK37" t="n">
+        <v>84.8</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28388,6 +28499,9 @@
       <c r="IJ38" t="n">
         <v>25.49</v>
       </c>
+      <c r="IK38" t="n">
+        <v>25.74</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -29124,6 +29238,9 @@
       <c r="IJ39" t="n">
         <v>101</v>
       </c>
+      <c r="IK39" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29860,6 +29977,9 @@
       <c r="IJ40" t="n">
         <v>4</v>
       </c>
+      <c r="IK40" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30596,6 +30716,9 @@
       <c r="IJ41" t="n">
         <v>8</v>
       </c>
+      <c r="IK41" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31332,6 +31455,9 @@
       <c r="IJ42" t="n">
         <v>2</v>
       </c>
+      <c r="IK42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -32068,6 +32194,9 @@
       <c r="IJ43" t="n">
         <v>8</v>
       </c>
+      <c r="IK43" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32804,6 +32933,9 @@
       <c r="IJ44" t="n">
         <v>125</v>
       </c>
+      <c r="IK44" t="n">
+        <v>132</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33540,6 +33672,9 @@
       <c r="IJ45" t="n">
         <v>217</v>
       </c>
+      <c r="IK45" t="n">
+        <v>196</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -34276,6 +34411,9 @@
       <c r="IJ46" t="n">
         <v>255</v>
       </c>
+      <c r="IK46" t="n">
+        <v>240</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -35012,6 +35150,9 @@
       <c r="IJ47" t="n">
         <v>73.7</v>
       </c>
+      <c r="IK47" t="n">
+        <v>71.90000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35748,6 +35889,9 @@
       <c r="IJ48" t="n">
         <v>51</v>
       </c>
+      <c r="IK48" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -36484,6 +36628,9 @@
       <c r="IJ49" t="n">
         <v>14</v>
       </c>
+      <c r="IK49" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -37220,6 +37367,9 @@
       <c r="IJ50" t="n">
         <v>9</v>
       </c>
+      <c r="IK50" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -37956,6 +38106,9 @@
       <c r="IJ51" t="n">
         <v>33</v>
       </c>
+      <c r="IK51" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -38692,6 +38845,9 @@
       <c r="IJ52" t="n">
         <v>42</v>
       </c>
+      <c r="IK52" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -39428,6 +39584,9 @@
       <c r="IJ53" t="n">
         <v>54</v>
       </c>
+      <c r="IK53" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -40164,6 +40323,9 @@
       <c r="IJ54" t="n">
         <v>10</v>
       </c>
+      <c r="IK54" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40900,6 +41062,9 @@
       <c r="IJ55" t="n">
         <v>3</v>
       </c>
+      <c r="IK55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -41636,6 +41801,9 @@
       <c r="IJ56" t="n">
         <v>60</v>
       </c>
+      <c r="IK56" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -42372,6 +42540,9 @@
       <c r="IJ57" t="n">
         <v>232</v>
       </c>
+      <c r="IK57" t="n">
+        <v>239</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -43108,6 +43279,9 @@
       <c r="IJ58" t="n">
         <v>154</v>
       </c>
+      <c r="IK58" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -43844,6 +44018,9 @@
       <c r="IJ59" t="n">
         <v>386</v>
       </c>
+      <c r="IK59" t="n">
+        <v>394</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -44580,6 +44757,9 @@
       <c r="IJ60" t="n">
         <v>1.51</v>
       </c>
+      <c r="IK60" t="n">
+        <v>1.54</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -45316,6 +45496,9 @@
       <c r="IJ61" t="n">
         <v>116</v>
       </c>
+      <c r="IK61" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -46052,6 +46235,9 @@
       <c r="IJ62" t="n">
         <v>69</v>
       </c>
+      <c r="IK62" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -46788,6 +46974,9 @@
       <c r="IJ63" t="n">
         <v>55</v>
       </c>
+      <c r="IK63" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -47524,6 +47713,9 @@
       <c r="IJ64" t="n">
         <v>14</v>
       </c>
+      <c r="IK64" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -48260,6 +48452,9 @@
       <c r="IJ65" t="n">
         <v>11</v>
       </c>
+      <c r="IK65" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -48996,6 +49191,9 @@
       <c r="IJ66" t="n">
         <v>9</v>
       </c>
+      <c r="IK66" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -49732,6 +49930,9 @@
       <c r="IJ67" t="n">
         <v>6</v>
       </c>
+      <c r="IK67" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -50468,6 +50669,9 @@
       <c r="IJ68" t="n">
         <v>8</v>
       </c>
+      <c r="IK68" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -51204,6 +51408,9 @@
       <c r="IJ69" t="n">
         <v>2</v>
       </c>
+      <c r="IK69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -51940,6 +52147,9 @@
       <c r="IJ70" t="n">
         <v>19</v>
       </c>
+      <c r="IK70" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -52676,6 +52886,9 @@
       <c r="IJ71" t="n">
         <v>47.4</v>
       </c>
+      <c r="IK71" t="n">
+        <v>42.9</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -53412,6 +53625,9 @@
       <c r="IJ72" t="n">
         <v>42.89</v>
       </c>
+      <c r="IK72" t="n">
+        <v>43.78</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -54148,6 +54364,9 @@
       <c r="IJ73" t="n">
         <v>20.32</v>
       </c>
+      <c r="IK73" t="n">
+        <v>18.76</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -54884,6 +55103,9 @@
       <c r="IJ74" t="n">
         <v>35</v>
       </c>
+      <c r="IK74" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -55620,6 +55842,9 @@
       <c r="IJ75" t="n">
         <v>40</v>
       </c>
+      <c r="IK75" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -56356,6 +56581,9 @@
       <c r="IJ76" t="n">
         <v>30</v>
       </c>
+      <c r="IK76" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -57092,6 +57320,9 @@
       <c r="IJ77" t="n">
         <v>51</v>
       </c>
+      <c r="IK77" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -57828,6 +58059,9 @@
       <c r="IJ78" t="n">
         <v>2.68</v>
       </c>
+      <c r="IK78" t="n">
+        <v>2.38</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -58564,6 +58798,9 @@
       <c r="IJ79" t="n">
         <v>5.67</v>
       </c>
+      <c r="IK79" t="n">
+        <v>5.56</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -59300,6 +59537,9 @@
       <c r="IJ80" t="n">
         <v>33.3</v>
       </c>
+      <c r="IK80" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -60036,6 +60276,9 @@
       <c r="IJ81" t="n">
         <v>17.6</v>
       </c>
+      <c r="IK81" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -60772,6 +61015,9 @@
       <c r="IJ82" t="n">
         <v>189</v>
       </c>
+      <c r="IK82" t="n">
+        <v>189</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -61508,6 +61754,9 @@
       <c r="IJ83" t="n">
         <v>87</v>
       </c>
+      <c r="IK83" t="n">
+        <v>83.7</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -62244,6 +62493,9 @@
       <c r="IJ84" t="n">
         <v>24.8</v>
       </c>
+      <c r="IK84" t="n">
+        <v>25.91</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -62980,6 +63232,9 @@
       <c r="IJ85" t="n">
         <v>100.7</v>
       </c>
+      <c r="IK85" t="n">
+        <v>110.7</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -63716,6 +63971,9 @@
       <c r="IJ86" t="n">
         <v>9</v>
       </c>
+      <c r="IK86" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -64452,6 +64710,9 @@
       <c r="IJ87" t="n">
         <v>3</v>
       </c>
+      <c r="IK87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -65188,6 +65449,9 @@
       <c r="IJ88" t="n">
         <v>6</v>
       </c>
+      <c r="IK88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -65924,6 +66188,9 @@
       <c r="IJ89" t="n">
         <v>4</v>
       </c>
+      <c r="IK89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -66660,6 +66927,9 @@
       <c r="IJ90" t="n">
         <v>142</v>
       </c>
+      <c r="IK90" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -67396,6 +67666,9 @@
       <c r="IJ91" t="n">
         <v>234</v>
       </c>
+      <c r="IK91" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -68132,6 +68405,9 @@
       <c r="IJ92" t="n">
         <v>290</v>
       </c>
+      <c r="IK92" t="n">
+        <v>313</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -68868,6 +69144,9 @@
       <c r="IJ93" t="n">
         <v>75.09999999999999</v>
       </c>
+      <c r="IK93" t="n">
+        <v>79.40000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -69604,6 +69883,9 @@
       <c r="IJ94" t="n">
         <v>40</v>
       </c>
+      <c r="IK94" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -70340,6 +70622,9 @@
       <c r="IJ95" t="n">
         <v>20</v>
       </c>
+      <c r="IK95" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -71076,6 +71361,9 @@
       <c r="IJ96" t="n">
         <v>13</v>
       </c>
+      <c r="IK96" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -71812,6 +72100,9 @@
       <c r="IJ97" t="n">
         <v>35</v>
       </c>
+      <c r="IK97" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -72548,6 +72839,9 @@
       <c r="IJ98" t="n">
         <v>30</v>
       </c>
+      <c r="IK98" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -73284,6 +73578,9 @@
       <c r="IJ99" t="n">
         <v>47</v>
       </c>
+      <c r="IK99" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -74020,6 +74317,9 @@
       <c r="IJ100" t="n">
         <v>4</v>
       </c>
+      <c r="IK100" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -74756,6 +75056,9 @@
       <c r="IJ101" t="n">
         <v>6</v>
       </c>
+      <c r="IK101" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -75492,6 +75795,9 @@
       <c r="IJ102" t="n">
         <v>66.7</v>
       </c>
+      <c r="IK102" t="n">
+        <v>88.90000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
+++ b/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
@@ -53,74 +53,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -413,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IK102"/>
+  <dimension ref="A1:IL102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1159,6 +1091,9 @@
       <c r="IK1" t="n">
         <v>10523</v>
       </c>
+      <c r="IL1" t="n">
+        <v>10538</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1898,6 +1833,9 @@
       <c r="IK2" t="n">
         <v>2021</v>
       </c>
+      <c r="IL2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2637,6 +2575,9 @@
       <c r="IK3" t="n">
         <v>23</v>
       </c>
+      <c r="IL3" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3376,6 +3317,9 @@
       <c r="IK4" t="n">
         <v>0</v>
       </c>
+      <c r="IL4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4115,6 +4059,9 @@
       <c r="IK5" t="n">
         <v>1</v>
       </c>
+      <c r="IL5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4854,6 +4801,9 @@
       <c r="IK6" t="n">
         <v>64</v>
       </c>
+      <c r="IL6" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5593,6 +5543,9 @@
       <c r="IK7" t="n">
         <v>66</v>
       </c>
+      <c r="IL7" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6332,6 +6285,9 @@
       <c r="IK8" t="n">
         <v>-2</v>
       </c>
+      <c r="IL8" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7071,6 +7027,9 @@
       <c r="IK9" t="n">
         <v>0</v>
       </c>
+      <c r="IL9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7810,6 +7769,9 @@
       <c r="IK10" t="n">
         <v>13</v>
       </c>
+      <c r="IL10" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8549,6 +8511,9 @@
       <c r="IK11" t="n">
         <v>203</v>
       </c>
+      <c r="IL11" t="n">
+        <v>222</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9288,6 +9253,9 @@
       <c r="IK12" t="n">
         <v>131</v>
       </c>
+      <c r="IL12" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10027,6 +9995,9 @@
       <c r="IK13" t="n">
         <v>334</v>
       </c>
+      <c r="IL13" t="n">
+        <v>367</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10766,6 +10737,9 @@
       <c r="IK14" t="n">
         <v>1.55</v>
       </c>
+      <c r="IL14" t="n">
+        <v>1.53</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11505,6 +11479,9 @@
       <c r="IK15" t="n">
         <v>91</v>
       </c>
+      <c r="IL15" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12244,6 +12221,9 @@
       <c r="IK16" t="n">
         <v>54</v>
       </c>
+      <c r="IL16" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12983,6 +12963,9 @@
       <c r="IK17" t="n">
         <v>18</v>
       </c>
+      <c r="IL17" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13722,6 +13705,9 @@
       <c r="IK18" t="n">
         <v>15</v>
       </c>
+      <c r="IL18" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14461,6 +14447,9 @@
       <c r="IK19" t="n">
         <v>23</v>
       </c>
+      <c r="IL19" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15200,6 +15189,9 @@
       <c r="IK20" t="n">
         <v>10</v>
       </c>
+      <c r="IL20" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15939,6 +15931,9 @@
       <c r="IK21" t="n">
         <v>8</v>
       </c>
+      <c r="IL21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16678,6 +16673,9 @@
       <c r="IK22" t="n">
         <v>3</v>
       </c>
+      <c r="IL22" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17417,6 +17415,9 @@
       <c r="IK23" t="n">
         <v>1</v>
       </c>
+      <c r="IL23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18156,6 +18157,9 @@
       <c r="IK24" t="n">
         <v>14</v>
       </c>
+      <c r="IL24" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18895,6 +18899,9 @@
       <c r="IK25" t="n">
         <v>71.40000000000001</v>
       </c>
+      <c r="IL25" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19634,6 +19641,9 @@
       <c r="IK26" t="n">
         <v>33.4</v>
       </c>
+      <c r="IL26" t="n">
+        <v>28.23</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20373,6 +20383,9 @@
       <c r="IK27" t="n">
         <v>23.86</v>
       </c>
+      <c r="IL27" t="n">
+        <v>18.35</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21112,6 +21125,9 @@
       <c r="IK28" t="n">
         <v>28</v>
       </c>
+      <c r="IL28" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21851,6 +21867,9 @@
       <c r="IK29" t="n">
         <v>57</v>
       </c>
+      <c r="IL29" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22590,6 +22609,9 @@
       <c r="IK30" t="n">
         <v>40</v>
       </c>
+      <c r="IL30" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23329,6 +23351,9 @@
       <c r="IK31" t="n">
         <v>43</v>
       </c>
+      <c r="IL31" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -24068,6 +24093,9 @@
       <c r="IK32" t="n">
         <v>3.07</v>
       </c>
+      <c r="IL32" t="n">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24807,6 +24835,9 @@
       <c r="IK33" t="n">
         <v>4.3</v>
       </c>
+      <c r="IL33" t="n">
+        <v>4.31</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25546,6 +25577,9 @@
       <c r="IK34" t="n">
         <v>30.2</v>
       </c>
+      <c r="IL34" t="n">
+        <v>32.1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26285,6 +26319,9 @@
       <c r="IK35" t="n">
         <v>23.3</v>
       </c>
+      <c r="IL35" t="n">
+        <v>23.2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -27024,6 +27061,9 @@
       <c r="IK36" t="n">
         <v>186.6</v>
       </c>
+      <c r="IL36" t="n">
+        <v>187.6</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27763,6 +27803,9 @@
       <c r="IK37" t="n">
         <v>84.8</v>
       </c>
+      <c r="IL37" t="n">
+        <v>85.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28502,6 +28545,9 @@
       <c r="IK38" t="n">
         <v>25.74</v>
       </c>
+      <c r="IL38" t="n">
+        <v>25.49</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -29241,6 +29287,9 @@
       <c r="IK39" t="n">
         <v>103</v>
       </c>
+      <c r="IL39" t="n">
+        <v>95.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29980,6 +30029,9 @@
       <c r="IK40" t="n">
         <v>4</v>
       </c>
+      <c r="IL40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30719,6 +30771,9 @@
       <c r="IK41" t="n">
         <v>8</v>
       </c>
+      <c r="IL41" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31458,6 +31513,9 @@
       <c r="IK42" t="n">
         <v>2</v>
       </c>
+      <c r="IL42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -32197,6 +32255,9 @@
       <c r="IK43" t="n">
         <v>8</v>
       </c>
+      <c r="IL43" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32936,6 +32997,9 @@
       <c r="IK44" t="n">
         <v>132</v>
       </c>
+      <c r="IL44" t="n">
+        <v>170</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33675,6 +33739,9 @@
       <c r="IK45" t="n">
         <v>196</v>
       </c>
+      <c r="IL45" t="n">
+        <v>186</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -34414,6 +34481,9 @@
       <c r="IK46" t="n">
         <v>240</v>
       </c>
+      <c r="IL46" t="n">
+        <v>243</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -35153,6 +35223,9 @@
       <c r="IK47" t="n">
         <v>71.90000000000001</v>
       </c>
+      <c r="IL47" t="n">
+        <v>66.2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35892,6 +35965,9 @@
       <c r="IK48" t="n">
         <v>57</v>
       </c>
+      <c r="IL48" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -36631,6 +36707,9 @@
       <c r="IK49" t="n">
         <v>12</v>
       </c>
+      <c r="IL49" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -37370,6 +37449,9 @@
       <c r="IK50" t="n">
         <v>6</v>
       </c>
+      <c r="IL50" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -38109,6 +38191,9 @@
       <c r="IK51" t="n">
         <v>28</v>
       </c>
+      <c r="IL51" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -38848,6 +38933,9 @@
       <c r="IK52" t="n">
         <v>40</v>
       </c>
+      <c r="IL52" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -39587,6 +39675,9 @@
       <c r="IK53" t="n">
         <v>54</v>
       </c>
+      <c r="IL53" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -40326,6 +40417,9 @@
       <c r="IK54" t="n">
         <v>8</v>
       </c>
+      <c r="IL54" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -41065,6 +41159,9 @@
       <c r="IK55" t="n">
         <v>8</v>
       </c>
+      <c r="IL55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -41804,6 +41901,9 @@
       <c r="IK56" t="n">
         <v>80</v>
       </c>
+      <c r="IL56" t="n">
+        <v>53.8</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -42543,6 +42643,9 @@
       <c r="IK57" t="n">
         <v>239</v>
       </c>
+      <c r="IL57" t="n">
+        <v>212</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -43282,6 +43385,9 @@
       <c r="IK58" t="n">
         <v>155</v>
       </c>
+      <c r="IL58" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -44021,6 +44127,9 @@
       <c r="IK59" t="n">
         <v>394</v>
       </c>
+      <c r="IL59" t="n">
+        <v>367</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -44760,6 +44869,9 @@
       <c r="IK60" t="n">
         <v>1.54</v>
       </c>
+      <c r="IL60" t="n">
+        <v>1.37</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -45499,6 +45611,9 @@
       <c r="IK61" t="n">
         <v>114</v>
       </c>
+      <c r="IL61" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -46238,6 +46353,9 @@
       <c r="IK62" t="n">
         <v>64</v>
       </c>
+      <c r="IL62" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -46977,6 +47095,9 @@
       <c r="IK63" t="n">
         <v>51</v>
       </c>
+      <c r="IL63" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -47716,6 +47837,9 @@
       <c r="IK64" t="n">
         <v>23</v>
       </c>
+      <c r="IL64" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -48455,6 +48579,9 @@
       <c r="IK65" t="n">
         <v>15</v>
       </c>
+      <c r="IL65" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -49194,6 +49321,9 @@
       <c r="IK66" t="n">
         <v>9</v>
       </c>
+      <c r="IL66" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -49933,6 +50063,9 @@
       <c r="IK67" t="n">
         <v>8</v>
       </c>
+      <c r="IL67" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -50672,6 +50805,9 @@
       <c r="IK68" t="n">
         <v>11</v>
       </c>
+      <c r="IL68" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -51411,6 +51547,9 @@
       <c r="IK69" t="n">
         <v>1</v>
       </c>
+      <c r="IL69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -52150,6 +52289,9 @@
       <c r="IK70" t="n">
         <v>21</v>
       </c>
+      <c r="IL70" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -52889,6 +53031,9 @@
       <c r="IK71" t="n">
         <v>42.9</v>
       </c>
+      <c r="IL71" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -53628,6 +53773,9 @@
       <c r="IK72" t="n">
         <v>43.78</v>
       </c>
+      <c r="IL72" t="n">
+        <v>91.75</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -54367,6 +54515,9 @@
       <c r="IK73" t="n">
         <v>18.76</v>
       </c>
+      <c r="IL73" t="n">
+        <v>22.94</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -55106,6 +55257,9 @@
       <c r="IK74" t="n">
         <v>35</v>
       </c>
+      <c r="IL74" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -55845,6 +55999,9 @@
       <c r="IK75" t="n">
         <v>50</v>
       </c>
+      <c r="IL75" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -56584,6 +56741,9 @@
       <c r="IK76" t="n">
         <v>33</v>
       </c>
+      <c r="IL76" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -57323,6 +57483,9 @@
       <c r="IK77" t="n">
         <v>50</v>
       </c>
+      <c r="IL77" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -58062,6 +58225,9 @@
       <c r="IK78" t="n">
         <v>2.38</v>
       </c>
+      <c r="IL78" t="n">
+        <v>3.19</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -58801,6 +58967,9 @@
       <c r="IK79" t="n">
         <v>5.56</v>
       </c>
+      <c r="IL79" t="n">
+        <v>12.75</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -59540,6 +59709,9 @@
       <c r="IK80" t="n">
         <v>40</v>
       </c>
+      <c r="IL80" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -60279,6 +60451,9 @@
       <c r="IK81" t="n">
         <v>18</v>
       </c>
+      <c r="IL81" t="n">
+        <v>7.8</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -61018,6 +61193,9 @@
       <c r="IK82" t="n">
         <v>189</v>
       </c>
+      <c r="IL82" t="n">
+        <v>187.4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -61757,6 +61935,9 @@
       <c r="IK83" t="n">
         <v>83.7</v>
       </c>
+      <c r="IL83" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -62496,6 +62677,9 @@
       <c r="IK84" t="n">
         <v>25.91</v>
       </c>
+      <c r="IL84" t="n">
+        <v>24.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -63235,6 +63419,9 @@
       <c r="IK85" t="n">
         <v>110.7</v>
       </c>
+      <c r="IL85" t="n">
+        <v>82.8</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -63974,6 +64161,9 @@
       <c r="IK86" t="n">
         <v>6</v>
       </c>
+      <c r="IL86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -64713,6 +64903,9 @@
       <c r="IK87" t="n">
         <v>6</v>
       </c>
+      <c r="IL87" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -65452,6 +65645,9 @@
       <c r="IK88" t="n">
         <v>5</v>
       </c>
+      <c r="IL88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -66191,6 +66387,9 @@
       <c r="IK89" t="n">
         <v>6</v>
       </c>
+      <c r="IL89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -66930,6 +67129,9 @@
       <c r="IK90" t="n">
         <v>139</v>
       </c>
+      <c r="IL90" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -67669,6 +67871,9 @@
       <c r="IK91" t="n">
         <v>250</v>
       </c>
+      <c r="IL91" t="n">
+        <v>213</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -68408,6 +68613,9 @@
       <c r="IK92" t="n">
         <v>313</v>
       </c>
+      <c r="IL92" t="n">
+        <v>243</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -69147,6 +69355,9 @@
       <c r="IK93" t="n">
         <v>79.40000000000001</v>
       </c>
+      <c r="IL93" t="n">
+        <v>66.2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -69886,6 +70097,9 @@
       <c r="IK94" t="n">
         <v>50</v>
       </c>
+      <c r="IL94" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -70625,6 +70839,9 @@
       <c r="IK95" t="n">
         <v>13</v>
       </c>
+      <c r="IL95" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -71364,6 +71581,9 @@
       <c r="IK96" t="n">
         <v>13</v>
       </c>
+      <c r="IL96" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -72103,6 +72323,9 @@
       <c r="IK97" t="n">
         <v>35</v>
       </c>
+      <c r="IL97" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -72842,6 +73065,9 @@
       <c r="IK98" t="n">
         <v>33</v>
       </c>
+      <c r="IL98" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -73581,6 +73807,9 @@
       <c r="IK99" t="n">
         <v>44</v>
       </c>
+      <c r="IL99" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -74320,6 +74549,9 @@
       <c r="IK100" t="n">
         <v>5</v>
       </c>
+      <c r="IL100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -75059,6 +75291,9 @@
       <c r="IK101" t="n">
         <v>8</v>
       </c>
+      <c r="IL101" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -75798,6 +76033,9 @@
       <c r="IK102" t="n">
         <v>88.90000000000001</v>
       </c>
+      <c r="IL102" t="n">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
+++ b/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IL102"/>
+  <dimension ref="A1:IM102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1094,6 +1094,9 @@
       <c r="IL1" t="n">
         <v>10538</v>
       </c>
+      <c r="IM1" t="n">
+        <v>10540</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1836,6 +1839,9 @@
       <c r="IL2" t="n">
         <v>2021</v>
       </c>
+      <c r="IM2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2578,6 +2584,9 @@
       <c r="IL3" t="n">
         <v>25</v>
       </c>
+      <c r="IM3" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3320,6 +3329,9 @@
       <c r="IL4" t="n">
         <v>0</v>
       </c>
+      <c r="IM4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4062,6 +4074,9 @@
       <c r="IL5" t="n">
         <v>0</v>
       </c>
+      <c r="IM5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4804,6 +4819,9 @@
       <c r="IL6" t="n">
         <v>85</v>
       </c>
+      <c r="IM6" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5546,6 +5564,9 @@
       <c r="IL7" t="n">
         <v>36</v>
       </c>
+      <c r="IM7" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6288,6 +6309,9 @@
       <c r="IL8" t="n">
         <v>49</v>
       </c>
+      <c r="IM8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7030,6 +7054,9 @@
       <c r="IL9" t="n">
         <v>1</v>
       </c>
+      <c r="IM9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7772,6 +7799,9 @@
       <c r="IL10" t="n">
         <v>5</v>
       </c>
+      <c r="IM10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8514,6 +8544,9 @@
       <c r="IL11" t="n">
         <v>222</v>
       </c>
+      <c r="IM11" t="n">
+        <v>223</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9256,6 +9289,9 @@
       <c r="IL12" t="n">
         <v>145</v>
       </c>
+      <c r="IM12" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9998,6 +10034,9 @@
       <c r="IL13" t="n">
         <v>367</v>
       </c>
+      <c r="IM13" t="n">
+        <v>352</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10740,6 +10779,9 @@
       <c r="IL14" t="n">
         <v>1.53</v>
       </c>
+      <c r="IM14" t="n">
+        <v>1.73</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11482,6 +11524,9 @@
       <c r="IL15" t="n">
         <v>59</v>
       </c>
+      <c r="IM15" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12224,6 +12269,9 @@
       <c r="IL16" t="n">
         <v>64</v>
       </c>
+      <c r="IM16" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12966,6 +13014,9 @@
       <c r="IL17" t="n">
         <v>34</v>
       </c>
+      <c r="IM17" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13708,6 +13759,9 @@
       <c r="IL18" t="n">
         <v>22</v>
       </c>
+      <c r="IM18" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14450,6 +14504,9 @@
       <c r="IL19" t="n">
         <v>14</v>
       </c>
+      <c r="IM19" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15192,6 +15249,9 @@
       <c r="IL20" t="n">
         <v>13</v>
       </c>
+      <c r="IM20" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15934,6 +15994,9 @@
       <c r="IL21" t="n">
         <v>7</v>
       </c>
+      <c r="IM21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16676,6 +16739,9 @@
       <c r="IL22" t="n">
         <v>5</v>
       </c>
+      <c r="IM22" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17418,6 +17484,9 @@
       <c r="IL23" t="n">
         <v>2</v>
       </c>
+      <c r="IM23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18160,6 +18229,9 @@
       <c r="IL24" t="n">
         <v>20</v>
       </c>
+      <c r="IM24" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18902,6 +18974,9 @@
       <c r="IL25" t="n">
         <v>65</v>
       </c>
+      <c r="IM25" t="n">
+        <v>45.8</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19644,6 +19719,9 @@
       <c r="IL26" t="n">
         <v>28.23</v>
       </c>
+      <c r="IM26" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20386,6 +20464,9 @@
       <c r="IL27" t="n">
         <v>18.35</v>
       </c>
+      <c r="IM27" t="n">
+        <v>14.67</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21128,6 +21209,9 @@
       <c r="IL28" t="n">
         <v>45</v>
       </c>
+      <c r="IM28" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21870,6 +21954,9 @@
       <c r="IL29" t="n">
         <v>70</v>
       </c>
+      <c r="IM29" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22612,6 +22699,9 @@
       <c r="IL30" t="n">
         <v>45</v>
       </c>
+      <c r="IM30" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23354,6 +23444,9 @@
       <c r="IL31" t="n">
         <v>56</v>
       </c>
+      <c r="IM31" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -24096,6 +24189,9 @@
       <c r="IL32" t="n">
         <v>2.8</v>
       </c>
+      <c r="IM32" t="n">
+        <v>2.25</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24838,6 +24934,9 @@
       <c r="IL33" t="n">
         <v>4.31</v>
       </c>
+      <c r="IM33" t="n">
+        <v>4.91</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25580,6 +25679,9 @@
       <c r="IL34" t="n">
         <v>32.1</v>
       </c>
+      <c r="IM34" t="n">
+        <v>40.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26322,6 +26424,9 @@
       <c r="IL35" t="n">
         <v>23.2</v>
       </c>
+      <c r="IM35" t="n">
+        <v>20.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -27064,6 +27169,9 @@
       <c r="IL36" t="n">
         <v>187.6</v>
       </c>
+      <c r="IM36" t="n">
+        <v>187.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27806,6 +27914,9 @@
       <c r="IL37" t="n">
         <v>85.5</v>
       </c>
+      <c r="IM37" t="n">
+        <v>85.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28548,6 +28659,9 @@
       <c r="IL38" t="n">
         <v>25.49</v>
       </c>
+      <c r="IM38" t="n">
+        <v>25.66</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -29290,6 +29404,9 @@
       <c r="IL39" t="n">
         <v>95.5</v>
       </c>
+      <c r="IM39" t="n">
+        <v>99.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -30032,6 +30149,9 @@
       <c r="IL40" t="n">
         <v>5</v>
       </c>
+      <c r="IM40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30774,6 +30894,9 @@
       <c r="IL41" t="n">
         <v>9</v>
       </c>
+      <c r="IM41" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31516,6 +31639,9 @@
       <c r="IL42" t="n">
         <v>1</v>
       </c>
+      <c r="IM42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -32258,6 +32384,9 @@
       <c r="IL43" t="n">
         <v>7</v>
       </c>
+      <c r="IM43" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -33000,6 +33129,9 @@
       <c r="IL44" t="n">
         <v>170</v>
       </c>
+      <c r="IM44" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33742,6 +33874,9 @@
       <c r="IL45" t="n">
         <v>186</v>
       </c>
+      <c r="IM45" t="n">
+        <v>189</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -34484,6 +34619,9 @@
       <c r="IL46" t="n">
         <v>243</v>
       </c>
+      <c r="IM46" t="n">
+        <v>242</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -35226,6 +35364,9 @@
       <c r="IL47" t="n">
         <v>66.2</v>
       </c>
+      <c r="IM47" t="n">
+        <v>68.8</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35968,6 +36109,9 @@
       <c r="IL48" t="n">
         <v>70</v>
       </c>
+      <c r="IM48" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -36710,6 +36854,9 @@
       <c r="IL49" t="n">
         <v>10</v>
       </c>
+      <c r="IM49" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -37452,6 +37599,9 @@
       <c r="IL50" t="n">
         <v>6</v>
       </c>
+      <c r="IM50" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -38194,6 +38344,9 @@
       <c r="IL51" t="n">
         <v>45</v>
       </c>
+      <c r="IM51" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -38936,6 +39089,9 @@
       <c r="IL52" t="n">
         <v>45</v>
       </c>
+      <c r="IM52" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -39678,6 +39834,9 @@
       <c r="IL53" t="n">
         <v>65</v>
       </c>
+      <c r="IM53" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -40420,6 +40579,9 @@
       <c r="IL54" t="n">
         <v>4</v>
       </c>
+      <c r="IM54" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -41162,6 +41324,9 @@
       <c r="IL55" t="n">
         <v>7</v>
       </c>
+      <c r="IM55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -41904,6 +42069,9 @@
       <c r="IL56" t="n">
         <v>53.8</v>
       </c>
+      <c r="IM56" t="n">
+        <v>63.6</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -42646,6 +42814,9 @@
       <c r="IL57" t="n">
         <v>212</v>
       </c>
+      <c r="IM57" t="n">
+        <v>211</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -43388,6 +43559,9 @@
       <c r="IL58" t="n">
         <v>155</v>
       </c>
+      <c r="IM58" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -44130,6 +44304,9 @@
       <c r="IL59" t="n">
         <v>367</v>
       </c>
+      <c r="IM59" t="n">
+        <v>351</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -44872,6 +45049,9 @@
       <c r="IL60" t="n">
         <v>1.37</v>
       </c>
+      <c r="IM60" t="n">
+        <v>1.51</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -45614,6 +45794,9 @@
       <c r="IL61" t="n">
         <v>77</v>
       </c>
+      <c r="IM61" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -46356,6 +46539,9 @@
       <c r="IL62" t="n">
         <v>80</v>
       </c>
+      <c r="IM62" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -47098,6 +47284,9 @@
       <c r="IL63" t="n">
         <v>53</v>
       </c>
+      <c r="IM63" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -47840,6 +48029,9 @@
       <c r="IL64" t="n">
         <v>14</v>
       </c>
+      <c r="IM64" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -48582,6 +48774,9 @@
       <c r="IL65" t="n">
         <v>22</v>
       </c>
+      <c r="IM65" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -49324,6 +49519,9 @@
       <c r="IL66" t="n">
         <v>4</v>
       </c>
+      <c r="IM66" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -50066,6 +50264,9 @@
       <c r="IL67" t="n">
         <v>1</v>
       </c>
+      <c r="IM67" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -50808,6 +51009,9 @@
       <c r="IL68" t="n">
         <v>11</v>
       </c>
+      <c r="IM68" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -51550,6 +51754,9 @@
       <c r="IL69" t="n">
         <v>1</v>
       </c>
+      <c r="IM69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -52292,6 +52499,9 @@
       <c r="IL70" t="n">
         <v>16</v>
       </c>
+      <c r="IM70" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -53034,6 +53244,9 @@
       <c r="IL71" t="n">
         <v>25</v>
       </c>
+      <c r="IM71" t="n">
+        <v>47.8</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -53776,6 +53989,9 @@
       <c r="IL72" t="n">
         <v>91.75</v>
       </c>
+      <c r="IM72" t="n">
+        <v>31.91</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -54518,6 +54734,9 @@
       <c r="IL73" t="n">
         <v>22.94</v>
       </c>
+      <c r="IM73" t="n">
+        <v>15.26</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -55260,6 +55479,9 @@
       <c r="IL74" t="n">
         <v>37</v>
       </c>
+      <c r="IM74" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -56002,6 +56224,9 @@
       <c r="IL75" t="n">
         <v>64</v>
       </c>
+      <c r="IM75" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -56744,6 +56969,9 @@
       <c r="IL76" t="n">
         <v>42</v>
       </c>
+      <c r="IM76" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -57486,6 +57714,9 @@
       <c r="IL77" t="n">
         <v>51</v>
       </c>
+      <c r="IM77" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -58228,6 +58459,9 @@
       <c r="IL78" t="n">
         <v>3.19</v>
       </c>
+      <c r="IM78" t="n">
+        <v>2.96</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -58970,6 +59204,9 @@
       <c r="IL79" t="n">
         <v>12.75</v>
       </c>
+      <c r="IM79" t="n">
+        <v>6.18</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -59712,6 +59949,9 @@
       <c r="IL80" t="n">
         <v>29.4</v>
       </c>
+      <c r="IM80" t="n">
+        <v>30.9</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -60454,6 +60694,9 @@
       <c r="IL81" t="n">
         <v>7.8</v>
       </c>
+      <c r="IM81" t="n">
+        <v>16.2</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -61196,6 +61439,9 @@
       <c r="IL82" t="n">
         <v>187.4</v>
       </c>
+      <c r="IM82" t="n">
+        <v>188.4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -61938,6 +62184,9 @@
       <c r="IL83" t="n">
         <v>87</v>
       </c>
+      <c r="IM83" t="n">
+        <v>88.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -62680,6 +62929,9 @@
       <c r="IL84" t="n">
         <v>24.8</v>
       </c>
+      <c r="IM84" t="n">
+        <v>26.41</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -63422,6 +63674,9 @@
       <c r="IL85" t="n">
         <v>82.8</v>
       </c>
+      <c r="IM85" t="n">
+        <v>116.5</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -64164,6 +64419,9 @@
       <c r="IL86" t="n">
         <v>7</v>
       </c>
+      <c r="IM86" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -64906,6 +65164,9 @@
       <c r="IL87" t="n">
         <v>9</v>
       </c>
+      <c r="IM87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -65648,6 +65909,9 @@
       <c r="IL88" t="n">
         <v>1</v>
       </c>
+      <c r="IM88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -66390,6 +66654,9 @@
       <c r="IL89" t="n">
         <v>5</v>
       </c>
+      <c r="IM89" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -67132,6 +67399,9 @@
       <c r="IL90" t="n">
         <v>148</v>
       </c>
+      <c r="IM90" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -67874,6 +68144,9 @@
       <c r="IL91" t="n">
         <v>213</v>
       </c>
+      <c r="IM91" t="n">
+        <v>207</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -68616,6 +68889,9 @@
       <c r="IL92" t="n">
         <v>243</v>
       </c>
+      <c r="IM92" t="n">
+        <v>247</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -69358,6 +69634,9 @@
       <c r="IL93" t="n">
         <v>66.2</v>
       </c>
+      <c r="IM93" t="n">
+        <v>70.40000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -70100,6 +70379,9 @@
       <c r="IL94" t="n">
         <v>64</v>
       </c>
+      <c r="IM94" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -70842,6 +71124,9 @@
       <c r="IL95" t="n">
         <v>7</v>
       </c>
+      <c r="IM95" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -71584,6 +71869,9 @@
       <c r="IL96" t="n">
         <v>4</v>
       </c>
+      <c r="IM96" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -72326,6 +72614,9 @@
       <c r="IL97" t="n">
         <v>37</v>
       </c>
+      <c r="IM97" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -73068,6 +73359,9 @@
       <c r="IL98" t="n">
         <v>42</v>
       </c>
+      <c r="IM98" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -73810,6 +74104,9 @@
       <c r="IL99" t="n">
         <v>82</v>
       </c>
+      <c r="IM99" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -74552,6 +74849,9 @@
       <c r="IL100" t="n">
         <v>1</v>
       </c>
+      <c r="IM100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -75294,6 +75594,9 @@
       <c r="IL101" t="n">
         <v>1</v>
       </c>
+      <c r="IM101" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -76036,6 +76339,9 @@
       <c r="IL102" t="n">
         <v>25</v>
       </c>
+      <c r="IM102" t="n">
+        <v>90.90000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
+++ b/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IP102"/>
+  <dimension ref="A1:IQ102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IB1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IL1" activeCellId="0" sqref="IL1"/>
@@ -1209,8 +1209,11 @@
       <c r="IO1" s="2" t="n">
         <v>10543</v>
       </c>
-      <c r="IP1" t="n">
+      <c r="IP1" s="2" t="n">
         <v>10544</v>
+      </c>
+      <c r="IQ1" t="n">
+        <v>10553</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -1963,7 +1966,10 @@
       <c r="IO2" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="IP2" t="n">
+      <c r="IP2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IQ2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2717,8 +2723,11 @@
       <c r="IO3" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="IP3" t="n">
+      <c r="IP3" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3471,8 +3480,11 @@
       <c r="IO4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IP4" t="n">
+      <c r="IP4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4225,8 +4237,11 @@
       <c r="IO5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IP5" t="n">
+      <c r="IP5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IQ5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -4979,8 +4994,11 @@
       <c r="IO6" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="IP6" t="n">
+      <c r="IP6" s="2" t="n">
         <v>71</v>
+      </c>
+      <c r="IQ6" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -5733,8 +5751,11 @@
       <c r="IO7" s="2" t="n">
         <v>140</v>
       </c>
-      <c r="IP7" t="n">
+      <c r="IP7" s="2" t="n">
         <v>97</v>
+      </c>
+      <c r="IQ7" t="n">
+        <v>102</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -6487,8 +6508,11 @@
       <c r="IO8" s="2" t="n">
         <v>-74</v>
       </c>
-      <c r="IP8" t="n">
+      <c r="IP8" s="2" t="n">
         <v>-26</v>
+      </c>
+      <c r="IQ8" t="n">
+        <v>-12</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7241,7 +7265,10 @@
       <c r="IO9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IP9" t="n">
+      <c r="IP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7995,8 +8022,11 @@
       <c r="IO10" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IP10" t="n">
+      <c r="IP10" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IQ10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -8749,8 +8779,11 @@
       <c r="IO11" s="2" t="n">
         <v>207</v>
       </c>
-      <c r="IP11" t="n">
+      <c r="IP11" s="2" t="n">
         <v>224</v>
+      </c>
+      <c r="IQ11" t="n">
+        <v>202</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -9503,8 +9536,11 @@
       <c r="IO12" s="2" t="n">
         <v>172</v>
       </c>
-      <c r="IP12" t="n">
+      <c r="IP12" s="2" t="n">
         <v>152</v>
+      </c>
+      <c r="IQ12" t="n">
+        <v>164</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -10257,8 +10293,11 @@
       <c r="IO13" s="2" t="n">
         <v>379</v>
       </c>
-      <c r="IP13" t="n">
+      <c r="IP13" s="2" t="n">
         <v>376</v>
+      </c>
+      <c r="IQ13" t="n">
+        <v>366</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -11011,8 +11050,11 @@
       <c r="IO14" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="IP14" t="n">
+      <c r="IP14" s="2" t="n">
         <v>1.47</v>
+      </c>
+      <c r="IQ14" t="n">
+        <v>1.23</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -11765,8 +11807,11 @@
       <c r="IO15" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="IP15" t="n">
+      <c r="IP15" s="2" t="n">
         <v>92</v>
+      </c>
+      <c r="IQ15" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -12519,8 +12564,11 @@
       <c r="IO16" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="IP16" t="n">
+      <c r="IP16" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="IQ16" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -13273,8 +13321,11 @@
       <c r="IO17" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="IP17" t="n">
+      <c r="IP17" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="IQ17" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -14027,8 +14078,11 @@
       <c r="IO18" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IP18" t="n">
+      <c r="IP18" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="IQ18" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -14781,8 +14835,11 @@
       <c r="IO19" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IP19" t="n">
+      <c r="IP19" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="IQ19" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -15535,8 +15592,11 @@
       <c r="IO20" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IP20" t="n">
+      <c r="IP20" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IQ20" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -16289,8 +16349,11 @@
       <c r="IO21" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IP21" t="n">
+      <c r="IP21" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IQ21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -17043,8 +17106,11 @@
       <c r="IO22" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IP22" t="n">
+      <c r="IP22" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IQ22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -17797,8 +17863,11 @@
       <c r="IO23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IP23" t="n">
+      <c r="IP23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IQ23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -18551,8 +18620,11 @@
       <c r="IO24" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IP24" t="n">
+      <c r="IP24" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IQ24" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -19305,8 +19377,11 @@
       <c r="IO25" s="2" t="n">
         <v>62.5</v>
       </c>
-      <c r="IP25" t="n">
+      <c r="IP25" s="2" t="n">
         <v>68.8</v>
+      </c>
+      <c r="IQ25" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -20059,8 +20134,11 @@
       <c r="IO26" s="2" t="n">
         <v>37.9</v>
       </c>
-      <c r="IP26" t="n">
+      <c r="IP26" s="2" t="n">
         <v>34.18</v>
+      </c>
+      <c r="IQ26" t="n">
+        <v>28.15</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -20813,8 +20891,11 @@
       <c r="IO27" s="2" t="n">
         <v>23.69</v>
       </c>
-      <c r="IP27" t="n">
+      <c r="IP27" s="2" t="n">
         <v>23.5</v>
+      </c>
+      <c r="IQ27" t="n">
+        <v>14.64</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -21567,8 +21648,11 @@
       <c r="IO28" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="IP28" t="n">
+      <c r="IP28" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IQ28" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -22321,8 +22405,11 @@
       <c r="IO29" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="IP29" t="n">
+      <c r="IP29" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="IQ29" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -23075,8 +23162,11 @@
       <c r="IO30" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="IP30" t="n">
+      <c r="IP30" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="IQ30" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -23829,7 +23919,10 @@
       <c r="IO31" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="IP31" t="n">
+      <c r="IP31" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="IQ31" t="n">
         <v>51</v>
       </c>
     </row>
@@ -24583,8 +24676,11 @@
       <c r="IO32" s="2" t="n">
         <v>3.06</v>
       </c>
-      <c r="IP32" t="n">
+      <c r="IP32" s="2" t="n">
         <v>3.19</v>
+      </c>
+      <c r="IQ32" t="n">
+        <v>2.04</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -25337,8 +25433,11 @@
       <c r="IO33" s="2" t="n">
         <v>4.9</v>
       </c>
-      <c r="IP33" t="n">
+      <c r="IP33" s="2" t="n">
         <v>4.64</v>
+      </c>
+      <c r="IQ33" t="n">
+        <v>3.92</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -26091,8 +26190,11 @@
       <c r="IO34" s="2" t="n">
         <v>28.6</v>
       </c>
-      <c r="IP34" t="n">
+      <c r="IP34" s="2" t="n">
         <v>29.4</v>
+      </c>
+      <c r="IQ34" t="n">
+        <v>43.1</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -26845,8 +26947,11 @@
       <c r="IO35" s="2" t="n">
         <v>20.4</v>
       </c>
-      <c r="IP35" t="n">
+      <c r="IP35" s="2" t="n">
         <v>21.6</v>
+      </c>
+      <c r="IQ35" t="n">
+        <v>25.5</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -27599,8 +27704,11 @@
       <c r="IO36" s="2" t="n">
         <v>187.5</v>
       </c>
-      <c r="IP36" t="n">
+      <c r="IP36" s="2" t="n">
         <v>189</v>
+      </c>
+      <c r="IQ36" t="n">
+        <v>188.2</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -28353,8 +28461,11 @@
       <c r="IO37" s="2" t="n">
         <v>85.90000000000001</v>
       </c>
-      <c r="IP37" t="n">
+      <c r="IP37" s="2" t="n">
         <v>87.09999999999999</v>
+      </c>
+      <c r="IQ37" t="n">
+        <v>86.3</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -29107,8 +29218,11 @@
       <c r="IO38" s="2" t="n">
         <v>26.41</v>
       </c>
-      <c r="IP38" t="n">
+      <c r="IP38" s="2" t="n">
         <v>25.58</v>
+      </c>
+      <c r="IQ38" t="n">
+        <v>25.91</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -29861,8 +29975,11 @@
       <c r="IO39" s="2" t="n">
         <v>116.5</v>
       </c>
-      <c r="IP39" t="n">
+      <c r="IP39" s="2" t="n">
         <v>96</v>
+      </c>
+      <c r="IQ39" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -30615,8 +30732,11 @@
       <c r="IO40" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IP40" t="n">
+      <c r="IP40" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IQ40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -31369,8 +31489,11 @@
       <c r="IO41" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IP41" t="n">
+      <c r="IP41" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IQ41" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -32123,7 +32246,10 @@
       <c r="IO42" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IP42" t="n">
+      <c r="IP42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IQ42" t="n">
         <v>3</v>
       </c>
     </row>
@@ -32877,8 +33003,11 @@
       <c r="IO43" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IP43" t="n">
+      <c r="IP43" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IQ43" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -33631,8 +33760,11 @@
       <c r="IO44" s="2" t="n">
         <v>149</v>
       </c>
-      <c r="IP44" t="n">
+      <c r="IP44" s="2" t="n">
         <v>126</v>
+      </c>
+      <c r="IQ44" t="n">
+        <v>123</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -34385,8 +34517,11 @@
       <c r="IO45" s="2" t="n">
         <v>227</v>
       </c>
-      <c r="IP45" t="n">
+      <c r="IP45" s="2" t="n">
         <v>243</v>
+      </c>
+      <c r="IQ45" t="n">
+        <v>236</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -35139,7 +35274,10 @@
       <c r="IO46" s="2" t="n">
         <v>267</v>
       </c>
-      <c r="IP46" t="n">
+      <c r="IP46" s="2" t="n">
+        <v>289</v>
+      </c>
+      <c r="IQ46" t="n">
         <v>289</v>
       </c>
     </row>
@@ -35893,8 +36031,11 @@
       <c r="IO47" s="2" t="n">
         <v>70.40000000000001</v>
       </c>
-      <c r="IP47" t="n">
+      <c r="IP47" s="2" t="n">
         <v>76.90000000000001</v>
+      </c>
+      <c r="IQ47" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -36647,8 +36788,11 @@
       <c r="IO48" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="IP48" t="n">
+      <c r="IP48" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="IQ48" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -37401,8 +37545,11 @@
       <c r="IO49" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IP49" t="n">
+      <c r="IP49" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IQ49" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -38155,8 +38302,11 @@
       <c r="IO50" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IP50" t="n">
+      <c r="IP50" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IQ50" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -38909,8 +39059,11 @@
       <c r="IO51" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="IP51" t="n">
+      <c r="IP51" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IQ51" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -39663,8 +39816,11 @@
       <c r="IO52" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="IP52" t="n">
+      <c r="IP52" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="IQ52" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -40417,8 +40573,11 @@
       <c r="IO53" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="IP53" t="n">
+      <c r="IP53" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="IQ53" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -41171,8 +41330,11 @@
       <c r="IO54" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IP54" t="n">
+      <c r="IP54" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IQ54" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -41925,8 +42087,11 @@
       <c r="IO55" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IP55" t="n">
+      <c r="IP55" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IQ55" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -42679,8 +42844,11 @@
       <c r="IO56" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="IP56" t="n">
+      <c r="IP56" s="2" t="n">
         <v>72.7</v>
+      </c>
+      <c r="IQ56" t="n">
+        <v>76.90000000000001</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -43433,8 +43601,11 @@
       <c r="IO57" s="2" t="n">
         <v>206</v>
       </c>
-      <c r="IP57" t="n">
+      <c r="IP57" s="2" t="n">
         <v>213</v>
+      </c>
+      <c r="IQ57" t="n">
+        <v>245</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -44187,8 +44358,11 @@
       <c r="IO58" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="IP58" t="n">
+      <c r="IP58" s="2" t="n">
         <v>137</v>
+      </c>
+      <c r="IQ58" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -44941,8 +45115,11 @@
       <c r="IO59" s="2" t="n">
         <v>366</v>
       </c>
-      <c r="IP59" t="n">
+      <c r="IP59" s="2" t="n">
         <v>350</v>
+      </c>
+      <c r="IQ59" t="n">
+        <v>433</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -45695,8 +45872,11 @@
       <c r="IO60" s="2" t="n">
         <v>1.29</v>
       </c>
-      <c r="IP60" t="n">
+      <c r="IP60" s="2" t="n">
         <v>1.55</v>
+      </c>
+      <c r="IQ60" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -46449,8 +46629,11 @@
       <c r="IO61" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="IP61" t="n">
+      <c r="IP61" s="2" t="n">
         <v>96</v>
+      </c>
+      <c r="IQ61" t="n">
+        <v>104</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -47203,8 +47386,11 @@
       <c r="IO62" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="IP62" t="n">
+      <c r="IP62" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="IQ62" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -47957,8 +48143,11 @@
       <c r="IO63" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="IP63" t="n">
+      <c r="IP63" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="IQ63" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -48711,8 +48900,11 @@
       <c r="IO64" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IP64" t="n">
+      <c r="IP64" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="IQ64" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -49465,8 +49657,11 @@
       <c r="IO65" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IP65" t="n">
+      <c r="IP65" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="IQ65" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -50219,8 +50414,11 @@
       <c r="IO66" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="IP66" t="n">
+      <c r="IP66" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IQ66" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -50973,8 +51171,11 @@
       <c r="IO67" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IP67" t="n">
+      <c r="IP67" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IQ67" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -51727,8 +51928,11 @@
       <c r="IO68" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IP68" t="n">
+      <c r="IP68" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IQ68" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -52481,8 +52685,11 @@
       <c r="IO69" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IP69" t="n">
+      <c r="IP69" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IQ69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -53235,8 +53442,11 @@
       <c r="IO70" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="IP70" t="n">
+      <c r="IP70" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="IQ70" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -53989,8 +54199,11 @@
       <c r="IO71" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="IP71" t="n">
+      <c r="IP71" s="2" t="n">
         <v>51.9</v>
+      </c>
+      <c r="IQ71" t="n">
+        <v>72.7</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -54743,8 +54956,11 @@
       <c r="IO72" s="2" t="n">
         <v>17.43</v>
       </c>
-      <c r="IP72" t="n">
+      <c r="IP72" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IQ72" t="n">
+        <v>27.06</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -55497,8 +55713,11 @@
       <c r="IO73" s="2" t="n">
         <v>10.46</v>
       </c>
-      <c r="IP73" t="n">
+      <c r="IP73" s="2" t="n">
         <v>12.96</v>
+      </c>
+      <c r="IQ73" t="n">
+        <v>19.68</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -56251,8 +56470,11 @@
       <c r="IO74" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="IP74" t="n">
+      <c r="IP74" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="IQ74" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -57005,8 +57227,11 @@
       <c r="IO75" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="IP75" t="n">
+      <c r="IP75" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="IQ75" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -57759,8 +57984,11 @@
       <c r="IO76" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="IP76" t="n">
+      <c r="IP76" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IQ76" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -58513,8 +58741,11 @@
       <c r="IO77" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="IP77" t="n">
+      <c r="IP77" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="IQ77" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -59267,8 +59498,11 @@
       <c r="IO78" s="2" t="n">
         <v>1.83</v>
       </c>
-      <c r="IP78" t="n">
+      <c r="IP78" s="2" t="n">
         <v>2.07</v>
+      </c>
+      <c r="IQ78" t="n">
+        <v>2.23</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -60021,8 +60255,11 @@
       <c r="IO79" s="2" t="n">
         <v>3.05</v>
       </c>
-      <c r="IP79" t="n">
+      <c r="IP79" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IQ79" t="n">
+        <v>3.06</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -60775,8 +61012,11 @@
       <c r="IO80" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="IP80" t="n">
+      <c r="IP80" s="2" t="n">
         <v>44.6</v>
+      </c>
+      <c r="IQ80" t="n">
+        <v>42.9</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -61529,8 +61769,11 @@
       <c r="IO81" s="2" t="n">
         <v>32.8</v>
       </c>
-      <c r="IP81" t="n">
+      <c r="IP81" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IQ81" t="n">
+        <v>32.7</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -62283,8 +62526,11 @@
       <c r="IO82" s="2" t="n">
         <v>187.2</v>
       </c>
-      <c r="IP82" t="n">
+      <c r="IP82" s="2" t="n">
         <v>186.7</v>
+      </c>
+      <c r="IQ82" t="n">
+        <v>189.2</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -63037,8 +63283,11 @@
       <c r="IO83" s="2" t="n">
         <v>85.90000000000001</v>
       </c>
-      <c r="IP83" t="n">
+      <c r="IP83" s="2" t="n">
         <v>86.7</v>
+      </c>
+      <c r="IQ83" t="n">
+        <v>88.3</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -63791,8 +64040,11 @@
       <c r="IO84" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IP84" t="n">
+      <c r="IP84" s="2" t="n">
         <v>25.41</v>
+      </c>
+      <c r="IQ84" t="n">
+        <v>25.16</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -64545,8 +64797,11 @@
       <c r="IO85" s="2" t="n">
         <v>102.2</v>
       </c>
-      <c r="IP85" t="n">
+      <c r="IP85" s="2" t="n">
         <v>96.40000000000001</v>
+      </c>
+      <c r="IQ85" t="n">
+        <v>76.09999999999999</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -65299,7 +65554,10 @@
       <c r="IO86" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IP86" t="n">
+      <c r="IP86" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IQ86" t="n">
         <v>7</v>
       </c>
     </row>
@@ -66053,8 +66311,11 @@
       <c r="IO87" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IP87" t="n">
+      <c r="IP87" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IQ87" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -66807,8 +67068,11 @@
       <c r="IO88" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IP88" t="n">
+      <c r="IP88" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IQ88" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -67561,8 +67825,11 @@
       <c r="IO89" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IP89" t="n">
+      <c r="IP89" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IQ89" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -68315,8 +68582,11 @@
       <c r="IO90" s="2" t="n">
         <v>152</v>
       </c>
-      <c r="IP90" t="n">
+      <c r="IP90" s="2" t="n">
         <v>146</v>
+      </c>
+      <c r="IQ90" t="n">
+        <v>161</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -69069,8 +69339,11 @@
       <c r="IO91" s="2" t="n">
         <v>213</v>
       </c>
-      <c r="IP91" t="n">
+      <c r="IP91" s="2" t="n">
         <v>204</v>
+      </c>
+      <c r="IQ91" t="n">
+        <v>265</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -69823,8 +70096,11 @@
       <c r="IO92" s="2" t="n">
         <v>272</v>
       </c>
-      <c r="IP92" t="n">
+      <c r="IP92" s="2" t="n">
         <v>258</v>
+      </c>
+      <c r="IQ92" t="n">
+        <v>337</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -70577,8 +70853,11 @@
       <c r="IO93" s="2" t="n">
         <v>74.3</v>
       </c>
-      <c r="IP93" t="n">
+      <c r="IP93" s="2" t="n">
         <v>73.7</v>
+      </c>
+      <c r="IQ93" t="n">
+        <v>77.8</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -71331,8 +71610,11 @@
       <c r="IO94" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="IP94" t="n">
+      <c r="IP94" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="IQ94" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -72085,8 +72367,11 @@
       <c r="IO95" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IP95" t="n">
+      <c r="IP95" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IQ95" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -72839,8 +73124,11 @@
       <c r="IO96" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IP96" t="n">
+      <c r="IP96" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="IQ96" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -73593,8 +73881,11 @@
       <c r="IO97" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="IP97" t="n">
+      <c r="IP97" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="IQ97" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -74347,8 +74638,11 @@
       <c r="IO98" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="IP98" t="n">
+      <c r="IP98" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IQ98" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -75101,8 +75395,11 @@
       <c r="IO99" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="IP99" t="n">
+      <c r="IP99" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="IQ99" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -75855,8 +76152,11 @@
       <c r="IO100" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IP100" t="n">
+      <c r="IP100" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IQ100" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -76609,8 +76909,11 @@
       <c r="IO101" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IP101" t="n">
+      <c r="IP101" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IQ101" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -77363,8 +77666,11 @@
       <c r="IO102" s="2" t="n">
         <v>85.7</v>
       </c>
-      <c r="IP102" t="n">
+      <c r="IP102" s="2" t="n">
         <v>57.1</v>
+      </c>
+      <c r="IQ102" t="n">
+        <v>68.8</v>
       </c>
     </row>
     <row r="103" ht="13.8" customHeight="1" s="3"/>

--- a/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
+++ b/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IQ102"/>
+  <dimension ref="A1:IR102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IB1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IL1" activeCellId="0" sqref="IL1"/>
@@ -1212,8 +1212,11 @@
       <c r="IP1" s="2" t="n">
         <v>10544</v>
       </c>
-      <c r="IQ1" t="n">
+      <c r="IQ1" s="2" t="n">
         <v>10553</v>
+      </c>
+      <c r="IR1" t="n">
+        <v>10562</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -1969,7 +1972,10 @@
       <c r="IP2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="IQ2" t="n">
+      <c r="IQ2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IR2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2726,8 +2732,11 @@
       <c r="IP3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IQ3" t="n">
+      <c r="IQ3" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3483,7 +3492,10 @@
       <c r="IP4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IQ4" t="n">
+      <c r="IQ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4240,8 +4252,11 @@
       <c r="IP5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IQ5" t="n">
+      <c r="IQ5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IR5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -4997,8 +5012,11 @@
       <c r="IP6" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="IQ6" t="n">
+      <c r="IQ6" s="2" t="n">
         <v>90</v>
+      </c>
+      <c r="IR6" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -5754,8 +5772,11 @@
       <c r="IP7" s="2" t="n">
         <v>97</v>
       </c>
-      <c r="IQ7" t="n">
+      <c r="IQ7" s="2" t="n">
         <v>102</v>
+      </c>
+      <c r="IR7" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -6511,8 +6532,11 @@
       <c r="IP8" s="2" t="n">
         <v>-26</v>
       </c>
-      <c r="IQ8" t="n">
+      <c r="IQ8" s="2" t="n">
         <v>-12</v>
+      </c>
+      <c r="IR8" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7268,8 +7292,11 @@
       <c r="IP9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IQ9" t="n">
+      <c r="IQ9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IR9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -8025,8 +8052,11 @@
       <c r="IP10" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IQ10" t="n">
+      <c r="IQ10" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IR10" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -8782,8 +8812,11 @@
       <c r="IP11" s="2" t="n">
         <v>224</v>
       </c>
-      <c r="IQ11" t="n">
+      <c r="IQ11" s="2" t="n">
         <v>202</v>
+      </c>
+      <c r="IR11" t="n">
+        <v>227</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -9539,8 +9572,11 @@
       <c r="IP12" s="2" t="n">
         <v>152</v>
       </c>
-      <c r="IQ12" t="n">
+      <c r="IQ12" s="2" t="n">
         <v>164</v>
+      </c>
+      <c r="IR12" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -10296,8 +10332,11 @@
       <c r="IP13" s="2" t="n">
         <v>376</v>
       </c>
-      <c r="IQ13" t="n">
+      <c r="IQ13" s="2" t="n">
         <v>366</v>
+      </c>
+      <c r="IR13" t="n">
+        <v>373</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -11053,8 +11092,11 @@
       <c r="IP14" s="2" t="n">
         <v>1.47</v>
       </c>
-      <c r="IQ14" t="n">
+      <c r="IQ14" s="2" t="n">
         <v>1.23</v>
+      </c>
+      <c r="IR14" t="n">
+        <v>1.55</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -11810,8 +11852,11 @@
       <c r="IP15" s="2" t="n">
         <v>92</v>
       </c>
-      <c r="IQ15" t="n">
+      <c r="IQ15" s="2" t="n">
         <v>89</v>
+      </c>
+      <c r="IR15" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -12567,8 +12612,11 @@
       <c r="IP16" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="IQ16" t="n">
+      <c r="IQ16" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="IR16" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -13324,8 +13372,11 @@
       <c r="IP17" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="IQ17" t="n">
+      <c r="IQ17" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IR17" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -14081,8 +14132,11 @@
       <c r="IP18" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="IQ18" t="n">
+      <c r="IQ18" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IR18" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -14838,8 +14892,11 @@
       <c r="IP19" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IQ19" t="n">
+      <c r="IQ19" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IR19" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -15595,8 +15652,11 @@
       <c r="IP20" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IQ20" t="n">
+      <c r="IQ20" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IR20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -16352,8 +16412,11 @@
       <c r="IP21" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IQ21" t="n">
+      <c r="IQ21" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IR21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -17109,8 +17172,11 @@
       <c r="IP22" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IQ22" t="n">
+      <c r="IQ22" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IR22" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -17866,8 +17932,11 @@
       <c r="IP23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IQ23" t="n">
+      <c r="IQ23" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IR23" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -18623,8 +18692,11 @@
       <c r="IP24" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IQ24" t="n">
+      <c r="IQ24" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IR24" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -19380,8 +19452,11 @@
       <c r="IP25" s="2" t="n">
         <v>68.8</v>
       </c>
-      <c r="IQ25" t="n">
+      <c r="IQ25" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="IR25" t="n">
+        <v>34.6</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -20137,8 +20212,11 @@
       <c r="IP26" s="2" t="n">
         <v>34.18</v>
       </c>
-      <c r="IQ26" t="n">
+      <c r="IQ26" s="2" t="n">
         <v>28.15</v>
+      </c>
+      <c r="IR26" t="n">
+        <v>41.44</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -20894,8 +20972,11 @@
       <c r="IP27" s="2" t="n">
         <v>23.5</v>
       </c>
-      <c r="IQ27" t="n">
+      <c r="IQ27" s="2" t="n">
         <v>14.64</v>
+      </c>
+      <c r="IR27" t="n">
+        <v>14.35</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -21651,8 +21732,11 @@
       <c r="IP28" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IQ28" t="n">
+      <c r="IQ28" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="IR28" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -22408,8 +22492,11 @@
       <c r="IP29" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="IQ29" t="n">
+      <c r="IQ29" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="IR29" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -23165,8 +23252,11 @@
       <c r="IP30" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="IQ30" t="n">
+      <c r="IQ30" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="IR30" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -23922,8 +24012,11 @@
       <c r="IP31" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IQ31" t="n">
+      <c r="IQ31" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="IR31" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -24679,8 +24772,11 @@
       <c r="IP32" s="2" t="n">
         <v>3.19</v>
       </c>
-      <c r="IQ32" t="n">
+      <c r="IQ32" s="2" t="n">
         <v>2.04</v>
+      </c>
+      <c r="IR32" t="n">
+        <v>2.27</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -25436,8 +25532,11 @@
       <c r="IP33" s="2" t="n">
         <v>4.64</v>
       </c>
-      <c r="IQ33" t="n">
+      <c r="IQ33" s="2" t="n">
         <v>3.92</v>
+      </c>
+      <c r="IR33" t="n">
+        <v>6.56</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -26193,8 +26292,11 @@
       <c r="IP34" s="2" t="n">
         <v>29.4</v>
       </c>
-      <c r="IQ34" t="n">
+      <c r="IQ34" s="2" t="n">
         <v>43.1</v>
+      </c>
+      <c r="IR34" t="n">
+        <v>35.6</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -26950,8 +27052,11 @@
       <c r="IP35" s="2" t="n">
         <v>21.6</v>
       </c>
-      <c r="IQ35" t="n">
+      <c r="IQ35" s="2" t="n">
         <v>25.5</v>
+      </c>
+      <c r="IR35" t="n">
+        <v>15.3</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -27707,8 +27812,11 @@
       <c r="IP36" s="2" t="n">
         <v>189</v>
       </c>
-      <c r="IQ36" t="n">
+      <c r="IQ36" s="2" t="n">
         <v>188.2</v>
+      </c>
+      <c r="IR36" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -28464,8 +28572,11 @@
       <c r="IP37" s="2" t="n">
         <v>87.09999999999999</v>
       </c>
-      <c r="IQ37" t="n">
+      <c r="IQ37" s="2" t="n">
         <v>86.3</v>
+      </c>
+      <c r="IR37" t="n">
+        <v>86.5</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -29221,8 +29332,11 @@
       <c r="IP38" s="2" t="n">
         <v>25.58</v>
       </c>
-      <c r="IQ38" t="n">
+      <c r="IQ38" s="2" t="n">
         <v>25.91</v>
+      </c>
+      <c r="IR38" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -29978,8 +30092,11 @@
       <c r="IP39" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="IQ39" t="n">
+      <c r="IQ39" s="2" t="n">
         <v>95</v>
+      </c>
+      <c r="IR39" t="n">
+        <v>96.3</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -30735,7 +30852,10 @@
       <c r="IP40" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IQ40" t="n">
+      <c r="IQ40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IR40" t="n">
         <v>6</v>
       </c>
     </row>
@@ -31492,7 +31612,10 @@
       <c r="IP41" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IQ41" t="n">
+      <c r="IQ41" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IR41" t="n">
         <v>8</v>
       </c>
     </row>
@@ -32249,8 +32372,11 @@
       <c r="IP42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IQ42" t="n">
+      <c r="IQ42" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IR42" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -33006,8 +33132,11 @@
       <c r="IP43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IQ43" t="n">
+      <c r="IQ43" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IR43" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -33763,8 +33892,11 @@
       <c r="IP44" s="2" t="n">
         <v>126</v>
       </c>
-      <c r="IQ44" t="n">
+      <c r="IQ44" s="2" t="n">
         <v>123</v>
+      </c>
+      <c r="IR44" t="n">
+        <v>155</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -34520,8 +34652,11 @@
       <c r="IP45" s="2" t="n">
         <v>243</v>
       </c>
-      <c r="IQ45" t="n">
+      <c r="IQ45" s="2" t="n">
         <v>236</v>
+      </c>
+      <c r="IR45" t="n">
+        <v>222</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -35277,8 +35412,11 @@
       <c r="IP46" s="2" t="n">
         <v>289</v>
       </c>
-      <c r="IQ46" t="n">
+      <c r="IQ46" s="2" t="n">
         <v>289</v>
+      </c>
+      <c r="IR46" t="n">
+        <v>264</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -36034,8 +36172,11 @@
       <c r="IP47" s="2" t="n">
         <v>76.90000000000001</v>
       </c>
-      <c r="IQ47" t="n">
+      <c r="IQ47" s="2" t="n">
         <v>79</v>
+      </c>
+      <c r="IR47" t="n">
+        <v>70.8</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -36791,8 +36932,11 @@
       <c r="IP48" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="IQ48" t="n">
+      <c r="IQ48" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="IR48" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -37548,8 +37692,11 @@
       <c r="IP49" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IQ49" t="n">
+      <c r="IQ49" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IR49" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -38305,8 +38452,11 @@
       <c r="IP50" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IQ50" t="n">
+      <c r="IQ50" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IR50" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -39062,8 +39212,11 @@
       <c r="IP51" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IQ51" t="n">
+      <c r="IQ51" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="IR51" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -39819,8 +39972,11 @@
       <c r="IP52" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="IQ52" t="n">
+      <c r="IQ52" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="IR52" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -40576,8 +40732,11 @@
       <c r="IP53" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="IQ53" t="n">
+      <c r="IQ53" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="IR53" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -41333,8 +41492,11 @@
       <c r="IP54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IQ54" t="n">
+      <c r="IQ54" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IR54" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -42090,8 +42252,11 @@
       <c r="IP55" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IQ55" t="n">
+      <c r="IQ55" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IR55" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -42847,8 +43012,11 @@
       <c r="IP56" s="2" t="n">
         <v>72.7</v>
       </c>
-      <c r="IQ56" t="n">
+      <c r="IQ56" s="2" t="n">
         <v>76.90000000000001</v>
+      </c>
+      <c r="IR56" t="n">
+        <v>44.4</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -43604,8 +43772,11 @@
       <c r="IP57" s="2" t="n">
         <v>213</v>
       </c>
-      <c r="IQ57" t="n">
+      <c r="IQ57" s="2" t="n">
         <v>245</v>
+      </c>
+      <c r="IR57" t="n">
+        <v>222</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -44361,8 +44532,11 @@
       <c r="IP58" s="2" t="n">
         <v>137</v>
       </c>
-      <c r="IQ58" t="n">
+      <c r="IQ58" s="2" t="n">
         <v>188</v>
+      </c>
+      <c r="IR58" t="n">
+        <v>138</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -45118,8 +45292,11 @@
       <c r="IP59" s="2" t="n">
         <v>350</v>
       </c>
-      <c r="IQ59" t="n">
+      <c r="IQ59" s="2" t="n">
         <v>433</v>
+      </c>
+      <c r="IR59" t="n">
+        <v>360</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -45875,8 +46052,11 @@
       <c r="IP60" s="2" t="n">
         <v>1.55</v>
       </c>
-      <c r="IQ60" t="n">
+      <c r="IQ60" s="2" t="n">
         <v>1.3</v>
+      </c>
+      <c r="IR60" t="n">
+        <v>1.61</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -46632,8 +46812,11 @@
       <c r="IP61" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="IQ61" t="n">
+      <c r="IQ61" s="2" t="n">
         <v>104</v>
+      </c>
+      <c r="IR61" t="n">
+        <v>107</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -47389,8 +47572,11 @@
       <c r="IP62" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="IQ62" t="n">
+      <c r="IQ62" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="IR62" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -48146,8 +48332,11 @@
       <c r="IP63" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="IQ63" t="n">
+      <c r="IQ63" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="IR63" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -48903,8 +49092,11 @@
       <c r="IP64" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IQ64" t="n">
+      <c r="IQ64" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IR64" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -49660,8 +49852,11 @@
       <c r="IP65" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="IQ65" t="n">
+      <c r="IQ65" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IR65" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -50417,8 +50612,11 @@
       <c r="IP66" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IQ66" t="n">
+      <c r="IQ66" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IR66" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -51174,8 +51372,11 @@
       <c r="IP67" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IQ67" t="n">
+      <c r="IQ67" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IR67" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -51931,8 +52132,11 @@
       <c r="IP68" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IQ68" t="n">
+      <c r="IQ68" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IR68" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -52688,8 +52892,11 @@
       <c r="IP69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IQ69" t="n">
+      <c r="IQ69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IR69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -53445,8 +53652,11 @@
       <c r="IP70" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="IQ70" t="n">
+      <c r="IQ70" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="IR70" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -54202,8 +54412,11 @@
       <c r="IP71" s="2" t="n">
         <v>51.9</v>
       </c>
-      <c r="IQ71" t="n">
+      <c r="IQ71" s="2" t="n">
         <v>72.7</v>
+      </c>
+      <c r="IR71" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -54959,8 +55172,11 @@
       <c r="IP72" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IQ72" t="n">
+      <c r="IQ72" s="2" t="n">
         <v>27.06</v>
+      </c>
+      <c r="IR72" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -55716,8 +55932,11 @@
       <c r="IP73" s="2" t="n">
         <v>12.96</v>
       </c>
-      <c r="IQ73" t="n">
+      <c r="IQ73" s="2" t="n">
         <v>19.68</v>
+      </c>
+      <c r="IR73" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -56473,8 +56692,11 @@
       <c r="IP74" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="IQ74" t="n">
+      <c r="IQ74" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="IR74" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -57230,8 +57452,11 @@
       <c r="IP75" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="IQ75" t="n">
+      <c r="IQ75" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="IR75" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -57987,8 +58212,11 @@
       <c r="IP76" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IQ76" t="n">
+      <c r="IQ76" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="IR76" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -58744,7 +58972,10 @@
       <c r="IP77" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="IQ77" t="n">
+      <c r="IQ77" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="IR77" t="n">
         <v>49</v>
       </c>
     </row>
@@ -59501,8 +59732,11 @@
       <c r="IP78" s="2" t="n">
         <v>2.07</v>
       </c>
-      <c r="IQ78" t="n">
+      <c r="IQ78" s="2" t="n">
         <v>2.23</v>
+      </c>
+      <c r="IR78" t="n">
+        <v>3.27</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -60258,8 +60492,11 @@
       <c r="IP79" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IQ79" t="n">
+      <c r="IQ79" s="2" t="n">
         <v>3.06</v>
+      </c>
+      <c r="IR79" t="n">
+        <v>5.44</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -61015,8 +61252,11 @@
       <c r="IP80" s="2" t="n">
         <v>44.6</v>
       </c>
-      <c r="IQ80" t="n">
+      <c r="IQ80" s="2" t="n">
         <v>42.9</v>
+      </c>
+      <c r="IR80" t="n">
+        <v>26.5</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -61772,8 +62012,11 @@
       <c r="IP81" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IQ81" t="n">
+      <c r="IQ81" s="2" t="n">
         <v>32.7</v>
+      </c>
+      <c r="IR81" t="n">
+        <v>18.4</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -62529,8 +62772,11 @@
       <c r="IP82" s="2" t="n">
         <v>186.7</v>
       </c>
-      <c r="IQ82" t="n">
+      <c r="IQ82" s="2" t="n">
         <v>189.2</v>
+      </c>
+      <c r="IR82" t="n">
+        <v>187.4</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -63286,8 +63532,11 @@
       <c r="IP83" s="2" t="n">
         <v>86.7</v>
       </c>
-      <c r="IQ83" t="n">
+      <c r="IQ83" s="2" t="n">
         <v>88.3</v>
+      </c>
+      <c r="IR83" t="n">
+        <v>86.40000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -64043,8 +64292,11 @@
       <c r="IP84" s="2" t="n">
         <v>25.41</v>
       </c>
-      <c r="IQ84" t="n">
+      <c r="IQ84" s="2" t="n">
         <v>25.16</v>
+      </c>
+      <c r="IR84" t="n">
+        <v>25.33</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -64800,8 +65052,11 @@
       <c r="IP85" s="2" t="n">
         <v>96.40000000000001</v>
       </c>
-      <c r="IQ85" t="n">
+      <c r="IQ85" s="2" t="n">
         <v>76.09999999999999</v>
+      </c>
+      <c r="IR85" t="n">
+        <v>100.1</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -65557,8 +65812,11 @@
       <c r="IP86" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IQ86" t="n">
+      <c r="IQ86" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IR86" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -66314,8 +66572,11 @@
       <c r="IP87" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IQ87" t="n">
+      <c r="IQ87" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IR87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -67071,8 +67332,11 @@
       <c r="IP88" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IQ88" t="n">
+      <c r="IQ88" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IR88" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -67828,8 +68092,11 @@
       <c r="IP89" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IQ89" t="n">
+      <c r="IQ89" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IR89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -68585,8 +68852,11 @@
       <c r="IP90" s="2" t="n">
         <v>146</v>
       </c>
-      <c r="IQ90" t="n">
+      <c r="IQ90" s="2" t="n">
         <v>161</v>
+      </c>
+      <c r="IR90" t="n">
+        <v>131</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -69342,8 +69612,11 @@
       <c r="IP91" s="2" t="n">
         <v>204</v>
       </c>
-      <c r="IQ91" t="n">
+      <c r="IQ91" s="2" t="n">
         <v>265</v>
+      </c>
+      <c r="IR91" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -70099,8 +70372,11 @@
       <c r="IP92" s="2" t="n">
         <v>258</v>
       </c>
-      <c r="IQ92" t="n">
+      <c r="IQ92" s="2" t="n">
         <v>337</v>
+      </c>
+      <c r="IR92" t="n">
+        <v>260</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -70856,8 +71132,11 @@
       <c r="IP93" s="2" t="n">
         <v>73.7</v>
       </c>
-      <c r="IQ93" t="n">
+      <c r="IQ93" s="2" t="n">
         <v>77.8</v>
+      </c>
+      <c r="IR93" t="n">
+        <v>72.2</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -71613,8 +71892,11 @@
       <c r="IP94" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="IQ94" t="n">
+      <c r="IQ94" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="IR94" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -72370,8 +72652,11 @@
       <c r="IP95" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IQ95" t="n">
+      <c r="IQ95" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IR95" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -73127,8 +73412,11 @@
       <c r="IP96" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IQ96" t="n">
+      <c r="IQ96" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IR96" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -73884,8 +74172,11 @@
       <c r="IP97" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="IQ97" t="n">
+      <c r="IQ97" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="IR97" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -74641,8 +74932,11 @@
       <c r="IP98" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IQ98" t="n">
+      <c r="IQ98" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="IR98" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -75398,8 +75692,11 @@
       <c r="IP99" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="IQ99" t="n">
+      <c r="IQ99" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="IR99" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -76155,8 +76452,11 @@
       <c r="IP100" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IQ100" t="n">
+      <c r="IQ100" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IR100" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -76912,8 +77212,11 @@
       <c r="IP101" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IQ101" t="n">
+      <c r="IQ101" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IR101" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -77669,8 +77972,11 @@
       <c r="IP102" s="2" t="n">
         <v>57.1</v>
       </c>
-      <c r="IQ102" t="n">
+      <c r="IQ102" s="2" t="n">
         <v>68.8</v>
+      </c>
+      <c r="IR102" t="n">
+        <v>44.4</v>
       </c>
     </row>
     <row r="103" ht="13.8" customHeight="1" s="3"/>

--- a/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
+++ b/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IR102"/>
+  <dimension ref="A1:IS102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IB1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IL1" activeCellId="0" sqref="IL1"/>
@@ -1215,8 +1215,11 @@
       <c r="IQ1" s="2" t="n">
         <v>10553</v>
       </c>
-      <c r="IR1" t="n">
+      <c r="IR1" s="2" t="n">
         <v>10562</v>
+      </c>
+      <c r="IS1" t="n">
+        <v>10575</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -1975,7 +1978,10 @@
       <c r="IQ2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="IR2" t="n">
+      <c r="IR2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IS2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2735,8 +2741,11 @@
       <c r="IQ3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IR3" t="n">
+      <c r="IR3" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3495,8 +3504,11 @@
       <c r="IQ4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IR4" t="n">
+      <c r="IR4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4255,7 +4267,10 @@
       <c r="IQ5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IR5" t="n">
+      <c r="IR5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5015,8 +5030,11 @@
       <c r="IQ6" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="IR6" t="n">
+      <c r="IR6" s="2" t="n">
         <v>71</v>
+      </c>
+      <c r="IS6" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -5775,8 +5793,11 @@
       <c r="IQ7" s="2" t="n">
         <v>102</v>
       </c>
-      <c r="IR7" t="n">
+      <c r="IR7" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="IS7" t="n">
+        <v>99</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -6535,8 +6556,11 @@
       <c r="IQ8" s="2" t="n">
         <v>-12</v>
       </c>
-      <c r="IR8" t="n">
+      <c r="IR8" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IS8" t="n">
+        <v>-38</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7295,8 +7319,11 @@
       <c r="IQ9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IR9" t="n">
+      <c r="IR9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IS9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -8055,8 +8082,11 @@
       <c r="IQ10" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IR10" t="n">
+      <c r="IR10" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IS10" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -8815,8 +8845,11 @@
       <c r="IQ11" s="2" t="n">
         <v>202</v>
       </c>
-      <c r="IR11" t="n">
+      <c r="IR11" s="2" t="n">
         <v>227</v>
+      </c>
+      <c r="IS11" t="n">
+        <v>225</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -9575,8 +9608,11 @@
       <c r="IQ12" s="2" t="n">
         <v>164</v>
       </c>
-      <c r="IR12" t="n">
+      <c r="IR12" s="2" t="n">
         <v>146</v>
+      </c>
+      <c r="IS12" t="n">
+        <v>189</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -10335,8 +10371,11 @@
       <c r="IQ13" s="2" t="n">
         <v>366</v>
       </c>
-      <c r="IR13" t="n">
+      <c r="IR13" s="2" t="n">
         <v>373</v>
+      </c>
+      <c r="IS13" t="n">
+        <v>414</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -11095,8 +11134,11 @@
       <c r="IQ14" s="2" t="n">
         <v>1.23</v>
       </c>
-      <c r="IR14" t="n">
+      <c r="IR14" s="2" t="n">
         <v>1.55</v>
+      </c>
+      <c r="IS14" t="n">
+        <v>1.19</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -11855,8 +11897,11 @@
       <c r="IQ15" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="IR15" t="n">
+      <c r="IR15" s="2" t="n">
         <v>96</v>
+      </c>
+      <c r="IS15" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -12615,8 +12660,11 @@
       <c r="IQ16" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="IR16" t="n">
+      <c r="IR16" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="IS16" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -13375,8 +13423,11 @@
       <c r="IQ17" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IR17" t="n">
+      <c r="IR17" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="IS17" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -14135,8 +14186,11 @@
       <c r="IQ18" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IR18" t="n">
+      <c r="IR18" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="IS18" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -14895,8 +14949,11 @@
       <c r="IQ19" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IR19" t="n">
+      <c r="IR19" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IS19" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -15655,8 +15712,11 @@
       <c r="IQ20" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IR20" t="n">
+      <c r="IR20" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IS20" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -16415,8 +16475,11 @@
       <c r="IQ21" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IR21" t="n">
+      <c r="IR21" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IS21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -17175,8 +17238,11 @@
       <c r="IQ22" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IR22" t="n">
+      <c r="IR22" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IS22" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -17935,8 +18001,11 @@
       <c r="IQ23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IR23" t="n">
+      <c r="IR23" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IS23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -18695,7 +18764,10 @@
       <c r="IQ24" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IR24" t="n">
+      <c r="IR24" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="IS24" t="n">
         <v>26</v>
       </c>
     </row>
@@ -19455,8 +19527,11 @@
       <c r="IQ25" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="IR25" t="n">
+      <c r="IR25" s="2" t="n">
         <v>34.6</v>
+      </c>
+      <c r="IS25" t="n">
+        <v>26.9</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -20215,8 +20290,11 @@
       <c r="IQ26" s="2" t="n">
         <v>28.15</v>
       </c>
-      <c r="IR26" t="n">
+      <c r="IR26" s="2" t="n">
         <v>41.44</v>
+      </c>
+      <c r="IS26" t="n">
+        <v>59.14</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -20975,8 +21053,11 @@
       <c r="IQ27" s="2" t="n">
         <v>14.64</v>
       </c>
-      <c r="IR27" t="n">
+      <c r="IR27" s="2" t="n">
         <v>14.35</v>
+      </c>
+      <c r="IS27" t="n">
+        <v>15.92</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -21735,8 +21816,11 @@
       <c r="IQ28" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="IR28" t="n">
+      <c r="IR28" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="IS28" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -22495,8 +22579,11 @@
       <c r="IQ29" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="IR29" t="n">
+      <c r="IR29" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="IS29" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -23255,8 +23342,11 @@
       <c r="IQ30" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="IR30" t="n">
+      <c r="IR30" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IS30" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -24015,8 +24105,11 @@
       <c r="IQ31" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IR31" t="n">
+      <c r="IR31" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="IS31" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -24775,8 +24868,11 @@
       <c r="IQ32" s="2" t="n">
         <v>2.04</v>
       </c>
-      <c r="IR32" t="n">
+      <c r="IR32" s="2" t="n">
         <v>2.27</v>
+      </c>
+      <c r="IS32" t="n">
+        <v>2.19</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -25535,8 +25631,11 @@
       <c r="IQ33" s="2" t="n">
         <v>3.92</v>
       </c>
-      <c r="IR33" t="n">
+      <c r="IR33" s="2" t="n">
         <v>6.56</v>
+      </c>
+      <c r="IS33" t="n">
+        <v>8.140000000000001</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -26295,8 +26394,11 @@
       <c r="IQ34" s="2" t="n">
         <v>43.1</v>
       </c>
-      <c r="IR34" t="n">
+      <c r="IR34" s="2" t="n">
         <v>35.6</v>
+      </c>
+      <c r="IS34" t="n">
+        <v>38.6</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -27055,8 +27157,11 @@
       <c r="IQ35" s="2" t="n">
         <v>25.5</v>
       </c>
-      <c r="IR35" t="n">
+      <c r="IR35" s="2" t="n">
         <v>15.3</v>
+      </c>
+      <c r="IS35" t="n">
+        <v>12.3</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -27815,8 +27920,11 @@
       <c r="IQ36" s="2" t="n">
         <v>188.2</v>
       </c>
-      <c r="IR36" t="n">
+      <c r="IR36" s="2" t="n">
         <v>188</v>
+      </c>
+      <c r="IS36" t="n">
+        <v>187.3</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -28575,8 +28683,11 @@
       <c r="IQ37" s="2" t="n">
         <v>86.3</v>
       </c>
-      <c r="IR37" t="n">
+      <c r="IR37" s="2" t="n">
         <v>86.5</v>
+      </c>
+      <c r="IS37" t="n">
+        <v>85.3</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -29335,8 +29446,11 @@
       <c r="IQ38" s="2" t="n">
         <v>25.91</v>
       </c>
-      <c r="IR38" t="n">
+      <c r="IR38" s="2" t="n">
         <v>25.8</v>
+      </c>
+      <c r="IS38" t="n">
+        <v>25.16</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -30095,8 +30209,11 @@
       <c r="IQ39" s="2" t="n">
         <v>95</v>
       </c>
-      <c r="IR39" t="n">
+      <c r="IR39" s="2" t="n">
         <v>96.3</v>
+      </c>
+      <c r="IS39" t="n">
+        <v>93.09999999999999</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -30855,8 +30972,11 @@
       <c r="IQ40" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IR40" t="n">
+      <c r="IR40" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IS40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -31615,7 +31735,10 @@
       <c r="IQ41" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IR41" t="n">
+      <c r="IR41" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IS41" t="n">
         <v>8</v>
       </c>
     </row>
@@ -32375,8 +32498,11 @@
       <c r="IQ42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IR42" t="n">
+      <c r="IR42" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IS42" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -33135,7 +33261,10 @@
       <c r="IQ43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IR43" t="n">
+      <c r="IR43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IS43" t="n">
         <v>7</v>
       </c>
     </row>
@@ -33895,8 +34024,11 @@
       <c r="IQ44" s="2" t="n">
         <v>123</v>
       </c>
-      <c r="IR44" t="n">
+      <c r="IR44" s="2" t="n">
         <v>155</v>
+      </c>
+      <c r="IS44" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -34655,8 +34787,11 @@
       <c r="IQ45" s="2" t="n">
         <v>236</v>
       </c>
-      <c r="IR45" t="n">
+      <c r="IR45" s="2" t="n">
         <v>222</v>
+      </c>
+      <c r="IS45" t="n">
+        <v>283</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -35415,8 +35550,11 @@
       <c r="IQ46" s="2" t="n">
         <v>289</v>
       </c>
-      <c r="IR46" t="n">
+      <c r="IR46" s="2" t="n">
         <v>264</v>
+      </c>
+      <c r="IS46" t="n">
+        <v>312</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -36175,8 +36313,11 @@
       <c r="IQ47" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="IR47" t="n">
+      <c r="IR47" s="2" t="n">
         <v>70.8</v>
+      </c>
+      <c r="IS47" t="n">
+        <v>75.40000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -36935,8 +37076,11 @@
       <c r="IQ48" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="IR48" t="n">
+      <c r="IR48" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="IS48" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -37695,8 +37839,11 @@
       <c r="IQ49" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IR49" t="n">
+      <c r="IR49" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IS49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -38455,7 +38602,10 @@
       <c r="IQ50" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IR50" t="n">
+      <c r="IR50" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IS50" t="n">
         <v>11</v>
       </c>
     </row>
@@ -39215,8 +39365,11 @@
       <c r="IQ51" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="IR51" t="n">
+      <c r="IR51" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="IS51" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -39975,8 +40128,11 @@
       <c r="IQ52" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="IR52" t="n">
+      <c r="IR52" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IS52" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -40735,8 +40891,11 @@
       <c r="IQ53" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IR53" t="n">
+      <c r="IR53" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="IS53" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -41495,8 +41654,11 @@
       <c r="IQ54" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IR54" t="n">
+      <c r="IR54" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IS54" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -42255,8 +42417,11 @@
       <c r="IQ55" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IR55" t="n">
+      <c r="IR55" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IS55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -43015,8 +43180,11 @@
       <c r="IQ56" s="2" t="n">
         <v>76.90000000000001</v>
       </c>
-      <c r="IR56" t="n">
+      <c r="IR56" s="2" t="n">
         <v>44.4</v>
+      </c>
+      <c r="IS56" t="n">
+        <v>85.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -43775,8 +43943,11 @@
       <c r="IQ57" s="2" t="n">
         <v>245</v>
       </c>
-      <c r="IR57" t="n">
+      <c r="IR57" s="2" t="n">
         <v>222</v>
+      </c>
+      <c r="IS57" t="n">
+        <v>230</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -44535,8 +44706,11 @@
       <c r="IQ58" s="2" t="n">
         <v>188</v>
       </c>
-      <c r="IR58" t="n">
+      <c r="IR58" s="2" t="n">
         <v>138</v>
+      </c>
+      <c r="IS58" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -45295,8 +45469,11 @@
       <c r="IQ59" s="2" t="n">
         <v>433</v>
       </c>
-      <c r="IR59" t="n">
+      <c r="IR59" s="2" t="n">
         <v>360</v>
+      </c>
+      <c r="IS59" t="n">
+        <v>367</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -46055,8 +46232,11 @@
       <c r="IQ60" s="2" t="n">
         <v>1.3</v>
       </c>
-      <c r="IR60" t="n">
+      <c r="IR60" s="2" t="n">
         <v>1.61</v>
+      </c>
+      <c r="IS60" t="n">
+        <v>1.68</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -46815,7 +46995,10 @@
       <c r="IQ61" s="2" t="n">
         <v>104</v>
       </c>
-      <c r="IR61" t="n">
+      <c r="IR61" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="IS61" t="n">
         <v>107</v>
       </c>
     </row>
@@ -47575,8 +47758,11 @@
       <c r="IQ62" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="IR62" t="n">
+      <c r="IR62" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="IS62" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -48335,8 +48521,11 @@
       <c r="IQ63" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="IR63" t="n">
+      <c r="IR63" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="IS63" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -49095,8 +49284,11 @@
       <c r="IQ64" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IR64" t="n">
+      <c r="IR64" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IS64" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -49855,8 +50047,11 @@
       <c r="IQ65" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IR65" t="n">
+      <c r="IR65" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="IS65" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -50615,8 +50810,11 @@
       <c r="IQ66" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IR66" t="n">
+      <c r="IR66" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IS66" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -51375,8 +51573,11 @@
       <c r="IQ67" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IR67" t="n">
+      <c r="IR67" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IS67" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -52135,8 +52336,11 @@
       <c r="IQ68" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IR68" t="n">
+      <c r="IR68" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IS68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -52895,8 +53099,11 @@
       <c r="IQ69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IR69" t="n">
+      <c r="IR69" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IS69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -53655,8 +53862,11 @@
       <c r="IQ70" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="IR70" t="n">
+      <c r="IR70" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IS70" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -54415,8 +54625,11 @@
       <c r="IQ71" s="2" t="n">
         <v>72.7</v>
       </c>
-      <c r="IR71" t="n">
+      <c r="IR71" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="IS71" t="n">
+        <v>62.5</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -55175,8 +55388,11 @@
       <c r="IQ72" s="2" t="n">
         <v>27.06</v>
       </c>
-      <c r="IR72" t="n">
+      <c r="IR72" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IS72" t="n">
+        <v>24.47</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -55935,8 +56151,11 @@
       <c r="IQ73" s="2" t="n">
         <v>19.68</v>
       </c>
-      <c r="IR73" t="n">
+      <c r="IR73" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="IS73" t="n">
+        <v>15.29</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -56695,8 +56914,11 @@
       <c r="IQ74" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="IR74" t="n">
+      <c r="IR74" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="IS74" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -57455,8 +57677,11 @@
       <c r="IQ75" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="IR75" t="n">
+      <c r="IR75" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="IS75" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -58215,8 +58440,11 @@
       <c r="IQ76" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="IR76" t="n">
+      <c r="IR76" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="IS76" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -58975,8 +59203,11 @@
       <c r="IQ77" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="IR77" t="n">
+      <c r="IR77" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="IS77" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -59735,8 +59966,11 @@
       <c r="IQ78" s="2" t="n">
         <v>2.23</v>
       </c>
-      <c r="IR78" t="n">
+      <c r="IR78" s="2" t="n">
         <v>3.27</v>
+      </c>
+      <c r="IS78" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -60495,8 +60729,11 @@
       <c r="IQ79" s="2" t="n">
         <v>3.06</v>
       </c>
-      <c r="IR79" t="n">
+      <c r="IR79" s="2" t="n">
         <v>5.44</v>
+      </c>
+      <c r="IS79" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -61255,8 +61492,11 @@
       <c r="IQ80" s="2" t="n">
         <v>42.9</v>
       </c>
-      <c r="IR80" t="n">
+      <c r="IR80" s="2" t="n">
         <v>26.5</v>
+      </c>
+      <c r="IS80" t="n">
+        <v>47.9</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -62015,8 +62255,11 @@
       <c r="IQ81" s="2" t="n">
         <v>32.7</v>
       </c>
-      <c r="IR81" t="n">
+      <c r="IR81" s="2" t="n">
         <v>18.4</v>
+      </c>
+      <c r="IS81" t="n">
+        <v>31.2</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -62775,8 +63018,11 @@
       <c r="IQ82" s="2" t="n">
         <v>189.2</v>
       </c>
-      <c r="IR82" t="n">
+      <c r="IR82" s="2" t="n">
         <v>187.4</v>
+      </c>
+      <c r="IS82" t="n">
+        <v>186.9</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -63535,8 +63781,11 @@
       <c r="IQ83" s="2" t="n">
         <v>88.3</v>
       </c>
-      <c r="IR83" t="n">
+      <c r="IR83" s="2" t="n">
         <v>86.40000000000001</v>
+      </c>
+      <c r="IS83" t="n">
+        <v>85.8</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -64295,8 +64544,11 @@
       <c r="IQ84" s="2" t="n">
         <v>25.16</v>
       </c>
-      <c r="IR84" t="n">
+      <c r="IR84" s="2" t="n">
         <v>25.33</v>
+      </c>
+      <c r="IS84" t="n">
+        <v>26.58</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -65055,8 +65307,11 @@
       <c r="IQ85" s="2" t="n">
         <v>76.09999999999999</v>
       </c>
-      <c r="IR85" t="n">
+      <c r="IR85" s="2" t="n">
         <v>100.1</v>
+      </c>
+      <c r="IS85" t="n">
+        <v>111.5</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -65815,8 +66070,11 @@
       <c r="IQ86" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IR86" t="n">
+      <c r="IR86" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IS86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -66575,7 +66833,10 @@
       <c r="IQ87" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IR87" t="n">
+      <c r="IR87" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IS87" t="n">
         <v>4</v>
       </c>
     </row>
@@ -67335,8 +67596,11 @@
       <c r="IQ88" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IR88" t="n">
+      <c r="IR88" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IS88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -68095,7 +68359,10 @@
       <c r="IQ89" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IR89" t="n">
+      <c r="IR89" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IS89" t="n">
         <v>6</v>
       </c>
     </row>
@@ -68855,8 +69122,11 @@
       <c r="IQ90" s="2" t="n">
         <v>161</v>
       </c>
-      <c r="IR90" t="n">
+      <c r="IR90" s="2" t="n">
         <v>131</v>
+      </c>
+      <c r="IS90" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -69615,8 +69885,11 @@
       <c r="IQ91" s="2" t="n">
         <v>265</v>
       </c>
-      <c r="IR91" t="n">
+      <c r="IR91" s="2" t="n">
         <v>220</v>
+      </c>
+      <c r="IS91" t="n">
+        <v>226</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -70375,8 +70648,11 @@
       <c r="IQ92" s="2" t="n">
         <v>337</v>
       </c>
-      <c r="IR92" t="n">
+      <c r="IR92" s="2" t="n">
         <v>260</v>
+      </c>
+      <c r="IS92" t="n">
+        <v>274</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -71135,8 +71411,11 @@
       <c r="IQ93" s="2" t="n">
         <v>77.8</v>
       </c>
-      <c r="IR93" t="n">
+      <c r="IR93" s="2" t="n">
         <v>72.2</v>
+      </c>
+      <c r="IS93" t="n">
+        <v>74.7</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -71895,8 +72174,11 @@
       <c r="IQ94" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="IR94" t="n">
+      <c r="IR94" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="IS94" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -72655,8 +72937,11 @@
       <c r="IQ95" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IR95" t="n">
+      <c r="IR95" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IS95" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -73415,8 +73700,11 @@
       <c r="IQ96" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IR96" t="n">
+      <c r="IR96" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IS96" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -74175,8 +74463,11 @@
       <c r="IQ97" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="IR97" t="n">
+      <c r="IR97" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="IS97" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -74935,8 +75226,11 @@
       <c r="IQ98" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="IR98" t="n">
+      <c r="IR98" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="IS98" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -75695,8 +75989,11 @@
       <c r="IQ99" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="IR99" t="n">
+      <c r="IR99" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="IS99" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -76455,8 +76752,11 @@
       <c r="IQ100" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IR100" t="n">
+      <c r="IR100" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IS100" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -77215,8 +77515,11 @@
       <c r="IQ101" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IR101" t="n">
+      <c r="IR101" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IS101" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -77975,8 +78278,11 @@
       <c r="IQ102" s="2" t="n">
         <v>68.8</v>
       </c>
-      <c r="IR102" t="n">
+      <c r="IR102" s="2" t="n">
         <v>44.4</v>
+      </c>
+      <c r="IS102" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="103" ht="13.8" customHeight="1" s="3"/>

--- a/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
+++ b/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IS102"/>
+  <dimension ref="A1:IT102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IB1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IL1" activeCellId="0" sqref="IL1"/>
@@ -1218,8 +1218,11 @@
       <c r="IR1" s="2" t="n">
         <v>10562</v>
       </c>
-      <c r="IS1" t="n">
+      <c r="IS1" s="2" t="n">
         <v>10575</v>
+      </c>
+      <c r="IT1" t="n">
+        <v>10581</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -1981,7 +1984,10 @@
       <c r="IR2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="IS2" t="n">
+      <c r="IS2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IT2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2744,8 +2750,11 @@
       <c r="IR3" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IS3" t="n">
+      <c r="IS3" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3507,7 +3516,10 @@
       <c r="IR4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IS4" t="n">
+      <c r="IS4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IT4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4270,8 +4282,11 @@
       <c r="IR5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IS5" t="n">
+      <c r="IS5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IT5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5033,8 +5048,11 @@
       <c r="IR6" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="IS6" t="n">
+      <c r="IS6" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="IT6" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -5796,8 +5814,11 @@
       <c r="IR7" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="IS7" t="n">
+      <c r="IS7" s="2" t="n">
         <v>99</v>
+      </c>
+      <c r="IT7" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -6559,8 +6580,11 @@
       <c r="IR8" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IS8" t="n">
+      <c r="IS8" s="2" t="n">
         <v>-38</v>
+      </c>
+      <c r="IT8" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7322,8 +7346,11 @@
       <c r="IR9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IS9" t="n">
+      <c r="IS9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IT9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -8085,8 +8112,11 @@
       <c r="IR10" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IS10" t="n">
+      <c r="IS10" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IT10" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -8848,8 +8878,11 @@
       <c r="IR11" s="2" t="n">
         <v>227</v>
       </c>
-      <c r="IS11" t="n">
+      <c r="IS11" s="2" t="n">
         <v>225</v>
+      </c>
+      <c r="IT11" t="n">
+        <v>268</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -9611,8 +9644,11 @@
       <c r="IR12" s="2" t="n">
         <v>146</v>
       </c>
-      <c r="IS12" t="n">
+      <c r="IS12" s="2" t="n">
         <v>189</v>
+      </c>
+      <c r="IT12" t="n">
+        <v>159</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -10374,8 +10410,11 @@
       <c r="IR13" s="2" t="n">
         <v>373</v>
       </c>
-      <c r="IS13" t="n">
+      <c r="IS13" s="2" t="n">
         <v>414</v>
+      </c>
+      <c r="IT13" t="n">
+        <v>427</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -11137,8 +11176,11 @@
       <c r="IR14" s="2" t="n">
         <v>1.55</v>
       </c>
-      <c r="IS14" t="n">
+      <c r="IS14" s="2" t="n">
         <v>1.19</v>
+      </c>
+      <c r="IT14" t="n">
+        <v>1.69</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -11900,8 +11942,11 @@
       <c r="IR15" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="IS15" t="n">
+      <c r="IS15" s="2" t="n">
         <v>95</v>
+      </c>
+      <c r="IT15" t="n">
+        <v>124</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -12663,8 +12708,11 @@
       <c r="IR16" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="IS16" t="n">
+      <c r="IS16" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IT16" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -13426,8 +13474,11 @@
       <c r="IR17" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="IS17" t="n">
+      <c r="IS17" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IT17" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -14189,8 +14240,11 @@
       <c r="IR18" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="IS18" t="n">
+      <c r="IS18" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IT18" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -14952,8 +15006,11 @@
       <c r="IR19" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IS19" t="n">
+      <c r="IS19" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IT19" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -15715,8 +15772,11 @@
       <c r="IR20" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IS20" t="n">
+      <c r="IS20" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IT20" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -16478,8 +16538,11 @@
       <c r="IR21" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IS21" t="n">
+      <c r="IS21" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IT21" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -17241,8 +17304,11 @@
       <c r="IR22" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IS22" t="n">
+      <c r="IS22" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IT22" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -18004,8 +18070,11 @@
       <c r="IR23" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IS23" t="n">
+      <c r="IS23" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IT23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -18767,8 +18836,11 @@
       <c r="IR24" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="IS24" t="n">
+      <c r="IS24" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="IT24" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -19530,8 +19602,11 @@
       <c r="IR25" s="2" t="n">
         <v>34.6</v>
       </c>
-      <c r="IS25" t="n">
+      <c r="IS25" s="2" t="n">
         <v>26.9</v>
+      </c>
+      <c r="IT25" t="n">
+        <v>61.8</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -20293,8 +20368,11 @@
       <c r="IR26" s="2" t="n">
         <v>41.44</v>
       </c>
-      <c r="IS26" t="n">
+      <c r="IS26" s="2" t="n">
         <v>59.14</v>
+      </c>
+      <c r="IT26" t="n">
+        <v>20.33</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -21056,8 +21134,11 @@
       <c r="IR27" s="2" t="n">
         <v>14.35</v>
       </c>
-      <c r="IS27" t="n">
+      <c r="IS27" s="2" t="n">
         <v>15.92</v>
+      </c>
+      <c r="IT27" t="n">
+        <v>12.56</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -21819,8 +21900,11 @@
       <c r="IR28" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="IS28" t="n">
+      <c r="IS28" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="IT28" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -22582,8 +22666,11 @@
       <c r="IR29" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IS29" t="n">
+      <c r="IS29" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="IT29" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -23345,8 +23432,11 @@
       <c r="IR30" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IS30" t="n">
+      <c r="IS30" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="IT30" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -24108,8 +24198,11 @@
       <c r="IR31" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="IS31" t="n">
+      <c r="IS31" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="IT31" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -24871,8 +24964,11 @@
       <c r="IR32" s="2" t="n">
         <v>2.27</v>
       </c>
-      <c r="IS32" t="n">
+      <c r="IS32" s="2" t="n">
         <v>2.19</v>
+      </c>
+      <c r="IT32" t="n">
+        <v>1.97</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -25634,8 +25730,11 @@
       <c r="IR33" s="2" t="n">
         <v>6.56</v>
       </c>
-      <c r="IS33" t="n">
+      <c r="IS33" s="2" t="n">
         <v>8.140000000000001</v>
+      </c>
+      <c r="IT33" t="n">
+        <v>3.19</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -26397,8 +26496,11 @@
       <c r="IR34" s="2" t="n">
         <v>35.6</v>
       </c>
-      <c r="IS34" t="n">
+      <c r="IS34" s="2" t="n">
         <v>38.6</v>
+      </c>
+      <c r="IT34" t="n">
+        <v>47.8</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -27160,8 +27262,11 @@
       <c r="IR35" s="2" t="n">
         <v>15.3</v>
       </c>
-      <c r="IS35" t="n">
+      <c r="IS35" s="2" t="n">
         <v>12.3</v>
+      </c>
+      <c r="IT35" t="n">
+        <v>31.3</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -27923,8 +28028,11 @@
       <c r="IR36" s="2" t="n">
         <v>188</v>
       </c>
-      <c r="IS36" t="n">
+      <c r="IS36" s="2" t="n">
         <v>187.3</v>
+      </c>
+      <c r="IT36" t="n">
+        <v>187.6</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -28686,8 +28794,11 @@
       <c r="IR37" s="2" t="n">
         <v>86.5</v>
       </c>
-      <c r="IS37" t="n">
+      <c r="IS37" s="2" t="n">
         <v>85.3</v>
+      </c>
+      <c r="IT37" t="n">
+        <v>85.59999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -29449,8 +29560,11 @@
       <c r="IR38" s="2" t="n">
         <v>25.8</v>
       </c>
-      <c r="IS38" t="n">
+      <c r="IS38" s="2" t="n">
         <v>25.16</v>
+      </c>
+      <c r="IT38" t="n">
+        <v>25.33</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -30212,8 +30326,11 @@
       <c r="IR39" s="2" t="n">
         <v>96.3</v>
       </c>
-      <c r="IS39" t="n">
+      <c r="IS39" s="2" t="n">
         <v>93.09999999999999</v>
+      </c>
+      <c r="IT39" t="n">
+        <v>97.90000000000001</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -30975,8 +31092,11 @@
       <c r="IR40" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IS40" t="n">
+      <c r="IS40" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IT40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -31738,7 +31858,10 @@
       <c r="IR41" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IS41" t="n">
+      <c r="IS41" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IT41" t="n">
         <v>8</v>
       </c>
     </row>
@@ -32501,8 +32624,11 @@
       <c r="IR42" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IS42" t="n">
+      <c r="IS42" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IT42" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -33264,7 +33390,10 @@
       <c r="IR43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IS43" t="n">
+      <c r="IS43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IT43" t="n">
         <v>7</v>
       </c>
     </row>
@@ -34027,8 +34156,11 @@
       <c r="IR44" s="2" t="n">
         <v>155</v>
       </c>
-      <c r="IS44" t="n">
+      <c r="IS44" s="2" t="n">
         <v>136</v>
+      </c>
+      <c r="IT44" t="n">
+        <v>156</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -34790,8 +34922,11 @@
       <c r="IR45" s="2" t="n">
         <v>222</v>
       </c>
-      <c r="IS45" t="n">
+      <c r="IS45" s="2" t="n">
         <v>283</v>
+      </c>
+      <c r="IT45" t="n">
+        <v>273</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -35553,8 +35688,11 @@
       <c r="IR46" s="2" t="n">
         <v>264</v>
       </c>
-      <c r="IS46" t="n">
+      <c r="IS46" s="2" t="n">
         <v>312</v>
+      </c>
+      <c r="IT46" t="n">
+        <v>336</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -36316,8 +36454,11 @@
       <c r="IR47" s="2" t="n">
         <v>70.8</v>
       </c>
-      <c r="IS47" t="n">
+      <c r="IS47" s="2" t="n">
         <v>75.40000000000001</v>
+      </c>
+      <c r="IT47" t="n">
+        <v>78.7</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -37079,8 +37220,11 @@
       <c r="IR48" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IS48" t="n">
+      <c r="IS48" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="IT48" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -37842,8 +37986,11 @@
       <c r="IR49" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IS49" t="n">
+      <c r="IS49" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IT49" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -38605,8 +38752,11 @@
       <c r="IR50" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IS50" t="n">
+      <c r="IS50" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IT50" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -39368,8 +39518,11 @@
       <c r="IR51" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="IS51" t="n">
+      <c r="IS51" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="IT51" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -40131,8 +40284,11 @@
       <c r="IR52" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IS52" t="n">
+      <c r="IS52" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="IT52" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -40894,7 +41050,10 @@
       <c r="IR53" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="IS53" t="n">
+      <c r="IS53" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="IT53" t="n">
         <v>50</v>
       </c>
     </row>
@@ -41657,8 +41816,11 @@
       <c r="IR54" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IS54" t="n">
+      <c r="IS54" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IT54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -42420,8 +42582,11 @@
       <c r="IR55" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IS55" t="n">
+      <c r="IS55" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IT55" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -43183,8 +43348,11 @@
       <c r="IR56" s="2" t="n">
         <v>44.4</v>
       </c>
-      <c r="IS56" t="n">
+      <c r="IS56" s="2" t="n">
         <v>85.7</v>
+      </c>
+      <c r="IT56" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -43946,8 +44114,11 @@
       <c r="IR57" s="2" t="n">
         <v>222</v>
       </c>
-      <c r="IS57" t="n">
+      <c r="IS57" s="2" t="n">
         <v>230</v>
+      </c>
+      <c r="IT57" t="n">
+        <v>172</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -44709,8 +44880,11 @@
       <c r="IR58" s="2" t="n">
         <v>138</v>
       </c>
-      <c r="IS58" t="n">
+      <c r="IS58" s="2" t="n">
         <v>137</v>
+      </c>
+      <c r="IT58" t="n">
+        <v>116</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -45472,8 +45646,11 @@
       <c r="IR59" s="2" t="n">
         <v>360</v>
       </c>
-      <c r="IS59" t="n">
+      <c r="IS59" s="2" t="n">
         <v>367</v>
+      </c>
+      <c r="IT59" t="n">
+        <v>288</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -46235,8 +46412,11 @@
       <c r="IR60" s="2" t="n">
         <v>1.61</v>
       </c>
-      <c r="IS60" t="n">
+      <c r="IS60" s="2" t="n">
         <v>1.68</v>
+      </c>
+      <c r="IT60" t="n">
+        <v>1.48</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -46998,8 +47178,11 @@
       <c r="IR61" s="2" t="n">
         <v>107</v>
       </c>
-      <c r="IS61" t="n">
+      <c r="IS61" s="2" t="n">
         <v>107</v>
+      </c>
+      <c r="IT61" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -47761,8 +47944,11 @@
       <c r="IR62" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="IS62" t="n">
+      <c r="IS62" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="IT62" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -48524,8 +48710,11 @@
       <c r="IR63" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="IS63" t="n">
+      <c r="IS63" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="IT63" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -49287,8 +49476,11 @@
       <c r="IR64" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IS64" t="n">
+      <c r="IS64" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IT64" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -50050,8 +50242,11 @@
       <c r="IR65" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="IS65" t="n">
+      <c r="IS65" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IT65" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -50813,8 +51008,11 @@
       <c r="IR66" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IS66" t="n">
+      <c r="IS66" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IT66" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -51576,8 +51774,11 @@
       <c r="IR67" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IS67" t="n">
+      <c r="IS67" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IT67" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -52339,8 +52540,11 @@
       <c r="IR68" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IS68" t="n">
+      <c r="IS68" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IT68" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -53102,7 +53306,10 @@
       <c r="IR69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IS69" t="n">
+      <c r="IS69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IT69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -53865,8 +54072,11 @@
       <c r="IR70" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IS70" t="n">
+      <c r="IS70" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="IT70" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -54628,8 +54838,11 @@
       <c r="IR71" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="IS71" t="n">
+      <c r="IS71" s="2" t="n">
         <v>62.5</v>
+      </c>
+      <c r="IT71" t="n">
+        <v>68.8</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -55391,8 +55604,11 @@
       <c r="IR72" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IS72" t="n">
+      <c r="IS72" s="2" t="n">
         <v>24.47</v>
+      </c>
+      <c r="IT72" t="n">
+        <v>26.18</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -56154,8 +56370,11 @@
       <c r="IR73" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="IS73" t="n">
+      <c r="IS73" s="2" t="n">
         <v>15.29</v>
+      </c>
+      <c r="IT73" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -56917,8 +57136,11 @@
       <c r="IR74" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="IS74" t="n">
+      <c r="IS74" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IT74" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -57680,8 +57902,11 @@
       <c r="IR75" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="IS75" t="n">
+      <c r="IS75" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="IT75" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -58443,8 +58668,11 @@
       <c r="IR76" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="IS76" t="n">
+      <c r="IS76" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="IT76" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -59206,8 +59434,11 @@
       <c r="IR77" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="IS77" t="n">
+      <c r="IS77" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="IT77" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -59969,8 +60200,11 @@
       <c r="IR78" s="2" t="n">
         <v>3.27</v>
       </c>
-      <c r="IS78" t="n">
+      <c r="IS78" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IT78" t="n">
+        <v>2.81</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -60732,8 +60966,11 @@
       <c r="IR79" s="2" t="n">
         <v>5.44</v>
       </c>
-      <c r="IS79" t="n">
+      <c r="IS79" s="2" t="n">
         <v>3.2</v>
+      </c>
+      <c r="IT79" t="n">
+        <v>4.09</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -61495,8 +61732,11 @@
       <c r="IR80" s="2" t="n">
         <v>26.5</v>
       </c>
-      <c r="IS80" t="n">
+      <c r="IS80" s="2" t="n">
         <v>47.9</v>
+      </c>
+      <c r="IT80" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -62258,8 +62498,11 @@
       <c r="IR81" s="2" t="n">
         <v>18.4</v>
       </c>
-      <c r="IS81" t="n">
+      <c r="IS81" s="2" t="n">
         <v>31.2</v>
+      </c>
+      <c r="IT81" t="n">
+        <v>24.4</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -63021,8 +63264,11 @@
       <c r="IR82" s="2" t="n">
         <v>187.4</v>
       </c>
-      <c r="IS82" t="n">
+      <c r="IS82" s="2" t="n">
         <v>186.9</v>
+      </c>
+      <c r="IT82" t="n">
+        <v>189.1</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -63784,8 +64030,11 @@
       <c r="IR83" s="2" t="n">
         <v>86.40000000000001</v>
       </c>
-      <c r="IS83" t="n">
+      <c r="IS83" s="2" t="n">
         <v>85.8</v>
+      </c>
+      <c r="IT83" t="n">
+        <v>85.7</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -64547,8 +64796,11 @@
       <c r="IR84" s="2" t="n">
         <v>25.33</v>
       </c>
-      <c r="IS84" t="n">
+      <c r="IS84" s="2" t="n">
         <v>26.58</v>
+      </c>
+      <c r="IT84" t="n">
+        <v>24.66</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -65310,8 +65562,11 @@
       <c r="IR85" s="2" t="n">
         <v>100.1</v>
       </c>
-      <c r="IS85" t="n">
+      <c r="IS85" s="2" t="n">
         <v>111.5</v>
+      </c>
+      <c r="IT85" t="n">
+        <v>76.59999999999999</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -66073,8 +66328,11 @@
       <c r="IR86" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IS86" t="n">
+      <c r="IS86" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IT86" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -66836,7 +67094,10 @@
       <c r="IR87" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IS87" t="n">
+      <c r="IS87" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IT87" t="n">
         <v>4</v>
       </c>
     </row>
@@ -67599,8 +67860,11 @@
       <c r="IR88" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IS88" t="n">
+      <c r="IS88" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IT88" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -68362,8 +68626,11 @@
       <c r="IR89" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IS89" t="n">
+      <c r="IS89" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IT89" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -69125,8 +69392,11 @@
       <c r="IR90" s="2" t="n">
         <v>131</v>
       </c>
-      <c r="IS90" t="n">
+      <c r="IS90" s="2" t="n">
         <v>136</v>
+      </c>
+      <c r="IT90" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -69888,8 +70158,11 @@
       <c r="IR91" s="2" t="n">
         <v>220</v>
       </c>
-      <c r="IS91" t="n">
+      <c r="IS91" s="2" t="n">
         <v>226</v>
+      </c>
+      <c r="IT91" t="n">
+        <v>163</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -70651,8 +70924,11 @@
       <c r="IR92" s="2" t="n">
         <v>260</v>
       </c>
-      <c r="IS92" t="n">
+      <c r="IS92" s="2" t="n">
         <v>274</v>
+      </c>
+      <c r="IT92" t="n">
+        <v>215</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -71414,7 +71690,10 @@
       <c r="IR93" s="2" t="n">
         <v>72.2</v>
       </c>
-      <c r="IS93" t="n">
+      <c r="IS93" s="2" t="n">
+        <v>74.7</v>
+      </c>
+      <c r="IT93" t="n">
         <v>74.7</v>
       </c>
     </row>
@@ -72177,8 +72456,11 @@
       <c r="IR94" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="IS94" t="n">
+      <c r="IS94" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="IT94" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -72940,8 +73222,11 @@
       <c r="IR95" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IS95" t="n">
+      <c r="IS95" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IT95" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -73703,8 +73988,11 @@
       <c r="IR96" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IS96" t="n">
+      <c r="IS96" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IT96" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -74466,8 +74754,11 @@
       <c r="IR97" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="IS97" t="n">
+      <c r="IS97" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IT97" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -75229,8 +75520,11 @@
       <c r="IR98" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="IS98" t="n">
+      <c r="IS98" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="IT98" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -75992,8 +76286,11 @@
       <c r="IR99" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="IS99" t="n">
+      <c r="IS99" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="IT99" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -76755,7 +77052,10 @@
       <c r="IR100" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IS100" t="n">
+      <c r="IS100" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IT100" t="n">
         <v>4</v>
       </c>
     </row>
@@ -77518,8 +77818,11 @@
       <c r="IR101" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IS101" t="n">
+      <c r="IS101" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IT101" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -78281,8 +78584,11 @@
       <c r="IR102" s="2" t="n">
         <v>44.4</v>
       </c>
-      <c r="IS102" t="n">
+      <c r="IS102" s="2" t="n">
         <v>33.3</v>
+      </c>
+      <c r="IT102" t="n">
+        <v>54.5</v>
       </c>
     </row>
     <row r="103" ht="13.8" customHeight="1" s="3"/>

--- a/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
+++ b/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IT102"/>
+  <dimension ref="A1:IU102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IB1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IL1" activeCellId="0" sqref="IL1"/>
@@ -1221,8 +1221,11 @@
       <c r="IS1" s="2" t="n">
         <v>10575</v>
       </c>
-      <c r="IT1" t="n">
+      <c r="IT1" s="2" t="n">
         <v>10581</v>
+      </c>
+      <c r="IU1" t="n">
+        <v>10590</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -1987,7 +1990,10 @@
       <c r="IS2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="IT2" t="n">
+      <c r="IT2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IU2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2753,8 +2759,11 @@
       <c r="IS3" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IT3" t="n">
+      <c r="IT3" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3519,8 +3528,11 @@
       <c r="IS4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IT4" t="n">
+      <c r="IT4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4285,7 +4297,10 @@
       <c r="IS5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IT5" t="n">
+      <c r="IT5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IU5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5051,8 +5066,11 @@
       <c r="IS6" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="IT6" t="n">
+      <c r="IT6" s="2" t="n">
         <v>139</v>
+      </c>
+      <c r="IU6" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -5817,8 +5835,11 @@
       <c r="IS7" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="IT7" t="n">
+      <c r="IT7" s="2" t="n">
         <v>71</v>
+      </c>
+      <c r="IU7" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -6583,8 +6604,11 @@
       <c r="IS8" s="2" t="n">
         <v>-38</v>
       </c>
-      <c r="IT8" t="n">
+      <c r="IT8" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="IU8" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7349,8 +7373,11 @@
       <c r="IS9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IT9" t="n">
+      <c r="IT9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IU9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -8115,8 +8142,11 @@
       <c r="IS10" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IT10" t="n">
+      <c r="IT10" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IU10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -8881,8 +8911,11 @@
       <c r="IS11" s="2" t="n">
         <v>225</v>
       </c>
-      <c r="IT11" t="n">
+      <c r="IT11" s="2" t="n">
         <v>268</v>
+      </c>
+      <c r="IU11" t="n">
+        <v>214</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -9647,8 +9680,11 @@
       <c r="IS12" s="2" t="n">
         <v>189</v>
       </c>
-      <c r="IT12" t="n">
+      <c r="IT12" s="2" t="n">
         <v>159</v>
+      </c>
+      <c r="IU12" t="n">
+        <v>153</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -10413,8 +10449,11 @@
       <c r="IS13" s="2" t="n">
         <v>414</v>
       </c>
-      <c r="IT13" t="n">
+      <c r="IT13" s="2" t="n">
         <v>427</v>
+      </c>
+      <c r="IU13" t="n">
+        <v>367</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -11179,8 +11218,11 @@
       <c r="IS14" s="2" t="n">
         <v>1.19</v>
       </c>
-      <c r="IT14" t="n">
+      <c r="IT14" s="2" t="n">
         <v>1.69</v>
+      </c>
+      <c r="IU14" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -11945,8 +11987,11 @@
       <c r="IS15" s="2" t="n">
         <v>95</v>
       </c>
-      <c r="IT15" t="n">
+      <c r="IT15" s="2" t="n">
         <v>124</v>
+      </c>
+      <c r="IU15" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -12711,8 +12756,11 @@
       <c r="IS16" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IT16" t="n">
+      <c r="IT16" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="IU16" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -13477,8 +13525,11 @@
       <c r="IS17" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IT17" t="n">
+      <c r="IT17" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="IU17" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -14243,8 +14294,11 @@
       <c r="IS18" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IT18" t="n">
+      <c r="IT18" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="IU18" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -15009,8 +15063,11 @@
       <c r="IS19" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IT19" t="n">
+      <c r="IT19" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="IU19" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -15775,8 +15832,11 @@
       <c r="IS20" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IT20" t="n">
+      <c r="IT20" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="IU20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -16541,8 +16601,11 @@
       <c r="IS21" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IT21" t="n">
+      <c r="IT21" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IU21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -17307,8 +17370,11 @@
       <c r="IS22" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IT22" t="n">
+      <c r="IT22" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IU22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -18073,8 +18139,11 @@
       <c r="IS23" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IT23" t="n">
+      <c r="IT23" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IU23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -18839,8 +18908,11 @@
       <c r="IS24" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="IT24" t="n">
+      <c r="IT24" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="IU24" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -19605,8 +19677,11 @@
       <c r="IS25" s="2" t="n">
         <v>26.9</v>
       </c>
-      <c r="IT25" t="n">
+      <c r="IT25" s="2" t="n">
         <v>61.8</v>
+      </c>
+      <c r="IU25" t="n">
+        <v>52.9</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -20371,8 +20446,11 @@
       <c r="IS26" s="2" t="n">
         <v>59.14</v>
       </c>
-      <c r="IT26" t="n">
+      <c r="IT26" s="2" t="n">
         <v>20.33</v>
+      </c>
+      <c r="IU26" t="n">
+        <v>40.78</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -21137,8 +21215,11 @@
       <c r="IS27" s="2" t="n">
         <v>15.92</v>
       </c>
-      <c r="IT27" t="n">
+      <c r="IT27" s="2" t="n">
         <v>12.56</v>
+      </c>
+      <c r="IU27" t="n">
+        <v>21.59</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -21903,8 +21984,11 @@
       <c r="IS28" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="IT28" t="n">
+      <c r="IT28" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IU28" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -22669,8 +22753,11 @@
       <c r="IS29" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="IT29" t="n">
+      <c r="IT29" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="IU29" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -23435,8 +23522,11 @@
       <c r="IS30" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="IT30" t="n">
+      <c r="IT30" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="IU30" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -24201,8 +24291,11 @@
       <c r="IS31" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="IT31" t="n">
+      <c r="IT31" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="IU31" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -24967,8 +25060,11 @@
       <c r="IS32" s="2" t="n">
         <v>2.19</v>
       </c>
-      <c r="IT32" t="n">
+      <c r="IT32" s="2" t="n">
         <v>1.97</v>
+      </c>
+      <c r="IU32" t="n">
+        <v>2.53</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -25733,8 +25829,11 @@
       <c r="IS33" s="2" t="n">
         <v>8.140000000000001</v>
       </c>
-      <c r="IT33" t="n">
+      <c r="IT33" s="2" t="n">
         <v>3.19</v>
+      </c>
+      <c r="IU33" t="n">
+        <v>4.78</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -26499,8 +26598,11 @@
       <c r="IS34" s="2" t="n">
         <v>38.6</v>
       </c>
-      <c r="IT34" t="n">
+      <c r="IT34" s="2" t="n">
         <v>47.8</v>
+      </c>
+      <c r="IU34" t="n">
+        <v>32.6</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -27265,8 +27367,11 @@
       <c r="IS35" s="2" t="n">
         <v>12.3</v>
       </c>
-      <c r="IT35" t="n">
+      <c r="IT35" s="2" t="n">
         <v>31.3</v>
+      </c>
+      <c r="IU35" t="n">
+        <v>20.9</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -28031,8 +28136,11 @@
       <c r="IS36" s="2" t="n">
         <v>187.3</v>
       </c>
-      <c r="IT36" t="n">
+      <c r="IT36" s="2" t="n">
         <v>187.6</v>
+      </c>
+      <c r="IU36" t="n">
+        <v>188.3</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -28797,8 +28905,11 @@
       <c r="IS37" s="2" t="n">
         <v>85.3</v>
       </c>
-      <c r="IT37" t="n">
+      <c r="IT37" s="2" t="n">
         <v>85.59999999999999</v>
+      </c>
+      <c r="IU37" t="n">
+        <v>86.5</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -29563,8 +29674,11 @@
       <c r="IS38" s="2" t="n">
         <v>25.16</v>
       </c>
-      <c r="IT38" t="n">
+      <c r="IT38" s="2" t="n">
         <v>25.33</v>
+      </c>
+      <c r="IU38" t="n">
+        <v>25.74</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -30329,8 +30443,11 @@
       <c r="IS39" s="2" t="n">
         <v>93.09999999999999</v>
       </c>
-      <c r="IT39" t="n">
+      <c r="IT39" s="2" t="n">
         <v>97.90000000000001</v>
+      </c>
+      <c r="IU39" t="n">
+        <v>96.59999999999999</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -31095,7 +31212,10 @@
       <c r="IS40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IT40" t="n">
+      <c r="IT40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IU40" t="n">
         <v>6</v>
       </c>
     </row>
@@ -31861,7 +31981,10 @@
       <c r="IS41" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IT41" t="n">
+      <c r="IT41" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IU41" t="n">
         <v>8</v>
       </c>
     </row>
@@ -32627,7 +32750,10 @@
       <c r="IS42" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IT42" t="n">
+      <c r="IT42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IU42" t="n">
         <v>2</v>
       </c>
     </row>
@@ -33393,8 +33519,11 @@
       <c r="IS43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IT43" t="n">
+      <c r="IT43" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IU43" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -34159,8 +34288,11 @@
       <c r="IS44" s="2" t="n">
         <v>136</v>
       </c>
-      <c r="IT44" t="n">
+      <c r="IT44" s="2" t="n">
         <v>156</v>
+      </c>
+      <c r="IU44" t="n">
+        <v>145</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -34925,8 +35057,11 @@
       <c r="IS45" s="2" t="n">
         <v>283</v>
       </c>
-      <c r="IT45" t="n">
+      <c r="IT45" s="2" t="n">
         <v>273</v>
+      </c>
+      <c r="IU45" t="n">
+        <v>212</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -35691,8 +35826,11 @@
       <c r="IS46" s="2" t="n">
         <v>312</v>
       </c>
-      <c r="IT46" t="n">
+      <c r="IT46" s="2" t="n">
         <v>336</v>
+      </c>
+      <c r="IU46" t="n">
+        <v>271</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -36457,8 +36595,11 @@
       <c r="IS47" s="2" t="n">
         <v>75.40000000000001</v>
       </c>
-      <c r="IT47" t="n">
+      <c r="IT47" s="2" t="n">
         <v>78.7</v>
+      </c>
+      <c r="IU47" t="n">
+        <v>73.8</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -37223,8 +37364,11 @@
       <c r="IS48" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="IT48" t="n">
+      <c r="IT48" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="IU48" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -37989,7 +38133,10 @@
       <c r="IS49" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IT49" t="n">
+      <c r="IT49" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="IU49" t="n">
         <v>12</v>
       </c>
     </row>
@@ -38755,8 +38902,11 @@
       <c r="IS50" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IT50" t="n">
+      <c r="IT50" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IU50" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -39521,8 +39671,11 @@
       <c r="IS51" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="IT51" t="n">
+      <c r="IT51" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IU51" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -40287,8 +40440,11 @@
       <c r="IS52" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="IT52" t="n">
+      <c r="IT52" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="IU52" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -41053,8 +41209,11 @@
       <c r="IS53" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="IT53" t="n">
+      <c r="IT53" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="IU53" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -41819,8 +41978,11 @@
       <c r="IS54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IT54" t="n">
+      <c r="IT54" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IU54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -42585,8 +42747,11 @@
       <c r="IS55" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IT55" t="n">
+      <c r="IT55" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IU55" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -43351,8 +43516,11 @@
       <c r="IS56" s="2" t="n">
         <v>85.7</v>
       </c>
-      <c r="IT56" t="n">
+      <c r="IT56" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="IU56" t="n">
+        <v>55.6</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -44117,8 +44285,11 @@
       <c r="IS57" s="2" t="n">
         <v>230</v>
       </c>
-      <c r="IT57" t="n">
+      <c r="IT57" s="2" t="n">
         <v>172</v>
+      </c>
+      <c r="IU57" t="n">
+        <v>206</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -44883,8 +45054,11 @@
       <c r="IS58" s="2" t="n">
         <v>137</v>
       </c>
-      <c r="IT58" t="n">
+      <c r="IT58" s="2" t="n">
         <v>116</v>
+      </c>
+      <c r="IU58" t="n">
+        <v>158</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -45649,8 +45823,11 @@
       <c r="IS59" s="2" t="n">
         <v>367</v>
       </c>
-      <c r="IT59" t="n">
+      <c r="IT59" s="2" t="n">
         <v>288</v>
+      </c>
+      <c r="IU59" t="n">
+        <v>364</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -46415,8 +46592,11 @@
       <c r="IS60" s="2" t="n">
         <v>1.68</v>
       </c>
-      <c r="IT60" t="n">
+      <c r="IT60" s="2" t="n">
         <v>1.48</v>
+      </c>
+      <c r="IU60" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -47181,8 +47361,11 @@
       <c r="IS61" s="2" t="n">
         <v>107</v>
       </c>
-      <c r="IT61" t="n">
+      <c r="IT61" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="IU61" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -47947,8 +48130,11 @@
       <c r="IS62" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="IT62" t="n">
+      <c r="IT62" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="IU62" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -48713,8 +48899,11 @@
       <c r="IS63" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="IT63" t="n">
+      <c r="IT63" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="IU63" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -49479,8 +49668,11 @@
       <c r="IS64" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IT64" t="n">
+      <c r="IT64" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="IU64" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -50245,8 +50437,11 @@
       <c r="IS65" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IT65" t="n">
+      <c r="IT65" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="IU65" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -51011,8 +51206,11 @@
       <c r="IS66" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IT66" t="n">
+      <c r="IT66" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IU66" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -51777,8 +51975,11 @@
       <c r="IS67" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IT67" t="n">
+      <c r="IT67" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IU67" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -52543,8 +52744,11 @@
       <c r="IS68" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IT68" t="n">
+      <c r="IT68" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IU68" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -53309,8 +53513,11 @@
       <c r="IS69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IT69" t="n">
+      <c r="IT69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IU69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -54075,8 +54282,11 @@
       <c r="IS70" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="IT70" t="n">
+      <c r="IT70" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IU70" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -54841,8 +55051,11 @@
       <c r="IS71" s="2" t="n">
         <v>62.5</v>
       </c>
-      <c r="IT71" t="n">
+      <c r="IT71" s="2" t="n">
         <v>68.8</v>
+      </c>
+      <c r="IU71" t="n">
+        <v>34.8</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -55607,8 +55820,11 @@
       <c r="IS72" s="2" t="n">
         <v>24.47</v>
       </c>
-      <c r="IT72" t="n">
+      <c r="IT72" s="2" t="n">
         <v>26.18</v>
+      </c>
+      <c r="IU72" t="n">
+        <v>45.5</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -56373,8 +56589,11 @@
       <c r="IS73" s="2" t="n">
         <v>15.29</v>
       </c>
-      <c r="IT73" t="n">
+      <c r="IT73" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IU73" t="n">
+        <v>15.83</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -57139,8 +57358,11 @@
       <c r="IS74" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IT74" t="n">
+      <c r="IT74" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="IU74" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -57905,7 +58127,10 @@
       <c r="IS75" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="IT75" t="n">
+      <c r="IT75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="IU75" t="n">
         <v>55</v>
       </c>
     </row>
@@ -58671,8 +58896,11 @@
       <c r="IS76" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="IT76" t="n">
+      <c r="IT76" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="IU76" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -59437,8 +59665,11 @@
       <c r="IS77" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="IT77" t="n">
+      <c r="IT77" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="IU77" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -60203,8 +60434,11 @@
       <c r="IS78" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IT78" t="n">
+      <c r="IT78" s="2" t="n">
         <v>2.81</v>
+      </c>
+      <c r="IU78" t="n">
+        <v>2.52</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -60969,8 +61203,11 @@
       <c r="IS79" s="2" t="n">
         <v>3.2</v>
       </c>
-      <c r="IT79" t="n">
+      <c r="IT79" s="2" t="n">
         <v>4.09</v>
+      </c>
+      <c r="IU79" t="n">
+        <v>7.25</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -61735,8 +61972,11 @@
       <c r="IS80" s="2" t="n">
         <v>47.9</v>
       </c>
-      <c r="IT80" t="n">
+      <c r="IT80" s="2" t="n">
         <v>33.3</v>
+      </c>
+      <c r="IU80" t="n">
+        <v>34.5</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -62501,8 +62741,11 @@
       <c r="IS81" s="2" t="n">
         <v>31.2</v>
       </c>
-      <c r="IT81" t="n">
+      <c r="IT81" s="2" t="n">
         <v>24.4</v>
+      </c>
+      <c r="IU81" t="n">
+        <v>13.8</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -63267,8 +63510,11 @@
       <c r="IS82" s="2" t="n">
         <v>186.9</v>
       </c>
-      <c r="IT82" t="n">
+      <c r="IT82" s="2" t="n">
         <v>189.1</v>
+      </c>
+      <c r="IU82" t="n">
+        <v>187.5</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -64033,8 +64279,11 @@
       <c r="IS83" s="2" t="n">
         <v>85.8</v>
       </c>
-      <c r="IT83" t="n">
+      <c r="IT83" s="2" t="n">
         <v>85.7</v>
+      </c>
+      <c r="IU83" t="n">
+        <v>86.40000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -64799,8 +65048,11 @@
       <c r="IS84" s="2" t="n">
         <v>26.58</v>
       </c>
-      <c r="IT84" t="n">
+      <c r="IT84" s="2" t="n">
         <v>24.66</v>
+      </c>
+      <c r="IU84" t="n">
+        <v>24.49</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -65565,8 +65817,11 @@
       <c r="IS85" s="2" t="n">
         <v>111.5</v>
       </c>
-      <c r="IT85" t="n">
+      <c r="IT85" s="2" t="n">
         <v>76.59999999999999</v>
+      </c>
+      <c r="IU85" t="n">
+        <v>70.09999999999999</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -66331,8 +66586,11 @@
       <c r="IS86" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IT86" t="n">
+      <c r="IT86" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IU86" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -67097,8 +67355,11 @@
       <c r="IS87" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IT87" t="n">
+      <c r="IT87" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IU87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -67863,8 +68124,11 @@
       <c r="IS88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IT88" t="n">
+      <c r="IT88" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IU88" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -68629,8 +68893,11 @@
       <c r="IS89" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IT89" t="n">
+      <c r="IT89" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IU89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -69395,8 +69662,11 @@
       <c r="IS90" s="2" t="n">
         <v>136</v>
       </c>
-      <c r="IT90" t="n">
+      <c r="IT90" s="2" t="n">
         <v>120</v>
+      </c>
+      <c r="IU90" t="n">
+        <v>149</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -70161,8 +70431,11 @@
       <c r="IS91" s="2" t="n">
         <v>226</v>
       </c>
-      <c r="IT91" t="n">
+      <c r="IT91" s="2" t="n">
         <v>163</v>
+      </c>
+      <c r="IU91" t="n">
+        <v>214</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -70927,8 +71200,11 @@
       <c r="IS92" s="2" t="n">
         <v>274</v>
       </c>
-      <c r="IT92" t="n">
+      <c r="IT92" s="2" t="n">
         <v>215</v>
+      </c>
+      <c r="IU92" t="n">
+        <v>261</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -71693,8 +71969,11 @@
       <c r="IS93" s="2" t="n">
         <v>74.7</v>
       </c>
-      <c r="IT93" t="n">
+      <c r="IT93" s="2" t="n">
         <v>74.7</v>
+      </c>
+      <c r="IU93" t="n">
+        <v>71.7</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -72459,7 +72738,10 @@
       <c r="IS94" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="IT94" t="n">
+      <c r="IT94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="IU94" t="n">
         <v>55</v>
       </c>
     </row>
@@ -73225,8 +73507,11 @@
       <c r="IS95" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IT95" t="n">
+      <c r="IT95" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IU95" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -73991,8 +74276,11 @@
       <c r="IS96" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IT96" t="n">
+      <c r="IT96" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IU96" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -74757,8 +75045,11 @@
       <c r="IS97" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IT97" t="n">
+      <c r="IT97" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="IU97" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -75523,8 +75814,11 @@
       <c r="IS98" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="IT98" t="n">
+      <c r="IT98" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="IU98" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -76289,8 +76583,11 @@
       <c r="IS99" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="IT99" t="n">
+      <c r="IT99" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="IU99" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -77055,8 +77352,11 @@
       <c r="IS100" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IT100" t="n">
+      <c r="IT100" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IU100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -77821,8 +78121,11 @@
       <c r="IS101" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IT101" t="n">
+      <c r="IT101" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IU101" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -78587,8 +78890,11 @@
       <c r="IS102" s="2" t="n">
         <v>33.3</v>
       </c>
-      <c r="IT102" t="n">
+      <c r="IT102" s="2" t="n">
         <v>54.5</v>
+      </c>
+      <c r="IU102" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="103" ht="13.8" customHeight="1" s="3"/>

--- a/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
+++ b/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IU102"/>
+  <dimension ref="A1:IW102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IB1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IL1" activeCellId="0" sqref="IL1"/>
@@ -1224,8 +1224,14 @@
       <c r="IT1" s="2" t="n">
         <v>10581</v>
       </c>
-      <c r="IU1" t="n">
+      <c r="IU1" s="2" t="n">
         <v>10590</v>
+      </c>
+      <c r="IV1" s="2" t="n">
+        <v>10605</v>
+      </c>
+      <c r="IW1" t="n">
+        <v>10607</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -1993,7 +1999,13 @@
       <c r="IT2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="IU2" t="n">
+      <c r="IU2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IV2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IW2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2762,8 +2774,14 @@
       <c r="IT3" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IU3" t="n">
+      <c r="IU3" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IV3" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3531,8 +3549,14 @@
       <c r="IT4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IU4" t="n">
+      <c r="IU4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IV4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4300,8 +4324,14 @@
       <c r="IT5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IU5" t="n">
+      <c r="IU5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IV5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5069,8 +5099,14 @@
       <c r="IT6" s="2" t="n">
         <v>139</v>
       </c>
-      <c r="IU6" t="n">
+      <c r="IU6" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="IV6" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="IW6" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -5838,8 +5874,14 @@
       <c r="IT7" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="IU7" t="n">
+      <c r="IU7" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="IV7" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="IW7" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -6607,8 +6649,14 @@
       <c r="IT8" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="IU8" t="n">
+      <c r="IU8" s="2" t="n">
         <v>-1</v>
+      </c>
+      <c r="IV8" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="IW8" t="n">
+        <v>-17</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7376,7 +7424,13 @@
       <c r="IT9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IU9" t="n">
+      <c r="IU9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IW9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8145,8 +8199,14 @@
       <c r="IT10" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IU10" t="n">
+      <c r="IU10" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IV10" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IW10" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -8914,8 +8974,14 @@
       <c r="IT11" s="2" t="n">
         <v>268</v>
       </c>
-      <c r="IU11" t="n">
+      <c r="IU11" s="2" t="n">
         <v>214</v>
+      </c>
+      <c r="IV11" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="IW11" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -9683,8 +9749,14 @@
       <c r="IT12" s="2" t="n">
         <v>159</v>
       </c>
-      <c r="IU12" t="n">
+      <c r="IU12" s="2" t="n">
         <v>153</v>
+      </c>
+      <c r="IV12" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="IW12" t="n">
+        <v>121</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -10452,8 +10524,14 @@
       <c r="IT13" s="2" t="n">
         <v>427</v>
       </c>
-      <c r="IU13" t="n">
+      <c r="IU13" s="2" t="n">
         <v>367</v>
+      </c>
+      <c r="IV13" s="2" t="n">
+        <v>380</v>
+      </c>
+      <c r="IW13" t="n">
+        <v>321</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -11221,8 +11299,14 @@
       <c r="IT14" s="2" t="n">
         <v>1.69</v>
       </c>
-      <c r="IU14" t="n">
+      <c r="IU14" s="2" t="n">
         <v>1.4</v>
+      </c>
+      <c r="IV14" s="2" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="IW14" t="n">
+        <v>1.65</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -11990,8 +12074,14 @@
       <c r="IT15" s="2" t="n">
         <v>124</v>
       </c>
-      <c r="IU15" t="n">
+      <c r="IU15" s="2" t="n">
         <v>81</v>
+      </c>
+      <c r="IV15" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="IW15" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -12759,8 +12849,14 @@
       <c r="IT16" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="IU16" t="n">
+      <c r="IU16" s="2" t="n">
         <v>78</v>
+      </c>
+      <c r="IV16" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="IW16" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -13528,8 +13624,14 @@
       <c r="IT17" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="IU17" t="n">
+      <c r="IU17" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="IV17" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="IW17" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -14297,8 +14399,14 @@
       <c r="IT18" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="IU18" t="n">
+      <c r="IU18" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="IV18" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="IW18" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -15066,8 +15174,14 @@
       <c r="IT19" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="IU19" t="n">
+      <c r="IU19" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IV19" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="IW19" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -15835,8 +15949,14 @@
       <c r="IT20" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="IU20" t="n">
+      <c r="IU20" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IV20" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="IW20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -16604,8 +16724,14 @@
       <c r="IT21" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IU21" t="n">
+      <c r="IU21" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IV21" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="IW21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -17373,8 +17499,14 @@
       <c r="IT22" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IU22" t="n">
+      <c r="IU22" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IV22" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IW22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -18142,8 +18274,14 @@
       <c r="IT23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IU23" t="n">
+      <c r="IU23" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IV23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IW23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -18911,8 +19049,14 @@
       <c r="IT24" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="IU24" t="n">
+      <c r="IU24" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="IV24" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="IW24" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -19680,8 +19824,14 @@
       <c r="IT25" s="2" t="n">
         <v>61.8</v>
       </c>
-      <c r="IU25" t="n">
+      <c r="IU25" s="2" t="n">
         <v>52.9</v>
+      </c>
+      <c r="IV25" s="2" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="IW25" t="n">
+        <v>52.6</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -20449,8 +20599,14 @@
       <c r="IT26" s="2" t="n">
         <v>20.33</v>
       </c>
-      <c r="IU26" t="n">
+      <c r="IU26" s="2" t="n">
         <v>40.78</v>
+      </c>
+      <c r="IV26" s="2" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="IW26" t="n">
+        <v>32.1</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -21218,8 +21374,14 @@
       <c r="IT27" s="2" t="n">
         <v>12.56</v>
       </c>
-      <c r="IU27" t="n">
+      <c r="IU27" s="2" t="n">
         <v>21.59</v>
+      </c>
+      <c r="IV27" s="2" t="n">
+        <v>16.52</v>
+      </c>
+      <c r="IW27" t="n">
+        <v>16.89</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -21987,8 +22149,14 @@
       <c r="IT28" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IU28" t="n">
+      <c r="IU28" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="IV28" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="IW28" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -22756,8 +22924,14 @@
       <c r="IT29" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="IU29" t="n">
+      <c r="IU29" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="IV29" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="IW29" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -23525,8 +23699,14 @@
       <c r="IT30" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="IU30" t="n">
+      <c r="IU30" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="IV30" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="IW30" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -24294,8 +24474,14 @@
       <c r="IT31" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="IU31" t="n">
+      <c r="IU31" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="IV31" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="IW31" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -25063,8 +25249,14 @@
       <c r="IT32" s="2" t="n">
         <v>1.97</v>
       </c>
-      <c r="IU32" t="n">
+      <c r="IU32" s="2" t="n">
         <v>2.53</v>
+      </c>
+      <c r="IV32" s="2" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="IW32" t="n">
+        <v>2.58</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -25832,8 +26024,14 @@
       <c r="IT33" s="2" t="n">
         <v>3.19</v>
       </c>
-      <c r="IU33" t="n">
+      <c r="IU33" s="2" t="n">
         <v>4.78</v>
+      </c>
+      <c r="IV33" s="2" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="IW33" t="n">
+        <v>4.9</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -26601,8 +26799,14 @@
       <c r="IT34" s="2" t="n">
         <v>47.8</v>
       </c>
-      <c r="IU34" t="n">
+      <c r="IU34" s="2" t="n">
         <v>32.6</v>
+      </c>
+      <c r="IV34" s="2" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="IW34" t="n">
+        <v>36.7</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -27370,8 +27574,14 @@
       <c r="IT35" s="2" t="n">
         <v>31.3</v>
       </c>
-      <c r="IU35" t="n">
+      <c r="IU35" s="2" t="n">
         <v>20.9</v>
+      </c>
+      <c r="IV35" s="2" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="IW35" t="n">
+        <v>20.4</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -28139,8 +28349,14 @@
       <c r="IT36" s="2" t="n">
         <v>187.6</v>
       </c>
-      <c r="IU36" t="n">
+      <c r="IU36" s="2" t="n">
         <v>188.3</v>
+      </c>
+      <c r="IV36" s="2" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="IW36" t="n">
+        <v>186.7</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -28908,8 +29124,14 @@
       <c r="IT37" s="2" t="n">
         <v>85.59999999999999</v>
       </c>
-      <c r="IU37" t="n">
+      <c r="IU37" s="2" t="n">
         <v>86.5</v>
+      </c>
+      <c r="IV37" s="2" t="n">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="IW37" t="n">
+        <v>84.8</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -29677,8 +29899,14 @@
       <c r="IT38" s="2" t="n">
         <v>25.33</v>
       </c>
-      <c r="IU38" t="n">
+      <c r="IU38" s="2" t="n">
         <v>25.74</v>
+      </c>
+      <c r="IV38" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="IW38" t="n">
+        <v>25.91</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -30446,8 +30674,14 @@
       <c r="IT39" s="2" t="n">
         <v>97.90000000000001</v>
       </c>
-      <c r="IU39" t="n">
+      <c r="IU39" s="2" t="n">
         <v>96.59999999999999</v>
+      </c>
+      <c r="IV39" s="2" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="IW39" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -31215,8 +31449,14 @@
       <c r="IT40" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IU40" t="n">
+      <c r="IU40" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IV40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IW40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -31984,8 +32224,14 @@
       <c r="IT41" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IU41" t="n">
+      <c r="IU41" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IV41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IW41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -32753,8 +32999,14 @@
       <c r="IT42" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IU42" t="n">
+      <c r="IU42" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IV42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IW42" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -33522,8 +33774,14 @@
       <c r="IT43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IU43" t="n">
+      <c r="IU43" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IV43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IW43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -34291,8 +34549,14 @@
       <c r="IT44" s="2" t="n">
         <v>156</v>
       </c>
-      <c r="IU44" t="n">
+      <c r="IU44" s="2" t="n">
         <v>145</v>
+      </c>
+      <c r="IV44" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="IW44" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -35060,8 +35324,14 @@
       <c r="IT45" s="2" t="n">
         <v>273</v>
       </c>
-      <c r="IU45" t="n">
+      <c r="IU45" s="2" t="n">
         <v>212</v>
+      </c>
+      <c r="IV45" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="IW45" t="n">
+        <v>178</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -35829,8 +36099,14 @@
       <c r="IT46" s="2" t="n">
         <v>336</v>
       </c>
-      <c r="IU46" t="n">
+      <c r="IU46" s="2" t="n">
         <v>271</v>
+      </c>
+      <c r="IV46" s="2" t="n">
+        <v>290</v>
+      </c>
+      <c r="IW46" t="n">
+        <v>231</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -36598,8 +36874,14 @@
       <c r="IT47" s="2" t="n">
         <v>78.7</v>
       </c>
-      <c r="IU47" t="n">
+      <c r="IU47" s="2" t="n">
         <v>73.8</v>
+      </c>
+      <c r="IV47" s="2" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="IW47" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -37367,8 +37649,14 @@
       <c r="IT48" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="IU48" t="n">
+      <c r="IU48" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="IV48" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="IW48" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -38136,8 +38424,14 @@
       <c r="IT49" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IU49" t="n">
+      <c r="IU49" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IV49" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IW49" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -38905,8 +39199,14 @@
       <c r="IT50" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IU50" t="n">
+      <c r="IU50" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IV50" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="IW50" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -39674,8 +39974,14 @@
       <c r="IT51" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IU51" t="n">
+      <c r="IU51" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="IV51" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="IW51" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -40443,8 +40749,14 @@
       <c r="IT52" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="IU52" t="n">
+      <c r="IU52" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="IV52" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="IW52" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -41212,8 +41524,14 @@
       <c r="IT53" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="IU53" t="n">
+      <c r="IU53" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="IV53" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="IW53" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -41981,8 +42299,14 @@
       <c r="IT54" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IU54" t="n">
+      <c r="IU54" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IV54" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="IW54" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -42750,8 +43074,14 @@
       <c r="IT55" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IU55" t="n">
+      <c r="IU55" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IV55" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="IW55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -43519,8 +43849,14 @@
       <c r="IT56" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="IU56" t="n">
+      <c r="IU56" s="2" t="n">
         <v>55.6</v>
+      </c>
+      <c r="IV56" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="IW56" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -44288,7 +44624,13 @@
       <c r="IT57" s="2" t="n">
         <v>172</v>
       </c>
-      <c r="IU57" t="n">
+      <c r="IU57" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="IV57" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="IW57" t="n">
         <v>206</v>
       </c>
     </row>
@@ -45057,8 +45399,14 @@
       <c r="IT58" s="2" t="n">
         <v>116</v>
       </c>
-      <c r="IU58" t="n">
+      <c r="IU58" s="2" t="n">
         <v>158</v>
+      </c>
+      <c r="IV58" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="IW58" t="n">
+        <v>127</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -45826,8 +46174,14 @@
       <c r="IT59" s="2" t="n">
         <v>288</v>
       </c>
-      <c r="IU59" t="n">
+      <c r="IU59" s="2" t="n">
         <v>364</v>
+      </c>
+      <c r="IV59" s="2" t="n">
+        <v>393</v>
+      </c>
+      <c r="IW59" t="n">
+        <v>333</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -46595,8 +46949,14 @@
       <c r="IT60" s="2" t="n">
         <v>1.48</v>
       </c>
-      <c r="IU60" t="n">
+      <c r="IU60" s="2" t="n">
         <v>1.3</v>
+      </c>
+      <c r="IV60" s="2" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="IW60" t="n">
+        <v>1.62</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -47364,8 +47724,14 @@
       <c r="IT61" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="IU61" t="n">
+      <c r="IU61" s="2" t="n">
         <v>91</v>
+      </c>
+      <c r="IV61" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="IW61" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -48133,8 +48499,14 @@
       <c r="IT62" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="IU62" t="n">
+      <c r="IU62" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="IV62" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="IW62" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -48902,8 +49274,14 @@
       <c r="IT63" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="IU63" t="n">
+      <c r="IU63" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="IV63" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="IW63" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -49671,8 +50049,14 @@
       <c r="IT64" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="IU64" t="n">
+      <c r="IU64" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IV64" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="IW64" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -50440,8 +50824,14 @@
       <c r="IT65" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="IU65" t="n">
+      <c r="IU65" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="IV65" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="IW65" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -51209,8 +51599,14 @@
       <c r="IT66" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IU66" t="n">
+      <c r="IU66" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IV66" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IW66" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -51978,8 +52374,14 @@
       <c r="IT67" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IU67" t="n">
+      <c r="IU67" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IV67" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IW67" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -52747,8 +53149,14 @@
       <c r="IT68" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IU68" t="n">
+      <c r="IU68" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IV68" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IW68" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -53516,8 +53924,14 @@
       <c r="IT69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IU69" t="n">
+      <c r="IU69" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IV69" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IW69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -54285,8 +54699,14 @@
       <c r="IT70" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IU70" t="n">
+      <c r="IU70" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="IV70" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="IW70" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -55054,8 +55474,14 @@
       <c r="IT71" s="2" t="n">
         <v>68.8</v>
       </c>
-      <c r="IU71" t="n">
+      <c r="IU71" s="2" t="n">
         <v>34.8</v>
+      </c>
+      <c r="IV71" s="2" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="IW71" t="n">
+        <v>46.2</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -55823,8 +56249,14 @@
       <c r="IT72" s="2" t="n">
         <v>26.18</v>
       </c>
-      <c r="IU72" t="n">
+      <c r="IU72" s="2" t="n">
         <v>45.5</v>
+      </c>
+      <c r="IV72" s="2" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="IW72" t="n">
+        <v>27.75</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -56592,8 +57024,14 @@
       <c r="IT73" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IU73" t="n">
+      <c r="IU73" s="2" t="n">
         <v>15.83</v>
+      </c>
+      <c r="IV73" s="2" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="IW73" t="n">
+        <v>12.81</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -57361,8 +57799,14 @@
       <c r="IT74" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="IU74" t="n">
+      <c r="IU74" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="IV74" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="IW74" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -58130,8 +58574,14 @@
       <c r="IT75" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="IU75" t="n">
+      <c r="IU75" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="IV75" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="IW75" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -58899,8 +59349,14 @@
       <c r="IT76" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="IU76" t="n">
+      <c r="IU76" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="IV76" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="IW76" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -59668,8 +60124,14 @@
       <c r="IT77" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="IU77" t="n">
+      <c r="IU77" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="IV77" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="IW77" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -60437,8 +60899,14 @@
       <c r="IT78" s="2" t="n">
         <v>2.81</v>
       </c>
-      <c r="IU78" t="n">
+      <c r="IU78" s="2" t="n">
         <v>2.52</v>
+      </c>
+      <c r="IV78" s="2" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="IW78" t="n">
+        <v>1.69</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -61206,8 +61674,14 @@
       <c r="IT79" s="2" t="n">
         <v>4.09</v>
       </c>
-      <c r="IU79" t="n">
+      <c r="IU79" s="2" t="n">
         <v>7.25</v>
+      </c>
+      <c r="IV79" s="2" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="IW79" t="n">
+        <v>3.67</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -61975,8 +62449,14 @@
       <c r="IT80" s="2" t="n">
         <v>33.3</v>
       </c>
-      <c r="IU80" t="n">
+      <c r="IU80" s="2" t="n">
         <v>34.5</v>
+      </c>
+      <c r="IV80" s="2" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="IW80" t="n">
+        <v>56.8</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -62744,8 +63224,14 @@
       <c r="IT81" s="2" t="n">
         <v>24.4</v>
       </c>
-      <c r="IU81" t="n">
+      <c r="IU81" s="2" t="n">
         <v>13.8</v>
+      </c>
+      <c r="IV81" s="2" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="IW81" t="n">
+        <v>27.3</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -63513,8 +63999,14 @@
       <c r="IT82" s="2" t="n">
         <v>189.1</v>
       </c>
-      <c r="IU82" t="n">
+      <c r="IU82" s="2" t="n">
         <v>187.5</v>
+      </c>
+      <c r="IV82" s="2" t="n">
+        <v>189.4</v>
+      </c>
+      <c r="IW82" t="n">
+        <v>188.3</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -64282,8 +64774,14 @@
       <c r="IT83" s="2" t="n">
         <v>85.7</v>
       </c>
-      <c r="IU83" t="n">
+      <c r="IU83" s="2" t="n">
         <v>86.40000000000001</v>
+      </c>
+      <c r="IV83" s="2" t="n">
+        <v>86.8</v>
+      </c>
+      <c r="IW83" t="n">
+        <v>87.5</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -65051,8 +65549,14 @@
       <c r="IT84" s="2" t="n">
         <v>24.66</v>
       </c>
-      <c r="IU84" t="n">
+      <c r="IU84" s="2" t="n">
         <v>24.49</v>
+      </c>
+      <c r="IV84" s="2" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="IW84" t="n">
+        <v>25.91</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -65820,8 +66324,14 @@
       <c r="IT85" s="2" t="n">
         <v>76.59999999999999</v>
       </c>
-      <c r="IU85" t="n">
+      <c r="IU85" s="2" t="n">
         <v>70.09999999999999</v>
+      </c>
+      <c r="IV85" s="2" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="IW85" t="n">
+        <v>109.7</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -66589,8 +67099,14 @@
       <c r="IT86" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IU86" t="n">
+      <c r="IU86" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IV86" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IW86" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -67358,8 +67874,14 @@
       <c r="IT87" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IU87" t="n">
+      <c r="IU87" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IV87" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IW87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -68127,8 +68649,14 @@
       <c r="IT88" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IU88" t="n">
+      <c r="IU88" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IV88" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IW88" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -68896,8 +69424,14 @@
       <c r="IT89" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IU89" t="n">
+      <c r="IU89" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IV89" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IW89" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -69665,8 +70199,14 @@
       <c r="IT90" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="IU90" t="n">
+      <c r="IU90" s="2" t="n">
         <v>149</v>
+      </c>
+      <c r="IV90" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="IW90" t="n">
+        <v>126</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -70434,8 +70974,14 @@
       <c r="IT91" s="2" t="n">
         <v>163</v>
       </c>
-      <c r="IU91" t="n">
+      <c r="IU91" s="2" t="n">
         <v>214</v>
+      </c>
+      <c r="IV91" s="2" t="n">
+        <v>257</v>
+      </c>
+      <c r="IW91" t="n">
+        <v>205</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -71203,8 +71749,14 @@
       <c r="IT92" s="2" t="n">
         <v>215</v>
       </c>
-      <c r="IU92" t="n">
+      <c r="IU92" s="2" t="n">
         <v>261</v>
+      </c>
+      <c r="IV92" s="2" t="n">
+        <v>312</v>
+      </c>
+      <c r="IW92" t="n">
+        <v>252</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -71972,8 +72524,14 @@
       <c r="IT93" s="2" t="n">
         <v>74.7</v>
       </c>
-      <c r="IU93" t="n">
+      <c r="IU93" s="2" t="n">
         <v>71.7</v>
+      </c>
+      <c r="IV93" s="2" t="n">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="IW93" t="n">
+        <v>75.7</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -72741,8 +73299,14 @@
       <c r="IT94" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="IU94" t="n">
+      <c r="IU94" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="IV94" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="IW94" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -73510,8 +74074,14 @@
       <c r="IT95" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IU95" t="n">
+      <c r="IU95" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IV95" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IW95" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -74279,8 +74849,14 @@
       <c r="IT96" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IU96" t="n">
+      <c r="IU96" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IV96" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IW96" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -75048,8 +75624,14 @@
       <c r="IT97" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="IU97" t="n">
+      <c r="IU97" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="IV97" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="IW97" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -75817,8 +76399,14 @@
       <c r="IT98" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="IU98" t="n">
+      <c r="IU98" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="IV98" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="IW98" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -76586,8 +77174,14 @@
       <c r="IT99" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="IU99" t="n">
+      <c r="IU99" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="IV99" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="IW99" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -77355,8 +77949,14 @@
       <c r="IT100" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IU100" t="n">
+      <c r="IU100" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IV100" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IW100" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -78124,8 +78724,14 @@
       <c r="IT101" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IU101" t="n">
+      <c r="IU101" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IV101" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IW101" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -78893,8 +79499,14 @@
       <c r="IT102" s="2" t="n">
         <v>54.5</v>
       </c>
-      <c r="IU102" t="n">
+      <c r="IU102" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="IV102" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="IW102" t="n">
+        <v>83.3</v>
       </c>
     </row>
     <row r="103" ht="13.8" customHeight="1" s="3"/>

--- a/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
+++ b/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IW102"/>
+  <dimension ref="A1:IY102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IB1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IL1" activeCellId="0" sqref="IL1"/>
@@ -1230,8 +1230,14 @@
       <c r="IV1" s="2" t="n">
         <v>10605</v>
       </c>
-      <c r="IW1" t="n">
+      <c r="IW1" s="2" t="n">
         <v>10607</v>
+      </c>
+      <c r="IX1" s="2" t="n">
+        <v>10616</v>
+      </c>
+      <c r="IY1" t="n">
+        <v>10631</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2005,7 +2011,13 @@
       <c r="IV2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="IW2" t="n">
+      <c r="IW2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IX2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IY2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2780,8 +2792,14 @@
       <c r="IV3" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IW3" t="n">
+      <c r="IW3" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IX3" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3555,8 +3573,14 @@
       <c r="IV4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IW4" t="n">
+      <c r="IW4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IX4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4330,7 +4354,13 @@
       <c r="IV5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IW5" t="n">
+      <c r="IW5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IY5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5105,8 +5135,14 @@
       <c r="IV6" s="2" t="n">
         <v>103</v>
       </c>
-      <c r="IW6" t="n">
+      <c r="IW6" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="IX6" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="IY6" t="n">
+        <v>106</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -5880,8 +5916,14 @@
       <c r="IV7" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="IW7" t="n">
+      <c r="IW7" s="2" t="n">
         <v>86</v>
+      </c>
+      <c r="IX7" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="IY7" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -6655,8 +6697,14 @@
       <c r="IV8" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="IW8" t="n">
+      <c r="IW8" s="2" t="n">
         <v>-17</v>
+      </c>
+      <c r="IX8" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="IY8" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7430,8 +7478,14 @@
       <c r="IV9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IW9" t="n">
+      <c r="IW9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IX9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IY9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -8205,8 +8259,14 @@
       <c r="IV10" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IW10" t="n">
+      <c r="IW10" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IX10" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IY10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -8980,8 +9040,14 @@
       <c r="IV11" s="2" t="n">
         <v>223</v>
       </c>
-      <c r="IW11" t="n">
+      <c r="IW11" s="2" t="n">
         <v>200</v>
+      </c>
+      <c r="IX11" s="2" t="n">
+        <v>269</v>
+      </c>
+      <c r="IY11" t="n">
+        <v>205</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -9755,8 +9821,14 @@
       <c r="IV12" s="2" t="n">
         <v>157</v>
       </c>
-      <c r="IW12" t="n">
+      <c r="IW12" s="2" t="n">
         <v>121</v>
+      </c>
+      <c r="IX12" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="IY12" t="n">
+        <v>160</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -10530,8 +10602,14 @@
       <c r="IV13" s="2" t="n">
         <v>380</v>
       </c>
-      <c r="IW13" t="n">
+      <c r="IW13" s="2" t="n">
         <v>321</v>
+      </c>
+      <c r="IX13" s="2" t="n">
+        <v>437</v>
+      </c>
+      <c r="IY13" t="n">
+        <v>365</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -11305,8 +11383,14 @@
       <c r="IV14" s="2" t="n">
         <v>1.42</v>
       </c>
-      <c r="IW14" t="n">
+      <c r="IW14" s="2" t="n">
         <v>1.65</v>
+      </c>
+      <c r="IX14" s="2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="IY14" t="n">
+        <v>1.28</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -12080,8 +12164,14 @@
       <c r="IV15" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="IW15" t="n">
+      <c r="IW15" s="2" t="n">
         <v>76</v>
+      </c>
+      <c r="IX15" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="IY15" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -12855,8 +12945,14 @@
       <c r="IV16" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="IW16" t="n">
+      <c r="IW16" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="IX16" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="IY16" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -13630,8 +13726,14 @@
       <c r="IV17" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="IW17" t="n">
+      <c r="IW17" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="IX17" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="IY17" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -14405,8 +14507,14 @@
       <c r="IV18" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="IW18" t="n">
+      <c r="IW18" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="IX18" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="IY18" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -15180,8 +15288,14 @@
       <c r="IV19" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IW19" t="n">
+      <c r="IW19" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="IX19" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="IY19" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -15955,8 +16069,14 @@
       <c r="IV20" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IW20" t="n">
+      <c r="IW20" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IX20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="IY20" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -16730,8 +16850,14 @@
       <c r="IV21" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IW21" t="n">
+      <c r="IW21" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IX21" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IY21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -17505,8 +17631,14 @@
       <c r="IV22" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IW22" t="n">
+      <c r="IW22" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IX22" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IY22" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -18280,7 +18412,13 @@
       <c r="IV23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IW23" t="n">
+      <c r="IW23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IX23" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IY23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -19055,8 +19193,14 @@
       <c r="IV24" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="IW24" t="n">
+      <c r="IW24" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IX24" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="IY24" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -19830,8 +19974,14 @@
       <c r="IV25" s="2" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="IW25" t="n">
+      <c r="IW25" s="2" t="n">
         <v>52.6</v>
+      </c>
+      <c r="IX25" s="2" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="IY25" t="n">
+        <v>48.4</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -20605,8 +20755,14 @@
       <c r="IV26" s="2" t="n">
         <v>23.75</v>
       </c>
-      <c r="IW26" t="n">
+      <c r="IW26" s="2" t="n">
         <v>32.1</v>
+      </c>
+      <c r="IX26" s="2" t="n">
+        <v>31.21</v>
+      </c>
+      <c r="IY26" t="n">
+        <v>24.33</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -21380,8 +21536,14 @@
       <c r="IV27" s="2" t="n">
         <v>16.52</v>
       </c>
-      <c r="IW27" t="n">
+      <c r="IW27" s="2" t="n">
         <v>16.89</v>
+      </c>
+      <c r="IX27" s="2" t="n">
+        <v>15.07</v>
+      </c>
+      <c r="IY27" t="n">
+        <v>11.77</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -22155,8 +22317,14 @@
       <c r="IV28" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="IW28" t="n">
+      <c r="IW28" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="IX28" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="IY28" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -22930,8 +23098,14 @@
       <c r="IV29" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="IW29" t="n">
+      <c r="IW29" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="IX29" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="IY29" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -23705,8 +23879,14 @@
       <c r="IV30" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="IW30" t="n">
+      <c r="IW30" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="IX30" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="IY30" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -24480,8 +24660,14 @@
       <c r="IV31" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="IW31" t="n">
+      <c r="IW31" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="IX31" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="IY31" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -25255,8 +25441,14 @@
       <c r="IV32" s="2" t="n">
         <v>2.87</v>
       </c>
-      <c r="IW32" t="n">
+      <c r="IW32" s="2" t="n">
         <v>2.58</v>
+      </c>
+      <c r="IX32" s="2" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="IY32" t="n">
+        <v>1.87</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -26030,8 +26222,14 @@
       <c r="IV33" s="2" t="n">
         <v>4.12</v>
       </c>
-      <c r="IW33" t="n">
+      <c r="IW33" s="2" t="n">
         <v>4.9</v>
+      </c>
+      <c r="IX33" s="2" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="IY33" t="n">
+        <v>3.87</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -26805,8 +27003,14 @@
       <c r="IV34" s="2" t="n">
         <v>33.3</v>
       </c>
-      <c r="IW34" t="n">
+      <c r="IW34" s="2" t="n">
         <v>36.7</v>
+      </c>
+      <c r="IX34" s="2" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="IY34" t="n">
+        <v>51.7</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -27580,8 +27784,14 @@
       <c r="IV35" s="2" t="n">
         <v>24.2</v>
       </c>
-      <c r="IW35" t="n">
+      <c r="IW35" s="2" t="n">
         <v>20.4</v>
+      </c>
+      <c r="IX35" s="2" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="IY35" t="n">
+        <v>25.9</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -28355,8 +28565,14 @@
       <c r="IV36" s="2" t="n">
         <v>187.7</v>
       </c>
-      <c r="IW36" t="n">
+      <c r="IW36" s="2" t="n">
         <v>186.7</v>
+      </c>
+      <c r="IX36" s="2" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="IY36" t="n">
+        <v>188.5</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -29130,8 +29346,14 @@
       <c r="IV37" s="2" t="n">
         <v>86.09999999999999</v>
       </c>
-      <c r="IW37" t="n">
+      <c r="IW37" s="2" t="n">
         <v>84.8</v>
+      </c>
+      <c r="IX37" s="2" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="IY37" t="n">
+        <v>86.7</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -29905,8 +30127,14 @@
       <c r="IV38" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="IW38" t="n">
+      <c r="IW38" s="2" t="n">
         <v>25.91</v>
+      </c>
+      <c r="IX38" s="2" t="n">
+        <v>25.24</v>
+      </c>
+      <c r="IY38" t="n">
+        <v>25.16</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -30680,8 +30908,14 @@
       <c r="IV39" s="2" t="n">
         <v>101.7</v>
       </c>
-      <c r="IW39" t="n">
+      <c r="IW39" s="2" t="n">
         <v>92</v>
+      </c>
+      <c r="IX39" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="IY39" t="n">
+        <v>81.2</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -31455,8 +31689,14 @@
       <c r="IV40" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IW40" t="n">
+      <c r="IW40" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IX40" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IY40" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -32230,8 +32470,14 @@
       <c r="IV41" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IW41" t="n">
+      <c r="IW41" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IX41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IY41" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -33005,8 +33251,14 @@
       <c r="IV42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IW42" t="n">
+      <c r="IW42" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IX42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IY42" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -33780,8 +34032,14 @@
       <c r="IV43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IW43" t="n">
+      <c r="IW43" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IX43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IY43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -34555,8 +34813,14 @@
       <c r="IV44" s="2" t="n">
         <v>145</v>
       </c>
-      <c r="IW44" t="n">
+      <c r="IW44" s="2" t="n">
         <v>130</v>
+      </c>
+      <c r="IX44" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="IY44" t="n">
+        <v>152</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -35330,8 +35594,14 @@
       <c r="IV45" s="2" t="n">
         <v>229</v>
       </c>
-      <c r="IW45" t="n">
+      <c r="IW45" s="2" t="n">
         <v>178</v>
+      </c>
+      <c r="IX45" s="2" t="n">
+        <v>286</v>
+      </c>
+      <c r="IY45" t="n">
+        <v>215</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -36105,8 +36375,14 @@
       <c r="IV46" s="2" t="n">
         <v>290</v>
       </c>
-      <c r="IW46" t="n">
+      <c r="IW46" s="2" t="n">
         <v>231</v>
+      </c>
+      <c r="IX46" s="2" t="n">
+        <v>337</v>
+      </c>
+      <c r="IY46" t="n">
+        <v>272</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -36880,8 +37156,14 @@
       <c r="IV47" s="2" t="n">
         <v>76.3</v>
       </c>
-      <c r="IW47" t="n">
+      <c r="IW47" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="IX47" s="2" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="IY47" t="n">
+        <v>74.5</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -37655,8 +37937,14 @@
       <c r="IV48" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="IW48" t="n">
+      <c r="IW48" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="IX48" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="IY48" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -38430,8 +38718,14 @@
       <c r="IV49" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IW49" t="n">
+      <c r="IW49" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IX49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IY49" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -39205,8 +39499,14 @@
       <c r="IV50" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IW50" t="n">
+      <c r="IW50" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IX50" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="IY50" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -39980,8 +40280,14 @@
       <c r="IV51" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="IW51" t="n">
+      <c r="IW51" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="IX51" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="IY51" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -40755,8 +41061,14 @@
       <c r="IV52" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="IW52" t="n">
+      <c r="IW52" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="IX52" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="IY52" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -41530,8 +41842,14 @@
       <c r="IV53" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="IW53" t="n">
+      <c r="IW53" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="IX53" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="IY53" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -42305,8 +42623,14 @@
       <c r="IV54" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IW54" t="n">
+      <c r="IW54" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IX54" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IY54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -43080,8 +43404,14 @@
       <c r="IV55" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IW55" t="n">
+      <c r="IW55" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IX55" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IY55" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -43855,8 +44185,14 @@
       <c r="IV56" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="IW56" t="n">
+      <c r="IW56" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="IX56" s="2" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="IY56" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -44630,8 +44966,14 @@
       <c r="IV57" s="2" t="n">
         <v>208</v>
       </c>
-      <c r="IW57" t="n">
+      <c r="IW57" s="2" t="n">
         <v>206</v>
+      </c>
+      <c r="IX57" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="IY57" t="n">
+        <v>209</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -45405,8 +45747,14 @@
       <c r="IV58" s="2" t="n">
         <v>185</v>
       </c>
-      <c r="IW58" t="n">
+      <c r="IW58" s="2" t="n">
         <v>127</v>
+      </c>
+      <c r="IX58" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="IY58" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -46180,8 +46528,14 @@
       <c r="IV59" s="2" t="n">
         <v>393</v>
       </c>
-      <c r="IW59" t="n">
+      <c r="IW59" s="2" t="n">
         <v>333</v>
+      </c>
+      <c r="IX59" s="2" t="n">
+        <v>323</v>
+      </c>
+      <c r="IY59" t="n">
+        <v>290</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -46955,8 +47309,14 @@
       <c r="IV60" s="2" t="n">
         <v>1.12</v>
       </c>
-      <c r="IW60" t="n">
+      <c r="IW60" s="2" t="n">
         <v>1.62</v>
+      </c>
+      <c r="IX60" s="2" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="IY60" t="n">
+        <v>2.58</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -47730,8 +48090,14 @@
       <c r="IV61" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="IW61" t="n">
+      <c r="IW61" s="2" t="n">
         <v>94</v>
+      </c>
+      <c r="IX61" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="IY61" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -48505,8 +48871,14 @@
       <c r="IV62" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="IW62" t="n">
+      <c r="IW62" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="IX62" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="IY62" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -49280,8 +49652,14 @@
       <c r="IV63" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="IW63" t="n">
+      <c r="IW63" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IX63" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="IY63" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -50055,8 +50433,14 @@
       <c r="IV64" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IW64" t="n">
+      <c r="IW64" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="IX64" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="IY64" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -50830,8 +51214,14 @@
       <c r="IV65" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="IW65" t="n">
+      <c r="IW65" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="IX65" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="IY65" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -51605,8 +51995,14 @@
       <c r="IV66" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IW66" t="n">
+      <c r="IW66" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IX66" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IY66" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -52380,8 +52776,14 @@
       <c r="IV67" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IW67" t="n">
+      <c r="IW67" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IX67" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IY67" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -53155,8 +53557,14 @@
       <c r="IV68" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IW68" t="n">
+      <c r="IW68" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IX68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IY68" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -53930,8 +54338,14 @@
       <c r="IV69" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IW69" t="n">
+      <c r="IW69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IX69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IY69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -54705,8 +55119,14 @@
       <c r="IV70" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="IW70" t="n">
+      <c r="IW70" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="IX70" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="IY70" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -55480,8 +55900,14 @@
       <c r="IV71" s="2" t="n">
         <v>47.6</v>
       </c>
-      <c r="IW71" t="n">
+      <c r="IW71" s="2" t="n">
         <v>46.2</v>
+      </c>
+      <c r="IX71" s="2" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="IY71" t="n">
+        <v>59.1</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -56255,8 +56681,14 @@
       <c r="IV72" s="2" t="n">
         <v>39.3</v>
       </c>
-      <c r="IW72" t="n">
+      <c r="IW72" s="2" t="n">
         <v>27.75</v>
+      </c>
+      <c r="IX72" s="2" t="n">
+        <v>46.14</v>
+      </c>
+      <c r="IY72" t="n">
+        <v>22.31</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -57030,8 +57462,14 @@
       <c r="IV73" s="2" t="n">
         <v>18.71</v>
       </c>
-      <c r="IW73" t="n">
+      <c r="IW73" s="2" t="n">
         <v>12.81</v>
+      </c>
+      <c r="IX73" s="2" t="n">
+        <v>20.19</v>
+      </c>
+      <c r="IY73" t="n">
+        <v>13.18</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -57805,8 +58243,14 @@
       <c r="IV74" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="IW74" t="n">
+      <c r="IW74" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="IX74" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="IY74" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -58580,8 +59024,14 @@
       <c r="IV75" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="IW75" t="n">
+      <c r="IW75" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="IX75" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="IY75" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -59355,8 +59805,14 @@
       <c r="IV76" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="IW76" t="n">
+      <c r="IW76" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="IX76" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="IY76" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -60130,8 +60586,14 @@
       <c r="IV77" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="IW77" t="n">
+      <c r="IW77" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="IX77" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="IY77" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -60905,8 +61367,14 @@
       <c r="IV78" s="2" t="n">
         <v>1.86</v>
       </c>
-      <c r="IW78" t="n">
+      <c r="IW78" s="2" t="n">
         <v>1.69</v>
+      </c>
+      <c r="IX78" s="2" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="IY78" t="n">
+        <v>2.55</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -61680,8 +62148,14 @@
       <c r="IV79" s="2" t="n">
         <v>3.9</v>
       </c>
-      <c r="IW79" t="n">
+      <c r="IW79" s="2" t="n">
         <v>3.67</v>
+      </c>
+      <c r="IX79" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="IY79" t="n">
+        <v>4.31</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -62455,8 +62929,14 @@
       <c r="IV80" s="2" t="n">
         <v>46.2</v>
       </c>
-      <c r="IW80" t="n">
+      <c r="IW80" s="2" t="n">
         <v>56.8</v>
+      </c>
+      <c r="IX80" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="IY80" t="n">
+        <v>39.3</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -63230,8 +63710,14 @@
       <c r="IV81" s="2" t="n">
         <v>25.6</v>
       </c>
-      <c r="IW81" t="n">
+      <c r="IW81" s="2" t="n">
         <v>27.3</v>
+      </c>
+      <c r="IX81" s="2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="IY81" t="n">
+        <v>23.2</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -64005,8 +64491,14 @@
       <c r="IV82" s="2" t="n">
         <v>189.4</v>
       </c>
-      <c r="IW82" t="n">
+      <c r="IW82" s="2" t="n">
         <v>188.3</v>
+      </c>
+      <c r="IX82" s="2" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="IY82" t="n">
+        <v>187.9</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -64780,8 +65272,14 @@
       <c r="IV83" s="2" t="n">
         <v>86.8</v>
       </c>
-      <c r="IW83" t="n">
+      <c r="IW83" s="2" t="n">
         <v>87.5</v>
+      </c>
+      <c r="IX83" s="2" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="IY83" t="n">
+        <v>85.90000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -65555,8 +66053,14 @@
       <c r="IV84" s="2" t="n">
         <v>24.8</v>
       </c>
-      <c r="IW84" t="n">
+      <c r="IW84" s="2" t="n">
         <v>25.91</v>
+      </c>
+      <c r="IX84" s="2" t="n">
+        <v>24.91</v>
+      </c>
+      <c r="IY84" t="n">
+        <v>25.41</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -66330,8 +66834,14 @@
       <c r="IV85" s="2" t="n">
         <v>71.7</v>
       </c>
-      <c r="IW85" t="n">
+      <c r="IW85" s="2" t="n">
         <v>109.7</v>
+      </c>
+      <c r="IX85" s="2" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="IY85" t="n">
+        <v>82.7</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -67105,8 +67615,14 @@
       <c r="IV86" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IW86" t="n">
+      <c r="IW86" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IX86" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IY86" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -67880,8 +68396,14 @@
       <c r="IV87" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IW87" t="n">
+      <c r="IW87" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IX87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IY87" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -68655,8 +69177,14 @@
       <c r="IV88" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IW88" t="n">
+      <c r="IW88" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IX88" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IY88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -69430,8 +69958,14 @@
       <c r="IV89" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IW89" t="n">
+      <c r="IW89" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IX89" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IY89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -70205,8 +70739,14 @@
       <c r="IV90" s="2" t="n">
         <v>142</v>
       </c>
-      <c r="IW90" t="n">
+      <c r="IW90" s="2" t="n">
         <v>126</v>
+      </c>
+      <c r="IX90" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="IY90" t="n">
+        <v>133</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -70980,8 +71520,14 @@
       <c r="IV91" s="2" t="n">
         <v>257</v>
       </c>
-      <c r="IW91" t="n">
+      <c r="IW91" s="2" t="n">
         <v>205</v>
+      </c>
+      <c r="IX91" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="IY91" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -71755,8 +72301,14 @@
       <c r="IV92" s="2" t="n">
         <v>312</v>
       </c>
-      <c r="IW92" t="n">
+      <c r="IW92" s="2" t="n">
         <v>252</v>
+      </c>
+      <c r="IX92" s="2" t="n">
+        <v>235</v>
+      </c>
+      <c r="IY92" t="n">
+        <v>198</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -72530,8 +73082,14 @@
       <c r="IV93" s="2" t="n">
         <v>79.40000000000001</v>
       </c>
-      <c r="IW93" t="n">
+      <c r="IW93" s="2" t="n">
         <v>75.7</v>
+      </c>
+      <c r="IX93" s="2" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="IY93" t="n">
+        <v>68.3</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -73305,8 +73863,14 @@
       <c r="IV94" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="IW94" t="n">
+      <c r="IW94" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="IX94" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="IY94" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -74080,8 +74644,14 @@
       <c r="IV95" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IW95" t="n">
+      <c r="IW95" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IX95" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IY95" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -74855,8 +75425,14 @@
       <c r="IV96" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IW96" t="n">
+      <c r="IW96" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="IX96" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IY96" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -75630,8 +76206,14 @@
       <c r="IV97" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="IW97" t="n">
+      <c r="IW97" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="IX97" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="IY97" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -76405,8 +76987,14 @@
       <c r="IV98" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="IW98" t="n">
+      <c r="IW98" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="IX98" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="IY98" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -77180,8 +77768,14 @@
       <c r="IV99" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="IW99" t="n">
+      <c r="IW99" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="IX99" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="IY99" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -77955,8 +78549,14 @@
       <c r="IV100" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IW100" t="n">
+      <c r="IW100" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IX100" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IY100" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -78730,8 +79330,14 @@
       <c r="IV101" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IW101" t="n">
+      <c r="IW101" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IX101" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IY101" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -79505,8 +80111,14 @@
       <c r="IV102" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="IW102" t="n">
+      <c r="IW102" s="2" t="n">
         <v>83.3</v>
+      </c>
+      <c r="IX102" s="2" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="IY102" t="n">
+        <v>53.8</v>
       </c>
     </row>
     <row r="103" ht="13.8" customHeight="1" s="3"/>

--- a/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
+++ b/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IY102"/>
+  <dimension ref="A1:JE102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IB1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IL1" activeCellId="0" sqref="IL1"/>
@@ -1236,8 +1236,26 @@
       <c r="IX1" s="2" t="n">
         <v>10616</v>
       </c>
-      <c r="IY1" t="n">
+      <c r="IY1" s="2" t="n">
         <v>10631</v>
+      </c>
+      <c r="IZ1" s="2" t="n">
+        <v>10642</v>
+      </c>
+      <c r="JA1" s="2" t="n">
+        <v>10645</v>
+      </c>
+      <c r="JB1" s="2" t="n">
+        <v>10656</v>
+      </c>
+      <c r="JC1" s="2" t="n">
+        <v>10667</v>
+      </c>
+      <c r="JD1" s="2" t="n">
+        <v>10670</v>
+      </c>
+      <c r="JE1" t="n">
+        <v>10685</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2017,7 +2035,25 @@
       <c r="IX2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="IY2" t="n">
+      <c r="IY2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IZ2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JA2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JB2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JC2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JD2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JE2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2798,8 +2834,26 @@
       <c r="IX3" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IY3" t="n">
+      <c r="IY3" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IZ3" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JA3" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JB3" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JC3" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JD3" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3579,8 +3633,26 @@
       <c r="IX4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IY4" t="n">
+      <c r="IY4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IZ4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JA4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JC4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4360,7 +4432,25 @@
       <c r="IX5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IY5" t="n">
+      <c r="IY5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JA5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JB5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JC5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5141,8 +5231,26 @@
       <c r="IX6" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="IY6" t="n">
+      <c r="IY6" s="2" t="n">
         <v>106</v>
+      </c>
+      <c r="IZ6" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="JA6" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="JB6" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="JC6" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="JD6" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="JE6" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -5922,8 +6030,26 @@
       <c r="IX7" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IY7" t="n">
+      <c r="IY7" s="2" t="n">
         <v>87</v>
+      </c>
+      <c r="IZ7" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="JA7" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="JB7" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="JC7" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="JD7" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="JE7" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -6703,8 +6829,26 @@
       <c r="IX8" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="IY8" t="n">
+      <c r="IY8" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IZ8" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="JA8" s="2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="JB8" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JC8" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JD8" s="2" t="n">
+        <v>-41</v>
+      </c>
+      <c r="JE8" t="n">
+        <v>-53</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7484,8 +7628,26 @@
       <c r="IX9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IY9" t="n">
+      <c r="IY9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IZ9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JC9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JD9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -8265,8 +8427,26 @@
       <c r="IX10" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IY10" t="n">
+      <c r="IY10" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IZ10" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JA10" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JB10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JC10" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JD10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JE10" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -9046,8 +9226,26 @@
       <c r="IX11" s="2" t="n">
         <v>269</v>
       </c>
-      <c r="IY11" t="n">
+      <c r="IY11" s="2" t="n">
         <v>205</v>
+      </c>
+      <c r="IZ11" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="JA11" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="JB11" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="JC11" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="JD11" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="JE11" t="n">
+        <v>185</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -9827,8 +10025,26 @@
       <c r="IX12" s="2" t="n">
         <v>168</v>
       </c>
-      <c r="IY12" t="n">
+      <c r="IY12" s="2" t="n">
         <v>160</v>
+      </c>
+      <c r="IZ12" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="JA12" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="JB12" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="JC12" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="JD12" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="JE12" t="n">
+        <v>154</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -10608,8 +10824,26 @@
       <c r="IX13" s="2" t="n">
         <v>437</v>
       </c>
-      <c r="IY13" t="n">
+      <c r="IY13" s="2" t="n">
         <v>365</v>
+      </c>
+      <c r="IZ13" s="2" t="n">
+        <v>398</v>
+      </c>
+      <c r="JA13" s="2" t="n">
+        <v>384</v>
+      </c>
+      <c r="JB13" s="2" t="n">
+        <v>386</v>
+      </c>
+      <c r="JC13" s="2" t="n">
+        <v>396</v>
+      </c>
+      <c r="JD13" s="2" t="n">
+        <v>345</v>
+      </c>
+      <c r="JE13" t="n">
+        <v>339</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -11389,8 +11623,26 @@
       <c r="IX14" s="2" t="n">
         <v>1.6</v>
       </c>
-      <c r="IY14" t="n">
+      <c r="IY14" s="2" t="n">
         <v>1.28</v>
+      </c>
+      <c r="IZ14" s="2" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="JA14" s="2" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="JB14" s="2" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="JC14" s="2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="JD14" s="2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="JE14" t="n">
+        <v>1.2</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -12170,8 +12422,26 @@
       <c r="IX15" s="2" t="n">
         <v>129</v>
       </c>
-      <c r="IY15" t="n">
+      <c r="IY15" s="2" t="n">
         <v>78</v>
+      </c>
+      <c r="IZ15" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="JA15" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="JB15" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="JC15" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="JD15" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="JE15" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -12951,8 +13221,26 @@
       <c r="IX16" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="IY16" t="n">
+      <c r="IY16" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="IZ16" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="JA16" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JB16" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="JC16" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="JD16" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="JE16" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -13732,8 +14020,26 @@
       <c r="IX17" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="IY17" t="n">
+      <c r="IY17" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="IZ17" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JA17" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JB17" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JC17" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JD17" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="JE17" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -14513,8 +14819,26 @@
       <c r="IX18" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="IY18" t="n">
+      <c r="IY18" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="IZ18" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="JA18" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JB18" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JC18" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JD18" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JE18" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -15294,8 +15618,26 @@
       <c r="IX19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IY19" t="n">
+      <c r="IY19" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="IZ19" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JA19" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JB19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JC19" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JD19" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JE19" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -16075,8 +16417,26 @@
       <c r="IX20" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IY20" t="n">
+      <c r="IY20" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IZ20" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="JA20" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JB20" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JC20" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JD20" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JE20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -16856,8 +17216,26 @@
       <c r="IX21" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IY21" t="n">
+      <c r="IY21" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IZ21" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JA21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JB21" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JC21" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JD21" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JE21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -17637,8 +18015,26 @@
       <c r="IX22" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IY22" t="n">
+      <c r="IY22" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IZ22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JA22" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JB22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JC22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JD22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JE22" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -18418,7 +18814,25 @@
       <c r="IX23" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IY23" t="n">
+      <c r="IY23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IZ23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JA23" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JB23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JC23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JD23" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JE23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -19199,8 +19613,26 @@
       <c r="IX24" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="IY24" t="n">
+      <c r="IY24" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="IZ24" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JA24" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JB24" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="JC24" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="JD24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JE24" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -19980,8 +20412,26 @@
       <c r="IX25" s="2" t="n">
         <v>48.3</v>
       </c>
-      <c r="IY25" t="n">
+      <c r="IY25" s="2" t="n">
         <v>48.4</v>
+      </c>
+      <c r="IZ25" s="2" t="n">
+        <v>69.40000000000001</v>
+      </c>
+      <c r="JA25" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JB25" s="2" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="JC25" s="2" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="JD25" s="2" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="JE25" t="n">
+        <v>40.9</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -20761,8 +21211,26 @@
       <c r="IX26" s="2" t="n">
         <v>31.21</v>
       </c>
-      <c r="IY26" t="n">
+      <c r="IY26" s="2" t="n">
         <v>24.33</v>
+      </c>
+      <c r="IZ26" s="2" t="n">
+        <v>15.92</v>
+      </c>
+      <c r="JA26" s="2" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="JB26" s="2" t="n">
+        <v>20.32</v>
+      </c>
+      <c r="JC26" s="2" t="n">
+        <v>20.84</v>
+      </c>
+      <c r="JD26" s="2" t="n">
+        <v>38.33</v>
+      </c>
+      <c r="JE26" t="n">
+        <v>37.67</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -21542,8 +22010,26 @@
       <c r="IX27" s="2" t="n">
         <v>15.07</v>
       </c>
-      <c r="IY27" t="n">
+      <c r="IY27" s="2" t="n">
         <v>11.77</v>
+      </c>
+      <c r="IZ27" s="2" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="JA27" s="2" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="JB27" s="2" t="n">
+        <v>12.87</v>
+      </c>
+      <c r="JC27" s="2" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="JD27" s="2" t="n">
+        <v>15.68</v>
+      </c>
+      <c r="JE27" t="n">
+        <v>15.41</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -22323,8 +22809,26 @@
       <c r="IX28" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="IY28" t="n">
+      <c r="IY28" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="IZ28" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JA28" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JB28" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="JC28" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JD28" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JE28" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -23104,8 +23608,26 @@
       <c r="IX29" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="IY29" t="n">
+      <c r="IY29" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="IZ29" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JA29" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="JB29" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JC29" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="JD29" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="JE29" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -23885,8 +24407,26 @@
       <c r="IX30" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="IY30" t="n">
+      <c r="IY30" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="IZ30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="JA30" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JB30" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JC30" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JD30" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JE30" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -24666,8 +25206,26 @@
       <c r="IX31" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="IY31" t="n">
+      <c r="IY31" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="IZ31" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="JA31" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="JB31" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="JC31" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="JD31" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="JE31" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -25447,8 +26005,26 @@
       <c r="IX32" s="2" t="n">
         <v>2.34</v>
       </c>
-      <c r="IY32" t="n">
+      <c r="IY32" s="2" t="n">
         <v>1.87</v>
+      </c>
+      <c r="IZ32" s="2" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="JA32" s="2" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="JB32" s="2" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="JC32" s="2" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="JD32" s="2" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="JE32" t="n">
+        <v>2.09</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -26228,8 +26804,26 @@
       <c r="IX33" s="2" t="n">
         <v>4.86</v>
       </c>
-      <c r="IY33" t="n">
+      <c r="IY33" s="2" t="n">
         <v>3.87</v>
+      </c>
+      <c r="IZ33" s="2" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="JA33" s="2" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="JB33" s="2" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="JC33" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JD33" s="2" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="JE33" t="n">
+        <v>5.11</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -27009,8 +27603,26 @@
       <c r="IX34" s="2" t="n">
         <v>36.8</v>
       </c>
-      <c r="IY34" t="n">
+      <c r="IY34" s="2" t="n">
         <v>51.7</v>
+      </c>
+      <c r="IZ34" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JA34" s="2" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="JB34" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="JC34" s="2" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="JD34" s="2" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="JE34" t="n">
+        <v>45.7</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -27790,8 +28402,26 @@
       <c r="IX35" s="2" t="n">
         <v>20.6</v>
       </c>
-      <c r="IY35" t="n">
+      <c r="IY35" s="2" t="n">
         <v>25.9</v>
+      </c>
+      <c r="IZ35" s="2" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="JA35" s="2" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="JB35" s="2" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="JC35" s="2" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="JD35" s="2" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="JE35" t="n">
+        <v>19.6</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -28571,8 +29201,26 @@
       <c r="IX36" s="2" t="n">
         <v>188.1</v>
       </c>
-      <c r="IY36" t="n">
+      <c r="IY36" s="2" t="n">
         <v>188.5</v>
+      </c>
+      <c r="IZ36" s="2" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="JA36" s="2" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="JB36" s="2" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="JC36" s="2" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="JD36" s="2" t="n">
+        <v>188.8</v>
+      </c>
+      <c r="JE36" t="n">
+        <v>188.8</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -29352,8 +30000,26 @@
       <c r="IX37" s="2" t="n">
         <v>86.40000000000001</v>
       </c>
-      <c r="IY37" t="n">
+      <c r="IY37" s="2" t="n">
         <v>86.7</v>
+      </c>
+      <c r="IZ37" s="2" t="n">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="JA37" s="2" t="n">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="JB37" s="2" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="JC37" s="2" t="n">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="JD37" s="2" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="JE37" t="n">
+        <v>86.40000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -30133,8 +30799,26 @@
       <c r="IX38" s="2" t="n">
         <v>25.24</v>
       </c>
-      <c r="IY38" t="n">
+      <c r="IY38" s="2" t="n">
         <v>25.16</v>
+      </c>
+      <c r="IZ38" s="2" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="JA38" s="2" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="JB38" s="2" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="JC38" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="JD38" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="JE38" t="n">
+        <v>25.49</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -30914,8 +31598,26 @@
       <c r="IX39" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="IY39" t="n">
+      <c r="IY39" s="2" t="n">
         <v>81.2</v>
+      </c>
+      <c r="IZ39" s="2" t="n">
+        <v>83.8</v>
+      </c>
+      <c r="JA39" s="2" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="JB39" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="JC39" s="2" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="JD39" s="2" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="JE39" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -31695,8 +32397,26 @@
       <c r="IX40" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IY40" t="n">
+      <c r="IY40" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IZ40" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JA40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JB40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JC40" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JD40" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JE40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -32476,8 +33196,26 @@
       <c r="IX41" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IY41" t="n">
+      <c r="IY41" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IZ41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JA41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JB41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JC41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JD41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JE41" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -33257,8 +33995,26 @@
       <c r="IX42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IY42" t="n">
+      <c r="IY42" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IZ42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JA42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JB42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JC42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JD42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JE42" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -34038,8 +34794,26 @@
       <c r="IX43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IY43" t="n">
+      <c r="IY43" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IZ43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JA43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JB43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JC43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JD43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JE43" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -34819,8 +35593,26 @@
       <c r="IX44" s="2" t="n">
         <v>146</v>
       </c>
-      <c r="IY44" t="n">
+      <c r="IY44" s="2" t="n">
         <v>152</v>
+      </c>
+      <c r="IZ44" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="JA44" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="JB44" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="JC44" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="JD44" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="JE44" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -35600,8 +36392,26 @@
       <c r="IX45" s="2" t="n">
         <v>286</v>
       </c>
-      <c r="IY45" t="n">
+      <c r="IY45" s="2" t="n">
         <v>215</v>
+      </c>
+      <c r="IZ45" s="2" t="n">
+        <v>255</v>
+      </c>
+      <c r="JA45" s="2" t="n">
+        <v>252</v>
+      </c>
+      <c r="JB45" s="2" t="n">
+        <v>236</v>
+      </c>
+      <c r="JC45" s="2" t="n">
+        <v>248</v>
+      </c>
+      <c r="JD45" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="JE45" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -36381,8 +37191,26 @@
       <c r="IX46" s="2" t="n">
         <v>337</v>
       </c>
-      <c r="IY46" t="n">
+      <c r="IY46" s="2" t="n">
         <v>272</v>
+      </c>
+      <c r="IZ46" s="2" t="n">
+        <v>316</v>
+      </c>
+      <c r="JA46" s="2" t="n">
+        <v>295</v>
+      </c>
+      <c r="JB46" s="2" t="n">
+        <v>285</v>
+      </c>
+      <c r="JC46" s="2" t="n">
+        <v>303</v>
+      </c>
+      <c r="JD46" s="2" t="n">
+        <v>241</v>
+      </c>
+      <c r="JE46" t="n">
+        <v>232</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -37162,8 +37990,26 @@
       <c r="IX47" s="2" t="n">
         <v>77.09999999999999</v>
       </c>
-      <c r="IY47" t="n">
+      <c r="IY47" s="2" t="n">
         <v>74.5</v>
+      </c>
+      <c r="IZ47" s="2" t="n">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="JA47" s="2" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="JB47" s="2" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="JC47" s="2" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="JD47" s="2" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="JE47" t="n">
+        <v>68.40000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -37943,8 +38789,26 @@
       <c r="IX48" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="IY48" t="n">
+      <c r="IY48" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="IZ48" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JA48" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="JB48" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JC48" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="JD48" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="JE48" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -38724,8 +39588,26 @@
       <c r="IX49" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IY49" t="n">
+      <c r="IY49" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IZ49" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JA49" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JB49" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JC49" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JD49" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JE49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -39505,8 +40387,26 @@
       <c r="IX50" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IY50" t="n">
+      <c r="IY50" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IZ50" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JA50" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JB50" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JC50" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JD50" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JE50" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -40286,8 +41186,26 @@
       <c r="IX51" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="IY51" t="n">
+      <c r="IY51" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="IZ51" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JA51" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JB51" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="JC51" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JD51" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JE51" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -41067,8 +41985,26 @@
       <c r="IX52" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="IY52" t="n">
+      <c r="IY52" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="IZ52" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="JA52" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JB52" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JC52" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JD52" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JE52" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -41848,8 +42784,26 @@
       <c r="IX53" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="IY53" t="n">
+      <c r="IY53" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="IZ53" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JA53" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="JB53" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JC53" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="JD53" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JE53" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -42629,7 +43583,25 @@
       <c r="IX54" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IY54" t="n">
+      <c r="IY54" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IZ54" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JA54" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JB54" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JC54" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JD54" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JE54" t="n">
         <v>3</v>
       </c>
     </row>
@@ -43410,8 +44382,26 @@
       <c r="IX55" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IY55" t="n">
+      <c r="IY55" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IZ55" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JA55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JB55" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JC55" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JD55" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JE55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -44191,7 +45181,25 @@
       <c r="IX56" s="2" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="IY56" t="n">
+      <c r="IY56" s="2" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="IZ56" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="JA56" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="JB56" s="2" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="JC56" s="2" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="JD56" s="2" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="JE56" t="n">
         <v>66.7</v>
       </c>
     </row>
@@ -44972,8 +45980,26 @@
       <c r="IX57" s="2" t="n">
         <v>183</v>
       </c>
-      <c r="IY57" t="n">
+      <c r="IY57" s="2" t="n">
         <v>209</v>
+      </c>
+      <c r="IZ57" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="JA57" s="2" t="n">
+        <v>238</v>
+      </c>
+      <c r="JB57" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="JC57" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="JD57" s="2" t="n">
+        <v>243</v>
+      </c>
+      <c r="JE57" t="n">
+        <v>225</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -45753,8 +46779,26 @@
       <c r="IX58" s="2" t="n">
         <v>140</v>
       </c>
-      <c r="IY58" t="n">
+      <c r="IY58" s="2" t="n">
         <v>81</v>
+      </c>
+      <c r="IZ58" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="JA58" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="JB58" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="JC58" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="JD58" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="JE58" t="n">
+        <v>149</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -46534,8 +47578,26 @@
       <c r="IX59" s="2" t="n">
         <v>323</v>
       </c>
-      <c r="IY59" t="n">
+      <c r="IY59" s="2" t="n">
         <v>290</v>
+      </c>
+      <c r="IZ59" s="2" t="n">
+        <v>328</v>
+      </c>
+      <c r="JA59" s="2" t="n">
+        <v>357</v>
+      </c>
+      <c r="JB59" s="2" t="n">
+        <v>355</v>
+      </c>
+      <c r="JC59" s="2" t="n">
+        <v>355</v>
+      </c>
+      <c r="JD59" s="2" t="n">
+        <v>344</v>
+      </c>
+      <c r="JE59" t="n">
+        <v>374</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -47315,8 +48377,26 @@
       <c r="IX60" s="2" t="n">
         <v>1.31</v>
       </c>
-      <c r="IY60" t="n">
+      <c r="IY60" s="2" t="n">
         <v>2.58</v>
+      </c>
+      <c r="IZ60" s="2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="JA60" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JB60" s="2" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="JC60" s="2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="JD60" s="2" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="JE60" t="n">
+        <v>1.51</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -48096,8 +49176,26 @@
       <c r="IX61" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="IY61" t="n">
+      <c r="IY61" s="2" t="n">
         <v>86</v>
+      </c>
+      <c r="IZ61" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="JA61" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="JB61" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="JC61" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="JD61" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="JE61" t="n">
+        <v>99</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -48877,8 +49975,26 @@
       <c r="IX62" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="IY62" t="n">
+      <c r="IY62" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="IZ62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="JA62" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="JB62" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="JC62" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="JD62" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="JE62" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -49658,8 +50774,26 @@
       <c r="IX63" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="IY63" t="n">
+      <c r="IY63" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="IZ63" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JA63" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JB63" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JC63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JD63" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JE63" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -50439,8 +51573,26 @@
       <c r="IX64" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IY64" t="n">
+      <c r="IY64" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="IZ64" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JA64" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JB64" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JC64" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JD64" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JE64" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -51220,8 +52372,26 @@
       <c r="IX65" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="IY65" t="n">
+      <c r="IY65" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="IZ65" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="JA65" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JB65" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JC65" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JD65" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JE65" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -52001,8 +53171,26 @@
       <c r="IX66" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IY66" t="n">
+      <c r="IY66" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IZ66" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JA66" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JB66" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JC66" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JD66" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JE66" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -52782,8 +53970,26 @@
       <c r="IX67" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IY67" t="n">
+      <c r="IY67" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IZ67" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JA67" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JB67" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JC67" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JD67" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JE67" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -53563,8 +54769,26 @@
       <c r="IX68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IY68" t="n">
+      <c r="IY68" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IZ68" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JA68" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JB68" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JC68" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JD68" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JE68" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -54344,8 +55568,26 @@
       <c r="IX69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IY69" t="n">
+      <c r="IY69" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IZ69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JA69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JB69" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JC69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JD69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JE69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -55125,8 +56367,26 @@
       <c r="IX70" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IY70" t="n">
+      <c r="IY70" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="IZ70" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JA70" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JB70" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="JC70" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JD70" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="JE70" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -55906,8 +57166,26 @@
       <c r="IX71" s="2" t="n">
         <v>43.8</v>
       </c>
-      <c r="IY71" t="n">
+      <c r="IY71" s="2" t="n">
         <v>59.1</v>
+      </c>
+      <c r="IZ71" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="JA71" s="2" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="JB71" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="JC71" s="2" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="JD71" s="2" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="JE71" t="n">
+        <v>48.6</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -56687,8 +57965,26 @@
       <c r="IX72" s="2" t="n">
         <v>46.14</v>
       </c>
-      <c r="IY72" t="n">
+      <c r="IY72" s="2" t="n">
         <v>22.31</v>
+      </c>
+      <c r="IZ72" s="2" t="n">
+        <v>36.44</v>
+      </c>
+      <c r="JA72" s="2" t="n">
+        <v>29.75</v>
+      </c>
+      <c r="JB72" s="2" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="JC72" s="2" t="n">
+        <v>29.58</v>
+      </c>
+      <c r="JD72" s="2" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="JE72" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -57468,8 +58764,26 @@
       <c r="IX73" s="2" t="n">
         <v>20.19</v>
       </c>
-      <c r="IY73" t="n">
+      <c r="IY73" s="2" t="n">
         <v>13.18</v>
+      </c>
+      <c r="IZ73" s="2" t="n">
+        <v>21.87</v>
+      </c>
+      <c r="JA73" s="2" t="n">
+        <v>15.52</v>
+      </c>
+      <c r="JB73" s="2" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="JC73" s="2" t="n">
+        <v>15.43</v>
+      </c>
+      <c r="JD73" s="2" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="JE73" t="n">
+        <v>10.69</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -58249,8 +59563,26 @@
       <c r="IX74" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="IY74" t="n">
+      <c r="IY74" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="IZ74" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="JA74" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="JB74" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JC74" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="JD74" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="JE74" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -59030,8 +60362,26 @@
       <c r="IX75" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="IY75" t="n">
+      <c r="IY75" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="IZ75" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="JA75" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="JB75" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="JC75" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="JD75" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JE75" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -59811,8 +61161,26 @@
       <c r="IX76" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IY76" t="n">
+      <c r="IY76" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="IZ76" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JA76" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JB76" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="JC76" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JD76" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JE76" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -60592,8 +61960,26 @@
       <c r="IX77" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="IY77" t="n">
+      <c r="IY77" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="IZ77" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JA77" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JB77" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="JC77" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JD77" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JE77" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -61373,8 +62759,26 @@
       <c r="IX78" s="2" t="n">
         <v>2.88</v>
       </c>
-      <c r="IY78" t="n">
+      <c r="IY78" s="2" t="n">
         <v>2.55</v>
+      </c>
+      <c r="IZ78" s="2" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="JA78" s="2" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="JB78" s="2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="JC78" s="2" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="JD78" s="2" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="JE78" t="n">
+        <v>1.66</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -62154,8 +63558,26 @@
       <c r="IX79" s="2" t="n">
         <v>6.57</v>
       </c>
-      <c r="IY79" t="n">
+      <c r="IY79" s="2" t="n">
         <v>4.31</v>
+      </c>
+      <c r="IZ79" s="2" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="JA79" s="2" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="JB79" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="JC79" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JD79" s="2" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="JE79" t="n">
+        <v>3.41</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -62935,8 +64357,26 @@
       <c r="IX80" s="2" t="n">
         <v>30.4</v>
       </c>
-      <c r="IY80" t="n">
+      <c r="IY80" s="2" t="n">
         <v>39.3</v>
+      </c>
+      <c r="IZ80" s="2" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="JA80" s="2" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="JB80" s="2" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="JC80" s="2" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="JD80" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="JE80" t="n">
+        <v>56.9</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -63716,8 +65156,26 @@
       <c r="IX81" s="2" t="n">
         <v>15.2</v>
       </c>
-      <c r="IY81" t="n">
+      <c r="IY81" s="2" t="n">
         <v>23.2</v>
+      </c>
+      <c r="IZ81" s="2" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="JA81" s="2" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="JB81" s="2" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="JC81" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="JD81" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="JE81" t="n">
+        <v>29.3</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -64497,8 +65955,26 @@
       <c r="IX82" s="2" t="n">
         <v>188.2</v>
       </c>
-      <c r="IY82" t="n">
+      <c r="IY82" s="2" t="n">
         <v>187.9</v>
+      </c>
+      <c r="IZ82" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="JA82" s="2" t="n">
+        <v>187.4</v>
+      </c>
+      <c r="JB82" s="2" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="JC82" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="JD82" s="2" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="JE82" t="n">
+        <v>187.6</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -65278,8 +66754,26 @@
       <c r="IX83" s="2" t="n">
         <v>85.7</v>
       </c>
-      <c r="IY83" t="n">
+      <c r="IY83" s="2" t="n">
         <v>85.90000000000001</v>
+      </c>
+      <c r="IZ83" s="2" t="n">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="JA83" s="2" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="JB83" s="2" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="JC83" s="2" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="JD83" s="2" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="JE83" t="n">
+        <v>86.7</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -66059,8 +67553,26 @@
       <c r="IX84" s="2" t="n">
         <v>24.91</v>
       </c>
-      <c r="IY84" t="n">
+      <c r="IY84" s="2" t="n">
         <v>25.41</v>
+      </c>
+      <c r="IZ84" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="JA84" s="2" t="n">
+        <v>27.91</v>
+      </c>
+      <c r="JB84" s="2" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="JC84" s="2" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="JD84" s="2" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="JE84" t="n">
+        <v>25.58</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -66840,8 +68352,26 @@
       <c r="IX85" s="2" t="n">
         <v>83.90000000000001</v>
       </c>
-      <c r="IY85" t="n">
+      <c r="IY85" s="2" t="n">
         <v>82.7</v>
+      </c>
+      <c r="IZ85" s="2" t="n">
+        <v>105.3</v>
+      </c>
+      <c r="JA85" s="2" t="n">
+        <v>144.3</v>
+      </c>
+      <c r="JB85" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="JC85" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="JD85" s="2" t="n">
+        <v>110.1</v>
+      </c>
+      <c r="JE85" t="n">
+        <v>109</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -67621,8 +69151,26 @@
       <c r="IX86" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IY86" t="n">
+      <c r="IY86" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IZ86" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JA86" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JB86" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JC86" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JD86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JE86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -68402,7 +69950,25 @@
       <c r="IX87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IY87" t="n">
+      <c r="IY87" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IZ87" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JA87" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JB87" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JC87" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JD87" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JE87" t="n">
         <v>6</v>
       </c>
     </row>
@@ -69183,7 +70749,25 @@
       <c r="IX88" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IY88" t="n">
+      <c r="IY88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IZ88" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JA88" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JB88" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JC88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JD88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JE88" t="n">
         <v>5</v>
       </c>
     </row>
@@ -69964,8 +71548,26 @@
       <c r="IX89" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IY89" t="n">
+      <c r="IY89" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IZ89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JA89" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JB89" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JC89" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JD89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JE89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -70745,8 +72347,26 @@
       <c r="IX90" s="2" t="n">
         <v>106</v>
       </c>
-      <c r="IY90" t="n">
+      <c r="IY90" s="2" t="n">
         <v>133</v>
+      </c>
+      <c r="IZ90" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="JA90" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="JB90" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="JC90" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="JD90" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="JE90" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -71526,8 +73146,26 @@
       <c r="IX91" s="2" t="n">
         <v>202</v>
       </c>
-      <c r="IY91" t="n">
+      <c r="IY91" s="2" t="n">
         <v>150</v>
+      </c>
+      <c r="IZ91" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="JA91" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="JB91" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="JC91" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="JD91" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="JE91" t="n">
+        <v>225</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -72307,8 +73945,26 @@
       <c r="IX92" s="2" t="n">
         <v>235</v>
       </c>
-      <c r="IY92" t="n">
+      <c r="IY92" s="2" t="n">
         <v>198</v>
+      </c>
+      <c r="IZ92" s="2" t="n">
+        <v>259</v>
+      </c>
+      <c r="JA92" s="2" t="n">
+        <v>263</v>
+      </c>
+      <c r="JB92" s="2" t="n">
+        <v>280</v>
+      </c>
+      <c r="JC92" s="2" t="n">
+        <v>258</v>
+      </c>
+      <c r="JD92" s="2" t="n">
+        <v>263</v>
+      </c>
+      <c r="JE92" t="n">
+        <v>277</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -73088,8 +74744,26 @@
       <c r="IX93" s="2" t="n">
         <v>72.8</v>
       </c>
-      <c r="IY93" t="n">
+      <c r="IY93" s="2" t="n">
         <v>68.3</v>
+      </c>
+      <c r="IZ93" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="JA93" s="2" t="n">
+        <v>73.7</v>
+      </c>
+      <c r="JB93" s="2" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="JC93" s="2" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="JD93" s="2" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="JE93" t="n">
+        <v>74.09999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -73869,8 +75543,26 @@
       <c r="IX94" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="IY94" t="n">
+      <c r="IY94" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="IZ94" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="JA94" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="JB94" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="JC94" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="JD94" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JE94" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -74650,8 +76342,26 @@
       <c r="IX95" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IY95" t="n">
+      <c r="IY95" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IZ95" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JA95" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JB95" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JC95" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JD95" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JE95" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -75431,8 +77141,26 @@
       <c r="IX96" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IY96" t="n">
+      <c r="IY96" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IZ96" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JA96" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JB96" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JC96" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JD96" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JE96" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -76212,8 +77940,26 @@
       <c r="IX97" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="IY97" t="n">
+      <c r="IY97" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="IZ97" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="JA97" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="JB97" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JC97" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="JD97" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="JE97" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -76993,8 +78739,26 @@
       <c r="IX98" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IY98" t="n">
+      <c r="IY98" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="IZ98" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JA98" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JB98" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="JC98" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JD98" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JE98" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -77774,8 +79538,26 @@
       <c r="IX99" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="IY99" t="n">
+      <c r="IY99" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="IZ99" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JA99" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JB99" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JC99" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="JD99" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JE99" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -78555,8 +80337,26 @@
       <c r="IX100" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IY100" t="n">
+      <c r="IY100" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IZ100" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JA100" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JB100" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JC100" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JD100" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JE100" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -79336,8 +81136,26 @@
       <c r="IX101" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IY101" t="n">
+      <c r="IY101" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IZ101" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JA101" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JB101" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JC101" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JD101" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JE101" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -80117,8 +81935,26 @@
       <c r="IX102" s="2" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="IY102" t="n">
+      <c r="IY102" s="2" t="n">
         <v>53.8</v>
+      </c>
+      <c r="IZ102" s="2" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="JA102" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="JB102" s="2" t="n">
+        <v>81.2</v>
+      </c>
+      <c r="JC102" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="JD102" s="2" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="JE102" t="n">
+        <v>64.7</v>
       </c>
     </row>
     <row r="103" ht="13.8" customHeight="1" s="3"/>

--- a/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
+++ b/django_AFL_ML/Data/Western Bulldogs_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JM102"/>
+  <dimension ref="A1:JN102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IB1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IL1" activeCellId="0" sqref="IL1"/>
@@ -1278,8 +1278,11 @@
       <c r="JL1" s="2" t="n">
         <v>10730</v>
       </c>
-      <c r="JM1" t="n">
+      <c r="JM1" s="2" t="n">
         <v>10738</v>
+      </c>
+      <c r="JN1" t="n">
+        <v>10745</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2101,7 +2104,10 @@
       <c r="JL2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="JM2" t="n">
+      <c r="JM2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JN2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2924,8 +2930,11 @@
       <c r="JL3" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="JM3" t="n">
+      <c r="JM3" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3747,7 +3756,10 @@
       <c r="JL4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JM4" t="n">
+      <c r="JM4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JN4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4570,8 +4582,11 @@
       <c r="JL5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JM5" t="n">
+      <c r="JM5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JN5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5393,8 +5408,11 @@
       <c r="JL6" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="JM6" t="n">
+      <c r="JM6" s="2" t="n">
         <v>87</v>
+      </c>
+      <c r="JN6" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6216,8 +6234,11 @@
       <c r="JL7" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="JM7" t="n">
+      <c r="JM7" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="JN7" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7039,8 +7060,11 @@
       <c r="JL8" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JM8" t="n">
+      <c r="JM8" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="JN8" t="n">
+        <v>-13</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7862,8 +7886,11 @@
       <c r="JL9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JM9" t="n">
+      <c r="JM9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JN9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -8685,8 +8712,11 @@
       <c r="JL10" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JM10" t="n">
+      <c r="JM10" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JN10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -9508,8 +9538,11 @@
       <c r="JL11" s="2" t="n">
         <v>205</v>
       </c>
-      <c r="JM11" t="n">
+      <c r="JM11" s="2" t="n">
         <v>236</v>
+      </c>
+      <c r="JN11" t="n">
+        <v>225</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -10331,8 +10364,11 @@
       <c r="JL12" s="2" t="n">
         <v>174</v>
       </c>
-      <c r="JM12" t="n">
+      <c r="JM12" s="2" t="n">
         <v>152</v>
+      </c>
+      <c r="JN12" t="n">
+        <v>145</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -11154,8 +11190,11 @@
       <c r="JL13" s="2" t="n">
         <v>379</v>
       </c>
-      <c r="JM13" t="n">
+      <c r="JM13" s="2" t="n">
         <v>388</v>
+      </c>
+      <c r="JN13" t="n">
+        <v>370</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -11977,7 +12016,10 @@
       <c r="JL14" s="2" t="n">
         <v>1.18</v>
       </c>
-      <c r="JM14" t="n">
+      <c r="JM14" s="2" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="JN14" t="n">
         <v>1.55</v>
       </c>
     </row>
@@ -12800,8 +12842,11 @@
       <c r="JL15" s="2" t="n">
         <v>91</v>
       </c>
-      <c r="JM15" t="n">
+      <c r="JM15" s="2" t="n">
         <v>100</v>
+      </c>
+      <c r="JN15" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -13623,8 +13668,11 @@
       <c r="JL16" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JM16" t="n">
+      <c r="JM16" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="JN16" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -14446,8 +14494,11 @@
       <c r="JL17" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="JM17" t="n">
+      <c r="JM17" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="JN17" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -15269,8 +15320,11 @@
       <c r="JL18" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JM18" t="n">
+      <c r="JM18" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="JN18" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -16092,8 +16146,11 @@
       <c r="JL19" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JM19" t="n">
+      <c r="JM19" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="JN19" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -16915,8 +16972,11 @@
       <c r="JL20" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JM20" t="n">
+      <c r="JM20" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JN20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -17738,8 +17798,11 @@
       <c r="JL21" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JM21" t="n">
+      <c r="JM21" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JN21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -18561,8 +18624,11 @@
       <c r="JL22" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JM22" t="n">
+      <c r="JM22" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JN22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -19384,7 +19450,10 @@
       <c r="JL23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JM23" t="n">
+      <c r="JM23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JN23" t="n">
         <v>3</v>
       </c>
     </row>
@@ -20207,8 +20276,11 @@
       <c r="JL24" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JM24" t="n">
+      <c r="JM24" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="JN24" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -21030,8 +21102,11 @@
       <c r="JL25" s="2" t="n">
         <v>52.9</v>
       </c>
-      <c r="JM25" t="n">
+      <c r="JM25" s="2" t="n">
         <v>44.4</v>
+      </c>
+      <c r="JN25" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -21853,8 +21928,11 @@
       <c r="JL26" s="2" t="n">
         <v>42.11</v>
       </c>
-      <c r="JM26" t="n">
+      <c r="JM26" s="2" t="n">
         <v>32.33</v>
+      </c>
+      <c r="JN26" t="n">
+        <v>46.25</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -22676,8 +22754,11 @@
       <c r="JL27" s="2" t="n">
         <v>22.29</v>
       </c>
-      <c r="JM27" t="n">
+      <c r="JM27" s="2" t="n">
         <v>14.37</v>
+      </c>
+      <c r="JN27" t="n">
+        <v>18.5</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -23499,8 +23580,11 @@
       <c r="JL28" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="JM28" t="n">
+      <c r="JM28" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="JN28" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -24322,8 +24406,11 @@
       <c r="JL29" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="JM29" t="n">
+      <c r="JM29" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="JN29" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -25145,8 +25232,11 @@
       <c r="JL30" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="JM30" t="n">
+      <c r="JM30" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="JN30" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -25968,8 +26058,11 @@
       <c r="JL31" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="JM31" t="n">
+      <c r="JM31" s="2" t="n">
         <v>71</v>
+      </c>
+      <c r="JN31" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -26791,8 +26884,11 @@
       <c r="JL32" s="2" t="n">
         <v>2.82</v>
       </c>
-      <c r="JM32" t="n">
+      <c r="JM32" s="2" t="n">
         <v>2.63</v>
+      </c>
+      <c r="JN32" t="n">
+        <v>2.65</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -27614,8 +27710,11 @@
       <c r="JL33" s="2" t="n">
         <v>5.33</v>
       </c>
-      <c r="JM33" t="n">
+      <c r="JM33" s="2" t="n">
         <v>5.92</v>
+      </c>
+      <c r="JN33" t="n">
+        <v>6.62</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -28437,8 +28536,11 @@
       <c r="JL34" s="2" t="n">
         <v>33.3</v>
       </c>
-      <c r="JM34" t="n">
+      <c r="JM34" s="2" t="n">
         <v>33.8</v>
+      </c>
+      <c r="JN34" t="n">
+        <v>32.1</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -29260,8 +29362,11 @@
       <c r="JL35" s="2" t="n">
         <v>18.8</v>
       </c>
-      <c r="JM35" t="n">
+      <c r="JM35" s="2" t="n">
         <v>16.9</v>
+      </c>
+      <c r="JN35" t="n">
+        <v>15.1</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -30083,8 +30188,11 @@
       <c r="JL36" s="2" t="n">
         <v>189</v>
       </c>
-      <c r="JM36" t="n">
+      <c r="JM36" s="2" t="n">
         <v>188.8</v>
+      </c>
+      <c r="JN36" t="n">
+        <v>188.6</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -30906,7 +31014,10 @@
       <c r="JL37" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="JM37" t="n">
+      <c r="JM37" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="JN37" t="n">
         <v>86</v>
       </c>
     </row>
@@ -31729,8 +31840,11 @@
       <c r="JL38" s="2" t="n">
         <v>25.8</v>
       </c>
-      <c r="JM38" t="n">
+      <c r="JM38" s="2" t="n">
         <v>25.49</v>
+      </c>
+      <c r="JN38" t="n">
+        <v>25.33</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -32552,8 +32666,11 @@
       <c r="JL39" s="2" t="n">
         <v>101.8</v>
       </c>
-      <c r="JM39" t="n">
+      <c r="JM39" s="2" t="n">
         <v>106.3</v>
+      </c>
+      <c r="JN39" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -33375,7 +33492,10 @@
       <c r="JL40" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JM40" t="n">
+      <c r="JM40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JN40" t="n">
         <v>7</v>
       </c>
     </row>
@@ -34198,8 +34318,11 @@
       <c r="JL41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JM41" t="n">
+      <c r="JM41" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JN41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -35021,8 +35144,11 @@
       <c r="JL42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JM42" t="n">
+      <c r="JM42" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JN42" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -35844,8 +35970,11 @@
       <c r="JL43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JM43" t="n">
+      <c r="JM43" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JN43" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -36667,8 +36796,11 @@
       <c r="JL44" s="2" t="n">
         <v>132</v>
       </c>
-      <c r="JM44" t="n">
+      <c r="JM44" s="2" t="n">
         <v>153</v>
+      </c>
+      <c r="JN44" t="n">
+        <v>155</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -37490,8 +37622,11 @@
       <c r="JL45" s="2" t="n">
         <v>251</v>
       </c>
-      <c r="JM45" t="n">
+      <c r="JM45" s="2" t="n">
         <v>239</v>
+      </c>
+      <c r="JN45" t="n">
+        <v>221</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -38313,8 +38448,11 @@
       <c r="JL46" s="2" t="n">
         <v>291</v>
       </c>
-      <c r="JM46" t="n">
+      <c r="JM46" s="2" t="n">
         <v>285</v>
+      </c>
+      <c r="JN46" t="n">
+        <v>267</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -39136,8 +39274,11 @@
       <c r="JL47" s="2" t="n">
         <v>76.8</v>
       </c>
-      <c r="JM47" t="n">
+      <c r="JM47" s="2" t="n">
         <v>73.5</v>
+      </c>
+      <c r="JN47" t="n">
+        <v>72.2</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -39959,8 +40100,11 @@
       <c r="JL48" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="JM48" t="n">
+      <c r="JM48" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="JN48" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -40782,8 +40926,11 @@
       <c r="JL49" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JM49" t="n">
+      <c r="JM49" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JN49" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -41605,8 +41752,11 @@
       <c r="JL50" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JM50" t="n">
+      <c r="JM50" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="JN50" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -42428,8 +42578,11 @@
       <c r="JL51" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="JM51" t="n">
+      <c r="JM51" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="JN51" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -43251,8 +43404,11 @@
       <c r="JL52" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="JM52" t="n">
+      <c r="JM52" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="JN52" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -44074,8 +44230,11 @@
       <c r="JL53" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="JM53" t="n">
+      <c r="JM53" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="JN53" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -44897,8 +45056,11 @@
       <c r="JL54" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JM54" t="n">
+      <c r="JM54" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JN54" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -45720,8 +45882,11 @@
       <c r="JL55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JM55" t="n">
+      <c r="JM55" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JN55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -46543,8 +46708,11 @@
       <c r="JL56" s="2" t="n">
         <v>77.8</v>
       </c>
-      <c r="JM56" t="n">
+      <c r="JM56" s="2" t="n">
         <v>58.3</v>
+      </c>
+      <c r="JN56" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -47366,8 +47534,11 @@
       <c r="JL57" s="2" t="n">
         <v>274</v>
       </c>
-      <c r="JM57" t="n">
+      <c r="JM57" s="2" t="n">
         <v>240</v>
+      </c>
+      <c r="JN57" t="n">
+        <v>230</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -48189,8 +48360,11 @@
       <c r="JL58" s="2" t="n">
         <v>154</v>
       </c>
-      <c r="JM58" t="n">
+      <c r="JM58" s="2" t="n">
         <v>117</v>
+      </c>
+      <c r="JN58" t="n">
+        <v>169</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -49012,8 +49186,11 @@
       <c r="JL59" s="2" t="n">
         <v>428</v>
       </c>
-      <c r="JM59" t="n">
+      <c r="JM59" s="2" t="n">
         <v>357</v>
+      </c>
+      <c r="JN59" t="n">
+        <v>399</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -49835,8 +50012,11 @@
       <c r="JL60" s="2" t="n">
         <v>1.78</v>
       </c>
-      <c r="JM60" t="n">
+      <c r="JM60" s="2" t="n">
         <v>2.05</v>
+      </c>
+      <c r="JN60" t="n">
+        <v>1.36</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -50658,8 +50838,11 @@
       <c r="JL61" s="2" t="n">
         <v>165</v>
       </c>
-      <c r="JM61" t="n">
+      <c r="JM61" s="2" t="n">
         <v>127</v>
+      </c>
+      <c r="JN61" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -51481,7 +51664,10 @@
       <c r="JL62" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="JM62" t="n">
+      <c r="JM62" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="JN62" t="n">
         <v>57</v>
       </c>
     </row>
@@ -52304,8 +52490,11 @@
       <c r="JL63" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="JM63" t="n">
+      <c r="JM63" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="JN63" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -53127,8 +53316,11 @@
       <c r="JL64" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JM64" t="n">
+      <c r="JM64" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="JN64" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -53950,8 +54142,11 @@
       <c r="JL65" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JM65" t="n">
+      <c r="JM65" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="JN65" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -54773,8 +54968,11 @@
       <c r="JL66" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JM66" t="n">
+      <c r="JM66" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JN66" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -55596,8 +55794,11 @@
       <c r="JL67" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JM67" t="n">
+      <c r="JM67" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JN67" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -56419,8 +56620,11 @@
       <c r="JL68" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JM68" t="n">
+      <c r="JM68" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JN68" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -57242,8 +57446,11 @@
       <c r="JL69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JM69" t="n">
+      <c r="JM69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JN69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -58065,8 +58272,11 @@
       <c r="JL70" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JM70" t="n">
+      <c r="JM70" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="JN70" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -58888,8 +59098,11 @@
       <c r="JL71" s="2" t="n">
         <v>47.1</v>
       </c>
-      <c r="JM71" t="n">
+      <c r="JM71" s="2" t="n">
         <v>71.40000000000001</v>
+      </c>
+      <c r="JN71" t="n">
+        <v>61.1</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -59711,8 +59924,11 @@
       <c r="JL72" s="2" t="n">
         <v>53.5</v>
       </c>
-      <c r="JM72" t="n">
+      <c r="JM72" s="2" t="n">
         <v>35.7</v>
+      </c>
+      <c r="JN72" t="n">
+        <v>36.27</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -60534,8 +60750,11 @@
       <c r="JL73" s="2" t="n">
         <v>25.18</v>
       </c>
-      <c r="JM73" t="n">
+      <c r="JM73" s="2" t="n">
         <v>25.5</v>
+      </c>
+      <c r="JN73" t="n">
+        <v>22.17</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -61357,8 +61576,11 @@
       <c r="JL74" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="JM74" t="n">
+      <c r="JM74" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="JN74" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -62180,8 +62402,11 @@
       <c r="JL75" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="JM75" t="n">
+      <c r="JM75" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="JN75" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -63003,8 +63228,11 @@
       <c r="JL76" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="JM76" t="n">
+      <c r="JM76" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="JN76" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -63826,8 +64054,11 @@
       <c r="JL77" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="JM77" t="n">
+      <c r="JM77" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="JN77" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -64649,8 +64880,11 @@
       <c r="JL78" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JM78" t="n">
+      <c r="JM78" s="2" t="n">
         <v>2.79</v>
+      </c>
+      <c r="JN78" t="n">
+        <v>3.44</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -65472,8 +65706,11 @@
       <c r="JL79" s="2" t="n">
         <v>6.38</v>
       </c>
-      <c r="JM79" t="n">
+      <c r="JM79" s="2" t="n">
         <v>3.9</v>
+      </c>
+      <c r="JN79" t="n">
+        <v>5.64</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -66295,8 +66532,11 @@
       <c r="JL80" s="2" t="n">
         <v>31.4</v>
       </c>
-      <c r="JM80" t="n">
+      <c r="JM80" s="2" t="n">
         <v>33.3</v>
+      </c>
+      <c r="JN80" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -67118,8 +67358,11 @@
       <c r="JL81" s="2" t="n">
         <v>15.7</v>
       </c>
-      <c r="JM81" t="n">
+      <c r="JM81" s="2" t="n">
         <v>25.6</v>
+      </c>
+      <c r="JN81" t="n">
+        <v>17.7</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -67941,8 +68184,11 @@
       <c r="JL82" s="2" t="n">
         <v>190</v>
       </c>
-      <c r="JM82" t="n">
+      <c r="JM82" s="2" t="n">
         <v>188.4</v>
+      </c>
+      <c r="JN82" t="n">
+        <v>188.9</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -68764,8 +69010,11 @@
       <c r="JL83" s="2" t="n">
         <v>89.09999999999999</v>
       </c>
-      <c r="JM83" t="n">
+      <c r="JM83" s="2" t="n">
         <v>84.59999999999999</v>
+      </c>
+      <c r="JN83" t="n">
+        <v>87.40000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -69587,8 +69836,11 @@
       <c r="JL84" s="2" t="n">
         <v>25.74</v>
       </c>
-      <c r="JM84" t="n">
+      <c r="JM84" s="2" t="n">
         <v>24.16</v>
+      </c>
+      <c r="JN84" t="n">
+        <v>24.66</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -70410,8 +70662,11 @@
       <c r="JL85" s="2" t="n">
         <v>91.5</v>
       </c>
-      <c r="JM85" t="n">
+      <c r="JM85" s="2" t="n">
         <v>78</v>
+      </c>
+      <c r="JN85" t="n">
+        <v>85.2</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -71233,8 +71488,11 @@
       <c r="JL86" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JM86" t="n">
+      <c r="JM86" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JN86" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -72056,8 +72314,11 @@
       <c r="JL87" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JM87" t="n">
+      <c r="JM87" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JN87" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -72879,8 +73140,11 @@
       <c r="JL88" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JM88" t="n">
+      <c r="JM88" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JN88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -73702,8 +73966,11 @@
       <c r="JL89" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JM89" t="n">
+      <c r="JM89" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JN89" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -74525,8 +74792,11 @@
       <c r="JL90" s="2" t="n">
         <v>115</v>
       </c>
-      <c r="JM90" t="n">
+      <c r="JM90" s="2" t="n">
         <v>128</v>
+      </c>
+      <c r="JN90" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -75348,8 +75618,11 @@
       <c r="JL91" s="2" t="n">
         <v>304</v>
       </c>
-      <c r="JM91" t="n">
+      <c r="JM91" s="2" t="n">
         <v>223</v>
+      </c>
+      <c r="JN91" t="n">
+        <v>244</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -76171,8 +76444,11 @@
       <c r="JL92" s="2" t="n">
         <v>338</v>
       </c>
-      <c r="JM92" t="n">
+      <c r="JM92" s="2" t="n">
         <v>265</v>
+      </c>
+      <c r="JN92" t="n">
+        <v>298</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -76994,8 +77270,11 @@
       <c r="JL93" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="JM93" t="n">
+      <c r="JM93" s="2" t="n">
         <v>74.2</v>
+      </c>
+      <c r="JN93" t="n">
+        <v>74.7</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -77817,8 +78096,11 @@
       <c r="JL94" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="JM94" t="n">
+      <c r="JM94" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="JN94" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -78640,8 +78922,11 @@
       <c r="JL95" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JM95" t="n">
+      <c r="JM95" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JN95" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -79463,7 +79748,10 @@
       <c r="JL96" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JM96" t="n">
+      <c r="JM96" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JN96" t="n">
         <v>12</v>
       </c>
     </row>
@@ -80286,8 +80574,11 @@
       <c r="JL97" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="JM97" t="n">
+      <c r="JM97" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="JN97" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -81109,8 +81400,11 @@
       <c r="JL98" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="JM98" t="n">
+      <c r="JM98" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="JN98" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -81932,8 +82226,11 @@
       <c r="JL99" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="JM99" t="n">
+      <c r="JM99" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="JN99" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -82755,8 +83052,11 @@
       <c r="JL100" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JM100" t="n">
+      <c r="JM100" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JN100" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -83578,8 +83878,11 @@
       <c r="JL101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JM101" t="n">
+      <c r="JM101" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JN101" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -84401,8 +84704,11 @@
       <c r="JL102" s="2" t="n">
         <v>87.5</v>
       </c>
-      <c r="JM102" t="n">
+      <c r="JM102" s="2" t="n">
         <v>90</v>
+      </c>
+      <c r="JN102" t="n">
+        <v>63.6</v>
       </c>
     </row>
     <row r="103" ht="13.8" customHeight="1" s="3"/>
